--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -66,12 +66,6 @@
 int32</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
-      <text>
-        <t>triggerEventId
-int64</t>
-      </text>
-    </comment>
     <comment ref="J1" authorId="1">
       <text>
         <t>isImportant
@@ -214,6 +208,12 @@
       <text>
         <t>image
 string</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="1">
+      <text>
+        <t>emergencyId
+int64</t>
       </text>
     </comment>
   </commentList>
@@ -356,8 +356,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -400,16 +401,16 @@
     <col min="21" max="21" customWidth="true" style="1" width="12.0" collapsed="true"/>
     <col min="22" max="22" customWidth="true" style="1" width="10.0" collapsed="true"/>
     <col min="23" max="23" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="2" width="11.0" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" style="2" width="11.0" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" style="2" width="11.0" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" style="2" width="24.0" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" style="2" width="24.0" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" style="2" width="24.0" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" style="2" width="24.0" collapsed="false"/>
-    <col min="31" max="31" customWidth="true" style="2" width="24.0" collapsed="false"/>
-    <col min="32" max="32" customWidth="true" style="2" width="24.0" collapsed="false"/>
-    <col min="33" max="33" style="3" width="8.0" customWidth="false"/>
+    <col min="24" max="24" customWidth="true" style="2" width="11.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="2" width="11.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="2" width="11.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="2" width="24.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="2" width="24.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="2" width="24.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="2" width="24.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="2" width="24.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="2" width="24.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="false" style="3" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UGit\CatClub\ExcelConfig\pbjson\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork Source\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B386591-5D0A-44EF-BF64-B923FE6B50DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3337954E-EE4F-4D49-BDE2-8ABAE9C78079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2460" windowWidth="31920" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -666,7 +666,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>event.jpg</t>
+    <t>Sprites/Main/4 刺探事件卡片.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,9 +716,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1035,11 +1035,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="8" style="1" collapsed="1"/>
     <col min="4" max="5" width="9" style="1" customWidth="1" collapsed="1"/>
@@ -1061,7 +1061,7 @@
     <col min="33" max="33" width="8" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork Source\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3337954E-EE4F-4D49-BDE2-8ABAE9C78079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFF0351-3CDB-4CA1-BA45-09AF92CA6B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,7 +666,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/Main/4 刺探事件卡片.png</t>
+    <t>Sprites/Main/4 刺探事件卡片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork Source\CatClub\ExcelConfig\pbjson\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFF0351-3CDB-4CA1-BA45-09AF92CA6B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1C2A5-1CE7-4E3E-B1C3-74864BA5D56B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14715" yWindow="5130" windowWidth="19290" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -667,6 +667,10 @@
   </si>
   <si>
     <t>Sprites/Main/4 刺探事件卡片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,11 +1039,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="8" style="1" collapsed="1"/>
     <col min="4" max="5" width="9" style="1" customWidth="1" collapsed="1"/>
@@ -1061,7 +1065,7 @@
     <col min="33" max="33" width="8" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1188,7 +1192,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>41</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1C2A5-1CE7-4E3E-B1C3-74864BA5D56B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F833CD36-C69F-4F8C-AA0C-5603B805F123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14715" yWindow="5130" windowWidth="19290" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="5295" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -505,17 +505,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>image
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>imageout
+string</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>imageIn
 string</t>
         </r>
       </text>
@@ -623,9 +638,6 @@
     <t>销毁条件组@2.conditions</t>
   </si>
   <si>
-    <t>图片</t>
-  </si>
-  <si>
     <t>1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -666,12 +678,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/Main/4 刺探事件卡片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部图片</t>
+  </si>
+  <si>
+    <t>内部图片</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1062,10 +1076,10 @@
     <col min="23" max="23" width="12" style="1" customWidth="1" collapsed="1"/>
     <col min="24" max="26" width="11" style="2" customWidth="1" collapsed="1"/>
     <col min="27" max="32" width="24" style="2" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="8" style="3"/>
+    <col min="33" max="34" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1163,45 +1177,45 @@
         <v>31</v>
       </c>
       <c r="AG1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F833CD36-C69F-4F8C-AA0C-5603B805F123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97575029-F911-48D6-A808-98E745204DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="5295" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="5865" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -638,61 +638,57 @@
     <t>销毁条件组@2.conditions</t>
   </si>
   <si>
-    <t>1000</t>
+    <t>外部图片</t>
+  </si>
+  <si>
+    <t>内部图片</t>
+  </si>
+  <si>
+    <t>猫咪监视</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月下之盟</t>
+    <t>[0,0,41000]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
+    <t>[0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,41001]</t>
+  </si>
+  <si>
+    <t>[0,0,41002]</t>
+  </si>
+  <si>
+    <t>猫咪陪伴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30</t>
+    <t>[0,0,41003]</t>
+  </si>
+  <si>
+    <t>猫咪入住</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-1</t>
+    <t>[0,41005,41004]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000</t>
+    <t>猫咪洗脑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
+    <t>[0,41007,41006]</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部图片</t>
-  </si>
-  <si>
-    <t>内部图片</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -707,21 +703,72 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79967650379955446"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -730,13 +777,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1051,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1177,46 +1240,623 @@
         <v>31</v>
       </c>
       <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>11000</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>20000</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>200</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8">
+        <v>31000</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8">
+        <v>0</v>
+      </c>
+      <c r="U2" s="8">
+        <v>0</v>
+      </c>
+      <c r="V2" s="8">
+        <v>0</v>
+      </c>
+      <c r="W2" s="8">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>11000</v>
+      </c>
+      <c r="AH2" s="5"/>
+    </row>
+    <row r="3" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>11001</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>200</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>31001</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0</v>
+      </c>
+      <c r="T3" s="8">
+        <v>0</v>
+      </c>
+      <c r="U3" s="8">
+        <v>0</v>
+      </c>
+      <c r="V3" s="8">
+        <v>0</v>
+      </c>
+      <c r="W3" s="8">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>11000</v>
+      </c>
+      <c r="AH3" s="5"/>
+    </row>
+    <row r="4" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>11002</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>200</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>31002</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0</v>
+      </c>
+      <c r="W4" s="8">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>11000</v>
+      </c>
+      <c r="AH4" s="5"/>
+    </row>
+    <row r="5" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>11003</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>190</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>31003</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+      <c r="T5" s="8">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>11003</v>
+      </c>
+      <c r="AH5" s="5"/>
+    </row>
+    <row r="6" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>11004</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>180</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>31004</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>11004</v>
+      </c>
+      <c r="AH6" s="5"/>
+    </row>
+    <row r="7" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>11005</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>250</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>31005</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="AB7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>11005</v>
+      </c>
+      <c r="AH7" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97575029-F911-48D6-A808-98E745204DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037B1B31-AA45-402F-8817-39809E8E1BFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="5865" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -682,6 +682,9 @@
   <si>
     <t>[0,41007,41006]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Main/4 刺探事件卡片</t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1343,8 +1346,8 @@
       <c r="AF2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="5">
-        <v>11000</v>
+      <c r="AG2" t="s">
+        <v>45</v>
       </c>
       <c r="AH2" s="5"/>
     </row>
@@ -1445,8 +1448,8 @@
       <c r="AF3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="5">
-        <v>11000</v>
+      <c r="AG3" t="s">
+        <v>45</v>
       </c>
       <c r="AH3" s="5"/>
     </row>
@@ -1547,8 +1550,8 @@
       <c r="AF4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AG4" s="5">
-        <v>11000</v>
+      <c r="AG4" t="s">
+        <v>45</v>
       </c>
       <c r="AH4" s="5"/>
     </row>
@@ -1649,8 +1652,8 @@
       <c r="AF5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AG5" s="5">
-        <v>11003</v>
+      <c r="AG5" t="s">
+        <v>45</v>
       </c>
       <c r="AH5" s="5"/>
     </row>
@@ -1751,8 +1754,8 @@
       <c r="AF6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AG6" s="5">
-        <v>11004</v>
+      <c r="AG6" t="s">
+        <v>45</v>
       </c>
       <c r="AH6" s="5"/>
     </row>
@@ -1853,8 +1856,8 @@
       <c r="AF7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="5">
-        <v>11005</v>
+      <c r="AG7" t="s">
+        <v>45</v>
       </c>
       <c r="AH7" s="5"/>
     </row>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037B1B31-AA45-402F-8817-39809E8E1BFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949F8120-6609-41EC-9EB4-879000C8AB8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -648,43 +648,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0,0,41000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,0,0]</t>
-  </si>
-  <si>
-    <t>[0,0,41001]</t>
-  </si>
-  <si>
-    <t>[0,0,41002]</t>
-  </si>
-  <si>
     <t>猫咪陪伴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0,0,41003]</t>
-  </si>
-  <si>
     <t>猫咪入住</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0,41005,41004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猫咪洗脑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0,41007,41006]</t>
+    <t>Sprites/Main/4 刺探事件卡片</t>
+  </si>
+  <si>
+    <t>[41000]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/Main/4 刺探事件卡片</t>
+    <t>[41001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[41002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[41003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[41005,41004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[41007,41006]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-1]</t>
+  </si>
+  <si>
+    <t>[-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1119,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1329,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AG2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AH2" s="5"/>
     </row>
@@ -1431,25 +1438,25 @@
         <v>0</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AG3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AH3" s="5"/>
     </row>
@@ -1533,25 +1540,25 @@
         <v>0</v>
       </c>
       <c r="AA4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG4" t="s">
         <v>38</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>45</v>
       </c>
       <c r="AH4" s="5"/>
     </row>
@@ -1560,7 +1567,7 @@
         <v>11003</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5">
         <v>3</v>
@@ -1635,25 +1642,25 @@
         <v>0</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AG5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AH5" s="5"/>
     </row>
@@ -1662,7 +1669,7 @@
         <v>11004</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
@@ -1737,25 +1744,25 @@
         <v>0</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AG6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AH6" s="5"/>
     </row>
@@ -1764,7 +1771,7 @@
         <v>11005</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
@@ -1842,22 +1849,22 @@
         <v>44</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AG7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AH7" s="5"/>
     </row>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949F8120-6609-41EC-9EB4-879000C8AB8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052DC11A-E900-4357-A64D-D03D7CE4AC79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -660,9 +660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/Main/4 刺探事件卡片</t>
-  </si>
-  <si>
     <t>[41000]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -691,6 +688,13 @@
   </si>
   <si>
     <t>[-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Main/4刺探事件卡片</t>
+  </si>
+  <si>
+    <t>Sprites/Main/4刺探事件卡片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1127,7 +1131,7 @@
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1336,25 +1340,25 @@
         <v>0</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AG2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AH2" s="5"/>
     </row>
@@ -1438,25 +1442,25 @@
         <v>0</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AG3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AH3" s="5"/>
     </row>
@@ -1540,25 +1544,25 @@
         <v>0</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AH4" s="5"/>
     </row>
@@ -1642,25 +1646,25 @@
         <v>0</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AH5" s="5"/>
     </row>
@@ -1744,25 +1748,25 @@
         <v>0</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AH6" s="5"/>
     </row>
@@ -1846,25 +1850,25 @@
         <v>0</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AH7" s="5"/>
     </row>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CatClub\ExcelConfig\pbjson\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052DC11A-E900-4357-A64D-D03D7CE4AC79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DC2BD5-C315-40C6-9A52-046B35A70DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8775" yWindow="5970" windowWidth="22800" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -535,12 +535,42 @@
         </r>
       </text>
     </comment>
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>upDesc
+string</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>downDesc
+string</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
@@ -695,6 +725,20 @@
   </si>
   <si>
     <t>Sprites/Main/4刺探事件卡片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上方描述</t>
+  </si>
+  <si>
+    <t>下方描述</t>
+  </si>
+  <si>
+    <t>喵喵喵？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喵喵喵！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +806,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -785,13 +829,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,6 +869,10 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1128,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1154,9 +1213,10 @@
     <col min="24" max="26" width="11" style="2" customWidth="1" collapsed="1"/>
     <col min="27" max="32" width="24" style="2" customWidth="1" collapsed="1"/>
     <col min="33" max="34" width="9" style="3" customWidth="1"/>
+    <col min="35" max="36" width="9" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1259,8 +1319,14 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>11000</v>
       </c>
@@ -1361,8 +1427,14 @@
         <v>47</v>
       </c>
       <c r="AH2" s="5"/>
+      <c r="AI2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>11001</v>
       </c>
@@ -1463,8 +1535,14 @@
         <v>47</v>
       </c>
       <c r="AH3" s="5"/>
+      <c r="AI3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>11002</v>
       </c>
@@ -1565,8 +1643,14 @@
         <v>46</v>
       </c>
       <c r="AH4" s="5"/>
+      <c r="AI4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>11003</v>
       </c>
@@ -1667,8 +1751,14 @@
         <v>46</v>
       </c>
       <c r="AH5" s="5"/>
+      <c r="AI5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>11004</v>
       </c>
@@ -1769,8 +1859,14 @@
         <v>46</v>
       </c>
       <c r="AH6" s="5"/>
+      <c r="AI6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>11005</v>
       </c>
@@ -1871,6 +1967,12 @@
         <v>46</v>
       </c>
       <c r="AH7" s="5"/>
+      <c r="AI7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\minigame\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DC2BD5-C315-40C6-9A52-046B35A70DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960E2218-16BA-4C2F-825F-69213D906FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8775" yWindow="5970" windowWidth="22800" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="5540" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -1189,11 +1189,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AN5" sqref="AN5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="8" style="1" collapsed="1"/>
     <col min="4" max="5" width="9" style="1" customWidth="1" collapsed="1"/>
@@ -1216,7 +1216,7 @@
     <col min="35" max="36" width="9" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>11000</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="6">
         <v>20000</v>
@@ -1434,7 +1434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>11001</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>11002</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>11003</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>11004</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>11005</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\minigame\CatClub\ExcelConfig\pbjson\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960E2218-16BA-4C2F-825F-69213D906FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495B8343-3E73-468A-A90E-6C8AF9D12BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="5540" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="1965" windowWidth="21465" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -1190,10 +1190,10 @@
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="8" style="1" collapsed="1"/>
     <col min="4" max="5" width="9" style="1" customWidth="1" collapsed="1"/>
@@ -1216,7 +1216,7 @@
     <col min="35" max="36" width="9" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>11000</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>11001</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>11002</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>11003</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>11004</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>11005</v>
       </c>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495B8343-3E73-468A-A90E-6C8AF9D12BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35167F70-E7FE-4BED-9A43-1667EAF4C18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1965" windowWidth="21465" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="4710" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
   <si>
     <t>Id</t>
   </si>
@@ -739,6 +739,31 @@
   </si>
   <si>
     <t>喵喵喵！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[411000,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[459000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[411010]</t>
+  </si>
+  <si>
+    <t>[411020]</t>
+  </si>
+  <si>
+    <t>[411030]</t>
+  </si>
+  <si>
+    <t>[411050,411040]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[411070,411060]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,7 +771,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -763,6 +788,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -846,7 +878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,6 +903,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1187,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1974,6 +2009,666 @@
         <v>51</v>
       </c>
     </row>
+    <row r="9" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>11100</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>60001</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>200</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <v>311000</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0</v>
+      </c>
+      <c r="W9" s="8">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>11000</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>11000</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>11101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>60001</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="12">
+        <v>311010</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
+        <v>0</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0</v>
+      </c>
+      <c r="V10" s="8">
+        <v>0</v>
+      </c>
+      <c r="W10" s="8">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>11000</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>11000</v>
+      </c>
+      <c r="AI10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ10" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>11102</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>60001</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>200</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12">
+        <v>311020</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0</v>
+      </c>
+      <c r="V11" s="8">
+        <v>0</v>
+      </c>
+      <c r="W11" s="8">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>11000</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>11000</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11103</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>60001</v>
+      </c>
+      <c r="H12" s="6">
+        <v>100</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>190</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>311030</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>11003</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>11003</v>
+      </c>
+      <c r="AI12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ12" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>11104</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>60001</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>180</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>311040</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0</v>
+      </c>
+      <c r="T13" s="8">
+        <v>0</v>
+      </c>
+      <c r="U13" s="8">
+        <v>0</v>
+      </c>
+      <c r="V13" s="8">
+        <v>0</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>11004</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>11004</v>
+      </c>
+      <c r="AI13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ13" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>11105</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>40</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>60001</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>250</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="12">
+        <v>311050</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>11005</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>11005</v>
+      </c>
+      <c r="AI14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ14" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35167F70-E7FE-4BED-9A43-1667EAF4C18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDF041B-53C4-4E38-AE11-4791F108958E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="4710" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11745" yWindow="2880" windowWidth="24225" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -742,28 +742,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[411000,400070]</t>
+    <t>[411010]</t>
+  </si>
+  <si>
+    <t>[411020]</t>
+  </si>
+  <si>
+    <t>[411030]</t>
+  </si>
+  <si>
+    <t>[411040,411041]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[459000]</t>
+    <t>[412050,412051]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[411010]</t>
-  </si>
-  <si>
-    <t>[411020]</t>
-  </si>
-  <si>
-    <t>[411030]</t>
-  </si>
-  <si>
-    <t>[411050,411040]</t>
+    <t>[411000]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[411070,411060]</t>
+    <t>喵喵喵？\n喵喵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AB9" s="5" t="s">
         <v>44</v>
@@ -2098,7 +2098,7 @@
         <v>44</v>
       </c>
       <c r="AD9" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AE9" s="5" t="s">
         <v>44</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AB10" s="5" t="s">
         <v>44</v>
@@ -2208,7 +2208,7 @@
         <v>44</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AE10" s="5" t="s">
         <v>44</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AB11" s="5" t="s">
         <v>44</v>
@@ -2318,7 +2318,7 @@
         <v>44</v>
       </c>
       <c r="AD11" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AE11" s="5" t="s">
         <v>44</v>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AB12" s="5" t="s">
         <v>44</v>
@@ -2428,7 +2428,7 @@
         <v>44</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AE12" s="5" t="s">
         <v>44</v>
@@ -2443,7 +2443,7 @@
         <v>11003</v>
       </c>
       <c r="AI12" s="11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AJ12" s="11" t="s">
         <v>51</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB13" s="5" t="s">
         <v>44</v>
@@ -2538,7 +2538,7 @@
         <v>44</v>
       </c>
       <c r="AD13" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AE13" s="5" t="s">
         <v>44</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>44</v>
@@ -2648,7 +2648,7 @@
         <v>44</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AE14" s="5" t="s">
         <v>44</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDF041B-53C4-4E38-AE11-4791F108958E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7319FE6A-0D7A-465B-8844-CD9870864051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11745" yWindow="2880" windowWidth="24225" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="4770" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -764,6 +764,34 @@
   </si>
   <si>
     <t>喵喵喵？\n喵喵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[416100]</t>
+  </si>
+  <si>
+    <t>[416130]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag测试1</t>
+  </si>
+  <si>
+    <t>flag测试0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag测试2</t>
+  </si>
+  <si>
+    <t>flag测试3</t>
+  </si>
+  <si>
+    <t>[416110]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[416120]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1222,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2669,6 +2697,452 @@
         <v>51</v>
       </c>
     </row>
+    <row r="16" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>11610</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>60000</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
+        <v>316100</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0</v>
+      </c>
+      <c r="T16" s="8">
+        <v>0</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0</v>
+      </c>
+      <c r="V16" s="8">
+        <v>0</v>
+      </c>
+      <c r="W16" s="8">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>11610</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>11610</v>
+      </c>
+      <c r="AI16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ16" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>11611</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>60000</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>316110</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0</v>
+      </c>
+      <c r="W17" s="8">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>11610</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>11610</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ17" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>11612</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>60000</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>100</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>316120</v>
+      </c>
+      <c r="S18" s="8">
+        <v>0</v>
+      </c>
+      <c r="T18" s="8">
+        <v>0</v>
+      </c>
+      <c r="U18" s="8">
+        <v>0</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0</v>
+      </c>
+      <c r="W18" s="8">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>11610</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>11610</v>
+      </c>
+      <c r="AI18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ18" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>11613</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>60000</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>100</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>316130</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0</v>
+      </c>
+      <c r="T19" s="8">
+        <v>0</v>
+      </c>
+      <c r="U19" s="8">
+        <v>0</v>
+      </c>
+      <c r="V19" s="8">
+        <v>0</v>
+      </c>
+      <c r="W19" s="8">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>11610</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>11610</v>
+      </c>
+      <c r="AI19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ19" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AH20" s="10"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AH21" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7319FE6A-0D7A-465B-8844-CD9870864051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECC5118-AC7A-4A8A-A2D9-75C4DCB26CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="4770" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="4815" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -792,6 +792,10 @@
   </si>
   <si>
     <t>[416120]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突发事件分支测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1253,7 +1257,7 @@
   <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3140,8 +3144,113 @@
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AH20" s="10"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AH21" s="10"/>
+    <row r="21" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>11700</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>20001</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>200</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>311700</v>
+      </c>
+      <c r="S21" s="8">
+        <v>417000</v>
+      </c>
+      <c r="T21" s="8">
+        <v>311701</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0</v>
+      </c>
+      <c r="V21" s="8">
+        <v>0</v>
+      </c>
+      <c r="W21" s="8">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ21" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECC5118-AC7A-4A8A-A2D9-75C4DCB26CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFF49C6-D589-471C-B3C3-D27D8CE2E686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="4815" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17010" yWindow="4785" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -1256,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1493,7 +1493,9 @@
       <c r="AG2" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" s="5"/>
+      <c r="AH2" t="s">
+        <v>47</v>
+      </c>
       <c r="AI2" s="11" t="s">
         <v>50</v>
       </c>
@@ -1601,7 +1603,9 @@
       <c r="AG3" t="s">
         <v>47</v>
       </c>
-      <c r="AH3" s="5"/>
+      <c r="AH3" t="s">
+        <v>47</v>
+      </c>
       <c r="AI3" s="11" t="s">
         <v>50</v>
       </c>
@@ -1709,7 +1713,9 @@
       <c r="AG4" t="s">
         <v>46</v>
       </c>
-      <c r="AH4" s="5"/>
+      <c r="AH4" t="s">
+        <v>47</v>
+      </c>
       <c r="AI4" s="11" t="s">
         <v>50</v>
       </c>
@@ -1817,7 +1823,9 @@
       <c r="AG5" t="s">
         <v>46</v>
       </c>
-      <c r="AH5" s="5"/>
+      <c r="AH5" t="s">
+        <v>47</v>
+      </c>
       <c r="AI5" s="11" t="s">
         <v>50</v>
       </c>
@@ -1925,7 +1933,9 @@
       <c r="AG6" t="s">
         <v>46</v>
       </c>
-      <c r="AH6" s="5"/>
+      <c r="AH6" t="s">
+        <v>47</v>
+      </c>
       <c r="AI6" s="11" t="s">
         <v>50</v>
       </c>
@@ -2033,7 +2043,9 @@
       <c r="AG7" t="s">
         <v>46</v>
       </c>
-      <c r="AH7" s="5"/>
+      <c r="AH7" t="s">
+        <v>47</v>
+      </c>
       <c r="AI7" s="11" t="s">
         <v>50</v>
       </c>
@@ -2138,11 +2150,11 @@
       <c r="AF9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AG9" s="5">
-        <v>11000</v>
-      </c>
-      <c r="AH9" s="5">
-        <v>11000</v>
+      <c r="AG9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>47</v>
       </c>
       <c r="AI9" s="11" t="s">
         <v>50</v>
@@ -2248,11 +2260,11 @@
       <c r="AF10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AG10" s="5">
-        <v>11000</v>
-      </c>
-      <c r="AH10" s="5">
-        <v>11000</v>
+      <c r="AG10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>47</v>
       </c>
       <c r="AI10" s="11" t="s">
         <v>50</v>
@@ -2358,11 +2370,11 @@
       <c r="AF11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AG11" s="5">
-        <v>11000</v>
-      </c>
-      <c r="AH11" s="5">
-        <v>11000</v>
+      <c r="AG11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>47</v>
       </c>
       <c r="AI11" s="11" t="s">
         <v>50</v>
@@ -2468,11 +2480,11 @@
       <c r="AF12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AG12" s="5">
-        <v>11003</v>
-      </c>
-      <c r="AH12" s="5">
-        <v>11003</v>
+      <c r="AG12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>47</v>
       </c>
       <c r="AI12" s="11" t="s">
         <v>58</v>
@@ -2578,11 +2590,11 @@
       <c r="AF13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AG13" s="5">
-        <v>11004</v>
-      </c>
-      <c r="AH13" s="5">
-        <v>11004</v>
+      <c r="AG13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>47</v>
       </c>
       <c r="AI13" s="11" t="s">
         <v>50</v>
@@ -2688,11 +2700,11 @@
       <c r="AF14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AG14" s="5">
-        <v>11005</v>
-      </c>
-      <c r="AH14" s="5">
-        <v>11005</v>
+      <c r="AG14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>47</v>
       </c>
       <c r="AI14" s="11" t="s">
         <v>50</v>
@@ -2798,11 +2810,11 @@
       <c r="AF16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AG16" s="5">
-        <v>11610</v>
-      </c>
-      <c r="AH16" s="5">
-        <v>11610</v>
+      <c r="AG16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>47</v>
       </c>
       <c r="AI16" s="11" t="s">
         <v>50</v>
@@ -2908,11 +2920,11 @@
       <c r="AF17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AG17" s="5">
-        <v>11610</v>
-      </c>
-      <c r="AH17" s="5">
-        <v>11610</v>
+      <c r="AG17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>47</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>50</v>
@@ -3018,11 +3030,11 @@
       <c r="AF18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AG18" s="5">
-        <v>11610</v>
-      </c>
-      <c r="AH18" s="5">
-        <v>11610</v>
+      <c r="AG18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>47</v>
       </c>
       <c r="AI18" s="11" t="s">
         <v>50</v>
@@ -3128,11 +3140,11 @@
       <c r="AF19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AG19" s="5">
-        <v>11610</v>
-      </c>
-      <c r="AH19" s="5">
-        <v>11610</v>
+      <c r="AG19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>47</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>50</v>
@@ -3244,7 +3256,9 @@
       <c r="AG21" t="s">
         <v>47</v>
       </c>
-      <c r="AH21" s="5"/>
+      <c r="AH21" t="s">
+        <v>47</v>
+      </c>
       <c r="AI21" s="11" t="s">
         <v>50</v>
       </c>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFF49C6-D589-471C-B3C3-D27D8CE2E686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08183CB-F751-48E8-B7CF-C5B8DEE498AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17010" yWindow="4785" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="3675" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -1256,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AH21" sqref="AH21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="6">
         <v>200</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="6">
         <v>200</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="6">
         <v>200</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E1B454-7876-48CA-9459-93D069339497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9375AA33-EBA3-4825-ABE5-64A2330859EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="2445" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -1642,9 +1642,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[421190]</t>
-  </si>
-  <si>
     <t>猫咪审判</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1782,6 +1779,10 @@
   </si>
   <si>
     <t>组织暴露将导致完全失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[421100]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2225,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="R174" sqref="R174"/>
+    <sheetView tabSelected="1" topLeftCell="U144" workbookViewId="0">
+      <selection activeCell="AE157" sqref="AE157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17047,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="AA151" s="4" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="AB151" s="4" t="s">
         <v>55</v>
@@ -17155,7 +17156,7 @@
         <v>0</v>
       </c>
       <c r="AA152" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AB152" s="4" t="s">
         <v>55</v>
@@ -17263,7 +17264,7 @@
         <v>0</v>
       </c>
       <c r="AA153" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AB153" s="4" t="s">
         <v>55</v>
@@ -17369,7 +17370,7 @@
         <v>0</v>
       </c>
       <c r="AA154" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AB154" s="4" t="s">
         <v>55</v>
@@ -17475,7 +17476,7 @@
         <v>0</v>
       </c>
       <c r="AA155" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AB155" s="4" t="s">
         <v>55</v>
@@ -17581,7 +17582,7 @@
         <v>0</v>
       </c>
       <c r="AA156" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AB156" s="4" t="s">
         <v>55</v>
@@ -17687,7 +17688,7 @@
         <v>0</v>
       </c>
       <c r="AA157" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AB157" s="4" t="s">
         <v>55</v>
@@ -17793,7 +17794,7 @@
         <v>0</v>
       </c>
       <c r="AA158" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AB158" s="4" t="s">
         <v>55</v>
@@ -17899,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="AA159" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AB159" s="4" t="s">
         <v>55</v>
@@ -17930,7 +17931,7 @@
         <v>13000</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C161" s="4">
         <v>0</v>
@@ -18005,7 +18006,7 @@
         <v>0</v>
       </c>
       <c r="AA161" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB161" s="4" t="s">
         <v>55</v>
@@ -18030,7 +18031,7 @@
       </c>
       <c r="AI161" s="4"/>
       <c r="AJ161" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.2">
@@ -18113,7 +18114,7 @@
         <v>0</v>
       </c>
       <c r="AA162" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB162" s="4" t="s">
         <v>55</v>
@@ -18221,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="AA163" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AB163" s="4" t="s">
         <v>55</v>
@@ -18254,7 +18255,7 @@
         <v>13003</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C164" s="4">
         <v>1</v>
@@ -18329,7 +18330,7 @@
         <v>0</v>
       </c>
       <c r="AA164" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB164" s="4" t="s">
         <v>55</v>
@@ -18360,7 +18361,7 @@
         <v>13004</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C165" s="4">
         <v>1</v>
@@ -18435,7 +18436,7 @@
         <v>0</v>
       </c>
       <c r="AA165" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB165" s="4" t="s">
         <v>55</v>
@@ -18466,7 +18467,7 @@
         <v>13005</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C166" s="4">
         <v>1</v>
@@ -18541,7 +18542,7 @@
         <v>0</v>
       </c>
       <c r="AA166" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB166" s="4" t="s">
         <v>55</v>
@@ -18572,7 +18573,7 @@
         <v>13006</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C167" s="4">
         <v>2</v>
@@ -18647,7 +18648,7 @@
         <v>0</v>
       </c>
       <c r="AA167" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB167" s="4" t="s">
         <v>55</v>
@@ -18678,7 +18679,7 @@
         <v>13007</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C168" s="4">
         <v>2</v>
@@ -18753,7 +18754,7 @@
         <v>0</v>
       </c>
       <c r="AA168" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB168" s="4" t="s">
         <v>55</v>
@@ -18784,7 +18785,7 @@
         <v>13008</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C169" s="4">
         <v>2</v>
@@ -18859,7 +18860,7 @@
         <v>0</v>
       </c>
       <c r="AA169" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB169" s="4" t="s">
         <v>55</v>
@@ -18890,7 +18891,7 @@
         <v>13009</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C170" s="4">
         <v>3</v>
@@ -18965,7 +18966,7 @@
         <v>0</v>
       </c>
       <c r="AA170" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AB170" s="4" t="s">
         <v>55</v>
@@ -18996,7 +18997,7 @@
         <v>13010</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C171" s="4">
         <v>3</v>
@@ -19071,7 +19072,7 @@
         <v>0</v>
       </c>
       <c r="AA171" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB171" s="4" t="s">
         <v>55</v>
@@ -19102,7 +19103,7 @@
         <v>13011</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C172" s="4">
         <v>3</v>
@@ -19177,10 +19178,10 @@
         <v>0</v>
       </c>
       <c r="AA172" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB172" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="AB172" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="AC172" s="4" t="s">
         <v>55</v>
@@ -19208,7 +19209,7 @@
         <v>13012</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C173" s="4">
         <v>1</v>
@@ -19283,34 +19284,34 @@
         <v>0</v>
       </c>
       <c r="AA173" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB173" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC173" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD173" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE173" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF173" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG173" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH173" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI173" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="AB173" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC173" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD173" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE173" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF173" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG173" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH173" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI173" s="4" t="s">
+      <c r="AJ173" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="AJ173" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:36" x14ac:dyDescent="0.2">
@@ -19318,7 +19319,7 @@
         <v>13013</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C174" s="4">
         <v>2</v>
@@ -19393,34 +19394,34 @@
         <v>0</v>
       </c>
       <c r="AA174" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB174" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC174" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD174" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE174" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF174" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG174" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH174" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI174" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="AB174" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC174" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD174" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE174" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF174" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG174" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH174" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI174" s="4" t="s">
+      <c r="AJ174" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="AJ174" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="175" spans="1:36" x14ac:dyDescent="0.2">
@@ -19428,7 +19429,7 @@
         <v>13014</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C175" s="4">
         <v>3</v>
@@ -19503,34 +19504,34 @@
         <v>0</v>
       </c>
       <c r="AA175" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB175" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC175" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD175" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE175" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF175" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG175" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH175" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI175" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="AB175" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC175" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD175" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE175" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF175" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG175" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH175" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI175" s="4" t="s">
+      <c r="AJ175" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="AJ175" s="4" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:36" x14ac:dyDescent="0.2">
@@ -19538,7 +19539,7 @@
         <v>13015</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C176" s="4">
         <v>1</v>
@@ -19613,7 +19614,7 @@
         <v>0</v>
       </c>
       <c r="AA176" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AB176" s="4" t="s">
         <v>55</v>
@@ -19637,10 +19638,10 @@
         <v>38</v>
       </c>
       <c r="AI176" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AJ176" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="AJ176" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="177" spans="1:36" x14ac:dyDescent="0.2">
@@ -19648,7 +19649,7 @@
         <v>13016</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C177" s="4">
         <v>2</v>
@@ -19723,7 +19724,7 @@
         <v>0</v>
       </c>
       <c r="AA177" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AB177" s="4" t="s">
         <v>55</v>
@@ -19747,10 +19748,10 @@
         <v>38</v>
       </c>
       <c r="AI177" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AJ177" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="AJ177" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="178" spans="1:36" x14ac:dyDescent="0.2">
@@ -19758,7 +19759,7 @@
         <v>13017</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C178" s="4">
         <v>3</v>
@@ -19833,7 +19834,7 @@
         <v>0</v>
       </c>
       <c r="AA178" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AB178" s="4" t="s">
         <v>55</v>
@@ -19857,10 +19858,10 @@
         <v>38</v>
       </c>
       <c r="AI178" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ178" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="AJ178" s="4" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="179" spans="1:36" x14ac:dyDescent="0.2">
@@ -19868,7 +19869,7 @@
         <v>13018</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -19943,7 +19944,7 @@
         <v>0</v>
       </c>
       <c r="AA179" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AB179" s="4" t="s">
         <v>55</v>
@@ -19968,7 +19969,7 @@
       </c>
       <c r="AI179" s="4"/>
       <c r="AJ179" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E35D1F-E718-4AFA-8442-2C0953CAE72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B512D2EA-722D-4BE0-B386-C861B1C6B3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12150" yWindow="5355" windowWidth="22455" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7005" yWindow="4290" windowWidth="24060" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -575,7 +583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="300">
   <si>
     <t>Id</t>
   </si>
@@ -1647,6 +1655,18 @@
   </si>
   <si>
     <t>[410000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2074,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ159"/>
+  <dimension ref="A1:AJ162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9380,7 +9400,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="5">
-        <v>0</v>
+        <v>21510</v>
       </c>
       <c r="J75" s="5">
         <v>0</v>
@@ -9488,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="5">
-        <v>0</v>
+        <v>21511</v>
       </c>
       <c r="J76" s="5">
         <v>0</v>
@@ -17814,6 +17834,218 @@
       <c r="AI159" s="4"/>
       <c r="AJ159" s="4"/>
     </row>
+    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>14000</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C161" s="4">
+        <v>0</v>
+      </c>
+      <c r="D161" s="4">
+        <v>3</v>
+      </c>
+      <c r="E161" s="4">
+        <v>0</v>
+      </c>
+      <c r="F161" s="4">
+        <v>0</v>
+      </c>
+      <c r="G161" s="5">
+        <v>0</v>
+      </c>
+      <c r="H161" s="5">
+        <v>100</v>
+      </c>
+      <c r="I161" s="5">
+        <v>0</v>
+      </c>
+      <c r="J161" s="5">
+        <v>1</v>
+      </c>
+      <c r="K161" s="5">
+        <v>100</v>
+      </c>
+      <c r="L161" s="6">
+        <v>0</v>
+      </c>
+      <c r="M161" s="6">
+        <v>0</v>
+      </c>
+      <c r="N161" s="6">
+        <v>0</v>
+      </c>
+      <c r="O161" s="5">
+        <v>0</v>
+      </c>
+      <c r="P161" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="5">
+        <v>0</v>
+      </c>
+      <c r="R161" s="7">
+        <v>340000</v>
+      </c>
+      <c r="S161" s="7">
+        <v>0</v>
+      </c>
+      <c r="T161" s="7">
+        <v>0</v>
+      </c>
+      <c r="U161" s="7">
+        <v>0</v>
+      </c>
+      <c r="V161" s="7">
+        <v>0</v>
+      </c>
+      <c r="W161" s="7">
+        <v>0</v>
+      </c>
+      <c r="X161" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y161" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z161" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA161" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB161" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC161" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD161" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE161" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF161" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG161" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH161" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI161" s="4"/>
+      <c r="AJ161" s="4"/>
+    </row>
+    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>14001</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C162" s="4">
+        <v>0</v>
+      </c>
+      <c r="D162" s="4">
+        <v>3</v>
+      </c>
+      <c r="E162" s="4">
+        <v>0</v>
+      </c>
+      <c r="F162" s="4">
+        <v>0</v>
+      </c>
+      <c r="G162" s="5">
+        <v>0</v>
+      </c>
+      <c r="H162" s="5">
+        <v>100</v>
+      </c>
+      <c r="I162" s="5">
+        <v>0</v>
+      </c>
+      <c r="J162" s="5">
+        <v>1</v>
+      </c>
+      <c r="K162" s="5">
+        <v>100</v>
+      </c>
+      <c r="L162" s="6">
+        <v>0</v>
+      </c>
+      <c r="M162" s="6">
+        <v>0</v>
+      </c>
+      <c r="N162" s="6">
+        <v>0</v>
+      </c>
+      <c r="O162" s="5">
+        <v>0</v>
+      </c>
+      <c r="P162" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="5">
+        <v>0</v>
+      </c>
+      <c r="R162" s="7">
+        <v>340010</v>
+      </c>
+      <c r="S162" s="7">
+        <v>0</v>
+      </c>
+      <c r="T162" s="7">
+        <v>0</v>
+      </c>
+      <c r="U162" s="7">
+        <v>0</v>
+      </c>
+      <c r="V162" s="7">
+        <v>0</v>
+      </c>
+      <c r="W162" s="7">
+        <v>0</v>
+      </c>
+      <c r="X162" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y162" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z162" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA162" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB162" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC162" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD162" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE162" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF162" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG162" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH162" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI162" s="4"/>
+      <c r="AJ162" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B512D2EA-722D-4BE0-B386-C861B1C6B3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8493025-7ECE-438A-87D0-23996AE19E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="4290" windowWidth="24060" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="4920" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="305">
   <si>
     <t>Id</t>
   </si>
@@ -1667,6 +1667,26 @@
   </si>
   <si>
     <t>[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[440030]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[440040]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2094,10 +2114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ162"/>
+  <dimension ref="A1:AJ165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="H170" sqref="H170"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="K162" sqref="K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18046,6 +18066,324 @@
       <c r="AI162" s="4"/>
       <c r="AJ162" s="4"/>
     </row>
+    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>14002</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C163" s="4">
+        <v>0</v>
+      </c>
+      <c r="D163" s="4">
+        <v>3</v>
+      </c>
+      <c r="E163" s="4">
+        <v>0</v>
+      </c>
+      <c r="F163" s="4">
+        <v>0</v>
+      </c>
+      <c r="G163" s="5">
+        <v>0</v>
+      </c>
+      <c r="H163" s="5">
+        <v>1</v>
+      </c>
+      <c r="I163" s="5">
+        <v>0</v>
+      </c>
+      <c r="J163" s="5">
+        <v>1</v>
+      </c>
+      <c r="K163" s="5">
+        <v>1</v>
+      </c>
+      <c r="L163" s="6">
+        <v>0</v>
+      </c>
+      <c r="M163" s="6">
+        <v>0</v>
+      </c>
+      <c r="N163" s="6">
+        <v>0</v>
+      </c>
+      <c r="O163" s="5">
+        <v>0</v>
+      </c>
+      <c r="P163" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="5">
+        <v>0</v>
+      </c>
+      <c r="R163" s="7">
+        <v>340020</v>
+      </c>
+      <c r="S163" s="7">
+        <v>0</v>
+      </c>
+      <c r="T163" s="7">
+        <v>0</v>
+      </c>
+      <c r="U163" s="7">
+        <v>0</v>
+      </c>
+      <c r="V163" s="7">
+        <v>0</v>
+      </c>
+      <c r="W163" s="7">
+        <v>0</v>
+      </c>
+      <c r="X163" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y163" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z163" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA163" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB163" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC163" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD163" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE163" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF163" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG163" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH163" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI163" s="4"/>
+      <c r="AJ163" s="4"/>
+    </row>
+    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>14003</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C164" s="4">
+        <v>0</v>
+      </c>
+      <c r="D164" s="4">
+        <v>3</v>
+      </c>
+      <c r="E164" s="4">
+        <v>0</v>
+      </c>
+      <c r="F164" s="4">
+        <v>0</v>
+      </c>
+      <c r="G164" s="5">
+        <v>0</v>
+      </c>
+      <c r="H164" s="5">
+        <v>1</v>
+      </c>
+      <c r="I164" s="5">
+        <v>0</v>
+      </c>
+      <c r="J164" s="5">
+        <v>1</v>
+      </c>
+      <c r="K164" s="5">
+        <v>1</v>
+      </c>
+      <c r="L164" s="6">
+        <v>0</v>
+      </c>
+      <c r="M164" s="6">
+        <v>0</v>
+      </c>
+      <c r="N164" s="6">
+        <v>0</v>
+      </c>
+      <c r="O164" s="5">
+        <v>0</v>
+      </c>
+      <c r="P164" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="5">
+        <v>0</v>
+      </c>
+      <c r="R164" s="7">
+        <v>340030</v>
+      </c>
+      <c r="S164" s="7">
+        <v>0</v>
+      </c>
+      <c r="T164" s="7">
+        <v>0</v>
+      </c>
+      <c r="U164" s="7">
+        <v>0</v>
+      </c>
+      <c r="V164" s="7">
+        <v>0</v>
+      </c>
+      <c r="W164" s="7">
+        <v>0</v>
+      </c>
+      <c r="X164" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y164" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z164" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA164" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB164" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC164" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD164" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE164" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF164" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG164" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH164" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI164" s="4"/>
+      <c r="AJ164" s="4"/>
+    </row>
+    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>14004</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C165" s="4">
+        <v>0</v>
+      </c>
+      <c r="D165" s="4">
+        <v>3</v>
+      </c>
+      <c r="E165" s="4">
+        <v>0</v>
+      </c>
+      <c r="F165" s="4">
+        <v>0</v>
+      </c>
+      <c r="G165" s="5">
+        <v>0</v>
+      </c>
+      <c r="H165" s="5">
+        <v>1</v>
+      </c>
+      <c r="I165" s="5">
+        <v>0</v>
+      </c>
+      <c r="J165" s="5">
+        <v>1</v>
+      </c>
+      <c r="K165" s="5">
+        <v>1</v>
+      </c>
+      <c r="L165" s="6">
+        <v>0</v>
+      </c>
+      <c r="M165" s="6">
+        <v>0</v>
+      </c>
+      <c r="N165" s="6">
+        <v>0</v>
+      </c>
+      <c r="O165" s="5">
+        <v>0</v>
+      </c>
+      <c r="P165" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="5">
+        <v>0</v>
+      </c>
+      <c r="R165" s="7">
+        <v>340040</v>
+      </c>
+      <c r="S165" s="7">
+        <v>0</v>
+      </c>
+      <c r="T165" s="7">
+        <v>0</v>
+      </c>
+      <c r="U165" s="7">
+        <v>0</v>
+      </c>
+      <c r="V165" s="7">
+        <v>0</v>
+      </c>
+      <c r="W165" s="7">
+        <v>0</v>
+      </c>
+      <c r="X165" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y165" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z165" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA165" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB165" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC165" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD165" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE165" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF165" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG165" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH165" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI165" s="4"/>
+      <c r="AJ165" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90C0640-4215-44C6-8D21-236EAC98EEFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C2B691-B447-4FF0-B811-76D380511C58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="3660" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="3405" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="385">
   <si>
     <t>Id</t>
   </si>
@@ -2031,6 +2031,9 @@
   <si>
     <t>[430180]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[440030]</t>
   </si>
 </sst>
 </file>
@@ -2479,10 +2482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL197"/>
+  <dimension ref="A1:AL199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="H181" sqref="H181"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20462,11 +20465,11 @@
       <c r="AH174" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI174" s="4">
-        <v>13001</v>
-      </c>
-      <c r="AJ174" s="4">
-        <v>13001</v>
+      <c r="AI174" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ174" t="s">
+        <v>37</v>
       </c>
       <c r="AK174" s="4"/>
       <c r="AL174" s="4" t="s">
@@ -20576,11 +20579,11 @@
       <c r="AH175" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI175" s="4">
-        <v>13001</v>
-      </c>
-      <c r="AJ175" s="4">
-        <v>13001</v>
+      <c r="AI175" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ175" t="s">
+        <v>37</v>
       </c>
       <c r="AK175" s="4"/>
       <c r="AL175" s="4" t="s">
@@ -20690,11 +20693,11 @@
       <c r="AH176" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI176" s="4">
-        <v>13003</v>
-      </c>
-      <c r="AJ176" s="4">
-        <v>13003</v>
+      <c r="AI176" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ176" t="s">
+        <v>37</v>
       </c>
       <c r="AK176" s="4" t="s">
         <v>350</v>
@@ -20806,11 +20809,11 @@
       <c r="AH177" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI177" s="4">
-        <v>13003</v>
-      </c>
-      <c r="AJ177" s="4">
-        <v>13003</v>
+      <c r="AI177" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ177" t="s">
+        <v>37</v>
       </c>
       <c r="AK177" s="4" t="s">
         <v>350</v>
@@ -20922,11 +20925,11 @@
       <c r="AH178" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI178" s="4">
-        <v>13003</v>
-      </c>
-      <c r="AJ178" s="4">
-        <v>13003</v>
+      <c r="AI178" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ178" t="s">
+        <v>37</v>
       </c>
       <c r="AK178" s="4" t="s">
         <v>350</v>
@@ -21038,11 +21041,11 @@
       <c r="AH179" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI179" s="4">
-        <v>13006</v>
-      </c>
-      <c r="AJ179" s="4">
-        <v>13006</v>
+      <c r="AI179" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ179" t="s">
+        <v>37</v>
       </c>
       <c r="AK179" s="4" t="s">
         <v>356</v>
@@ -21154,11 +21157,11 @@
       <c r="AH180" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI180" s="4">
-        <v>13006</v>
-      </c>
-      <c r="AJ180" s="4">
-        <v>13006</v>
+      <c r="AI180" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ180" t="s">
+        <v>37</v>
       </c>
       <c r="AK180" s="4" t="s">
         <v>356</v>
@@ -21270,11 +21273,11 @@
       <c r="AH181" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI181" s="4">
-        <v>13006</v>
-      </c>
-      <c r="AJ181" s="4">
-        <v>13006</v>
+      <c r="AI181" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ181" t="s">
+        <v>37</v>
       </c>
       <c r="AK181" s="4" t="s">
         <v>356</v>
@@ -21386,11 +21389,11 @@
       <c r="AH182" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI182" s="4">
-        <v>13009</v>
-      </c>
-      <c r="AJ182" s="4">
-        <v>13009</v>
+      <c r="AI182" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ182" t="s">
+        <v>37</v>
       </c>
       <c r="AK182" s="4" t="s">
         <v>361</v>
@@ -21502,11 +21505,11 @@
       <c r="AH183" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI183" s="4">
-        <v>13009</v>
-      </c>
-      <c r="AJ183" s="4">
-        <v>13009</v>
+      <c r="AI183" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ183" t="s">
+        <v>37</v>
       </c>
       <c r="AK183" s="4" t="s">
         <v>361</v>
@@ -21618,11 +21621,11 @@
       <c r="AH184" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI184" s="4">
-        <v>13009</v>
-      </c>
-      <c r="AJ184" s="4">
-        <v>13009</v>
+      <c r="AI184" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ184" t="s">
+        <v>37</v>
       </c>
       <c r="AK184" s="4" t="s">
         <v>361</v>
@@ -21734,11 +21737,11 @@
       <c r="AH185" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI185" s="4">
-        <v>13003</v>
-      </c>
-      <c r="AJ185" s="4">
-        <v>13003</v>
+      <c r="AI185" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ185" t="s">
+        <v>37</v>
       </c>
       <c r="AK185" s="4" t="s">
         <v>367</v>
@@ -21850,11 +21853,11 @@
       <c r="AH186" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI186" s="4">
-        <v>13006</v>
-      </c>
-      <c r="AJ186" s="4">
-        <v>13006</v>
+      <c r="AI186" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ186" t="s">
+        <v>37</v>
       </c>
       <c r="AK186" s="4" t="s">
         <v>371</v>
@@ -21966,11 +21969,11 @@
       <c r="AH187" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI187" s="4">
-        <v>13009</v>
-      </c>
-      <c r="AJ187" s="4">
-        <v>13009</v>
+      <c r="AI187" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ187" t="s">
+        <v>37</v>
       </c>
       <c r="AK187" s="4" t="s">
         <v>375</v>
@@ -22082,11 +22085,11 @@
       <c r="AH188" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI188" s="4">
-        <v>13003</v>
-      </c>
-      <c r="AJ188" s="4">
-        <v>13003</v>
+      <c r="AI188" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ188" t="s">
+        <v>37</v>
       </c>
       <c r="AK188" s="4" t="s">
         <v>367</v>
@@ -22198,11 +22201,11 @@
       <c r="AH189" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI189" s="4">
-        <v>13006</v>
-      </c>
-      <c r="AJ189" s="4">
-        <v>13006</v>
+      <c r="AI189" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ189" t="s">
+        <v>37</v>
       </c>
       <c r="AK189" s="4" t="s">
         <v>371</v>
@@ -22314,11 +22317,11 @@
       <c r="AH190" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI190" s="4">
-        <v>13009</v>
-      </c>
-      <c r="AJ190" s="4">
-        <v>13009</v>
+      <c r="AI190" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ190" t="s">
+        <v>37</v>
       </c>
       <c r="AK190" s="4" t="s">
         <v>375</v>
@@ -22430,11 +22433,11 @@
       <c r="AH191" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI191" s="4">
-        <v>13000</v>
-      </c>
-      <c r="AJ191" s="4">
-        <v>13000</v>
+      <c r="AI191" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ191" t="s">
+        <v>37</v>
       </c>
       <c r="AK191" s="4"/>
       <c r="AL191" s="4" t="s">
@@ -22648,7 +22651,7 @@
         <v>53</v>
       </c>
       <c r="AF194" s="4" t="s">
-        <v>53</v>
+        <v>384</v>
       </c>
       <c r="AG194" s="4" t="s">
         <v>53</v>
@@ -23000,6 +23003,230 @@
       </c>
       <c r="AK197" s="4"/>
       <c r="AL197" s="4"/>
+    </row>
+    <row r="198" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>14005</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C198" s="4">
+        <v>0</v>
+      </c>
+      <c r="D198" s="4">
+        <v>3</v>
+      </c>
+      <c r="E198" s="4">
+        <v>0</v>
+      </c>
+      <c r="F198" s="4">
+        <v>0</v>
+      </c>
+      <c r="G198" s="5">
+        <v>0</v>
+      </c>
+      <c r="H198" s="5">
+        <v>1</v>
+      </c>
+      <c r="I198" s="5">
+        <v>0</v>
+      </c>
+      <c r="J198" s="5">
+        <v>1</v>
+      </c>
+      <c r="K198" s="5">
+        <v>1</v>
+      </c>
+      <c r="L198" s="6">
+        <v>0</v>
+      </c>
+      <c r="M198" s="6">
+        <v>0</v>
+      </c>
+      <c r="N198" s="6">
+        <v>0</v>
+      </c>
+      <c r="O198" s="5">
+        <v>0</v>
+      </c>
+      <c r="P198" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q198" s="5">
+        <v>0</v>
+      </c>
+      <c r="R198" s="7">
+        <v>340030</v>
+      </c>
+      <c r="S198" s="7">
+        <v>0</v>
+      </c>
+      <c r="T198" s="7">
+        <v>0</v>
+      </c>
+      <c r="U198" s="7">
+        <v>0</v>
+      </c>
+      <c r="V198" s="7">
+        <v>0</v>
+      </c>
+      <c r="W198" s="7">
+        <v>0</v>
+      </c>
+      <c r="X198" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y198" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z198" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA198" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB198" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC198" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD198" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE198" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF198" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG198" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH198" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI198" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ198" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK198" s="4"/>
+      <c r="AL198" s="4"/>
+    </row>
+    <row r="199" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>14006</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C199" s="4">
+        <v>0</v>
+      </c>
+      <c r="D199" s="4">
+        <v>3</v>
+      </c>
+      <c r="E199" s="4">
+        <v>0</v>
+      </c>
+      <c r="F199" s="4">
+        <v>0</v>
+      </c>
+      <c r="G199" s="5">
+        <v>0</v>
+      </c>
+      <c r="H199" s="5">
+        <v>1</v>
+      </c>
+      <c r="I199" s="5">
+        <v>0</v>
+      </c>
+      <c r="J199" s="5">
+        <v>1</v>
+      </c>
+      <c r="K199" s="5">
+        <v>1</v>
+      </c>
+      <c r="L199" s="6">
+        <v>0</v>
+      </c>
+      <c r="M199" s="6">
+        <v>0</v>
+      </c>
+      <c r="N199" s="6">
+        <v>0</v>
+      </c>
+      <c r="O199" s="5">
+        <v>0</v>
+      </c>
+      <c r="P199" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q199" s="5">
+        <v>0</v>
+      </c>
+      <c r="R199" s="7">
+        <v>340030</v>
+      </c>
+      <c r="S199" s="7">
+        <v>0</v>
+      </c>
+      <c r="T199" s="7">
+        <v>0</v>
+      </c>
+      <c r="U199" s="7">
+        <v>0</v>
+      </c>
+      <c r="V199" s="7">
+        <v>0</v>
+      </c>
+      <c r="W199" s="7">
+        <v>0</v>
+      </c>
+      <c r="X199" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y199" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z199" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA199" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB199" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC199" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD199" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE199" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF199" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG199" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH199" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI199" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ199" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK199" s="4"/>
+      <c r="AL199" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CAE36A-64D5-4854-8091-10BE3B7134D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8642082-9097-4321-A1E2-1F580867190D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="5505" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7635" yWindow="5475" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="492">
   <si>
     <t>Id</t>
   </si>
@@ -759,12 +759,6 @@
   </si>
   <si>
     <t>[-1]</t>
-  </si>
-  <si>
-    <t>[410010]</t>
-  </si>
-  <si>
-    <t>[410020]</t>
   </si>
   <si>
     <t>猫咪陪伴</t>
@@ -2957,8 +2951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3038,10 +3032,10 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>23</v>
@@ -3169,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AE2" s="4" t="s">
         <v>45</v>
@@ -3193,10 +3187,10 @@
         <v>37</v>
       </c>
       <c r="AK2" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -3285,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AD3" s="4" t="s">
         <v>45</v>
@@ -3309,10 +3303,10 @@
         <v>37</v>
       </c>
       <c r="AK3" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -3401,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AD4" s="4" t="s">
         <v>45</v>
@@ -3425,10 +3419,10 @@
         <v>37</v>
       </c>
       <c r="AK4" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -3517,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AD5" s="4" t="s">
         <v>45</v>
@@ -3541,10 +3535,10 @@
         <v>37</v>
       </c>
       <c r="AK5" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -3552,7 +3546,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -3633,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AD6" s="4" t="s">
         <v>45</v>
@@ -3657,10 +3651,10 @@
         <v>37</v>
       </c>
       <c r="AK6" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -3749,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AD7" s="4" t="s">
         <v>45</v>
@@ -3773,10 +3767,10 @@
         <v>37</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
@@ -3865,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AD8" s="4" t="s">
         <v>45</v>
@@ -3889,10 +3883,10 @@
         <v>37</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -3906,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -3981,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AD9" s="4" t="s">
         <v>45</v>
@@ -4005,10 +3999,10 @@
         <v>37</v>
       </c>
       <c r="AK9" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
@@ -4016,13 +4010,13 @@
         <v>10100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -4097,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AD11" s="4" t="s">
         <v>45</v>
@@ -4121,10 +4115,10 @@
         <v>37</v>
       </c>
       <c r="AK11" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
@@ -4132,13 +4126,13 @@
         <v>10101</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
       </c>
       <c r="D12" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -4213,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AD12" s="4" t="s">
         <v>45</v>
@@ -4237,10 +4231,10 @@
         <v>37</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AL12" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
@@ -4248,13 +4242,13 @@
         <v>10102</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -4329,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AD13" s="4" t="s">
         <v>45</v>
@@ -4353,10 +4347,10 @@
         <v>37</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
@@ -4364,13 +4358,13 @@
         <v>10103</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -4445,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AD14" s="4" t="s">
         <v>45</v>
@@ -4469,10 +4463,10 @@
         <v>37</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AL14" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
@@ -4480,13 +4474,13 @@
         <v>10104</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
       </c>
       <c r="D15" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -4561,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AD15" s="4" t="s">
         <v>45</v>
@@ -4585,10 +4579,10 @@
         <v>37</v>
       </c>
       <c r="AK15" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
@@ -4596,13 +4590,13 @@
         <v>10105</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
       </c>
       <c r="D16" s="4">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -4677,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AD16" s="4" t="s">
         <v>45</v>
@@ -4701,10 +4695,10 @@
         <v>37</v>
       </c>
       <c r="AK16" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AL16" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -4712,13 +4706,13 @@
         <v>10200</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
       <c r="D18" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -4793,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AD18" s="4" t="s">
         <v>45</v>
@@ -4817,10 +4811,10 @@
         <v>37</v>
       </c>
       <c r="AK18" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
@@ -4828,13 +4822,13 @@
         <v>10201</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
       </c>
       <c r="D19" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E19" s="4">
         <v>40</v>
@@ -4909,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AD19" s="4" t="s">
         <v>45</v>
@@ -4933,10 +4927,10 @@
         <v>37</v>
       </c>
       <c r="AK19" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AL19" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -4944,13 +4938,13 @@
         <v>10202</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -5025,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AD20" s="4" t="s">
         <v>45</v>
@@ -5049,10 +5043,10 @@
         <v>37</v>
       </c>
       <c r="AK20" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AL20" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -5060,13 +5054,13 @@
         <v>10203</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -5141,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AD21" s="4" t="s">
         <v>45</v>
@@ -5165,10 +5159,10 @@
         <v>37</v>
       </c>
       <c r="AK21" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AL21" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
@@ -5182,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -5257,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AD23" s="4" t="s">
         <v>45</v>
@@ -5281,10 +5275,10 @@
         <v>37</v>
       </c>
       <c r="AK23" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL23" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
@@ -5298,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -5373,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="AD24" s="4" t="s">
         <v>45</v>
@@ -5397,10 +5391,10 @@
         <v>37</v>
       </c>
       <c r="AK24" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL24" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
@@ -5414,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -5489,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="AD25" s="4" t="s">
         <v>45</v>
@@ -5513,10 +5507,10 @@
         <v>37</v>
       </c>
       <c r="AK25" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL25" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
@@ -5524,13 +5518,13 @@
         <v>11003</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="4">
         <v>3</v>
       </c>
       <c r="D26" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -5605,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AD26" s="4" t="s">
         <v>45</v>
@@ -5629,10 +5623,10 @@
         <v>37</v>
       </c>
       <c r="AK26" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL26" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
@@ -5640,13 +5634,13 @@
         <v>11004</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="4">
         <v>2</v>
       </c>
       <c r="D27" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -5721,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AD27" s="4" t="s">
         <v>45</v>
@@ -5745,10 +5739,10 @@
         <v>37</v>
       </c>
       <c r="AK27" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL27" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
@@ -5756,13 +5750,13 @@
         <v>11005</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
       </c>
       <c r="D28" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -5837,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AD28" s="4" t="s">
         <v>45</v>
@@ -5861,10 +5855,10 @@
         <v>37</v>
       </c>
       <c r="AK28" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AL28" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
@@ -5872,13 +5866,13 @@
         <v>11010</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
       </c>
       <c r="D29" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E29" s="4">
         <v>80</v>
@@ -5953,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AD29" s="4" t="s">
         <v>45</v>
@@ -5977,10 +5971,10 @@
         <v>37</v>
       </c>
       <c r="AK29" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AL29" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
@@ -5988,13 +5982,13 @@
         <v>11011</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
       </c>
       <c r="D30" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E30" s="4">
         <v>80</v>
@@ -6069,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AD30" s="4" t="s">
         <v>45</v>
@@ -6093,10 +6087,10 @@
         <v>37</v>
       </c>
       <c r="AK30" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AL30" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
@@ -6104,13 +6098,13 @@
         <v>11012</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
       </c>
       <c r="D31" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E31" s="4">
         <v>80</v>
@@ -6185,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD31" s="4" t="s">
         <v>45</v>
@@ -6209,10 +6203,10 @@
         <v>37</v>
       </c>
       <c r="AK31" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AL31" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
@@ -6220,13 +6214,13 @@
         <v>11013</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
       </c>
       <c r="D32" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E32" s="4">
         <v>80</v>
@@ -6301,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AD32" s="4" t="s">
         <v>45</v>
@@ -6325,10 +6319,10 @@
         <v>37</v>
       </c>
       <c r="AK32" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AL32" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.2">
@@ -6336,13 +6330,13 @@
         <v>11014</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
       </c>
       <c r="D33" s="4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E33" s="4">
         <v>80</v>
@@ -6417,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD33" s="4" t="s">
         <v>45</v>
@@ -6441,10 +6435,10 @@
         <v>37</v>
       </c>
       <c r="AK33" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AL33" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
@@ -6452,13 +6446,13 @@
         <v>11015</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
       </c>
       <c r="D34" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E34" s="4">
         <v>80</v>
@@ -6533,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD34" s="4" t="s">
         <v>45</v>
@@ -6557,10 +6551,10 @@
         <v>37</v>
       </c>
       <c r="AK34" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AL34" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
@@ -6574,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -6649,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD36" s="4" t="s">
         <v>45</v>
@@ -6673,10 +6667,10 @@
         <v>37</v>
       </c>
       <c r="AK36" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL36" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
@@ -6690,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -6765,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AD37" s="4" t="s">
         <v>45</v>
@@ -6789,10 +6783,10 @@
         <v>37</v>
       </c>
       <c r="AK37" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL37" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
@@ -6806,7 +6800,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -6881,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD38" s="4" t="s">
         <v>45</v>
@@ -6905,10 +6899,10 @@
         <v>37</v>
       </c>
       <c r="AK38" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL38" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.2">
@@ -6916,13 +6910,13 @@
         <v>11103</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C39" s="4">
         <v>3</v>
       </c>
       <c r="D39" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -6997,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AD39" s="4" t="s">
         <v>45</v>
@@ -7021,10 +7015,10 @@
         <v>37</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
@@ -7032,13 +7026,13 @@
         <v>11104</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="4">
         <v>2</v>
       </c>
       <c r="D40" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -7113,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AD40" s="4" t="s">
         <v>45</v>
@@ -7137,10 +7131,10 @@
         <v>37</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.2">
@@ -7148,13 +7142,13 @@
         <v>11105</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" s="4">
         <v>2</v>
       </c>
       <c r="D41" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -7229,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AD41" s="4" t="s">
         <v>45</v>
@@ -7253,10 +7247,10 @@
         <v>37</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.2">
@@ -7264,13 +7258,13 @@
         <v>11106</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="4">
         <v>3</v>
       </c>
       <c r="D42" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -7345,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AD42" s="4" t="s">
         <v>45</v>
@@ -7369,10 +7363,10 @@
         <v>37</v>
       </c>
       <c r="AK42" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AL42" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.2">
@@ -7386,7 +7380,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E44" s="4">
         <v>0</v>
@@ -7461,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AD44" s="4" t="s">
         <v>45</v>
@@ -7485,10 +7479,10 @@
         <v>37</v>
       </c>
       <c r="AK44" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL44" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.2">
@@ -7502,7 +7496,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
@@ -7577,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AD45" s="4" t="s">
         <v>45</v>
@@ -7601,10 +7595,10 @@
         <v>37</v>
       </c>
       <c r="AK45" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL45" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.2">
@@ -7618,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
@@ -7693,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AD46" s="4" t="s">
         <v>45</v>
@@ -7717,10 +7711,10 @@
         <v>37</v>
       </c>
       <c r="AK46" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL46" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.2">
@@ -7728,13 +7722,13 @@
         <v>11203</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="4">
         <v>3</v>
       </c>
       <c r="D47" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
@@ -7809,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AD47" s="4" t="s">
         <v>45</v>
@@ -7833,10 +7827,10 @@
         <v>37</v>
       </c>
       <c r="AK47" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL47" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.2">
@@ -7844,13 +7838,13 @@
         <v>11204</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="4">
         <v>2</v>
       </c>
       <c r="D48" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -7925,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AD48" s="4" t="s">
         <v>45</v>
@@ -7949,10 +7943,10 @@
         <v>37</v>
       </c>
       <c r="AK48" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AL48" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:38" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7960,13 +7954,13 @@
         <v>11205</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="4">
         <v>2</v>
       </c>
       <c r="D49" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
@@ -8041,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AD49" s="4" t="s">
         <v>45</v>
@@ -8065,10 +8059,10 @@
         <v>37</v>
       </c>
       <c r="AK49" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL49" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -8076,13 +8070,13 @@
         <v>11210</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
       </c>
       <c r="D50" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -8157,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AD50" s="4" t="s">
         <v>45</v>
@@ -8181,10 +8175,10 @@
         <v>37</v>
       </c>
       <c r="AK50" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AL50" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -8192,13 +8186,13 @@
         <v>11211</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C51" s="4">
         <v>3</v>
       </c>
       <c r="D51" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E51" s="4">
         <v>0</v>
@@ -8273,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AD51" s="4" t="s">
         <v>45</v>
@@ -8297,10 +8291,10 @@
         <v>37</v>
       </c>
       <c r="AK51" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AL51" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -8308,13 +8302,13 @@
         <v>11212</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
       </c>
       <c r="D52" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E52" s="4">
         <v>0</v>
@@ -8389,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AD52" s="4" t="s">
         <v>45</v>
@@ -8413,10 +8407,10 @@
         <v>37</v>
       </c>
       <c r="AK52" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AL52" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -8424,13 +8418,13 @@
         <v>11213</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" s="4">
         <v>2</v>
       </c>
       <c r="D53" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
@@ -8505,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AD53" s="4" t="s">
         <v>45</v>
@@ -8514,7 +8508,7 @@
         <v>45</v>
       </c>
       <c r="AF53" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AG53" s="4" t="s">
         <v>45</v>
@@ -8529,10 +8523,10 @@
         <v>37</v>
       </c>
       <c r="AK53" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AL53" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -8540,13 +8534,13 @@
         <v>11214</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
       </c>
       <c r="D54" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
@@ -8621,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AD54" s="4" t="s">
         <v>45</v>
@@ -8645,10 +8639,10 @@
         <v>37</v>
       </c>
       <c r="AK54" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AL54" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -8656,13 +8650,13 @@
         <v>11215</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C55" s="4">
         <v>2</v>
       </c>
       <c r="D55" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E55" s="4">
         <v>0</v>
@@ -8737,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AD55" s="4" t="s">
         <v>45</v>
@@ -8761,10 +8755,10 @@
         <v>37</v>
       </c>
       <c r="AK55" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AL55" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.2">
@@ -8778,7 +8772,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
@@ -8853,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AD57" s="4" t="s">
         <v>45</v>
@@ -8877,10 +8871,10 @@
         <v>37</v>
       </c>
       <c r="AK57" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL57" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.2">
@@ -8894,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E58" s="4">
         <v>0</v>
@@ -8969,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AD58" s="4" t="s">
         <v>45</v>
@@ -8993,10 +8987,10 @@
         <v>37</v>
       </c>
       <c r="AK58" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL58" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.2">
@@ -9010,7 +9004,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E59" s="4">
         <v>0</v>
@@ -9085,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AD59" s="4" t="s">
         <v>45</v>
@@ -9109,10 +9103,10 @@
         <v>37</v>
       </c>
       <c r="AK59" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL59" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
@@ -9120,13 +9114,13 @@
         <v>11303</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C60" s="4">
         <v>3</v>
       </c>
       <c r="D60" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E60" s="4">
         <v>0</v>
@@ -9201,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AD60" s="4" t="s">
         <v>45</v>
@@ -9225,10 +9219,10 @@
         <v>37</v>
       </c>
       <c r="AK60" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL60" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
@@ -9236,13 +9230,13 @@
         <v>11304</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C61" s="4">
         <v>2</v>
       </c>
       <c r="D61" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E61" s="4">
         <v>0</v>
@@ -9317,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AD61" s="4" t="s">
         <v>45</v>
@@ -9341,10 +9335,10 @@
         <v>37</v>
       </c>
       <c r="AK61" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AL61" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
@@ -9352,13 +9346,13 @@
         <v>11305</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C62" s="4">
         <v>2</v>
       </c>
       <c r="D62" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E62" s="4">
         <v>0</v>
@@ -9433,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AD62" s="4" t="s">
         <v>45</v>
@@ -9457,10 +9451,10 @@
         <v>37</v>
       </c>
       <c r="AK62" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL62" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
@@ -9468,13 +9462,13 @@
         <v>11310</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="4">
         <v>2</v>
       </c>
       <c r="D63" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E63" s="4">
         <v>0</v>
@@ -9549,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AD63" s="4" t="s">
         <v>45</v>
@@ -9573,10 +9567,10 @@
         <v>37</v>
       </c>
       <c r="AK63" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AL63" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
@@ -9584,13 +9578,13 @@
         <v>11311</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="4">
         <v>3</v>
       </c>
       <c r="D64" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E64" s="4">
         <v>0</v>
@@ -9665,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AD64" s="4" t="s">
         <v>45</v>
@@ -9689,10 +9683,10 @@
         <v>37</v>
       </c>
       <c r="AK64" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AL64" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
@@ -9700,13 +9694,13 @@
         <v>11312</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
       </c>
       <c r="D65" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E65" s="4">
         <v>0</v>
@@ -9781,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AD65" s="4" t="s">
         <v>45</v>
@@ -9805,10 +9799,10 @@
         <v>37</v>
       </c>
       <c r="AK65" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AL65" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
@@ -9816,13 +9810,13 @@
         <v>11313</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
       </c>
       <c r="D66" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -9897,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD66" s="4" t="s">
         <v>45</v>
@@ -9921,10 +9915,10 @@
         <v>37</v>
       </c>
       <c r="AK66" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AL66" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
@@ -9932,13 +9926,13 @@
         <v>11314</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
       </c>
       <c r="D67" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E67" s="4">
         <v>0</v>
@@ -10013,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AD67" s="4" t="s">
         <v>45</v>
@@ -10037,10 +10031,10 @@
         <v>37</v>
       </c>
       <c r="AK67" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AL67" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
@@ -10048,13 +10042,13 @@
         <v>11315</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="4">
         <v>2</v>
       </c>
       <c r="D68" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E68" s="4">
         <v>0</v>
@@ -10129,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AD68" s="4" t="s">
         <v>45</v>
@@ -10153,10 +10147,10 @@
         <v>37</v>
       </c>
       <c r="AK68" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AL68" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
@@ -10164,13 +10158,13 @@
         <v>11316</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="4">
         <v>3</v>
       </c>
       <c r="D69" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E69" s="4">
         <v>0</v>
@@ -10245,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AD69" s="4" t="s">
         <v>45</v>
@@ -10269,10 +10263,10 @@
         <v>37</v>
       </c>
       <c r="AK69" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AL69" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
@@ -10280,13 +10274,13 @@
         <v>11320</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="4">
         <v>3</v>
       </c>
       <c r="D70" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E70" s="4">
         <v>0</v>
@@ -10361,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AD70" s="4" t="s">
         <v>45</v>
@@ -10385,10 +10379,10 @@
         <v>37</v>
       </c>
       <c r="AK70" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AL70" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
@@ -10396,13 +10390,13 @@
         <v>11321</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="4">
         <v>3</v>
       </c>
       <c r="D71" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E71" s="4">
         <v>0</v>
@@ -10477,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AD71" s="4" t="s">
         <v>45</v>
@@ -10501,10 +10495,10 @@
         <v>37</v>
       </c>
       <c r="AK71" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AL71" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
@@ -10512,13 +10506,13 @@
         <v>11322</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C72" s="4">
         <v>2</v>
       </c>
       <c r="D72" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E72" s="4">
         <v>0</v>
@@ -10593,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AD72" s="4" t="s">
         <v>45</v>
@@ -10617,10 +10611,10 @@
         <v>37</v>
       </c>
       <c r="AK72" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL72" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.2">
@@ -10628,13 +10622,13 @@
         <v>11323</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="4">
         <v>3</v>
       </c>
       <c r="D73" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E73" s="4">
         <v>0</v>
@@ -10709,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD73" s="4" t="s">
         <v>45</v>
@@ -10733,10 +10727,10 @@
         <v>37</v>
       </c>
       <c r="AK73" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AL73" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.2">
@@ -10750,7 +10744,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E75" s="4">
         <v>0</v>
@@ -10825,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AD75" s="4" t="s">
         <v>45</v>
@@ -10849,10 +10843,10 @@
         <v>37</v>
       </c>
       <c r="AK75" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AL75" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
@@ -10866,7 +10860,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E76" s="4">
         <v>0</v>
@@ -10941,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="AC76" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AD76" s="4" t="s">
         <v>45</v>
@@ -10965,10 +10959,10 @@
         <v>37</v>
       </c>
       <c r="AK76" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL76" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.2">
@@ -10982,7 +10976,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
@@ -11057,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AD77" s="4" t="s">
         <v>45</v>
@@ -11081,10 +11075,10 @@
         <v>37</v>
       </c>
       <c r="AK77" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL77" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
@@ -11092,13 +11086,13 @@
         <v>11403</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C78" s="4">
         <v>3</v>
       </c>
       <c r="D78" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E78" s="4">
         <v>0</v>
@@ -11173,7 +11167,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AD78" s="4" t="s">
         <v>45</v>
@@ -11197,10 +11191,10 @@
         <v>37</v>
       </c>
       <c r="AK78" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL78" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.2">
@@ -11208,13 +11202,13 @@
         <v>11404</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C79" s="4">
         <v>2</v>
       </c>
       <c r="D79" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E79" s="4">
         <v>0</v>
@@ -11289,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="AC79" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AD79" s="4" t="s">
         <v>45</v>
@@ -11313,10 +11307,10 @@
         <v>37</v>
       </c>
       <c r="AK79" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AL79" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.2">
@@ -11324,13 +11318,13 @@
         <v>11405</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C80" s="4">
         <v>2</v>
       </c>
       <c r="D80" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E80" s="4">
         <v>0</v>
@@ -11405,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AC80" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AD80" s="4" t="s">
         <v>45</v>
@@ -11429,10 +11423,10 @@
         <v>37</v>
       </c>
       <c r="AK80" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL80" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.2">
@@ -11446,7 +11440,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E82" s="4">
         <v>0</v>
@@ -11521,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="AC82" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AD82" s="4" t="s">
         <v>45</v>
@@ -11545,10 +11539,10 @@
         <v>37</v>
       </c>
       <c r="AK82" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL82" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.2">
@@ -11562,7 +11556,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E83" s="4">
         <v>0</v>
@@ -11637,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="AC83" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AD83" s="4" t="s">
         <v>45</v>
@@ -11661,10 +11655,10 @@
         <v>37</v>
       </c>
       <c r="AK83" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL83" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:38" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11678,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E84" s="4">
         <v>0</v>
@@ -11753,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="AC84" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD84" s="4" t="s">
         <v>45</v>
@@ -11777,10 +11771,10 @@
         <v>37</v>
       </c>
       <c r="AK84" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL84" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85" spans="1:38" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11788,13 +11782,13 @@
         <v>11503</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C85" s="4">
         <v>3</v>
       </c>
       <c r="D85" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E85" s="4">
         <v>0</v>
@@ -11869,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="AC85" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AD85" s="4" t="s">
         <v>45</v>
@@ -11893,10 +11887,10 @@
         <v>37</v>
       </c>
       <c r="AK85" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL85" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.2">
@@ -11904,13 +11898,13 @@
         <v>11504</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C86" s="4">
         <v>2</v>
       </c>
       <c r="D86" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E86" s="4">
         <v>0</v>
@@ -11985,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="AC86" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AD86" s="4" t="s">
         <v>45</v>
@@ -12009,10 +12003,10 @@
         <v>37</v>
       </c>
       <c r="AK86" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AL86" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.2">
@@ -12020,13 +12014,13 @@
         <v>11505</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C87" s="4">
         <v>2</v>
       </c>
       <c r="D87" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E87" s="4">
         <v>0</v>
@@ -12101,7 +12095,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AD87" s="4" t="s">
         <v>45</v>
@@ -12125,10 +12119,10 @@
         <v>37</v>
       </c>
       <c r="AK87" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL87" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -12136,13 +12130,13 @@
         <v>11510</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
       </c>
       <c r="D88" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E88" s="4">
         <v>0</v>
@@ -12217,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="AC88" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AD88" s="4" t="s">
         <v>45</v>
@@ -12241,10 +12235,10 @@
         <v>37</v>
       </c>
       <c r="AK88" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AL88" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -12252,13 +12246,13 @@
         <v>11511</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
       </c>
       <c r="D89" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E89" s="4">
         <v>0</v>
@@ -12303,7 +12297,7 @@
         <v>315110</v>
       </c>
       <c r="S89" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T89" s="7">
         <v>315111</v>
@@ -12333,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="AC89" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AD89" s="4" t="s">
         <v>45</v>
@@ -12357,10 +12351,10 @@
         <v>37</v>
       </c>
       <c r="AK89" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AL89" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.2">
@@ -12368,13 +12362,13 @@
         <v>11512</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
       </c>
       <c r="D90" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E90" s="4">
         <v>0</v>
@@ -12449,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="AC90" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AD90" s="4" t="s">
         <v>45</v>
@@ -12473,10 +12467,10 @@
         <v>37</v>
       </c>
       <c r="AK90" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AL90" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.2">
@@ -12484,13 +12478,13 @@
         <v>11513</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
       </c>
       <c r="D91" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E91" s="4">
         <v>0</v>
@@ -12565,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="AC91" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AD91" s="4" t="s">
         <v>45</v>
@@ -12589,10 +12583,10 @@
         <v>37</v>
       </c>
       <c r="AK91" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AL91" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.2">
@@ -12600,13 +12594,13 @@
         <v>11514</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
       </c>
       <c r="D92" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E92" s="4">
         <v>60</v>
@@ -12681,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="AC92" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AD92" s="4" t="s">
         <v>45</v>
@@ -12705,10 +12699,10 @@
         <v>37</v>
       </c>
       <c r="AK92" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AL92" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.2">
@@ -12716,13 +12710,13 @@
         <v>11515</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
       </c>
       <c r="D93" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E93" s="4">
         <v>60</v>
@@ -12797,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="AC93" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AD93" s="4" t="s">
         <v>45</v>
@@ -12821,10 +12815,10 @@
         <v>37</v>
       </c>
       <c r="AK93" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AL93" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.2">
@@ -12832,13 +12826,13 @@
         <v>11516</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C94" s="4">
         <v>1</v>
       </c>
       <c r="D94" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E94" s="4">
         <v>60</v>
@@ -12913,7 +12907,7 @@
         <v>0</v>
       </c>
       <c r="AC94" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AD94" s="4" t="s">
         <v>45</v>
@@ -12937,10 +12931,10 @@
         <v>37</v>
       </c>
       <c r="AK94" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AL94" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:38" x14ac:dyDescent="0.2">
@@ -12948,13 +12942,13 @@
         <v>11517</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
       </c>
       <c r="D95" s="4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E95" s="4">
         <v>0</v>
@@ -13029,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="AC95" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AD95" s="4" t="s">
         <v>45</v>
@@ -13053,10 +13047,10 @@
         <v>37</v>
       </c>
       <c r="AK95" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AL95" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.2">
@@ -13064,13 +13058,13 @@
         <v>11518</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
       </c>
       <c r="D96" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E96" s="4">
         <v>0</v>
@@ -13145,7 +13139,7 @@
         <v>0</v>
       </c>
       <c r="AC96" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD96" s="4" t="s">
         <v>45</v>
@@ -13169,10 +13163,10 @@
         <v>37</v>
       </c>
       <c r="AK96" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AL96" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.2">
@@ -13186,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E98" s="4">
         <v>0</v>
@@ -13261,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="AC98" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AD98" s="4" t="s">
         <v>45</v>
@@ -13285,10 +13279,10 @@
         <v>37</v>
       </c>
       <c r="AK98" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL98" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.2">
@@ -13302,7 +13296,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E99" s="4">
         <v>0</v>
@@ -13377,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="AC99" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AD99" s="4" t="s">
         <v>45</v>
@@ -13401,10 +13395,10 @@
         <v>37</v>
       </c>
       <c r="AK99" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL99" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.2">
@@ -13418,7 +13412,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E100" s="4">
         <v>0</v>
@@ -13493,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="AC100" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AD100" s="4" t="s">
         <v>45</v>
@@ -13517,10 +13511,10 @@
         <v>37</v>
       </c>
       <c r="AK100" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL100" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.2">
@@ -13528,13 +13522,13 @@
         <v>11603</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C101" s="4">
         <v>3</v>
       </c>
       <c r="D101" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E101" s="4">
         <v>0</v>
@@ -13609,7 +13603,7 @@
         <v>0</v>
       </c>
       <c r="AC101" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AD101" s="4" t="s">
         <v>45</v>
@@ -13633,10 +13627,10 @@
         <v>37</v>
       </c>
       <c r="AK101" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL101" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
@@ -13644,13 +13638,13 @@
         <v>11604</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C102" s="4">
         <v>2</v>
       </c>
       <c r="D102" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E102" s="4">
         <v>0</v>
@@ -13725,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="AC102" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AD102" s="4" t="s">
         <v>45</v>
@@ -13749,10 +13743,10 @@
         <v>37</v>
       </c>
       <c r="AK102" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AL102" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.2">
@@ -13760,13 +13754,13 @@
         <v>11605</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C103" s="4">
         <v>2</v>
       </c>
       <c r="D103" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E103" s="4">
         <v>0</v>
@@ -13841,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="AC103" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AD103" s="4" t="s">
         <v>45</v>
@@ -13865,10 +13859,10 @@
         <v>37</v>
       </c>
       <c r="AK103" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL103" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -13876,13 +13870,13 @@
         <v>11610</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C104" s="4">
         <v>3</v>
       </c>
       <c r="D104" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E104" s="4">
         <v>0</v>
@@ -13957,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="AC104" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AD104" s="4" t="s">
         <v>45</v>
@@ -13981,10 +13975,10 @@
         <v>37</v>
       </c>
       <c r="AK104" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AL104" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -13992,13 +13986,13 @@
         <v>11611</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C105" s="4">
         <v>1</v>
       </c>
       <c r="D105" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E105" s="4">
         <v>0</v>
@@ -14073,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="AC105" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AD105" s="4" t="s">
         <v>45</v>
@@ -14097,10 +14091,10 @@
         <v>37</v>
       </c>
       <c r="AK105" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AL105" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -14108,13 +14102,13 @@
         <v>11612</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C106" s="4">
         <v>2</v>
       </c>
       <c r="D106" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E106" s="4">
         <v>0</v>
@@ -14189,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="AC106" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AD106" s="4" t="s">
         <v>45</v>
@@ -14213,10 +14207,10 @@
         <v>37</v>
       </c>
       <c r="AK106" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AL106" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.2">
@@ -14224,13 +14218,13 @@
         <v>11613</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C107" s="4">
         <v>3</v>
       </c>
       <c r="D107" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E107" s="4">
         <v>0</v>
@@ -14305,7 +14299,7 @@
         <v>0</v>
       </c>
       <c r="AC107" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AD107" s="4" t="s">
         <v>45</v>
@@ -14314,10 +14308,10 @@
         <v>45</v>
       </c>
       <c r="AF107" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AG107" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AH107" s="4" t="s">
         <v>45</v>
@@ -14329,10 +14323,10 @@
         <v>37</v>
       </c>
       <c r="AK107" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AL107" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.2">
@@ -14346,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E109" s="4">
         <v>0</v>
@@ -14421,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="AC109" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AD109" s="4" t="s">
         <v>45</v>
@@ -14445,10 +14439,10 @@
         <v>37</v>
       </c>
       <c r="AK109" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL109" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="1:38" x14ac:dyDescent="0.2">
@@ -14462,7 +14456,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E110" s="4">
         <v>0</v>
@@ -14537,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="AC110" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AD110" s="4" t="s">
         <v>45</v>
@@ -14561,10 +14555,10 @@
         <v>37</v>
       </c>
       <c r="AK110" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL110" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:38" x14ac:dyDescent="0.2">
@@ -14578,7 +14572,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E111" s="4">
         <v>0</v>
@@ -14653,7 +14647,7 @@
         <v>0</v>
       </c>
       <c r="AC111" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AD111" s="4" t="s">
         <v>45</v>
@@ -14677,10 +14671,10 @@
         <v>37</v>
       </c>
       <c r="AK111" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL111" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="112" spans="1:38" x14ac:dyDescent="0.2">
@@ -14688,13 +14682,13 @@
         <v>11703</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C112" s="4">
         <v>3</v>
       </c>
       <c r="D112" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E112" s="4">
         <v>0</v>
@@ -14769,7 +14763,7 @@
         <v>0</v>
       </c>
       <c r="AC112" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AD112" s="4" t="s">
         <v>45</v>
@@ -14793,10 +14787,10 @@
         <v>37</v>
       </c>
       <c r="AK112" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL112" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="113" spans="1:38" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14804,13 +14798,13 @@
         <v>11704</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C113" s="4">
         <v>2</v>
       </c>
       <c r="D113" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E113" s="4">
         <v>0</v>
@@ -14885,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="AC113" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AD113" s="4" t="s">
         <v>45</v>
@@ -14909,10 +14903,10 @@
         <v>37</v>
       </c>
       <c r="AK113" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AL113" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="114" spans="1:38" x14ac:dyDescent="0.2">
@@ -14920,13 +14914,13 @@
         <v>11705</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C114" s="4">
         <v>2</v>
       </c>
       <c r="D114" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E114" s="4">
         <v>0</v>
@@ -15001,7 +14995,7 @@
         <v>0</v>
       </c>
       <c r="AC114" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AD114" s="4" t="s">
         <v>45</v>
@@ -15025,10 +15019,10 @@
         <v>37</v>
       </c>
       <c r="AK114" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL114" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -15036,13 +15030,13 @@
         <v>11710</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
       </c>
       <c r="D115" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E115" s="4">
         <v>0</v>
@@ -15060,7 +15054,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" s="5">
         <v>100</v>
@@ -15117,7 +15111,7 @@
         <v>0</v>
       </c>
       <c r="AC115" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AD115" s="4" t="s">
         <v>45</v>
@@ -15141,10 +15135,10 @@
         <v>37</v>
       </c>
       <c r="AK115" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AL115" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.2">
@@ -15152,13 +15146,13 @@
         <v>11711</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
       </c>
       <c r="D116" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E116" s="4">
         <v>0</v>
@@ -15176,7 +15170,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" s="5">
         <v>100</v>
@@ -15233,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="AC116" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD116" s="4" t="s">
         <v>45</v>
@@ -15257,10 +15251,10 @@
         <v>37</v>
       </c>
       <c r="AK116" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AL116" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="117" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -15268,13 +15262,13 @@
         <v>11712</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C117" s="4">
         <v>3</v>
       </c>
       <c r="D117" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E117" s="4">
         <v>0</v>
@@ -15292,7 +15286,7 @@
         <v>21712</v>
       </c>
       <c r="J117" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117" s="5">
         <v>100</v>
@@ -15349,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="AC117" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AD117" s="4" t="s">
         <v>45</v>
@@ -15373,10 +15367,10 @@
         <v>37</v>
       </c>
       <c r="AK117" s="13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AL117" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="118" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -15384,13 +15378,13 @@
         <v>11713</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C118" s="4">
         <v>1</v>
       </c>
       <c r="D118" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E118" s="4">
         <v>0</v>
@@ -15408,7 +15402,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" s="5">
         <v>100</v>
@@ -15423,10 +15417,10 @@
         <v>0</v>
       </c>
       <c r="O118" s="5">
-        <v>0</v>
+        <v>517131</v>
       </c>
       <c r="P118" s="5">
-        <v>0</v>
+        <v>517132</v>
       </c>
       <c r="Q118" s="5">
         <v>0</v>
@@ -15465,7 +15459,7 @@
         <v>0</v>
       </c>
       <c r="AC118" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AD118" s="4" t="s">
         <v>45</v>
@@ -15489,10 +15483,10 @@
         <v>37</v>
       </c>
       <c r="AK118" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AL118" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="119" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -15500,13 +15494,13 @@
         <v>11714</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
       </c>
       <c r="D119" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E119" s="4">
         <v>0</v>
@@ -15524,7 +15518,7 @@
         <v>21714</v>
       </c>
       <c r="J119" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="5">
         <v>100</v>
@@ -15581,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="AC119" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AD119" s="4" t="s">
         <v>45</v>
@@ -15605,10 +15599,10 @@
         <v>37</v>
       </c>
       <c r="AK119" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AL119" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="120" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -15616,13 +15610,13 @@
         <v>11715</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C120" s="4">
         <v>3</v>
       </c>
       <c r="D120" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E120" s="4">
         <v>0</v>
@@ -15640,7 +15634,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120" s="5">
         <v>100</v>
@@ -15697,7 +15691,7 @@
         <v>0</v>
       </c>
       <c r="AC120" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AD120" s="4" t="s">
         <v>45</v>
@@ -15721,10 +15715,10 @@
         <v>37</v>
       </c>
       <c r="AK120" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AL120" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="122" spans="1:38" x14ac:dyDescent="0.2">
@@ -15738,7 +15732,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E122" s="4">
         <v>0</v>
@@ -15813,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="AC122" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AD122" s="4" t="s">
         <v>45</v>
@@ -15837,10 +15831,10 @@
         <v>37</v>
       </c>
       <c r="AK122" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL122" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:38" x14ac:dyDescent="0.2">
@@ -15854,7 +15848,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E123" s="4">
         <v>0</v>
@@ -15929,7 +15923,7 @@
         <v>0</v>
       </c>
       <c r="AC123" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AD123" s="4" t="s">
         <v>45</v>
@@ -15953,10 +15947,10 @@
         <v>37</v>
       </c>
       <c r="AK123" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL123" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:38" x14ac:dyDescent="0.2">
@@ -15970,7 +15964,7 @@
         <v>1</v>
       </c>
       <c r="D124" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E124" s="4">
         <v>0</v>
@@ -16045,7 +16039,7 @@
         <v>0</v>
       </c>
       <c r="AC124" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AD124" s="4" t="s">
         <v>45</v>
@@ -16069,10 +16063,10 @@
         <v>37</v>
       </c>
       <c r="AK124" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL124" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125" spans="1:38" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16080,13 +16074,13 @@
         <v>11803</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C125" s="4">
         <v>3</v>
       </c>
       <c r="D125" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E125" s="4">
         <v>0</v>
@@ -16161,7 +16155,7 @@
         <v>0</v>
       </c>
       <c r="AC125" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AD125" s="4" t="s">
         <v>45</v>
@@ -16185,10 +16179,10 @@
         <v>37</v>
       </c>
       <c r="AK125" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL125" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="126" spans="1:38" x14ac:dyDescent="0.2">
@@ -16196,13 +16190,13 @@
         <v>11804</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C126" s="4">
         <v>2</v>
       </c>
       <c r="D126" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E126" s="4">
         <v>0</v>
@@ -16277,7 +16271,7 @@
         <v>0</v>
       </c>
       <c r="AC126" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AD126" s="4" t="s">
         <v>45</v>
@@ -16301,10 +16295,10 @@
         <v>37</v>
       </c>
       <c r="AK126" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AL126" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127" spans="1:38" x14ac:dyDescent="0.2">
@@ -16312,13 +16306,13 @@
         <v>11805</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C127" s="4">
         <v>2</v>
       </c>
       <c r="D127" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E127" s="4">
         <v>0</v>
@@ -16393,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="AC127" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AD127" s="4" t="s">
         <v>45</v>
@@ -16417,10 +16411,10 @@
         <v>37</v>
       </c>
       <c r="AK127" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL127" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="128" spans="1:38" x14ac:dyDescent="0.2">
@@ -16428,13 +16422,13 @@
         <v>11810</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C128" s="4">
         <v>0</v>
       </c>
       <c r="D128" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E128" s="4">
         <v>0</v>
@@ -16509,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="AC128" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AD128" s="4" t="s">
         <v>45</v>
@@ -16533,10 +16527,10 @@
         <v>37</v>
       </c>
       <c r="AK128" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AL128" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:38" x14ac:dyDescent="0.2">
@@ -16544,13 +16538,13 @@
         <v>11811</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
       </c>
       <c r="D129" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E129" s="4">
         <v>0</v>
@@ -16595,19 +16589,19 @@
         <v>318110</v>
       </c>
       <c r="S129" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T129" s="7">
         <v>318111</v>
       </c>
       <c r="U129" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V129" s="7">
         <v>318112</v>
       </c>
       <c r="W129" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="X129" s="7">
         <v>318113</v>
@@ -16625,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="AC129" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AD129" s="4" t="s">
         <v>45</v>
@@ -16649,10 +16643,10 @@
         <v>37</v>
       </c>
       <c r="AK129" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AL129" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" spans="1:38" x14ac:dyDescent="0.2">
@@ -16666,7 +16660,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E131" s="4">
         <v>0</v>
@@ -16741,7 +16735,7 @@
         <v>0</v>
       </c>
       <c r="AC131" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AD131" s="4" t="s">
         <v>45</v>
@@ -16765,10 +16759,10 @@
         <v>37</v>
       </c>
       <c r="AK131" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL131" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="132" spans="1:38" x14ac:dyDescent="0.2">
@@ -16782,7 +16776,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E132" s="4">
         <v>0</v>
@@ -16857,7 +16851,7 @@
         <v>0</v>
       </c>
       <c r="AC132" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AD132" s="4" t="s">
         <v>45</v>
@@ -16881,10 +16875,10 @@
         <v>37</v>
       </c>
       <c r="AK132" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL132" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="133" spans="1:38" x14ac:dyDescent="0.2">
@@ -16898,7 +16892,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E133" s="4">
         <v>0</v>
@@ -16973,7 +16967,7 @@
         <v>0</v>
       </c>
       <c r="AC133" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AD133" s="4" t="s">
         <v>45</v>
@@ -16997,10 +16991,10 @@
         <v>37</v>
       </c>
       <c r="AK133" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL133" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="134" spans="1:38" x14ac:dyDescent="0.2">
@@ -17008,13 +17002,13 @@
         <v>11903</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C134" s="4">
         <v>3</v>
       </c>
       <c r="D134" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E134" s="4">
         <v>0</v>
@@ -17089,7 +17083,7 @@
         <v>0</v>
       </c>
       <c r="AC134" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AD134" s="4" t="s">
         <v>45</v>
@@ -17113,10 +17107,10 @@
         <v>37</v>
       </c>
       <c r="AK134" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL134" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="135" spans="1:38" x14ac:dyDescent="0.2">
@@ -17124,13 +17118,13 @@
         <v>11904</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C135" s="4">
         <v>2</v>
       </c>
       <c r="D135" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E135" s="4">
         <v>0</v>
@@ -17205,7 +17199,7 @@
         <v>0</v>
       </c>
       <c r="AC135" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AD135" s="4" t="s">
         <v>45</v>
@@ -17229,10 +17223,10 @@
         <v>37</v>
       </c>
       <c r="AK135" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AL135" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="136" spans="1:38" x14ac:dyDescent="0.2">
@@ -17240,13 +17234,13 @@
         <v>11905</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C136" s="4">
         <v>2</v>
       </c>
       <c r="D136" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E136" s="4">
         <v>0</v>
@@ -17321,7 +17315,7 @@
         <v>0</v>
       </c>
       <c r="AC136" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AD136" s="4" t="s">
         <v>45</v>
@@ -17345,10 +17339,10 @@
         <v>37</v>
       </c>
       <c r="AK136" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL136" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="137" spans="1:38" x14ac:dyDescent="0.2">
@@ -17356,13 +17350,13 @@
         <v>11910</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C137" s="4">
         <v>2</v>
       </c>
       <c r="D137" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E137" s="4">
         <v>0</v>
@@ -17437,7 +17431,7 @@
         <v>0</v>
       </c>
       <c r="AC137" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AD137" s="4" t="s">
         <v>45</v>
@@ -17461,10 +17455,10 @@
         <v>37</v>
       </c>
       <c r="AK137" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AL137" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="138" spans="1:38" x14ac:dyDescent="0.2">
@@ -17472,13 +17466,13 @@
         <v>11911</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C138" s="4">
         <v>2</v>
       </c>
       <c r="D138" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E138" s="4">
         <v>0</v>
@@ -17553,7 +17547,7 @@
         <v>0</v>
       </c>
       <c r="AC138" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AD138" s="4" t="s">
         <v>45</v>
@@ -17577,10 +17571,10 @@
         <v>37</v>
       </c>
       <c r="AK138" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AL138" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17588,13 +17582,13 @@
         <v>11912</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C139" s="4">
         <v>2</v>
       </c>
       <c r="D139" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E139" s="4">
         <v>0</v>
@@ -17669,7 +17663,7 @@
         <v>0</v>
       </c>
       <c r="AC139" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AD139" s="4" t="s">
         <v>45</v>
@@ -17693,10 +17687,10 @@
         <v>37</v>
       </c>
       <c r="AK139" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AL139" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="140" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17704,13 +17698,13 @@
         <v>11913</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C140" s="4">
         <v>3</v>
       </c>
       <c r="D140" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E140" s="4">
         <v>40</v>
@@ -17785,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="AC140" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AD140" s="4" t="s">
         <v>45</v>
@@ -17809,10 +17803,10 @@
         <v>37</v>
       </c>
       <c r="AK140" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AL140" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="141" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17820,13 +17814,13 @@
         <v>11914</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C141" s="4">
         <v>3</v>
       </c>
       <c r="D141" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E141" s="4">
         <v>40</v>
@@ -17901,7 +17895,7 @@
         <v>0</v>
       </c>
       <c r="AC141" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AD141" s="4" t="s">
         <v>45</v>
@@ -17925,10 +17919,10 @@
         <v>37</v>
       </c>
       <c r="AK141" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AL141" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="142" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17936,13 +17930,13 @@
         <v>11915</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C142" s="4">
         <v>3</v>
       </c>
       <c r="D142" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E142" s="4">
         <v>40</v>
@@ -18017,7 +18011,7 @@
         <v>0</v>
       </c>
       <c r="AC142" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD142" s="4" t="s">
         <v>45</v>
@@ -18041,10 +18035,10 @@
         <v>37</v>
       </c>
       <c r="AK142" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AL142" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="143" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18096,7 +18090,7 @@
         <v>1</v>
       </c>
       <c r="D144" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E144" s="4">
         <v>0</v>
@@ -18171,7 +18165,7 @@
         <v>0</v>
       </c>
       <c r="AC144" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AD144" s="4" t="s">
         <v>45</v>
@@ -18195,10 +18189,10 @@
         <v>37</v>
       </c>
       <c r="AK144" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL144" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="145" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18212,7 +18206,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E145" s="4">
         <v>0</v>
@@ -18287,7 +18281,7 @@
         <v>0</v>
       </c>
       <c r="AC145" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AD145" s="4" t="s">
         <v>45</v>
@@ -18311,10 +18305,10 @@
         <v>37</v>
       </c>
       <c r="AK145" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL145" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="146" spans="1:38" x14ac:dyDescent="0.2">
@@ -18328,7 +18322,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E146" s="4">
         <v>0</v>
@@ -18403,7 +18397,7 @@
         <v>0</v>
       </c>
       <c r="AC146" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AD146" s="4" t="s">
         <v>45</v>
@@ -18427,10 +18421,10 @@
         <v>37</v>
       </c>
       <c r="AK146" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL146" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="147" spans="1:38" x14ac:dyDescent="0.2">
@@ -18438,13 +18432,13 @@
         <v>12003</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C147" s="4">
         <v>3</v>
       </c>
       <c r="D147" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E147" s="4">
         <v>0</v>
@@ -18519,7 +18513,7 @@
         <v>0</v>
       </c>
       <c r="AC147" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AD147" s="4" t="s">
         <v>45</v>
@@ -18543,10 +18537,10 @@
         <v>37</v>
       </c>
       <c r="AK147" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL147" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:38" x14ac:dyDescent="0.2">
@@ -18554,13 +18548,13 @@
         <v>12004</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C148" s="4">
         <v>2</v>
       </c>
       <c r="D148" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E148" s="4">
         <v>0</v>
@@ -18635,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="AC148" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AD148" s="4" t="s">
         <v>45</v>
@@ -18659,10 +18653,10 @@
         <v>37</v>
       </c>
       <c r="AK148" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AL148" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="149" spans="1:38" x14ac:dyDescent="0.2">
@@ -18670,13 +18664,13 @@
         <v>12005</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C149" s="4">
         <v>2</v>
       </c>
       <c r="D149" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E149" s="4">
         <v>0</v>
@@ -18751,7 +18745,7 @@
         <v>0</v>
       </c>
       <c r="AC149" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AD149" s="4" t="s">
         <v>45</v>
@@ -18775,10 +18769,10 @@
         <v>37</v>
       </c>
       <c r="AK149" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL149" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="150" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -18786,13 +18780,13 @@
         <v>12010</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C150" s="4">
         <v>1</v>
       </c>
       <c r="D150" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E150" s="4">
         <v>0</v>
@@ -18867,7 +18861,7 @@
         <v>0</v>
       </c>
       <c r="AC150" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AD150" s="4" t="s">
         <v>45</v>
@@ -18891,10 +18885,10 @@
         <v>37</v>
       </c>
       <c r="AK150" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AL150" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="151" spans="1:38" x14ac:dyDescent="0.2">
@@ -18902,13 +18896,13 @@
         <v>12011</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C151" s="4">
         <v>1</v>
       </c>
       <c r="D151" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E151" s="4">
         <v>0</v>
@@ -18983,7 +18977,7 @@
         <v>0</v>
       </c>
       <c r="AC151" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AD151" s="4" t="s">
         <v>45</v>
@@ -19007,10 +19001,10 @@
         <v>37</v>
       </c>
       <c r="AK151" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AL151" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="152" spans="1:38" x14ac:dyDescent="0.2">
@@ -19018,13 +19012,13 @@
         <v>12012</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C152" s="4">
         <v>2</v>
       </c>
       <c r="D152" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E152" s="4">
         <v>0</v>
@@ -19039,7 +19033,7 @@
         <v>1</v>
       </c>
       <c r="I152" s="5">
-        <v>0</v>
+        <v>22012</v>
       </c>
       <c r="J152" s="5">
         <v>0</v>
@@ -19099,7 +19093,7 @@
         <v>0</v>
       </c>
       <c r="AC152" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AD152" s="4" t="s">
         <v>45</v>
@@ -19123,10 +19117,10 @@
         <v>37</v>
       </c>
       <c r="AK152" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AL152" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="153" spans="1:38" x14ac:dyDescent="0.2">
@@ -19134,13 +19128,13 @@
         <v>12013</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C153" s="4">
         <v>1</v>
       </c>
       <c r="D153" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E153" s="4">
         <v>0</v>
@@ -19239,10 +19233,10 @@
         <v>37</v>
       </c>
       <c r="AK153" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AL153" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="154" spans="1:38" x14ac:dyDescent="0.2">
@@ -19250,13 +19244,13 @@
         <v>12014</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C154" s="4">
         <v>2</v>
       </c>
       <c r="D154" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E154" s="4">
         <v>0</v>
@@ -19334,7 +19328,7 @@
         <v>45</v>
       </c>
       <c r="AD154" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AE154" s="4" t="s">
         <v>45</v>
@@ -19355,10 +19349,10 @@
         <v>37</v>
       </c>
       <c r="AK154" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AL154" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="155" spans="1:38" x14ac:dyDescent="0.2">
@@ -19366,13 +19360,13 @@
         <v>12015</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C155" s="4">
         <v>3</v>
       </c>
       <c r="D155" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E155" s="4">
         <v>0</v>
@@ -19450,7 +19444,7 @@
         <v>45</v>
       </c>
       <c r="AD155" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AE155" s="4" t="s">
         <v>45</v>
@@ -19471,10 +19465,10 @@
         <v>37</v>
       </c>
       <c r="AK155" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AL155" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="156" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -19482,13 +19476,13 @@
         <v>12016</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C156" s="4">
         <v>3</v>
       </c>
       <c r="D156" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E156" s="4">
         <v>0</v>
@@ -19563,17 +19557,17 @@
         <v>0</v>
       </c>
       <c r="AC156" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD156" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE156" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF156" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AD156" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE156" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF156" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="AG156" s="4" t="s">
         <v>45</v>
       </c>
@@ -19587,10 +19581,10 @@
         <v>37</v>
       </c>
       <c r="AK156" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AL156" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="158" spans="1:38" x14ac:dyDescent="0.2">
@@ -19604,7 +19598,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E158" s="4">
         <v>0</v>
@@ -19679,7 +19673,7 @@
         <v>0</v>
       </c>
       <c r="AC158" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AD158" s="4" t="s">
         <v>45</v>
@@ -19703,10 +19697,10 @@
         <v>37</v>
       </c>
       <c r="AK158" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL158" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="159" spans="1:38" x14ac:dyDescent="0.2">
@@ -19720,7 +19714,7 @@
         <v>1</v>
       </c>
       <c r="D159" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E159" s="4">
         <v>0</v>
@@ -19795,7 +19789,7 @@
         <v>0</v>
       </c>
       <c r="AC159" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AD159" s="4" t="s">
         <v>45</v>
@@ -19819,10 +19813,10 @@
         <v>37</v>
       </c>
       <c r="AK159" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL159" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="160" spans="1:38" x14ac:dyDescent="0.2">
@@ -19836,7 +19830,7 @@
         <v>1</v>
       </c>
       <c r="D160" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E160" s="4">
         <v>0</v>
@@ -19911,7 +19905,7 @@
         <v>0</v>
       </c>
       <c r="AC160" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AD160" s="4" t="s">
         <v>45</v>
@@ -19935,10 +19929,10 @@
         <v>37</v>
       </c>
       <c r="AK160" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL160" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="161" spans="1:38" x14ac:dyDescent="0.2">
@@ -19946,13 +19940,13 @@
         <v>12103</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C161" s="4">
         <v>3</v>
       </c>
       <c r="D161" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E161" s="4">
         <v>0</v>
@@ -20027,7 +20021,7 @@
         <v>0</v>
       </c>
       <c r="AC161" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AD161" s="4" t="s">
         <v>45</v>
@@ -20051,10 +20045,10 @@
         <v>37</v>
       </c>
       <c r="AK161" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL161" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="162" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20062,13 +20056,13 @@
         <v>12104</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C162" s="4">
         <v>2</v>
       </c>
       <c r="D162" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E162" s="4">
         <v>0</v>
@@ -20143,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="AC162" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AD162" s="4" t="s">
         <v>45</v>
@@ -20167,10 +20161,10 @@
         <v>37</v>
       </c>
       <c r="AK162" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AL162" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="163" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20178,13 +20172,13 @@
         <v>12105</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C163" s="4">
         <v>2</v>
       </c>
       <c r="D163" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E163" s="4">
         <v>0</v>
@@ -20259,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="AC163" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AD163" s="4" t="s">
         <v>45</v>
@@ -20283,10 +20277,10 @@
         <v>37</v>
       </c>
       <c r="AK163" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL163" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="164" spans="1:38" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20294,13 +20288,13 @@
         <v>12110</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C164" s="4">
         <v>1</v>
       </c>
       <c r="D164" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E164" s="4">
         <v>0</v>
@@ -20375,7 +20369,7 @@
         <v>0</v>
       </c>
       <c r="AC164" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AD164" s="4" t="s">
         <v>45</v>
@@ -20399,10 +20393,10 @@
         <v>37</v>
       </c>
       <c r="AK164" s="13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AL164" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="165" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20410,13 +20404,13 @@
         <v>12111</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
       </c>
       <c r="D165" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E165" s="4">
         <v>0</v>
@@ -20491,7 +20485,7 @@
         <v>0</v>
       </c>
       <c r="AC165" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AD165" s="4" t="s">
         <v>45</v>
@@ -20515,10 +20509,10 @@
         <v>37</v>
       </c>
       <c r="AK165" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AL165" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="1:38" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20526,13 +20520,13 @@
         <v>12112</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C166" s="4">
         <v>3</v>
       </c>
       <c r="D166" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E166" s="4">
         <v>0</v>
@@ -20607,20 +20601,20 @@
         <v>0</v>
       </c>
       <c r="AC166" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD166" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE166" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF166" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG166" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AD166" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE166" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF166" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG166" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="AH166" s="4" t="s">
         <v>45</v>
       </c>
@@ -20631,10 +20625,10 @@
         <v>37</v>
       </c>
       <c r="AK166" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AL166" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="167" spans="1:38" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20642,13 +20636,13 @@
         <v>12113</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C167" s="4">
         <v>1</v>
       </c>
       <c r="D167" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E167" s="4">
         <v>0</v>
@@ -20723,7 +20717,7 @@
         <v>0</v>
       </c>
       <c r="AC167" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AD167" s="4" t="s">
         <v>45</v>
@@ -20747,10 +20741,10 @@
         <v>37</v>
       </c>
       <c r="AK167" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AL167" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="168" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20758,13 +20752,13 @@
         <v>12114</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C168" s="4">
         <v>3</v>
       </c>
       <c r="D168" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E168" s="4">
         <v>0</v>
@@ -20839,7 +20833,7 @@
         <v>0</v>
       </c>
       <c r="AC168" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AD168" s="4" t="s">
         <v>45</v>
@@ -20863,10 +20857,10 @@
         <v>37</v>
       </c>
       <c r="AK168" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AL168" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="169" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20874,13 +20868,13 @@
         <v>12115</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C169" s="4">
         <v>3</v>
       </c>
       <c r="D169" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E169" s="4">
         <v>0</v>
@@ -20955,7 +20949,7 @@
         <v>0</v>
       </c>
       <c r="AC169" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AD169" s="4" t="s">
         <v>45</v>
@@ -20979,10 +20973,10 @@
         <v>37</v>
       </c>
       <c r="AK169" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AL169" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="170" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20990,13 +20984,13 @@
         <v>12116</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C170" s="4">
         <v>3</v>
       </c>
       <c r="D170" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E170" s="4">
         <v>0</v>
@@ -21071,20 +21065,20 @@
         <v>0</v>
       </c>
       <c r="AC170" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD170" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE170" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF170" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG170" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="AD170" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE170" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF170" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG170" s="4" t="s">
-        <v>246</v>
-      </c>
       <c r="AH170" s="4" t="s">
         <v>45</v>
       </c>
@@ -21095,10 +21089,10 @@
         <v>37</v>
       </c>
       <c r="AK170" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AL170" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="171" spans="1:38" x14ac:dyDescent="0.2">
@@ -21106,13 +21100,13 @@
         <v>12117</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C171" s="4">
         <v>2</v>
       </c>
       <c r="D171" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E171" s="4">
         <v>0</v>
@@ -21187,20 +21181,20 @@
         <v>0</v>
       </c>
       <c r="AC171" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD171" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE171" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF171" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG171" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="AD171" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE171" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF171" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG171" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="AH171" s="4" t="s">
         <v>45</v>
       </c>
@@ -21211,10 +21205,10 @@
         <v>37</v>
       </c>
       <c r="AK171" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AL171" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="172" spans="1:38" x14ac:dyDescent="0.2">
@@ -21222,13 +21216,13 @@
         <v>12118</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C172" s="4">
         <v>1</v>
       </c>
       <c r="D172" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E172" s="4">
         <v>0</v>
@@ -21303,10 +21297,10 @@
         <v>0</v>
       </c>
       <c r="AC172" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AD172" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AE172" s="4" t="s">
         <v>45</v>
@@ -21327,10 +21321,10 @@
         <v>37</v>
       </c>
       <c r="AK172" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AL172" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="174" spans="1:38" x14ac:dyDescent="0.2">
@@ -21338,13 +21332,13 @@
         <v>13000</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
       </c>
       <c r="D174" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E174" s="4">
         <v>40</v>
@@ -21419,7 +21413,7 @@
         <v>0</v>
       </c>
       <c r="AC174" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AD174" s="4" t="s">
         <v>45</v>
@@ -21443,10 +21437,10 @@
         <v>37</v>
       </c>
       <c r="AK174" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AL174" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="175" spans="1:38" x14ac:dyDescent="0.2">
@@ -21454,13 +21448,13 @@
         <v>13001</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C175" s="4">
         <v>3</v>
       </c>
       <c r="D175" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E175" s="4">
         <v>0</v>
@@ -21535,7 +21529,7 @@
         <v>0</v>
       </c>
       <c r="AC175" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AD175" s="4" t="s">
         <v>45</v>
@@ -21559,10 +21553,10 @@
         <v>37</v>
       </c>
       <c r="AK175" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AL175" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="176" spans="1:38" x14ac:dyDescent="0.2">
@@ -21570,13 +21564,13 @@
         <v>13002</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C176" s="4">
         <v>3</v>
       </c>
       <c r="D176" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E176" s="4">
         <v>0</v>
@@ -21651,7 +21645,7 @@
         <v>0</v>
       </c>
       <c r="AC176" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AD176" s="4" t="s">
         <v>45</v>
@@ -21675,10 +21669,10 @@
         <v>37</v>
       </c>
       <c r="AK176" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AL176" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="177" spans="1:38" x14ac:dyDescent="0.2">
@@ -21686,13 +21680,13 @@
         <v>13003</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C177" s="4">
         <v>1</v>
       </c>
       <c r="D177" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E177" s="4">
         <v>0</v>
@@ -21767,7 +21761,7 @@
         <v>0</v>
       </c>
       <c r="AC177" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AD177" s="4" t="s">
         <v>45</v>
@@ -21791,10 +21785,10 @@
         <v>37</v>
       </c>
       <c r="AK177" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AL177" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="178" spans="1:38" x14ac:dyDescent="0.2">
@@ -21802,13 +21796,13 @@
         <v>13004</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C178" s="4">
         <v>1</v>
       </c>
       <c r="D178" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E178" s="4">
         <v>0</v>
@@ -21883,7 +21877,7 @@
         <v>0</v>
       </c>
       <c r="AC178" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AD178" s="4" t="s">
         <v>45</v>
@@ -21907,10 +21901,10 @@
         <v>37</v>
       </c>
       <c r="AK178" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AL178" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="179" spans="1:38" x14ac:dyDescent="0.2">
@@ -21918,13 +21912,13 @@
         <v>13005</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C179" s="4">
         <v>1</v>
       </c>
       <c r="D179" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E179" s="4">
         <v>0</v>
@@ -21999,7 +21993,7 @@
         <v>0</v>
       </c>
       <c r="AC179" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AD179" s="4" t="s">
         <v>45</v>
@@ -22023,10 +22017,10 @@
         <v>37</v>
       </c>
       <c r="AK179" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AL179" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="180" spans="1:38" x14ac:dyDescent="0.2">
@@ -22034,13 +22028,13 @@
         <v>13006</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C180" s="4">
         <v>2</v>
       </c>
       <c r="D180" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E180" s="4">
         <v>0</v>
@@ -22115,7 +22109,7 @@
         <v>0</v>
       </c>
       <c r="AC180" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AD180" s="4" t="s">
         <v>45</v>
@@ -22139,10 +22133,10 @@
         <v>37</v>
       </c>
       <c r="AK180" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AL180" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="181" spans="1:38" x14ac:dyDescent="0.2">
@@ -22150,13 +22144,13 @@
         <v>13007</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
       </c>
       <c r="D181" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E181" s="4">
         <v>0</v>
@@ -22231,7 +22225,7 @@
         <v>0</v>
       </c>
       <c r="AC181" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AD181" s="4" t="s">
         <v>45</v>
@@ -22255,10 +22249,10 @@
         <v>37</v>
       </c>
       <c r="AK181" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AL181" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="182" spans="1:38" x14ac:dyDescent="0.2">
@@ -22266,13 +22260,13 @@
         <v>13008</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C182" s="4">
         <v>2</v>
       </c>
       <c r="D182" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E182" s="4">
         <v>0</v>
@@ -22347,7 +22341,7 @@
         <v>0</v>
       </c>
       <c r="AC182" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD182" s="4" t="s">
         <v>45</v>
@@ -22371,10 +22365,10 @@
         <v>37</v>
       </c>
       <c r="AK182" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AL182" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="183" spans="1:38" x14ac:dyDescent="0.2">
@@ -22382,13 +22376,13 @@
         <v>13009</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
       </c>
       <c r="D183" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E183" s="4">
         <v>0</v>
@@ -22463,7 +22457,7 @@
         <v>0</v>
       </c>
       <c r="AC183" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AD183" s="4" t="s">
         <v>45</v>
@@ -22487,10 +22481,10 @@
         <v>37</v>
       </c>
       <c r="AK183" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AL183" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="1:38" x14ac:dyDescent="0.2">
@@ -22498,13 +22492,13 @@
         <v>13010</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C184" s="4">
         <v>3</v>
       </c>
       <c r="D184" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E184" s="4">
         <v>0</v>
@@ -22579,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="AC184" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AD184" s="4" t="s">
         <v>45</v>
@@ -22603,10 +22597,10 @@
         <v>37</v>
       </c>
       <c r="AK184" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AL184" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" spans="1:38" x14ac:dyDescent="0.2">
@@ -22614,13 +22608,13 @@
         <v>13011</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C185" s="4">
         <v>3</v>
       </c>
       <c r="D185" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E185" s="4">
         <v>0</v>
@@ -22695,10 +22689,10 @@
         <v>0</v>
       </c>
       <c r="AC185" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AD185" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE185" s="4" t="s">
         <v>45</v>
@@ -22719,10 +22713,10 @@
         <v>37</v>
       </c>
       <c r="AK185" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AL185" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="186" spans="1:38" x14ac:dyDescent="0.2">
@@ -22730,13 +22724,13 @@
         <v>13012</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
       </c>
       <c r="D186" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E186" s="4">
         <v>0</v>
@@ -22748,7 +22742,7 @@
         <v>0</v>
       </c>
       <c r="H186" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" s="5">
         <v>0</v>
@@ -22811,7 +22805,7 @@
         <v>0</v>
       </c>
       <c r="AC186" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AD186" s="4" t="s">
         <v>45</v>
@@ -22835,10 +22829,10 @@
         <v>37</v>
       </c>
       <c r="AK186" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AL186" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="187" spans="1:38" x14ac:dyDescent="0.2">
@@ -22846,13 +22840,13 @@
         <v>13013</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C187" s="4">
         <v>2</v>
       </c>
       <c r="D187" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E187" s="4">
         <v>0</v>
@@ -22864,7 +22858,7 @@
         <v>0</v>
       </c>
       <c r="H187" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" s="5">
         <v>0</v>
@@ -22927,7 +22921,7 @@
         <v>0</v>
       </c>
       <c r="AC187" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AD187" s="4" t="s">
         <v>45</v>
@@ -22951,10 +22945,10 @@
         <v>37</v>
       </c>
       <c r="AK187" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AL187" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="188" spans="1:38" x14ac:dyDescent="0.2">
@@ -22962,13 +22956,13 @@
         <v>13014</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C188" s="4">
         <v>3</v>
       </c>
       <c r="D188" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E188" s="4">
         <v>0</v>
@@ -22980,7 +22974,7 @@
         <v>0</v>
       </c>
       <c r="H188" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" s="5">
         <v>0</v>
@@ -23043,7 +23037,7 @@
         <v>0</v>
       </c>
       <c r="AC188" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AD188" s="4" t="s">
         <v>45</v>
@@ -23067,10 +23061,10 @@
         <v>37</v>
       </c>
       <c r="AK188" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AL188" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="189" spans="1:38" x14ac:dyDescent="0.2">
@@ -23078,13 +23072,13 @@
         <v>13015</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C189" s="4">
         <v>1</v>
       </c>
       <c r="D189" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E189" s="4">
         <v>0</v>
@@ -23096,7 +23090,7 @@
         <v>0</v>
       </c>
       <c r="H189" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" s="5">
         <v>0</v>
@@ -23159,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="AC189" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AD189" s="4" t="s">
         <v>45</v>
@@ -23183,10 +23177,10 @@
         <v>37</v>
       </c>
       <c r="AK189" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AL189" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="190" spans="1:38" x14ac:dyDescent="0.2">
@@ -23194,13 +23188,13 @@
         <v>13016</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C190" s="4">
         <v>2</v>
       </c>
       <c r="D190" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E190" s="4">
         <v>0</v>
@@ -23212,7 +23206,7 @@
         <v>0</v>
       </c>
       <c r="H190" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" s="5">
         <v>0</v>
@@ -23275,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="AC190" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AD190" s="4" t="s">
         <v>45</v>
@@ -23299,10 +23293,10 @@
         <v>37</v>
       </c>
       <c r="AK190" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AL190" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="191" spans="1:38" x14ac:dyDescent="0.2">
@@ -23310,13 +23304,13 @@
         <v>13017</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C191" s="4">
         <v>3</v>
       </c>
       <c r="D191" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E191" s="4">
         <v>0</v>
@@ -23328,7 +23322,7 @@
         <v>0</v>
       </c>
       <c r="H191" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" s="5">
         <v>0</v>
@@ -23391,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="AC191" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AD191" s="4" t="s">
         <v>45</v>
@@ -23415,10 +23409,10 @@
         <v>37</v>
       </c>
       <c r="AK191" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AL191" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="192" spans="1:38" x14ac:dyDescent="0.2">
@@ -23426,13 +23420,13 @@
         <v>13018</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
       </c>
       <c r="D192" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E192" s="4">
         <v>40</v>
@@ -23507,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="AC192" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AD192" s="4" t="s">
         <v>45</v>
@@ -23531,10 +23525,10 @@
         <v>37</v>
       </c>
       <c r="AK192" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AL192" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="193" spans="1:38" x14ac:dyDescent="0.2">
@@ -23554,7 +23548,7 @@
         <v>14000</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C196" s="4">
         <v>0</v>
@@ -23635,10 +23629,10 @@
         <v>0</v>
       </c>
       <c r="AC196" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AD196" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AE196" s="4" t="s">
         <v>45</v>
@@ -23666,7 +23660,7 @@
         <v>14001</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -23747,16 +23741,16 @@
         <v>0</v>
       </c>
       <c r="AC197" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AD197" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AE197" s="4" t="s">
         <v>45</v>
       </c>
       <c r="AF197" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG197" s="4" t="s">
         <v>45</v>
@@ -23778,7 +23772,7 @@
         <v>14002</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -23859,10 +23853,10 @@
         <v>0</v>
       </c>
       <c r="AC198" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AD198" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AE198" s="4" t="s">
         <v>45</v>
@@ -23890,7 +23884,7 @@
         <v>14003</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -23971,10 +23965,10 @@
         <v>0</v>
       </c>
       <c r="AC199" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AD199" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AE199" s="4" t="s">
         <v>45</v>
@@ -24002,7 +23996,7 @@
         <v>14004</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -24083,10 +24077,10 @@
         <v>0</v>
       </c>
       <c r="AC200" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AD200" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AE200" s="4" t="s">
         <v>45</v>
@@ -24114,7 +24108,7 @@
         <v>14005</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -24195,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="AC201" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AD201" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AE201" s="4" t="s">
         <v>45</v>
@@ -24226,7 +24220,7 @@
         <v>14006</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -24307,10 +24301,10 @@
         <v>0</v>
       </c>
       <c r="AC202" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AD202" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AE202" s="4" t="s">
         <v>45</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8642082-9097-4321-A1E2-1F580867190D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704E784C-30C3-4319-9285-E2373413A4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="5475" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12615" yWindow="5550" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -781,31 +781,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[410100,410102]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不制止暗杀将导致失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410100,410101]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410110,410102]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410110,410101]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410120,410102]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410120,410101]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2490,6 +2466,30 @@
   </si>
   <si>
     <t>[400060,400061]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[410100,410102,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[410100,410101,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[410110,410102,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[410110,410101,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[410120,410102,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[410120,410101,400070]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2951,8 +2951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="J153" sqref="J153"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3032,10 +3032,10 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>23</v>
@@ -3163,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AE2" s="4" t="s">
         <v>45</v>
@@ -3187,10 +3187,10 @@
         <v>37</v>
       </c>
       <c r="AK2" s="13" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AD3" s="4" t="s">
         <v>45</v>
@@ -3303,10 +3303,10 @@
         <v>37</v>
       </c>
       <c r="AK3" s="13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AD4" s="4" t="s">
         <v>45</v>
@@ -3419,10 +3419,10 @@
         <v>37</v>
       </c>
       <c r="AK4" s="13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AD5" s="4" t="s">
         <v>45</v>
@@ -3535,10 +3535,10 @@
         <v>37</v>
       </c>
       <c r="AK5" s="13" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -3546,7 +3546,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AD6" s="4" t="s">
         <v>45</v>
@@ -3651,10 +3651,10 @@
         <v>37</v>
       </c>
       <c r="AK6" s="13" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AD7" s="4" t="s">
         <v>45</v>
@@ -3767,10 +3767,10 @@
         <v>37</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="AD8" s="4" t="s">
         <v>45</v>
@@ -3883,10 +3883,10 @@
         <v>37</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AD9" s="4" t="s">
         <v>45</v>
@@ -3999,10 +3999,10 @@
         <v>37</v>
       </c>
       <c r="AK9" s="13" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
@@ -4010,7 +4010,7 @@
         <v>10100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AD11" s="4" t="s">
         <v>45</v>
@@ -4115,10 +4115,10 @@
         <v>37</v>
       </c>
       <c r="AK11" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
@@ -4126,7 +4126,7 @@
         <v>10101</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AD12" s="4" t="s">
         <v>45</v>
@@ -4231,10 +4231,10 @@
         <v>37</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AL12" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
@@ -4242,7 +4242,7 @@
         <v>10102</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AD13" s="4" t="s">
         <v>45</v>
@@ -4347,10 +4347,10 @@
         <v>37</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
@@ -4358,7 +4358,7 @@
         <v>10103</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AD14" s="4" t="s">
         <v>45</v>
@@ -4463,10 +4463,10 @@
         <v>37</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AL14" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
@@ -4474,7 +4474,7 @@
         <v>10104</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AD15" s="4" t="s">
         <v>45</v>
@@ -4579,10 +4579,10 @@
         <v>37</v>
       </c>
       <c r="AK15" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
@@ -4590,7 +4590,7 @@
         <v>10105</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AD16" s="4" t="s">
         <v>45</v>
@@ -4695,10 +4695,10 @@
         <v>37</v>
       </c>
       <c r="AK16" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AL16" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -4706,7 +4706,7 @@
         <v>10200</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AD18" s="4" t="s">
         <v>45</v>
@@ -4811,10 +4811,10 @@
         <v>37</v>
       </c>
       <c r="AK18" s="13" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
@@ -4822,7 +4822,7 @@
         <v>10201</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AD19" s="4" t="s">
         <v>45</v>
@@ -4927,10 +4927,10 @@
         <v>37</v>
       </c>
       <c r="AK19" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AL19" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -4938,7 +4938,7 @@
         <v>10202</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AD20" s="4" t="s">
         <v>45</v>
@@ -5043,10 +5043,10 @@
         <v>37</v>
       </c>
       <c r="AK20" s="13" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AL20" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -5054,7 +5054,7 @@
         <v>10203</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AD21" s="4" t="s">
         <v>45</v>
@@ -5159,10 +5159,10 @@
         <v>37</v>
       </c>
       <c r="AK21" s="13" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AL21" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AD23" s="4" t="s">
         <v>45</v>
@@ -5275,10 +5275,10 @@
         <v>37</v>
       </c>
       <c r="AK23" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL23" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD24" s="4" t="s">
         <v>45</v>
@@ -5391,10 +5391,10 @@
         <v>37</v>
       </c>
       <c r="AK24" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL24" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD25" s="4" t="s">
         <v>45</v>
@@ -5507,10 +5507,10 @@
         <v>37</v>
       </c>
       <c r="AK25" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL25" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD26" s="4" t="s">
         <v>45</v>
@@ -5623,10 +5623,10 @@
         <v>37</v>
       </c>
       <c r="AK26" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AL26" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD27" s="4" t="s">
         <v>45</v>
@@ -5742,7 +5742,7 @@
         <v>48</v>
       </c>
       <c r="AL27" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AD28" s="4" t="s">
         <v>45</v>
@@ -5855,10 +5855,10 @@
         <v>37</v>
       </c>
       <c r="AK28" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL28" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
@@ -5947,34 +5947,34 @@
         <v>0</v>
       </c>
       <c r="AC29" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK29" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL29" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="AD29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK29" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="AL29" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>53</v>
+        <v>487</v>
       </c>
       <c r="AD30" s="4" t="s">
         <v>45</v>
@@ -6087,10 +6087,10 @@
         <v>37</v>
       </c>
       <c r="AK30" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AL30" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>54</v>
+        <v>488</v>
       </c>
       <c r="AD31" s="4" t="s">
         <v>45</v>
@@ -6203,10 +6203,10 @@
         <v>37</v>
       </c>
       <c r="AK31" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AL31" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>55</v>
+        <v>489</v>
       </c>
       <c r="AD32" s="4" t="s">
         <v>45</v>
@@ -6319,10 +6319,10 @@
         <v>37</v>
       </c>
       <c r="AK32" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AL32" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.2">
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>56</v>
+        <v>490</v>
       </c>
       <c r="AD33" s="4" t="s">
         <v>45</v>
@@ -6435,10 +6435,10 @@
         <v>37</v>
       </c>
       <c r="AK33" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AL33" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>57</v>
+        <v>491</v>
       </c>
       <c r="AD34" s="4" t="s">
         <v>45</v>
@@ -6551,10 +6551,10 @@
         <v>37</v>
       </c>
       <c r="AK34" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AL34" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AD36" s="4" t="s">
         <v>45</v>
@@ -6667,10 +6667,10 @@
         <v>37</v>
       </c>
       <c r="AK36" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL36" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AD37" s="4" t="s">
         <v>45</v>
@@ -6783,10 +6783,10 @@
         <v>37</v>
       </c>
       <c r="AK37" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL37" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD38" s="4" t="s">
         <v>45</v>
@@ -6899,10 +6899,10 @@
         <v>37</v>
       </c>
       <c r="AK38" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL38" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.2">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD39" s="4" t="s">
         <v>45</v>
@@ -7015,10 +7015,10 @@
         <v>37</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD40" s="4" t="s">
         <v>45</v>
@@ -7131,10 +7131,10 @@
         <v>37</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.2">
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD41" s="4" t="s">
         <v>45</v>
@@ -7247,10 +7247,10 @@
         <v>37</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.2">
@@ -7258,7 +7258,7 @@
         <v>11106</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C42" s="4">
         <v>3</v>
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AD42" s="4" t="s">
         <v>45</v>
@@ -7363,10 +7363,10 @@
         <v>37</v>
       </c>
       <c r="AK42" s="14" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AL42" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.2">
@@ -7455,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AD44" s="4" t="s">
         <v>45</v>
@@ -7479,10 +7479,10 @@
         <v>37</v>
       </c>
       <c r="AK44" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL44" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.2">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AD45" s="4" t="s">
         <v>45</v>
@@ -7595,10 +7595,10 @@
         <v>37</v>
       </c>
       <c r="AK45" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL45" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.2">
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AD46" s="4" t="s">
         <v>45</v>
@@ -7711,10 +7711,10 @@
         <v>37</v>
       </c>
       <c r="AK46" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL46" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.2">
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AD47" s="4" t="s">
         <v>45</v>
@@ -7827,10 +7827,10 @@
         <v>37</v>
       </c>
       <c r="AK47" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AL47" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.2">
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AD48" s="4" t="s">
         <v>45</v>
@@ -7943,10 +7943,10 @@
         <v>37</v>
       </c>
       <c r="AK48" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AL48" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:38" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD49" s="4" t="s">
         <v>45</v>
@@ -8059,10 +8059,10 @@
         <v>37</v>
       </c>
       <c r="AK49" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AL49" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -8070,7 +8070,7 @@
         <v>11210</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AD50" s="4" t="s">
         <v>45</v>
@@ -8175,10 +8175,10 @@
         <v>37</v>
       </c>
       <c r="AK50" s="13" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AL50" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -8186,7 +8186,7 @@
         <v>11211</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C51" s="4">
         <v>3</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AD51" s="4" t="s">
         <v>45</v>
@@ -8291,10 +8291,10 @@
         <v>37</v>
       </c>
       <c r="AK51" s="13" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AL51" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -8302,7 +8302,7 @@
         <v>11212</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AD52" s="4" t="s">
         <v>45</v>
@@ -8407,10 +8407,10 @@
         <v>37</v>
       </c>
       <c r="AK52" s="13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AL52" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -8418,7 +8418,7 @@
         <v>11213</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C53" s="4">
         <v>2</v>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AD53" s="4" t="s">
         <v>45</v>
@@ -8508,7 +8508,7 @@
         <v>45</v>
       </c>
       <c r="AF53" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AG53" s="4" t="s">
         <v>45</v>
@@ -8523,10 +8523,10 @@
         <v>37</v>
       </c>
       <c r="AK53" s="13" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AL53" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -8534,7 +8534,7 @@
         <v>11214</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AD54" s="4" t="s">
         <v>45</v>
@@ -8639,10 +8639,10 @@
         <v>37</v>
       </c>
       <c r="AK54" s="13" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AL54" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -8650,7 +8650,7 @@
         <v>11215</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C55" s="4">
         <v>2</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AD55" s="4" t="s">
         <v>45</v>
@@ -8755,10 +8755,10 @@
         <v>37</v>
       </c>
       <c r="AK55" s="13" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AL55" s="4" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.2">
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AD57" s="4" t="s">
         <v>45</v>
@@ -8871,10 +8871,10 @@
         <v>37</v>
       </c>
       <c r="AK57" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL57" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.2">
@@ -8963,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AD58" s="4" t="s">
         <v>45</v>
@@ -8987,10 +8987,10 @@
         <v>37</v>
       </c>
       <c r="AK58" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL58" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.2">
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AD59" s="4" t="s">
         <v>45</v>
@@ -9103,10 +9103,10 @@
         <v>37</v>
       </c>
       <c r="AK59" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL59" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AD60" s="4" t="s">
         <v>45</v>
@@ -9219,10 +9219,10 @@
         <v>37</v>
       </c>
       <c r="AK60" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AL60" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
@@ -9311,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="4" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AD61" s="4" t="s">
         <v>45</v>
@@ -9335,10 +9335,10 @@
         <v>37</v>
       </c>
       <c r="AK61" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AL61" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AD62" s="4" t="s">
         <v>45</v>
@@ -9451,10 +9451,10 @@
         <v>37</v>
       </c>
       <c r="AK62" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AL62" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
@@ -9462,7 +9462,7 @@
         <v>11310</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C63" s="4">
         <v>2</v>
@@ -9543,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AD63" s="4" t="s">
         <v>45</v>
@@ -9567,10 +9567,10 @@
         <v>37</v>
       </c>
       <c r="AK63" s="4" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AL63" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
@@ -9578,7 +9578,7 @@
         <v>11311</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C64" s="4">
         <v>3</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AD64" s="4" t="s">
         <v>45</v>
@@ -9683,10 +9683,10 @@
         <v>37</v>
       </c>
       <c r="AK64" s="4" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AL64" s="4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
@@ -9694,7 +9694,7 @@
         <v>11312</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AD65" s="4" t="s">
         <v>45</v>
@@ -9799,10 +9799,10 @@
         <v>37</v>
       </c>
       <c r="AK65" s="4" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AL65" s="4" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
@@ -9810,7 +9810,7 @@
         <v>11313</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD66" s="4" t="s">
         <v>45</v>
@@ -9915,10 +9915,10 @@
         <v>37</v>
       </c>
       <c r="AK66" s="4" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AL66" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
@@ -9926,7 +9926,7 @@
         <v>11314</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AD67" s="4" t="s">
         <v>45</v>
@@ -10031,10 +10031,10 @@
         <v>37</v>
       </c>
       <c r="AK67" s="4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AL67" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
@@ -10042,7 +10042,7 @@
         <v>11315</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C68" s="4">
         <v>2</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AD68" s="4" t="s">
         <v>45</v>
@@ -10147,10 +10147,10 @@
         <v>37</v>
       </c>
       <c r="AK68" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AL68" s="4" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
@@ -10158,7 +10158,7 @@
         <v>11316</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C69" s="4">
         <v>3</v>
@@ -10239,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AD69" s="4" t="s">
         <v>45</v>
@@ -10263,10 +10263,10 @@
         <v>37</v>
       </c>
       <c r="AK69" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AL69" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
@@ -10274,7 +10274,7 @@
         <v>11320</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C70" s="4">
         <v>3</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AD70" s="4" t="s">
         <v>45</v>
@@ -10379,10 +10379,10 @@
         <v>37</v>
       </c>
       <c r="AK70" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AL70" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
@@ -10390,7 +10390,7 @@
         <v>11321</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C71" s="4">
         <v>3</v>
@@ -10471,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AD71" s="4" t="s">
         <v>45</v>
@@ -10495,10 +10495,10 @@
         <v>37</v>
       </c>
       <c r="AK71" s="4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AL71" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
@@ -10506,7 +10506,7 @@
         <v>11322</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C72" s="4">
         <v>2</v>
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AD72" s="4" t="s">
         <v>45</v>
@@ -10611,10 +10611,10 @@
         <v>37</v>
       </c>
       <c r="AK72" s="4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AL72" s="4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.2">
@@ -10622,7 +10622,7 @@
         <v>11323</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C73" s="4">
         <v>3</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD73" s="4" t="s">
         <v>45</v>
@@ -10727,10 +10727,10 @@
         <v>37</v>
       </c>
       <c r="AK73" s="4" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AL73" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.2">
@@ -10819,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AD75" s="4" t="s">
         <v>45</v>
@@ -10843,10 +10843,10 @@
         <v>37</v>
       </c>
       <c r="AK75" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AL75" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
@@ -10935,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="AC76" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AD76" s="4" t="s">
         <v>45</v>
@@ -10959,10 +10959,10 @@
         <v>37</v>
       </c>
       <c r="AK76" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL76" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.2">
@@ -11051,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AD77" s="4" t="s">
         <v>45</v>
@@ -11075,10 +11075,10 @@
         <v>37</v>
       </c>
       <c r="AK77" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL77" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
@@ -11167,7 +11167,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AD78" s="4" t="s">
         <v>45</v>
@@ -11191,10 +11191,10 @@
         <v>37</v>
       </c>
       <c r="AK78" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AL78" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.2">
@@ -11283,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="AC79" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AD79" s="4" t="s">
         <v>45</v>
@@ -11307,10 +11307,10 @@
         <v>37</v>
       </c>
       <c r="AK79" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AL79" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.2">
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AC80" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AD80" s="4" t="s">
         <v>45</v>
@@ -11423,10 +11423,10 @@
         <v>37</v>
       </c>
       <c r="AK80" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AL80" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.2">
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="AC82" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AD82" s="4" t="s">
         <v>45</v>
@@ -11539,10 +11539,10 @@
         <v>37</v>
       </c>
       <c r="AK82" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL82" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.2">
@@ -11631,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="AC83" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AD83" s="4" t="s">
         <v>45</v>
@@ -11655,10 +11655,10 @@
         <v>37</v>
       </c>
       <c r="AK83" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL83" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="1:38" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="AC84" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AD84" s="4" t="s">
         <v>45</v>
@@ -11771,10 +11771,10 @@
         <v>37</v>
       </c>
       <c r="AK84" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL84" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:38" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="AC85" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AD85" s="4" t="s">
         <v>45</v>
@@ -11887,10 +11887,10 @@
         <v>37</v>
       </c>
       <c r="AK85" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AL85" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.2">
@@ -11979,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="AC86" s="4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AD86" s="4" t="s">
         <v>45</v>
@@ -12003,10 +12003,10 @@
         <v>37</v>
       </c>
       <c r="AK86" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AL86" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.2">
@@ -12095,7 +12095,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AD87" s="4" t="s">
         <v>45</v>
@@ -12119,10 +12119,10 @@
         <v>37</v>
       </c>
       <c r="AK87" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AL87" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -12130,7 +12130,7 @@
         <v>11510</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="AC88" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AD88" s="4" t="s">
         <v>45</v>
@@ -12235,10 +12235,10 @@
         <v>37</v>
       </c>
       <c r="AK88" s="13" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AL88" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -12246,7 +12246,7 @@
         <v>11511</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -12297,7 +12297,7 @@
         <v>315110</v>
       </c>
       <c r="S89" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T89" s="7">
         <v>315111</v>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="AC89" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AD89" s="4" t="s">
         <v>45</v>
@@ -12351,10 +12351,10 @@
         <v>37</v>
       </c>
       <c r="AK89" s="13" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AL89" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.2">
@@ -12362,7 +12362,7 @@
         <v>11512</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -12443,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="AC90" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="AD90" s="4" t="s">
         <v>45</v>
@@ -12467,10 +12467,10 @@
         <v>37</v>
       </c>
       <c r="AK90" s="4" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AL90" s="4" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.2">
@@ -12478,7 +12478,7 @@
         <v>11513</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -12559,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="AC91" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AD91" s="4" t="s">
         <v>45</v>
@@ -12583,10 +12583,10 @@
         <v>37</v>
       </c>
       <c r="AK91" s="4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AL91" s="4" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.2">
@@ -12594,7 +12594,7 @@
         <v>11514</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="AC92" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="AD92" s="4" t="s">
         <v>45</v>
@@ -12699,10 +12699,10 @@
         <v>37</v>
       </c>
       <c r="AK92" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AL92" s="4" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.2">
@@ -12710,7 +12710,7 @@
         <v>11515</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="AC93" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD93" s="4" t="s">
         <v>45</v>
@@ -12815,10 +12815,10 @@
         <v>37</v>
       </c>
       <c r="AK93" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AL93" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.2">
@@ -12826,7 +12826,7 @@
         <v>11516</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C94" s="4">
         <v>1</v>
@@ -12907,7 +12907,7 @@
         <v>0</v>
       </c>
       <c r="AC94" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD94" s="4" t="s">
         <v>45</v>
@@ -12931,10 +12931,10 @@
         <v>37</v>
       </c>
       <c r="AK94" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AL94" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:38" x14ac:dyDescent="0.2">
@@ -12942,7 +12942,7 @@
         <v>11517</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="AC95" s="4" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AD95" s="4" t="s">
         <v>45</v>
@@ -13047,10 +13047,10 @@
         <v>37</v>
       </c>
       <c r="AK95" s="4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AL95" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.2">
@@ -13058,7 +13058,7 @@
         <v>11518</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -13139,7 +13139,7 @@
         <v>0</v>
       </c>
       <c r="AC96" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AD96" s="4" t="s">
         <v>45</v>
@@ -13163,10 +13163,10 @@
         <v>37</v>
       </c>
       <c r="AK96" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AL96" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.2">
@@ -13255,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="AC98" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AD98" s="4" t="s">
         <v>45</v>
@@ -13279,10 +13279,10 @@
         <v>37</v>
       </c>
       <c r="AK98" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL98" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.2">
@@ -13371,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="AC99" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AD99" s="4" t="s">
         <v>45</v>
@@ -13395,10 +13395,10 @@
         <v>37</v>
       </c>
       <c r="AK99" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL99" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.2">
@@ -13487,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="AC100" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AD100" s="4" t="s">
         <v>45</v>
@@ -13511,10 +13511,10 @@
         <v>37</v>
       </c>
       <c r="AK100" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL100" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.2">
@@ -13603,7 +13603,7 @@
         <v>0</v>
       </c>
       <c r="AC101" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AD101" s="4" t="s">
         <v>45</v>
@@ -13627,10 +13627,10 @@
         <v>37</v>
       </c>
       <c r="AK101" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AL101" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="AC102" s="4" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AD102" s="4" t="s">
         <v>45</v>
@@ -13743,10 +13743,10 @@
         <v>37</v>
       </c>
       <c r="AK102" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AL102" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.2">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="AC103" s="4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AD103" s="4" t="s">
         <v>45</v>
@@ -13859,10 +13859,10 @@
         <v>37</v>
       </c>
       <c r="AK103" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AL103" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -13870,7 +13870,7 @@
         <v>11610</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C104" s="4">
         <v>3</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="AC104" s="4" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AD104" s="4" t="s">
         <v>45</v>
@@ -13975,10 +13975,10 @@
         <v>37</v>
       </c>
       <c r="AK104" s="13" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AL104" s="4" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -13986,7 +13986,7 @@
         <v>11611</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C105" s="4">
         <v>1</v>
@@ -14067,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="AC105" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AD105" s="4" t="s">
         <v>45</v>
@@ -14091,10 +14091,10 @@
         <v>37</v>
       </c>
       <c r="AK105" s="13" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AL105" s="4" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -14102,7 +14102,7 @@
         <v>11612</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C106" s="4">
         <v>2</v>
@@ -14183,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="AC106" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AD106" s="4" t="s">
         <v>45</v>
@@ -14207,10 +14207,10 @@
         <v>37</v>
       </c>
       <c r="AK106" s="13" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AL106" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.2">
@@ -14218,7 +14218,7 @@
         <v>11613</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C107" s="4">
         <v>3</v>
@@ -14299,7 +14299,7 @@
         <v>0</v>
       </c>
       <c r="AC107" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD107" s="4" t="s">
         <v>45</v>
@@ -14308,10 +14308,10 @@
         <v>45</v>
       </c>
       <c r="AF107" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AG107" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AH107" s="4" t="s">
         <v>45</v>
@@ -14323,10 +14323,10 @@
         <v>37</v>
       </c>
       <c r="AK107" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AL107" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.2">
@@ -14415,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="AC109" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AD109" s="4" t="s">
         <v>45</v>
@@ -14439,10 +14439,10 @@
         <v>37</v>
       </c>
       <c r="AK109" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL109" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:38" x14ac:dyDescent="0.2">
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="AC110" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AD110" s="4" t="s">
         <v>45</v>
@@ -14555,10 +14555,10 @@
         <v>37</v>
       </c>
       <c r="AK110" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL110" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="111" spans="1:38" x14ac:dyDescent="0.2">
@@ -14647,7 +14647,7 @@
         <v>0</v>
       </c>
       <c r="AC111" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AD111" s="4" t="s">
         <v>45</v>
@@ -14671,10 +14671,10 @@
         <v>37</v>
       </c>
       <c r="AK111" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL111" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="112" spans="1:38" x14ac:dyDescent="0.2">
@@ -14763,7 +14763,7 @@
         <v>0</v>
       </c>
       <c r="AC112" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="AD112" s="4" t="s">
         <v>45</v>
@@ -14787,10 +14787,10 @@
         <v>37</v>
       </c>
       <c r="AK112" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AL112" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:38" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14879,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="AC113" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="AD113" s="4" t="s">
         <v>45</v>
@@ -14903,10 +14903,10 @@
         <v>37</v>
       </c>
       <c r="AK113" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AL113" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="114" spans="1:38" x14ac:dyDescent="0.2">
@@ -14995,7 +14995,7 @@
         <v>0</v>
       </c>
       <c r="AC114" s="4" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AD114" s="4" t="s">
         <v>45</v>
@@ -15019,10 +15019,10 @@
         <v>37</v>
       </c>
       <c r="AK114" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AL114" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="115" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -15030,7 +15030,7 @@
         <v>11710</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
@@ -15111,7 +15111,7 @@
         <v>0</v>
       </c>
       <c r="AC115" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AD115" s="4" t="s">
         <v>45</v>
@@ -15135,10 +15135,10 @@
         <v>37</v>
       </c>
       <c r="AK115" s="13" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AL115" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.2">
@@ -15146,7 +15146,7 @@
         <v>11711</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -15227,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="AC116" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AD116" s="4" t="s">
         <v>45</v>
@@ -15251,10 +15251,10 @@
         <v>37</v>
       </c>
       <c r="AK116" s="4" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AL116" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -15262,7 +15262,7 @@
         <v>11712</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C117" s="4">
         <v>3</v>
@@ -15343,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="AC117" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AD117" s="4" t="s">
         <v>45</v>
@@ -15367,10 +15367,10 @@
         <v>37</v>
       </c>
       <c r="AK117" s="13" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AL117" s="4" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -15378,7 +15378,7 @@
         <v>11713</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C118" s="4">
         <v>1</v>
@@ -15459,7 +15459,7 @@
         <v>0</v>
       </c>
       <c r="AC118" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AD118" s="4" t="s">
         <v>45</v>
@@ -15483,10 +15483,10 @@
         <v>37</v>
       </c>
       <c r="AK118" s="13" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AL118" s="4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -15494,7 +15494,7 @@
         <v>11714</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -15575,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="AC119" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AD119" s="4" t="s">
         <v>45</v>
@@ -15599,10 +15599,10 @@
         <v>37</v>
       </c>
       <c r="AK119" s="13" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AL119" s="4" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="120" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -15610,7 +15610,7 @@
         <v>11715</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C120" s="4">
         <v>3</v>
@@ -15691,7 +15691,7 @@
         <v>0</v>
       </c>
       <c r="AC120" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AD120" s="4" t="s">
         <v>45</v>
@@ -15715,10 +15715,10 @@
         <v>37</v>
       </c>
       <c r="AK120" s="13" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AL120" s="4" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="122" spans="1:38" x14ac:dyDescent="0.2">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="AC122" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AD122" s="4" t="s">
         <v>45</v>
@@ -15831,10 +15831,10 @@
         <v>37</v>
       </c>
       <c r="AK122" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL122" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123" spans="1:38" x14ac:dyDescent="0.2">
@@ -15923,7 +15923,7 @@
         <v>0</v>
       </c>
       <c r="AC123" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AD123" s="4" t="s">
         <v>45</v>
@@ -15947,10 +15947,10 @@
         <v>37</v>
       </c>
       <c r="AK123" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL123" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" spans="1:38" x14ac:dyDescent="0.2">
@@ -16039,7 +16039,7 @@
         <v>0</v>
       </c>
       <c r="AC124" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="AD124" s="4" t="s">
         <v>45</v>
@@ -16063,10 +16063,10 @@
         <v>37</v>
       </c>
       <c r="AK124" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL124" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:38" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16155,7 +16155,7 @@
         <v>0</v>
       </c>
       <c r="AC125" s="4" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AD125" s="4" t="s">
         <v>45</v>
@@ -16179,10 +16179,10 @@
         <v>37</v>
       </c>
       <c r="AK125" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AL125" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="1:38" x14ac:dyDescent="0.2">
@@ -16271,7 +16271,7 @@
         <v>0</v>
       </c>
       <c r="AC126" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AD126" s="4" t="s">
         <v>45</v>
@@ -16295,10 +16295,10 @@
         <v>37</v>
       </c>
       <c r="AK126" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AL126" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="127" spans="1:38" x14ac:dyDescent="0.2">
@@ -16387,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="AC127" s="4" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AD127" s="4" t="s">
         <v>45</v>
@@ -16411,10 +16411,10 @@
         <v>37</v>
       </c>
       <c r="AK127" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AL127" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="128" spans="1:38" x14ac:dyDescent="0.2">
@@ -16422,7 +16422,7 @@
         <v>11810</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C128" s="4">
         <v>0</v>
@@ -16503,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="AC128" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD128" s="4" t="s">
         <v>45</v>
@@ -16527,10 +16527,10 @@
         <v>37</v>
       </c>
       <c r="AK128" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AL128" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:38" x14ac:dyDescent="0.2">
@@ -16538,7 +16538,7 @@
         <v>11811</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -16589,19 +16589,19 @@
         <v>318110</v>
       </c>
       <c r="S129" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="T129" s="7">
         <v>318111</v>
       </c>
       <c r="U129" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="V129" s="7">
         <v>318112</v>
       </c>
       <c r="W129" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="X129" s="7">
         <v>318113</v>
@@ -16619,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="AC129" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AD129" s="4" t="s">
         <v>45</v>
@@ -16643,10 +16643,10 @@
         <v>37</v>
       </c>
       <c r="AK129" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AL129" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="131" spans="1:38" x14ac:dyDescent="0.2">
@@ -16735,7 +16735,7 @@
         <v>0</v>
       </c>
       <c r="AC131" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AD131" s="4" t="s">
         <v>45</v>
@@ -16759,10 +16759,10 @@
         <v>37</v>
       </c>
       <c r="AK131" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL131" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132" spans="1:38" x14ac:dyDescent="0.2">
@@ -16851,7 +16851,7 @@
         <v>0</v>
       </c>
       <c r="AC132" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AD132" s="4" t="s">
         <v>45</v>
@@ -16875,10 +16875,10 @@
         <v>37</v>
       </c>
       <c r="AK132" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL132" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="133" spans="1:38" x14ac:dyDescent="0.2">
@@ -16967,7 +16967,7 @@
         <v>0</v>
       </c>
       <c r="AC133" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AD133" s="4" t="s">
         <v>45</v>
@@ -16991,10 +16991,10 @@
         <v>37</v>
       </c>
       <c r="AK133" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL133" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="134" spans="1:38" x14ac:dyDescent="0.2">
@@ -17083,7 +17083,7 @@
         <v>0</v>
       </c>
       <c r="AC134" s="4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="AD134" s="4" t="s">
         <v>45</v>
@@ -17107,10 +17107,10 @@
         <v>37</v>
       </c>
       <c r="AK134" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AL134" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:38" x14ac:dyDescent="0.2">
@@ -17199,7 +17199,7 @@
         <v>0</v>
       </c>
       <c r="AC135" s="4" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AD135" s="4" t="s">
         <v>45</v>
@@ -17223,10 +17223,10 @@
         <v>37</v>
       </c>
       <c r="AK135" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AL135" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="136" spans="1:38" x14ac:dyDescent="0.2">
@@ -17315,7 +17315,7 @@
         <v>0</v>
       </c>
       <c r="AC136" s="4" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AD136" s="4" t="s">
         <v>45</v>
@@ -17339,10 +17339,10 @@
         <v>37</v>
       </c>
       <c r="AK136" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AL136" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="137" spans="1:38" x14ac:dyDescent="0.2">
@@ -17350,7 +17350,7 @@
         <v>11910</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C137" s="4">
         <v>2</v>
@@ -17431,7 +17431,7 @@
         <v>0</v>
       </c>
       <c r="AC137" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AD137" s="4" t="s">
         <v>45</v>
@@ -17455,10 +17455,10 @@
         <v>37</v>
       </c>
       <c r="AK137" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="AL137" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="138" spans="1:38" x14ac:dyDescent="0.2">
@@ -17466,7 +17466,7 @@
         <v>11911</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C138" s="4">
         <v>2</v>
@@ -17547,7 +17547,7 @@
         <v>0</v>
       </c>
       <c r="AC138" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AD138" s="4" t="s">
         <v>45</v>
@@ -17571,10 +17571,10 @@
         <v>37</v>
       </c>
       <c r="AK138" s="4" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AL138" s="4" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="139" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17582,7 +17582,7 @@
         <v>11912</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C139" s="4">
         <v>2</v>
@@ -17663,7 +17663,7 @@
         <v>0</v>
       </c>
       <c r="AC139" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AD139" s="4" t="s">
         <v>45</v>
@@ -17687,10 +17687,10 @@
         <v>37</v>
       </c>
       <c r="AK139" s="4" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="AL139" s="4" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="140" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17698,7 +17698,7 @@
         <v>11913</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C140" s="4">
         <v>3</v>
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="AC140" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AD140" s="4" t="s">
         <v>45</v>
@@ -17803,10 +17803,10 @@
         <v>37</v>
       </c>
       <c r="AK140" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AL140" s="4" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="141" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17814,7 +17814,7 @@
         <v>11914</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C141" s="4">
         <v>3</v>
@@ -17895,7 +17895,7 @@
         <v>0</v>
       </c>
       <c r="AC141" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AD141" s="4" t="s">
         <v>45</v>
@@ -17919,10 +17919,10 @@
         <v>37</v>
       </c>
       <c r="AK141" s="4" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AL141" s="4" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17930,7 +17930,7 @@
         <v>11915</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C142" s="4">
         <v>3</v>
@@ -18011,7 +18011,7 @@
         <v>0</v>
       </c>
       <c r="AC142" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AD142" s="4" t="s">
         <v>45</v>
@@ -18035,10 +18035,10 @@
         <v>37</v>
       </c>
       <c r="AK142" s="4" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AL142" s="4" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="143" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18165,7 +18165,7 @@
         <v>0</v>
       </c>
       <c r="AC144" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AD144" s="4" t="s">
         <v>45</v>
@@ -18189,10 +18189,10 @@
         <v>37</v>
       </c>
       <c r="AK144" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL144" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="145" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18281,7 +18281,7 @@
         <v>0</v>
       </c>
       <c r="AC145" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AD145" s="4" t="s">
         <v>45</v>
@@ -18305,10 +18305,10 @@
         <v>37</v>
       </c>
       <c r="AK145" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL145" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="146" spans="1:38" x14ac:dyDescent="0.2">
@@ -18397,7 +18397,7 @@
         <v>0</v>
       </c>
       <c r="AC146" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AD146" s="4" t="s">
         <v>45</v>
@@ -18421,10 +18421,10 @@
         <v>37</v>
       </c>
       <c r="AK146" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL146" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="147" spans="1:38" x14ac:dyDescent="0.2">
@@ -18513,7 +18513,7 @@
         <v>0</v>
       </c>
       <c r="AC147" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AD147" s="4" t="s">
         <v>45</v>
@@ -18537,10 +18537,10 @@
         <v>37</v>
       </c>
       <c r="AK147" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AL147" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="148" spans="1:38" x14ac:dyDescent="0.2">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="AC148" s="4" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AD148" s="4" t="s">
         <v>45</v>
@@ -18653,10 +18653,10 @@
         <v>37</v>
       </c>
       <c r="AK148" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AL148" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="149" spans="1:38" x14ac:dyDescent="0.2">
@@ -18745,7 +18745,7 @@
         <v>0</v>
       </c>
       <c r="AC149" s="4" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AD149" s="4" t="s">
         <v>45</v>
@@ -18769,10 +18769,10 @@
         <v>37</v>
       </c>
       <c r="AK149" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AL149" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="150" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -18780,7 +18780,7 @@
         <v>12010</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C150" s="4">
         <v>1</v>
@@ -18861,7 +18861,7 @@
         <v>0</v>
       </c>
       <c r="AC150" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AD150" s="4" t="s">
         <v>45</v>
@@ -18885,10 +18885,10 @@
         <v>37</v>
       </c>
       <c r="AK150" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AL150" s="4" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="151" spans="1:38" x14ac:dyDescent="0.2">
@@ -18896,7 +18896,7 @@
         <v>12011</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C151" s="4">
         <v>1</v>
@@ -18977,7 +18977,7 @@
         <v>0</v>
       </c>
       <c r="AC151" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AD151" s="4" t="s">
         <v>45</v>
@@ -19001,10 +19001,10 @@
         <v>37</v>
       </c>
       <c r="AK151" s="4" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AL151" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:38" x14ac:dyDescent="0.2">
@@ -19012,7 +19012,7 @@
         <v>12012</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C152" s="4">
         <v>2</v>
@@ -19093,7 +19093,7 @@
         <v>0</v>
       </c>
       <c r="AC152" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AD152" s="4" t="s">
         <v>45</v>
@@ -19117,10 +19117,10 @@
         <v>37</v>
       </c>
       <c r="AK152" s="4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AL152" s="4" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="153" spans="1:38" x14ac:dyDescent="0.2">
@@ -19128,7 +19128,7 @@
         <v>12013</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C153" s="4">
         <v>1</v>
@@ -19233,10 +19233,10 @@
         <v>37</v>
       </c>
       <c r="AK153" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AL153" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="154" spans="1:38" x14ac:dyDescent="0.2">
@@ -19244,7 +19244,7 @@
         <v>12014</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C154" s="4">
         <v>2</v>
@@ -19328,7 +19328,7 @@
         <v>45</v>
       </c>
       <c r="AD154" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AE154" s="4" t="s">
         <v>45</v>
@@ -19349,10 +19349,10 @@
         <v>37</v>
       </c>
       <c r="AK154" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AL154" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="155" spans="1:38" x14ac:dyDescent="0.2">
@@ -19360,7 +19360,7 @@
         <v>12015</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C155" s="4">
         <v>3</v>
@@ -19444,7 +19444,7 @@
         <v>45</v>
       </c>
       <c r="AD155" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AE155" s="4" t="s">
         <v>45</v>
@@ -19465,10 +19465,10 @@
         <v>37</v>
       </c>
       <c r="AK155" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AL155" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="156" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
@@ -19476,7 +19476,7 @@
         <v>12016</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C156" s="4">
         <v>3</v>
@@ -19557,16 +19557,16 @@
         <v>0</v>
       </c>
       <c r="AC156" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AD156" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AE156" s="4" t="s">
         <v>45</v>
       </c>
       <c r="AF156" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AG156" s="4" t="s">
         <v>45</v>
@@ -19581,10 +19581,10 @@
         <v>37</v>
       </c>
       <c r="AK156" s="13" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AL156" s="4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="158" spans="1:38" x14ac:dyDescent="0.2">
@@ -19673,7 +19673,7 @@
         <v>0</v>
       </c>
       <c r="AC158" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AD158" s="4" t="s">
         <v>45</v>
@@ -19697,10 +19697,10 @@
         <v>37</v>
       </c>
       <c r="AK158" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL158" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="159" spans="1:38" x14ac:dyDescent="0.2">
@@ -19789,7 +19789,7 @@
         <v>0</v>
       </c>
       <c r="AC159" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AD159" s="4" t="s">
         <v>45</v>
@@ -19813,10 +19813,10 @@
         <v>37</v>
       </c>
       <c r="AK159" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL159" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="160" spans="1:38" x14ac:dyDescent="0.2">
@@ -19905,7 +19905,7 @@
         <v>0</v>
       </c>
       <c r="AC160" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AD160" s="4" t="s">
         <v>45</v>
@@ -19929,10 +19929,10 @@
         <v>37</v>
       </c>
       <c r="AK160" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL160" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="161" spans="1:38" x14ac:dyDescent="0.2">
@@ -20021,7 +20021,7 @@
         <v>0</v>
       </c>
       <c r="AC161" s="4" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AD161" s="4" t="s">
         <v>45</v>
@@ -20045,10 +20045,10 @@
         <v>37</v>
       </c>
       <c r="AK161" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AL161" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20137,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="AC162" s="4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AD162" s="4" t="s">
         <v>45</v>
@@ -20161,10 +20161,10 @@
         <v>37</v>
       </c>
       <c r="AK162" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AL162" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="163" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="AC163" s="4" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AD163" s="4" t="s">
         <v>45</v>
@@ -20277,10 +20277,10 @@
         <v>37</v>
       </c>
       <c r="AK163" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AL163" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="164" spans="1:38" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20288,7 +20288,7 @@
         <v>12110</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C164" s="4">
         <v>1</v>
@@ -20369,7 +20369,7 @@
         <v>0</v>
       </c>
       <c r="AC164" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AD164" s="4" t="s">
         <v>45</v>
@@ -20393,10 +20393,10 @@
         <v>37</v>
       </c>
       <c r="AK164" s="13" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AL164" s="4" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="165" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20404,7 +20404,7 @@
         <v>12111</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -20485,7 +20485,7 @@
         <v>0</v>
       </c>
       <c r="AC165" s="4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AD165" s="4" t="s">
         <v>45</v>
@@ -20509,10 +20509,10 @@
         <v>37</v>
       </c>
       <c r="AK165" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AL165" s="4" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="166" spans="1:38" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20520,7 +20520,7 @@
         <v>12112</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C166" s="4">
         <v>3</v>
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="AC166" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AD166" s="4" t="s">
         <v>45</v>
@@ -20610,10 +20610,10 @@
         <v>45</v>
       </c>
       <c r="AF166" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AG166" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AH166" s="4" t="s">
         <v>45</v>
@@ -20625,10 +20625,10 @@
         <v>37</v>
       </c>
       <c r="AK166" s="13" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AL166" s="4" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="167" spans="1:38" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20636,7 +20636,7 @@
         <v>12113</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C167" s="4">
         <v>1</v>
@@ -20717,7 +20717,7 @@
         <v>0</v>
       </c>
       <c r="AC167" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AD167" s="4" t="s">
         <v>45</v>
@@ -20741,10 +20741,10 @@
         <v>37</v>
       </c>
       <c r="AK167" s="13" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AL167" s="4" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20752,7 +20752,7 @@
         <v>12114</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C168" s="4">
         <v>3</v>
@@ -20833,7 +20833,7 @@
         <v>0</v>
       </c>
       <c r="AC168" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AD168" s="4" t="s">
         <v>45</v>
@@ -20857,10 +20857,10 @@
         <v>37</v>
       </c>
       <c r="AK168" s="4" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AL168" s="4" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20868,7 +20868,7 @@
         <v>12115</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C169" s="4">
         <v>3</v>
@@ -20949,7 +20949,7 @@
         <v>0</v>
       </c>
       <c r="AC169" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AD169" s="4" t="s">
         <v>45</v>
@@ -20973,10 +20973,10 @@
         <v>37</v>
       </c>
       <c r="AK169" s="4" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AL169" s="4" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20984,7 +20984,7 @@
         <v>12116</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C170" s="4">
         <v>3</v>
@@ -21065,7 +21065,7 @@
         <v>0</v>
       </c>
       <c r="AC170" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AD170" s="4" t="s">
         <v>45</v>
@@ -21074,10 +21074,10 @@
         <v>45</v>
       </c>
       <c r="AF170" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AG170" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AH170" s="4" t="s">
         <v>45</v>
@@ -21089,10 +21089,10 @@
         <v>37</v>
       </c>
       <c r="AK170" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AL170" s="4" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="171" spans="1:38" x14ac:dyDescent="0.2">
@@ -21100,7 +21100,7 @@
         <v>12117</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C171" s="4">
         <v>2</v>
@@ -21181,7 +21181,7 @@
         <v>0</v>
       </c>
       <c r="AC171" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AD171" s="4" t="s">
         <v>45</v>
@@ -21190,10 +21190,10 @@
         <v>45</v>
       </c>
       <c r="AF171" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AG171" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AH171" s="4" t="s">
         <v>45</v>
@@ -21205,10 +21205,10 @@
         <v>37</v>
       </c>
       <c r="AK171" s="4" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AL171" s="4" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="172" spans="1:38" x14ac:dyDescent="0.2">
@@ -21216,7 +21216,7 @@
         <v>12118</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C172" s="4">
         <v>1</v>
@@ -21297,10 +21297,10 @@
         <v>0</v>
       </c>
       <c r="AC172" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AD172" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AE172" s="4" t="s">
         <v>45</v>
@@ -21321,10 +21321,10 @@
         <v>37</v>
       </c>
       <c r="AK172" s="4" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="AL172" s="4" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174" spans="1:38" x14ac:dyDescent="0.2">
@@ -21332,7 +21332,7 @@
         <v>13000</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -21413,7 +21413,7 @@
         <v>0</v>
       </c>
       <c r="AC174" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AD174" s="4" t="s">
         <v>45</v>
@@ -21437,10 +21437,10 @@
         <v>37</v>
       </c>
       <c r="AK174" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AL174" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="175" spans="1:38" x14ac:dyDescent="0.2">
@@ -21448,7 +21448,7 @@
         <v>13001</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C175" s="4">
         <v>3</v>
@@ -21529,7 +21529,7 @@
         <v>0</v>
       </c>
       <c r="AC175" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AD175" s="4" t="s">
         <v>45</v>
@@ -21553,10 +21553,10 @@
         <v>37</v>
       </c>
       <c r="AK175" s="4" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AL175" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="176" spans="1:38" x14ac:dyDescent="0.2">
@@ -21564,7 +21564,7 @@
         <v>13002</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C176" s="4">
         <v>3</v>
@@ -21645,7 +21645,7 @@
         <v>0</v>
       </c>
       <c r="AC176" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AD176" s="4" t="s">
         <v>45</v>
@@ -21669,10 +21669,10 @@
         <v>37</v>
       </c>
       <c r="AK176" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AL176" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="177" spans="1:38" x14ac:dyDescent="0.2">
@@ -21680,7 +21680,7 @@
         <v>13003</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C177" s="4">
         <v>1</v>
@@ -21761,7 +21761,7 @@
         <v>0</v>
       </c>
       <c r="AC177" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AD177" s="4" t="s">
         <v>45</v>
@@ -21785,10 +21785,10 @@
         <v>37</v>
       </c>
       <c r="AK177" s="4" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AL177" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="178" spans="1:38" x14ac:dyDescent="0.2">
@@ -21796,7 +21796,7 @@
         <v>13004</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C178" s="4">
         <v>1</v>
@@ -21877,7 +21877,7 @@
         <v>0</v>
       </c>
       <c r="AC178" s="4" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AD178" s="4" t="s">
         <v>45</v>
@@ -21901,10 +21901,10 @@
         <v>37</v>
       </c>
       <c r="AK178" s="4" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AL178" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="179" spans="1:38" x14ac:dyDescent="0.2">
@@ -21912,7 +21912,7 @@
         <v>13005</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C179" s="4">
         <v>1</v>
@@ -21993,7 +21993,7 @@
         <v>0</v>
       </c>
       <c r="AC179" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AD179" s="4" t="s">
         <v>45</v>
@@ -22017,10 +22017,10 @@
         <v>37</v>
       </c>
       <c r="AK179" s="4" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AL179" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="180" spans="1:38" x14ac:dyDescent="0.2">
@@ -22028,7 +22028,7 @@
         <v>13006</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C180" s="4">
         <v>2</v>
@@ -22109,7 +22109,7 @@
         <v>0</v>
       </c>
       <c r="AC180" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AD180" s="4" t="s">
         <v>45</v>
@@ -22133,10 +22133,10 @@
         <v>37</v>
       </c>
       <c r="AK180" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AL180" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="181" spans="1:38" x14ac:dyDescent="0.2">
@@ -22144,7 +22144,7 @@
         <v>13007</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
@@ -22225,7 +22225,7 @@
         <v>0</v>
       </c>
       <c r="AC181" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AD181" s="4" t="s">
         <v>45</v>
@@ -22249,10 +22249,10 @@
         <v>37</v>
       </c>
       <c r="AK181" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AL181" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="182" spans="1:38" x14ac:dyDescent="0.2">
@@ -22260,7 +22260,7 @@
         <v>13008</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C182" s="4">
         <v>2</v>
@@ -22341,7 +22341,7 @@
         <v>0</v>
       </c>
       <c r="AC182" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AD182" s="4" t="s">
         <v>45</v>
@@ -22365,10 +22365,10 @@
         <v>37</v>
       </c>
       <c r="AK182" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AL182" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="183" spans="1:38" x14ac:dyDescent="0.2">
@@ -22376,7 +22376,7 @@
         <v>13009</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -22457,7 +22457,7 @@
         <v>0</v>
       </c>
       <c r="AC183" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AD183" s="4" t="s">
         <v>45</v>
@@ -22481,10 +22481,10 @@
         <v>37</v>
       </c>
       <c r="AK183" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AL183" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="184" spans="1:38" x14ac:dyDescent="0.2">
@@ -22492,7 +22492,7 @@
         <v>13010</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C184" s="4">
         <v>3</v>
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="AC184" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AD184" s="4" t="s">
         <v>45</v>
@@ -22597,10 +22597,10 @@
         <v>37</v>
       </c>
       <c r="AK184" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AL184" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="185" spans="1:38" x14ac:dyDescent="0.2">
@@ -22608,7 +22608,7 @@
         <v>13011</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C185" s="4">
         <v>3</v>
@@ -22689,10 +22689,10 @@
         <v>0</v>
       </c>
       <c r="AC185" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AD185" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE185" s="4" t="s">
         <v>45</v>
@@ -22713,10 +22713,10 @@
         <v>37</v>
       </c>
       <c r="AK185" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AL185" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="186" spans="1:38" x14ac:dyDescent="0.2">
@@ -22724,7 +22724,7 @@
         <v>13012</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -22805,7 +22805,7 @@
         <v>0</v>
       </c>
       <c r="AC186" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AD186" s="4" t="s">
         <v>45</v>
@@ -22829,10 +22829,10 @@
         <v>37</v>
       </c>
       <c r="AK186" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AL186" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="187" spans="1:38" x14ac:dyDescent="0.2">
@@ -22840,7 +22840,7 @@
         <v>13013</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C187" s="4">
         <v>2</v>
@@ -22921,7 +22921,7 @@
         <v>0</v>
       </c>
       <c r="AC187" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AD187" s="4" t="s">
         <v>45</v>
@@ -22945,10 +22945,10 @@
         <v>37</v>
       </c>
       <c r="AK187" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AL187" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="188" spans="1:38" x14ac:dyDescent="0.2">
@@ -22956,7 +22956,7 @@
         <v>13014</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C188" s="4">
         <v>3</v>
@@ -23037,7 +23037,7 @@
         <v>0</v>
       </c>
       <c r="AC188" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AD188" s="4" t="s">
         <v>45</v>
@@ -23061,10 +23061,10 @@
         <v>37</v>
       </c>
       <c r="AK188" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AL188" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="189" spans="1:38" x14ac:dyDescent="0.2">
@@ -23072,7 +23072,7 @@
         <v>13015</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C189" s="4">
         <v>1</v>
@@ -23153,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="AC189" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AD189" s="4" t="s">
         <v>45</v>
@@ -23177,10 +23177,10 @@
         <v>37</v>
       </c>
       <c r="AK189" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AL189" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="190" spans="1:38" x14ac:dyDescent="0.2">
@@ -23188,7 +23188,7 @@
         <v>13016</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C190" s="4">
         <v>2</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="AC190" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AD190" s="4" t="s">
         <v>45</v>
@@ -23293,10 +23293,10 @@
         <v>37</v>
       </c>
       <c r="AK190" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AL190" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="191" spans="1:38" x14ac:dyDescent="0.2">
@@ -23304,7 +23304,7 @@
         <v>13017</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C191" s="4">
         <v>3</v>
@@ -23385,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="AC191" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AD191" s="4" t="s">
         <v>45</v>
@@ -23409,10 +23409,10 @@
         <v>37</v>
       </c>
       <c r="AK191" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AL191" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="192" spans="1:38" x14ac:dyDescent="0.2">
@@ -23420,7 +23420,7 @@
         <v>13018</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="AC192" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AD192" s="4" t="s">
         <v>45</v>
@@ -23525,10 +23525,10 @@
         <v>37</v>
       </c>
       <c r="AK192" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AL192" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="193" spans="1:38" x14ac:dyDescent="0.2">
@@ -23548,7 +23548,7 @@
         <v>14000</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C196" s="4">
         <v>0</v>
@@ -23629,10 +23629,10 @@
         <v>0</v>
       </c>
       <c r="AC196" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AD196" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AE196" s="4" t="s">
         <v>45</v>
@@ -23660,7 +23660,7 @@
         <v>14001</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -23741,16 +23741,16 @@
         <v>0</v>
       </c>
       <c r="AC197" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AD197" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AE197" s="4" t="s">
         <v>45</v>
       </c>
       <c r="AF197" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AG197" s="4" t="s">
         <v>45</v>
@@ -23772,7 +23772,7 @@
         <v>14002</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -23853,10 +23853,10 @@
         <v>0</v>
       </c>
       <c r="AC198" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AD198" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AE198" s="4" t="s">
         <v>45</v>
@@ -23884,7 +23884,7 @@
         <v>14003</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -23965,10 +23965,10 @@
         <v>0</v>
       </c>
       <c r="AC199" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AD199" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AE199" s="4" t="s">
         <v>45</v>
@@ -23996,7 +23996,7 @@
         <v>14004</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -24077,10 +24077,10 @@
         <v>0</v>
       </c>
       <c r="AC200" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AD200" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AE200" s="4" t="s">
         <v>45</v>
@@ -24108,7 +24108,7 @@
         <v>14005</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="AC201" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AD201" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AE201" s="4" t="s">
         <v>45</v>
@@ -24220,7 +24220,7 @@
         <v>14006</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -24301,10 +24301,10 @@
         <v>0</v>
       </c>
       <c r="AC202" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AD202" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AE202" s="4" t="s">
         <v>45</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704E784C-30C3-4319-9285-E2373413A4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F822B1-CFD8-4C11-9DED-7355D0252A34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="5550" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17820" yWindow="5430" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -2951,8 +2951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129:Q129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="5">
-        <v>518111</v>
+        <v>518110</v>
       </c>
       <c r="P129" s="5">
         <v>0</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F822B1-CFD8-4C11-9DED-7355D0252A34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFE2F6C-82EC-4F10-AE34-7D5D3F449006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="5430" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10320" yWindow="5970" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -2951,8 +2951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129:Q129"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16544,7 +16544,7 @@
         <v>0</v>
       </c>
       <c r="D129" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E129" s="4">
         <v>0</v>
@@ -16568,7 +16568,7 @@
         <v>100</v>
       </c>
       <c r="L129" s="6">
-        <v>418110</v>
+        <v>418111</v>
       </c>
       <c r="M129" s="6">
         <v>0</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C878965-704F-44E6-A236-3379A4D597AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B6FEB5-0481-4664-80EA-7F77B03EF34F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="6315" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12495" yWindow="5640" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -2992,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G175" workbookViewId="0">
-      <selection activeCell="O191" sqref="O191"/>
+    <sheetView tabSelected="1" topLeftCell="Y123" workbookViewId="0">
+      <selection activeCell="AE139" sqref="AE139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14208,7 +14208,7 @@
         <v>316120</v>
       </c>
       <c r="S106" s="7">
-        <v>416130</v>
+        <v>416122</v>
       </c>
       <c r="T106" s="7">
         <v>316121</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B6FEB5-0481-4664-80EA-7F77B03EF34F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE402E53-79CA-4425-A9D8-CBBF8418535C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12495" yWindow="5640" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14370" yWindow="5595" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="495">
   <si>
     <t>Id</t>
   </si>
@@ -2528,6 +2528,10 @@
   </si>
   <si>
     <t>结果@4.条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[417151]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2992,8 +2996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y123" workbookViewId="0">
-      <selection activeCell="AE139" sqref="AE139"/>
+    <sheetView tabSelected="1" topLeftCell="Y110" workbookViewId="0">
+      <selection activeCell="AF121" sqref="AF121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15761,7 +15765,7 @@
         <v>139</v>
       </c>
       <c r="AF120" s="4" t="s">
-        <v>45</v>
+        <v>494</v>
       </c>
       <c r="AG120" s="4" t="s">
         <v>45</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE402E53-79CA-4425-A9D8-CBBF8418535C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740DF310-AD7B-4BFB-812A-A5A91A63514D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14370" yWindow="5595" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="4980" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -1423,10 +1423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[402000,402001,402002,402003,402004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[402010]</t>
   </si>
   <si>
@@ -2532,6 +2528,10 @@
   </si>
   <si>
     <t>[417151]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[402000,402001,402002,402003]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2996,8 +2996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y110" workbookViewId="0">
-      <selection activeCell="AF121" sqref="AF121"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3083,10 +3083,10 @@
         <v>204</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>144</v>
@@ -3238,10 +3238,10 @@
         <v>37</v>
       </c>
       <c r="AM2" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="AN2" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>45</v>
@@ -3354,10 +3354,10 @@
         <v>37</v>
       </c>
       <c r="AM3" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="AN3" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF4" s="4" t="s">
         <v>45</v>
@@ -3470,10 +3470,10 @@
         <v>37</v>
       </c>
       <c r="AM4" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF5" s="4" t="s">
         <v>45</v>
@@ -3586,10 +3586,10 @@
         <v>37</v>
       </c>
       <c r="AM5" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3597,7 +3597,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>45</v>
@@ -3702,10 +3702,10 @@
         <v>37</v>
       </c>
       <c r="AM6" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>45</v>
@@ -3818,10 +3818,10 @@
         <v>37</v>
       </c>
       <c r="AM7" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN7" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>45</v>
@@ -3934,10 +3934,10 @@
         <v>37</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF9" s="4" t="s">
         <v>45</v>
@@ -4050,10 +4050,10 @@
         <v>37</v>
       </c>
       <c r="AM9" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="AN9" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
@@ -4166,10 +4166,10 @@
         <v>37</v>
       </c>
       <c r="AM11" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AN11" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="AN11" s="4" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -4282,10 +4282,10 @@
         <v>37</v>
       </c>
       <c r="AM12" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN12" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="AN12" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
@@ -4398,10 +4398,10 @@
         <v>37</v>
       </c>
       <c r="AM13" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="AN13" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="AN13" s="4" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
@@ -4514,10 +4514,10 @@
         <v>37</v>
       </c>
       <c r="AM14" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN14" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
@@ -4630,10 +4630,10 @@
         <v>37</v>
       </c>
       <c r="AM15" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="AN15" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="AN15" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
@@ -4746,10 +4746,10 @@
         <v>37</v>
       </c>
       <c r="AM16" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="AN16" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="AN16" s="4" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>218</v>
+        <v>494</v>
       </c>
       <c r="AF18" s="4" t="s">
         <v>45</v>
@@ -4862,10 +4862,10 @@
         <v>37</v>
       </c>
       <c r="AM18" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="AN18" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="AN18" s="4" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
@@ -4873,7 +4873,7 @@
         <v>10201</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF19" s="4" t="s">
         <v>45</v>
@@ -4978,10 +4978,10 @@
         <v>37</v>
       </c>
       <c r="AM19" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="AN19" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="AN19" s="4" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4989,7 +4989,7 @@
         <v>10202</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF20" s="4" t="s">
         <v>45</v>
@@ -5094,10 +5094,10 @@
         <v>37</v>
       </c>
       <c r="AM20" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="AN20" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="AN20" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5105,7 +5105,7 @@
         <v>10203</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF21" s="4" t="s">
         <v>45</v>
@@ -5210,10 +5210,10 @@
         <v>37</v>
       </c>
       <c r="AM21" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN21" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="AN21" s="4" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
@@ -5326,10 +5326,10 @@
         <v>37</v>
       </c>
       <c r="AM23" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN23" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
@@ -5442,10 +5442,10 @@
         <v>37</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
@@ -5558,10 +5558,10 @@
         <v>37</v>
       </c>
       <c r="AM25" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -5674,10 +5674,10 @@
         <v>37</v>
       </c>
       <c r="AM26" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -5793,7 +5793,7 @@
         <v>48</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF28" s="4" t="s">
         <v>45</v>
@@ -5906,10 +5906,10 @@
         <v>37</v>
       </c>
       <c r="AM28" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN28" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="AN28" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF29" s="4" t="s">
         <v>45</v>
@@ -6022,7 +6022,7 @@
         <v>37</v>
       </c>
       <c r="AM29" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN29" s="4" t="s">
         <v>51</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF30" s="4" t="s">
         <v>45</v>
@@ -6138,7 +6138,7 @@
         <v>37</v>
       </c>
       <c r="AM30" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN30" s="4" t="s">
         <v>51</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF31" s="4" t="s">
         <v>45</v>
@@ -6254,7 +6254,7 @@
         <v>37</v>
       </c>
       <c r="AM31" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN31" s="4" t="s">
         <v>51</v>
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF32" s="4" t="s">
         <v>45</v>
@@ -6370,7 +6370,7 @@
         <v>37</v>
       </c>
       <c r="AM32" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN32" s="4" t="s">
         <v>51</v>
@@ -6462,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF33" s="4" t="s">
         <v>45</v>
@@ -6486,7 +6486,7 @@
         <v>37</v>
       </c>
       <c r="AM33" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN33" s="4" t="s">
         <v>51</v>
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF34" s="4" t="s">
         <v>45</v>
@@ -6602,7 +6602,7 @@
         <v>37</v>
       </c>
       <c r="AM34" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN34" s="4" t="s">
         <v>51</v>
@@ -6718,10 +6718,10 @@
         <v>37</v>
       </c>
       <c r="AM36" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN36" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -6834,10 +6834,10 @@
         <v>37</v>
       </c>
       <c r="AM37" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN37" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -6950,10 +6950,10 @@
         <v>37</v>
       </c>
       <c r="AM38" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN38" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
@@ -7066,10 +7066,10 @@
         <v>37</v>
       </c>
       <c r="AM39" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN39" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
@@ -7182,10 +7182,10 @@
         <v>37</v>
       </c>
       <c r="AM40" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN40" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
@@ -7298,10 +7298,10 @@
         <v>37</v>
       </c>
       <c r="AM41" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN41" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
@@ -7414,10 +7414,10 @@
         <v>37</v>
       </c>
       <c r="AM42" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AN42" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -7530,10 +7530,10 @@
         <v>37</v>
       </c>
       <c r="AM44" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN44" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -7646,10 +7646,10 @@
         <v>37</v>
       </c>
       <c r="AM45" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN45" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -7762,10 +7762,10 @@
         <v>37</v>
       </c>
       <c r="AM46" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN46" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
@@ -7854,7 +7854,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF47" s="4" t="s">
         <v>45</v>
@@ -7878,10 +7878,10 @@
         <v>37</v>
       </c>
       <c r="AM47" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN47" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF48" s="4" t="s">
         <v>45</v>
@@ -7996,10 +7996,10 @@
         <v>37</v>
       </c>
       <c r="AM48" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN48" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="AN48" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8112,10 +8112,10 @@
         <v>37</v>
       </c>
       <c r="AM49" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="5">
         <v>140</v>
@@ -8228,10 +8228,10 @@
         <v>37</v>
       </c>
       <c r="AM50" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN50" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="AN50" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="5">
         <v>130</v>
@@ -8346,10 +8346,10 @@
         <v>37</v>
       </c>
       <c r="AM51" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AN51" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="5">
         <v>120</v>
@@ -8462,7 +8462,7 @@
         <v>37</v>
       </c>
       <c r="AM52" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AN52" s="4" t="s">
         <v>63</v>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="5">
         <v>110</v>
@@ -8563,7 +8563,7 @@
         <v>45</v>
       </c>
       <c r="AH53" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AI53" s="4" t="s">
         <v>45</v>
@@ -8578,10 +8578,10 @@
         <v>37</v>
       </c>
       <c r="AM53" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AN53" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="AN53" s="4" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8694,10 +8694,10 @@
         <v>37</v>
       </c>
       <c r="AM54" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AN54" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="5">
         <v>110</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF55" s="4" t="s">
         <v>45</v>
@@ -8810,10 +8810,10 @@
         <v>37</v>
       </c>
       <c r="AM55" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AN55" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF57" s="4" t="s">
         <v>45</v>
@@ -8926,10 +8926,10 @@
         <v>37</v>
       </c>
       <c r="AM57" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN57" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.2">
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="AE58" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF58" s="4" t="s">
         <v>45</v>
@@ -9042,10 +9042,10 @@
         <v>37</v>
       </c>
       <c r="AM58" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN58" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
@@ -9158,10 +9158,10 @@
         <v>37</v>
       </c>
       <c r="AM59" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN59" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.2">
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF60" s="4" t="s">
         <v>45</v>
@@ -9274,10 +9274,10 @@
         <v>37</v>
       </c>
       <c r="AM60" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN60" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.2">
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF61" s="4" t="s">
         <v>45</v>
@@ -9392,10 +9392,10 @@
         <v>37</v>
       </c>
       <c r="AM61" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AN61" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.2">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF62" s="4" t="s">
         <v>45</v>
@@ -9508,10 +9508,10 @@
         <v>37</v>
       </c>
       <c r="AM62" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN62" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
@@ -9624,10 +9624,10 @@
         <v>37</v>
       </c>
       <c r="AM63" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="AN63" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="AN63" s="4" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
@@ -9740,10 +9740,10 @@
         <v>37</v>
       </c>
       <c r="AM64" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="AN64" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="AN64" s="4" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.2">
@@ -9858,10 +9858,10 @@
         <v>37</v>
       </c>
       <c r="AM65" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AN65" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="AN65" s="4" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.2">
@@ -9974,7 +9974,7 @@
         <v>37</v>
       </c>
       <c r="AM66" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AN66" s="4" t="s">
         <v>76</v>
@@ -10090,7 +10090,7 @@
         <v>37</v>
       </c>
       <c r="AM67" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AN67" s="4" t="s">
         <v>79</v>
@@ -10206,10 +10206,10 @@
         <v>37</v>
       </c>
       <c r="AM68" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN68" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="AN68" s="4" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.2">
@@ -10322,10 +10322,10 @@
         <v>37</v>
       </c>
       <c r="AM69" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="AN69" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="AN69" s="4" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.2">
@@ -10438,10 +10438,10 @@
         <v>37</v>
       </c>
       <c r="AM70" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="AN70" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="AN70" s="4" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.2">
@@ -10554,10 +10554,10 @@
         <v>37</v>
       </c>
       <c r="AM71" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AN71" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="AN71" s="4" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.2">
@@ -10670,10 +10670,10 @@
         <v>37</v>
       </c>
       <c r="AM72" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="AN72" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="AN72" s="4" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.2">
@@ -10786,10 +10786,10 @@
         <v>37</v>
       </c>
       <c r="AM73" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AN73" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.2">
@@ -10902,10 +10902,10 @@
         <v>37</v>
       </c>
       <c r="AM75" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AN75" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.2">
@@ -11018,10 +11018,10 @@
         <v>37</v>
       </c>
       <c r="AM76" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN76" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.2">
@@ -11134,10 +11134,10 @@
         <v>37</v>
       </c>
       <c r="AM77" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN77" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.2">
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="AE78" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF78" s="4" t="s">
         <v>45</v>
@@ -11250,10 +11250,10 @@
         <v>37</v>
       </c>
       <c r="AM78" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN78" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.2">
@@ -11344,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="AE79" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF79" s="4" t="s">
         <v>45</v>
@@ -11368,10 +11368,10 @@
         <v>37</v>
       </c>
       <c r="AM79" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN79" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.2">
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="AE80" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF80" s="4" t="s">
         <v>45</v>
@@ -11484,10 +11484,10 @@
         <v>37</v>
       </c>
       <c r="AM80" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN80" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.2">
@@ -11600,10 +11600,10 @@
         <v>37</v>
       </c>
       <c r="AM82" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN82" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.2">
@@ -11716,10 +11716,10 @@
         <v>37</v>
       </c>
       <c r="AM83" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN83" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11832,10 +11832,10 @@
         <v>37</v>
       </c>
       <c r="AM84" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN84" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11924,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="AE85" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF85" s="4" t="s">
         <v>45</v>
@@ -11948,10 +11948,10 @@
         <v>37</v>
       </c>
       <c r="AM85" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN85" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.2">
@@ -12042,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="AE86" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF86" s="4" t="s">
         <v>45</v>
@@ -12066,10 +12066,10 @@
         <v>37</v>
       </c>
       <c r="AM86" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN86" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.2">
@@ -12158,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="AE87" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF87" s="4" t="s">
         <v>45</v>
@@ -12182,10 +12182,10 @@
         <v>37</v>
       </c>
       <c r="AM87" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN87" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="88" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12199,7 +12199,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E88" s="4">
         <v>0</v>
@@ -12298,10 +12298,10 @@
         <v>37</v>
       </c>
       <c r="AM88" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AN88" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="AN88" s="4" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="89" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12315,7 +12315,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E89" s="4">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>37</v>
       </c>
       <c r="AM89" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AN89" s="4" t="s">
         <v>102</v>
@@ -12530,10 +12530,10 @@
         <v>37</v>
       </c>
       <c r="AM90" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AN90" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="AN90" s="4" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.2">
@@ -12646,10 +12646,10 @@
         <v>37</v>
       </c>
       <c r="AM91" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AN91" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.2">
@@ -12762,10 +12762,10 @@
         <v>37</v>
       </c>
       <c r="AM92" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="AN92" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="AN92" s="4" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.2">
@@ -12878,7 +12878,7 @@
         <v>37</v>
       </c>
       <c r="AM93" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN93" s="4" t="s">
         <v>110</v>
@@ -12994,7 +12994,7 @@
         <v>37</v>
       </c>
       <c r="AM94" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN94" s="4" t="s">
         <v>112</v>
@@ -13086,7 +13086,7 @@
         <v>0</v>
       </c>
       <c r="AE95" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF95" s="4" t="s">
         <v>45</v>
@@ -13110,10 +13110,10 @@
         <v>37</v>
       </c>
       <c r="AM95" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN95" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="AN95" s="4" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.2">
@@ -13226,10 +13226,10 @@
         <v>37</v>
       </c>
       <c r="AM96" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN96" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="AN96" s="4" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.2">
@@ -13342,10 +13342,10 @@
         <v>37</v>
       </c>
       <c r="AM98" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN98" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.2">
@@ -13458,10 +13458,10 @@
         <v>37</v>
       </c>
       <c r="AM99" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN99" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.2">
@@ -13574,10 +13574,10 @@
         <v>37</v>
       </c>
       <c r="AM100" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN100" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.2">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="AE101" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF101" s="4" t="s">
         <v>45</v>
@@ -13690,10 +13690,10 @@
         <v>37</v>
       </c>
       <c r="AM101" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN101" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.2">
@@ -13784,7 +13784,7 @@
         <v>0</v>
       </c>
       <c r="AE102" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF102" s="4" t="s">
         <v>45</v>
@@ -13808,10 +13808,10 @@
         <v>37</v>
       </c>
       <c r="AM102" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN102" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.2">
@@ -13900,7 +13900,7 @@
         <v>0</v>
       </c>
       <c r="AE103" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF103" s="4" t="s">
         <v>45</v>
@@ -13924,10 +13924,10 @@
         <v>37</v>
       </c>
       <c r="AM103" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN103" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -13941,7 +13941,7 @@
         <v>3</v>
       </c>
       <c r="D104" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E104" s="4">
         <v>0</v>
@@ -14016,7 +14016,7 @@
         <v>0</v>
       </c>
       <c r="AE104" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF104" s="4" t="s">
         <v>45</v>
@@ -14040,10 +14040,10 @@
         <v>37</v>
       </c>
       <c r="AM104" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="AN104" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="AN104" s="4" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="105" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14156,10 +14156,10 @@
         <v>37</v>
       </c>
       <c r="AM105" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="AN105" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="AN105" s="4" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14173,7 +14173,7 @@
         <v>2</v>
       </c>
       <c r="D106" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E106" s="4">
         <v>0</v>
@@ -14272,10 +14272,10 @@
         <v>37</v>
       </c>
       <c r="AM106" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="AN106" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="AN106" s="4" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.2">
@@ -14289,7 +14289,7 @@
         <v>3</v>
       </c>
       <c r="D107" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E107" s="4">
         <v>0</v>
@@ -14388,10 +14388,10 @@
         <v>37</v>
       </c>
       <c r="AM107" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN107" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.2">
@@ -14504,10 +14504,10 @@
         <v>37</v>
       </c>
       <c r="AM109" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN109" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.2">
@@ -14620,10 +14620,10 @@
         <v>37</v>
       </c>
       <c r="AM110" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN110" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.2">
@@ -14736,10 +14736,10 @@
         <v>37</v>
       </c>
       <c r="AM111" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN111" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.2">
@@ -14828,7 +14828,7 @@
         <v>0</v>
       </c>
       <c r="AE112" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF112" s="4" t="s">
         <v>45</v>
@@ -14852,10 +14852,10 @@
         <v>37</v>
       </c>
       <c r="AM112" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN112" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="113" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14946,7 +14946,7 @@
         <v>0</v>
       </c>
       <c r="AE113" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF113" s="4" t="s">
         <v>45</v>
@@ -14970,10 +14970,10 @@
         <v>37</v>
       </c>
       <c r="AM113" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN113" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.2">
@@ -15062,7 +15062,7 @@
         <v>0</v>
       </c>
       <c r="AE114" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF114" s="4" t="s">
         <v>45</v>
@@ -15086,10 +15086,10 @@
         <v>37</v>
       </c>
       <c r="AM114" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN114" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="115" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15097,7 +15097,7 @@
         <v>11710</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
@@ -15202,10 +15202,10 @@
         <v>37</v>
       </c>
       <c r="AM115" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN115" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="AN115" s="4" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.2">
@@ -15318,10 +15318,10 @@
         <v>37</v>
       </c>
       <c r="AM116" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="AN116" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="AN116" s="4" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="117" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15335,7 +15335,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E117" s="4">
         <v>0</v>
@@ -15434,10 +15434,10 @@
         <v>37</v>
       </c>
       <c r="AM117" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AN117" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="AN117" s="4" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15554,10 +15554,10 @@
         <v>37</v>
       </c>
       <c r="AM118" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="AN118" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="AN118" s="4" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15571,7 +15571,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E119" s="4">
         <v>0</v>
@@ -15670,10 +15670,10 @@
         <v>37</v>
       </c>
       <c r="AM119" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN119" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="AN119" s="4" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15765,7 +15765,7 @@
         <v>139</v>
       </c>
       <c r="AF120" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG120" s="4" t="s">
         <v>45</v>
@@ -15786,10 +15786,10 @@
         <v>37</v>
       </c>
       <c r="AM120" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN120" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="AN120" s="4" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="122" spans="1:40" x14ac:dyDescent="0.2">
@@ -15902,10 +15902,10 @@
         <v>37</v>
       </c>
       <c r="AM122" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN122" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.2">
@@ -16018,10 +16018,10 @@
         <v>37</v>
       </c>
       <c r="AM123" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN123" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.2">
@@ -16134,10 +16134,10 @@
         <v>37</v>
       </c>
       <c r="AM124" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN124" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="125" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16226,7 +16226,7 @@
         <v>0</v>
       </c>
       <c r="AE125" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF125" s="4" t="s">
         <v>45</v>
@@ -16250,10 +16250,10 @@
         <v>37</v>
       </c>
       <c r="AM125" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN125" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.2">
@@ -16344,7 +16344,7 @@
         <v>0</v>
       </c>
       <c r="AE126" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF126" s="4" t="s">
         <v>45</v>
@@ -16368,10 +16368,10 @@
         <v>37</v>
       </c>
       <c r="AM126" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN126" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="127" spans="1:40" x14ac:dyDescent="0.2">
@@ -16460,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="AE127" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF127" s="4" t="s">
         <v>45</v>
@@ -16484,10 +16484,10 @@
         <v>37</v>
       </c>
       <c r="AM127" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN127" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.2">
@@ -16600,7 +16600,7 @@
         <v>37</v>
       </c>
       <c r="AM128" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN128" s="4" t="s">
         <v>145</v>
@@ -16617,7 +16617,7 @@
         <v>0</v>
       </c>
       <c r="D129" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E129" s="4">
         <v>0</v>
@@ -16676,7 +16676,7 @@
         <v>318112</v>
       </c>
       <c r="Y129" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Z129" s="7">
         <v>318113</v>
@@ -16718,10 +16718,10 @@
         <v>37</v>
       </c>
       <c r="AM129" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="AN129" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="AN129" s="4" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="131" spans="1:40" x14ac:dyDescent="0.2">
@@ -16834,10 +16834,10 @@
         <v>37</v>
       </c>
       <c r="AM131" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN131" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132" spans="1:40" x14ac:dyDescent="0.2">
@@ -16950,10 +16950,10 @@
         <v>37</v>
       </c>
       <c r="AM132" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN132" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" spans="1:40" x14ac:dyDescent="0.2">
@@ -17066,10 +17066,10 @@
         <v>37</v>
       </c>
       <c r="AM133" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN133" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="134" spans="1:40" x14ac:dyDescent="0.2">
@@ -17158,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="AE134" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF134" s="4" t="s">
         <v>45</v>
@@ -17182,10 +17182,10 @@
         <v>37</v>
       </c>
       <c r="AM134" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN134" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="135" spans="1:40" x14ac:dyDescent="0.2">
@@ -17276,7 +17276,7 @@
         <v>0</v>
       </c>
       <c r="AE135" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF135" s="4" t="s">
         <v>45</v>
@@ -17300,10 +17300,10 @@
         <v>37</v>
       </c>
       <c r="AM135" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN135" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.2">
@@ -17392,7 +17392,7 @@
         <v>0</v>
       </c>
       <c r="AE136" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF136" s="4" t="s">
         <v>45</v>
@@ -17416,10 +17416,10 @@
         <v>37</v>
       </c>
       <c r="AM136" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN136" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.2">
@@ -17433,7 +17433,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E137" s="4">
         <v>0</v>
@@ -17532,10 +17532,10 @@
         <v>37</v>
       </c>
       <c r="AM137" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="AN137" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="AN137" s="4" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.2">
@@ -17549,7 +17549,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E138" s="4">
         <v>0</v>
@@ -17648,10 +17648,10 @@
         <v>37</v>
       </c>
       <c r="AM138" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="AN138" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="AN138" s="4" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="139" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17665,7 +17665,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E139" s="4">
         <v>0</v>
@@ -17764,10 +17764,10 @@
         <v>37</v>
       </c>
       <c r="AM139" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="AN139" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="AN139" s="4" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="140" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17880,10 +17880,10 @@
         <v>37</v>
       </c>
       <c r="AM140" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="AN140" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="AN140" s="4" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="141" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17996,10 +17996,10 @@
         <v>37</v>
       </c>
       <c r="AM141" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AN141" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="142" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18112,10 +18112,10 @@
         <v>37</v>
       </c>
       <c r="AM142" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AN142" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18268,10 +18268,10 @@
         <v>37</v>
       </c>
       <c r="AM144" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN144" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="145" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18384,10 +18384,10 @@
         <v>37</v>
       </c>
       <c r="AM145" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN145" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="146" spans="1:40" x14ac:dyDescent="0.2">
@@ -18500,10 +18500,10 @@
         <v>37</v>
       </c>
       <c r="AM146" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN146" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="147" spans="1:40" x14ac:dyDescent="0.2">
@@ -18592,7 +18592,7 @@
         <v>0</v>
       </c>
       <c r="AE147" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF147" s="4" t="s">
         <v>45</v>
@@ -18616,10 +18616,10 @@
         <v>37</v>
       </c>
       <c r="AM147" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN147" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="148" spans="1:40" x14ac:dyDescent="0.2">
@@ -18710,7 +18710,7 @@
         <v>0</v>
       </c>
       <c r="AE148" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF148" s="4" t="s">
         <v>45</v>
@@ -18734,10 +18734,10 @@
         <v>37</v>
       </c>
       <c r="AM148" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN148" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="149" spans="1:40" x14ac:dyDescent="0.2">
@@ -18826,7 +18826,7 @@
         <v>0</v>
       </c>
       <c r="AE149" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AF149" s="4" t="s">
         <v>45</v>
@@ -18850,10 +18850,10 @@
         <v>37</v>
       </c>
       <c r="AM149" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN149" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="150" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -18966,10 +18966,10 @@
         <v>37</v>
       </c>
       <c r="AM150" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AN150" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="151" spans="1:40" x14ac:dyDescent="0.2">
@@ -19082,10 +19082,10 @@
         <v>37</v>
       </c>
       <c r="AM151" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="AN151" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="AN151" s="4" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:40" x14ac:dyDescent="0.2">
@@ -19099,7 +19099,7 @@
         <v>2</v>
       </c>
       <c r="D152" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E152" s="4">
         <v>0</v>
@@ -19198,10 +19198,10 @@
         <v>37</v>
       </c>
       <c r="AM152" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="AN152" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="AN152" s="4" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="153" spans="1:40" x14ac:dyDescent="0.2">
@@ -19314,10 +19314,10 @@
         <v>37</v>
       </c>
       <c r="AM153" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN153" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="154" spans="1:40" x14ac:dyDescent="0.2">
@@ -19430,10 +19430,10 @@
         <v>37</v>
       </c>
       <c r="AM154" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN154" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="155" spans="1:40" x14ac:dyDescent="0.2">
@@ -19546,10 +19546,10 @@
         <v>37</v>
       </c>
       <c r="AM155" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN155" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="156" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -19662,10 +19662,10 @@
         <v>37</v>
       </c>
       <c r="AM156" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="AN156" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="AN156" s="4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.2">
@@ -19778,10 +19778,10 @@
         <v>37</v>
       </c>
       <c r="AM158" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN158" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="159" spans="1:40" x14ac:dyDescent="0.2">
@@ -19894,10 +19894,10 @@
         <v>37</v>
       </c>
       <c r="AM159" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN159" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.2">
@@ -20010,10 +20010,10 @@
         <v>37</v>
       </c>
       <c r="AM160" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN160" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.2">
@@ -20102,7 +20102,7 @@
         <v>0</v>
       </c>
       <c r="AE161" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF161" s="4" t="s">
         <v>45</v>
@@ -20126,10 +20126,10 @@
         <v>37</v>
       </c>
       <c r="AM161" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN161" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="162" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20220,7 +20220,7 @@
         <v>0</v>
       </c>
       <c r="AE162" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF162" s="4" t="s">
         <v>45</v>
@@ -20244,10 +20244,10 @@
         <v>37</v>
       </c>
       <c r="AM162" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN162" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="163" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20336,7 +20336,7 @@
         <v>0</v>
       </c>
       <c r="AE163" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF163" s="4" t="s">
         <v>45</v>
@@ -20360,10 +20360,10 @@
         <v>37</v>
       </c>
       <c r="AM163" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN163" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="164" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20452,7 +20452,7 @@
         <v>0</v>
       </c>
       <c r="AE164" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF164" s="4" t="s">
         <v>45</v>
@@ -20476,10 +20476,10 @@
         <v>37</v>
       </c>
       <c r="AM164" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="AN164" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="AN164" s="4" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="165" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
       <c r="AE165" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF165" s="4" t="s">
         <v>45</v>
@@ -20592,10 +20592,10 @@
         <v>37</v>
       </c>
       <c r="AM165" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="AN165" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="AN165" s="4" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="166" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20684,20 +20684,20 @@
         <v>0</v>
       </c>
       <c r="AE166" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF166" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG166" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH166" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="AF166" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG166" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH166" s="4" t="s">
+      <c r="AI166" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="AI166" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="AJ166" s="4" t="s">
         <v>45</v>
       </c>
@@ -20708,10 +20708,10 @@
         <v>37</v>
       </c>
       <c r="AM166" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="AN166" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="AN166" s="4" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="167" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20800,7 +20800,7 @@
         <v>0</v>
       </c>
       <c r="AE167" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF167" s="4" t="s">
         <v>45</v>
@@ -20824,10 +20824,10 @@
         <v>37</v>
       </c>
       <c r="AM167" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN167" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="168" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20916,7 +20916,7 @@
         <v>0</v>
       </c>
       <c r="AE168" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF168" s="4" t="s">
         <v>45</v>
@@ -20940,10 +20940,10 @@
         <v>37</v>
       </c>
       <c r="AM168" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="AN168" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="AN168" s="4" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="169" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21032,7 +21032,7 @@
         <v>0</v>
       </c>
       <c r="AE169" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF169" s="4" t="s">
         <v>45</v>
@@ -21056,10 +21056,10 @@
         <v>37</v>
       </c>
       <c r="AM169" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="AN169" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="AN169" s="4" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="170" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21148,20 +21148,20 @@
         <v>0</v>
       </c>
       <c r="AE170" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF170" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG170" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH170" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="AF170" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG170" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH170" s="4" t="s">
+      <c r="AI170" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="AI170" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="AJ170" s="4" t="s">
         <v>45</v>
       </c>
@@ -21172,10 +21172,10 @@
         <v>37</v>
       </c>
       <c r="AM170" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="AN170" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="AN170" s="4" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="171" spans="1:40" x14ac:dyDescent="0.2">
@@ -21264,20 +21264,20 @@
         <v>0</v>
       </c>
       <c r="AE171" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF171" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG171" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH171" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="AF171" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG171" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH171" s="4" t="s">
+      <c r="AI171" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="AI171" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="AJ171" s="4" t="s">
         <v>45</v>
       </c>
@@ -21288,10 +21288,10 @@
         <v>37</v>
       </c>
       <c r="AM171" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="AN171" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="AN171" s="4" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="172" spans="1:40" x14ac:dyDescent="0.2">
@@ -21380,11 +21380,11 @@
         <v>0</v>
       </c>
       <c r="AE172" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF172" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AF172" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="AG172" s="4" t="s">
         <v>45</v>
       </c>
@@ -21404,10 +21404,10 @@
         <v>37</v>
       </c>
       <c r="AM172" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="AN172" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="AN172" s="4" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="174" spans="1:40" x14ac:dyDescent="0.2">
@@ -21415,7 +21415,7 @@
         <v>13000</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -21496,7 +21496,7 @@
         <v>0</v>
       </c>
       <c r="AE174" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF174" s="4" t="s">
         <v>45</v>
@@ -21520,10 +21520,10 @@
         <v>37</v>
       </c>
       <c r="AM174" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AN174" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="1:40" x14ac:dyDescent="0.2">
@@ -21614,7 +21614,7 @@
         <v>0</v>
       </c>
       <c r="AE175" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF175" s="4" t="s">
         <v>45</v>
@@ -21638,10 +21638,10 @@
         <v>37</v>
       </c>
       <c r="AM175" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AN175" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="176" spans="1:40" x14ac:dyDescent="0.2">
@@ -21732,7 +21732,7 @@
         <v>0</v>
       </c>
       <c r="AE176" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF176" s="4" t="s">
         <v>45</v>
@@ -21756,10 +21756,10 @@
         <v>37</v>
       </c>
       <c r="AM176" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AN176" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="177" spans="1:40" x14ac:dyDescent="0.2">
@@ -21767,7 +21767,7 @@
         <v>13003</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C177" s="4">
         <v>1</v>
@@ -21850,7 +21850,7 @@
         <v>0</v>
       </c>
       <c r="AE177" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF177" s="4" t="s">
         <v>45</v>
@@ -21874,10 +21874,10 @@
         <v>37</v>
       </c>
       <c r="AM177" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AN177" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="AN177" s="4" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.2">
@@ -21885,7 +21885,7 @@
         <v>13004</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C178" s="4">
         <v>1</v>
@@ -21968,7 +21968,7 @@
         <v>0</v>
       </c>
       <c r="AE178" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF178" s="4" t="s">
         <v>45</v>
@@ -21992,10 +21992,10 @@
         <v>37</v>
       </c>
       <c r="AM178" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AN178" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="AN178" s="4" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.2">
@@ -22003,7 +22003,7 @@
         <v>13005</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C179" s="4">
         <v>1</v>
@@ -22086,7 +22086,7 @@
         <v>0</v>
       </c>
       <c r="AE179" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF179" s="4" t="s">
         <v>45</v>
@@ -22110,10 +22110,10 @@
         <v>37</v>
       </c>
       <c r="AM179" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AN179" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="AN179" s="4" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.2">
@@ -22121,7 +22121,7 @@
         <v>13006</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C180" s="4">
         <v>2</v>
@@ -22204,7 +22204,7 @@
         <v>0</v>
       </c>
       <c r="AE180" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF180" s="4" t="s">
         <v>45</v>
@@ -22228,10 +22228,10 @@
         <v>37</v>
       </c>
       <c r="AM180" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AN180" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="181" spans="1:40" x14ac:dyDescent="0.2">
@@ -22239,7 +22239,7 @@
         <v>13007</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
@@ -22322,7 +22322,7 @@
         <v>0</v>
       </c>
       <c r="AE181" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF181" s="4" t="s">
         <v>45</v>
@@ -22346,10 +22346,10 @@
         <v>37</v>
       </c>
       <c r="AM181" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AN181" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.2">
@@ -22357,7 +22357,7 @@
         <v>13008</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C182" s="4">
         <v>2</v>
@@ -22440,7 +22440,7 @@
         <v>0</v>
       </c>
       <c r="AE182" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF182" s="4" t="s">
         <v>45</v>
@@ -22464,10 +22464,10 @@
         <v>37</v>
       </c>
       <c r="AM182" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AN182" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="183" spans="1:40" x14ac:dyDescent="0.2">
@@ -22475,7 +22475,7 @@
         <v>13009</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -22558,7 +22558,7 @@
         <v>0</v>
       </c>
       <c r="AE183" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF183" s="4" t="s">
         <v>45</v>
@@ -22582,10 +22582,10 @@
         <v>37</v>
       </c>
       <c r="AM183" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AN183" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.2">
@@ -22593,7 +22593,7 @@
         <v>13010</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C184" s="4">
         <v>3</v>
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="AE184" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF184" s="4" t="s">
         <v>45</v>
@@ -22700,10 +22700,10 @@
         <v>37</v>
       </c>
       <c r="AM184" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AN184" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.2">
@@ -22711,7 +22711,7 @@
         <v>13011</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C185" s="4">
         <v>3</v>
@@ -22794,11 +22794,11 @@
         <v>0</v>
       </c>
       <c r="AE185" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF185" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="AF185" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="AG185" s="4" t="s">
         <v>45</v>
       </c>
@@ -22818,10 +22818,10 @@
         <v>37</v>
       </c>
       <c r="AM185" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AN185" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="186" spans="1:40" x14ac:dyDescent="0.2">
@@ -22829,7 +22829,7 @@
         <v>13012</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="AE186" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF186" s="4" t="s">
         <v>45</v>
@@ -22934,10 +22934,10 @@
         <v>37</v>
       </c>
       <c r="AM186" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN186" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="AN186" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.2">
@@ -22945,7 +22945,7 @@
         <v>13013</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C187" s="4">
         <v>2</v>
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="AE187" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF187" s="4" t="s">
         <v>45</v>
@@ -23050,10 +23050,10 @@
         <v>37</v>
       </c>
       <c r="AM187" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN187" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="AN187" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="188" spans="1:40" x14ac:dyDescent="0.2">
@@ -23061,7 +23061,7 @@
         <v>13014</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C188" s="4">
         <v>3</v>
@@ -23142,7 +23142,7 @@
         <v>0</v>
       </c>
       <c r="AE188" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF188" s="4" t="s">
         <v>45</v>
@@ -23166,10 +23166,10 @@
         <v>37</v>
       </c>
       <c r="AM188" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AN188" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="189" spans="1:40" x14ac:dyDescent="0.2">
@@ -23177,7 +23177,7 @@
         <v>13015</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C189" s="4">
         <v>1</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="AE189" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF189" s="4" t="s">
         <v>45</v>
@@ -23282,10 +23282,10 @@
         <v>37</v>
       </c>
       <c r="AM189" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN189" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="AN189" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="190" spans="1:40" x14ac:dyDescent="0.2">
@@ -23293,7 +23293,7 @@
         <v>13016</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C190" s="4">
         <v>2</v>
@@ -23374,7 +23374,7 @@
         <v>0</v>
       </c>
       <c r="AE190" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF190" s="4" t="s">
         <v>45</v>
@@ -23398,10 +23398,10 @@
         <v>37</v>
       </c>
       <c r="AM190" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN190" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="AN190" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="191" spans="1:40" x14ac:dyDescent="0.2">
@@ -23409,7 +23409,7 @@
         <v>13017</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C191" s="4">
         <v>3</v>
@@ -23490,7 +23490,7 @@
         <v>0</v>
       </c>
       <c r="AE191" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF191" s="4" t="s">
         <v>45</v>
@@ -23514,10 +23514,10 @@
         <v>37</v>
       </c>
       <c r="AM191" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AN191" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="192" spans="1:40" x14ac:dyDescent="0.2">
@@ -23525,7 +23525,7 @@
         <v>13018</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -23606,7 +23606,7 @@
         <v>0</v>
       </c>
       <c r="AE192" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF192" s="4" t="s">
         <v>45</v>
@@ -23630,10 +23630,10 @@
         <v>37</v>
       </c>
       <c r="AM192" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AN192" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="193" spans="1:40" x14ac:dyDescent="0.2">
@@ -23855,7 +23855,7 @@
         <v>45</v>
       </c>
       <c r="AH197" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI197" s="4" t="s">
         <v>45</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740DF310-AD7B-4BFB-812A-A5A91A63514D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21214F9B-4345-4E58-9025-8ABB1A9FD92F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="4980" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13425" yWindow="5670" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="494">
   <si>
     <t>Id</t>
   </si>
@@ -982,10 +982,6 @@
   </si>
   <si>
     <t>石头戏法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[415150,415151]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2996,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3077,16 +3073,16 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="Z1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -3214,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG2" s="4" t="s">
         <v>45</v>
@@ -3238,10 +3234,10 @@
         <v>37</v>
       </c>
       <c r="AM2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN2" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3330,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>45</v>
@@ -3354,10 +3350,10 @@
         <v>37</v>
       </c>
       <c r="AM3" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="AN3" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3446,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF4" s="4" t="s">
         <v>45</v>
@@ -3470,10 +3466,10 @@
         <v>37</v>
       </c>
       <c r="AM4" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3562,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF5" s="4" t="s">
         <v>45</v>
@@ -3586,10 +3582,10 @@
         <v>37</v>
       </c>
       <c r="AM5" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3597,7 +3593,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -3678,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>45</v>
@@ -3702,10 +3698,10 @@
         <v>37</v>
       </c>
       <c r="AM6" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
@@ -3794,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>45</v>
@@ -3818,10 +3814,10 @@
         <v>37</v>
       </c>
       <c r="AM7" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN7" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -3910,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>45</v>
@@ -3934,10 +3930,10 @@
         <v>37</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4026,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF9" s="4" t="s">
         <v>45</v>
@@ -4050,10 +4046,10 @@
         <v>37</v>
       </c>
       <c r="AM9" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN9" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
@@ -4061,7 +4057,7 @@
         <v>10100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -4142,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF11" s="4" t="s">
         <v>45</v>
@@ -4166,10 +4162,10 @@
         <v>37</v>
       </c>
       <c r="AM11" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AN11" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="AN11" s="4" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -4177,7 +4173,7 @@
         <v>10101</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -4258,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF12" s="4" t="s">
         <v>45</v>
@@ -4282,10 +4278,10 @@
         <v>37</v>
       </c>
       <c r="AM12" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AN12" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="AN12" s="4" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
@@ -4293,7 +4289,7 @@
         <v>10102</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -4374,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF13" s="4" t="s">
         <v>45</v>
@@ -4398,10 +4394,10 @@
         <v>37</v>
       </c>
       <c r="AM13" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AN13" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="AN13" s="4" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
@@ -4409,7 +4405,7 @@
         <v>10103</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -4490,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF14" s="4" t="s">
         <v>45</v>
@@ -4514,10 +4510,10 @@
         <v>37</v>
       </c>
       <c r="AM14" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="AN14" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
@@ -4525,7 +4521,7 @@
         <v>10104</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
@@ -4606,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF15" s="4" t="s">
         <v>45</v>
@@ -4630,10 +4626,10 @@
         <v>37</v>
       </c>
       <c r="AM15" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AN15" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="AN15" s="4" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
@@ -4641,7 +4637,7 @@
         <v>10105</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
@@ -4722,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF16" s="4" t="s">
         <v>45</v>
@@ -4746,10 +4742,10 @@
         <v>37</v>
       </c>
       <c r="AM16" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN16" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="AN16" s="4" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4757,7 +4753,7 @@
         <v>10200</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -4838,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF18" s="4" t="s">
         <v>45</v>
@@ -4862,10 +4858,10 @@
         <v>37</v>
       </c>
       <c r="AM18" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN18" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="AN18" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
@@ -4873,7 +4869,7 @@
         <v>10201</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -4954,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF19" s="4" t="s">
         <v>45</v>
@@ -4978,10 +4974,10 @@
         <v>37</v>
       </c>
       <c r="AM19" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="AN19" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="AN19" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4989,7 +4985,7 @@
         <v>10202</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -5070,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF20" s="4" t="s">
         <v>45</v>
@@ -5094,10 +5090,10 @@
         <v>37</v>
       </c>
       <c r="AM20" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN20" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="AN20" s="4" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5105,7 +5101,7 @@
         <v>10203</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -5186,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF21" s="4" t="s">
         <v>45</v>
@@ -5210,10 +5206,10 @@
         <v>37</v>
       </c>
       <c r="AM21" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN21" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="AN21" s="4" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
@@ -5302,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF23" s="4" t="s">
         <v>45</v>
@@ -5326,10 +5322,10 @@
         <v>37</v>
       </c>
       <c r="AM23" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN23" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
@@ -5418,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF24" s="4" t="s">
         <v>45</v>
@@ -5442,10 +5438,10 @@
         <v>37</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
@@ -5534,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF25" s="4" t="s">
         <v>45</v>
@@ -5558,10 +5554,10 @@
         <v>37</v>
       </c>
       <c r="AM25" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -5650,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF26" s="4" t="s">
         <v>45</v>
@@ -5674,10 +5670,10 @@
         <v>37</v>
       </c>
       <c r="AM26" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -5766,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF27" s="4" t="s">
         <v>45</v>
@@ -5793,7 +5789,7 @@
         <v>48</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -5882,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF28" s="4" t="s">
         <v>45</v>
@@ -5906,10 +5902,10 @@
         <v>37</v>
       </c>
       <c r="AM28" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN28" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="AN28" s="4" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -5998,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF29" s="4" t="s">
         <v>45</v>
@@ -6022,7 +6018,7 @@
         <v>37</v>
       </c>
       <c r="AM29" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN29" s="4" t="s">
         <v>51</v>
@@ -6114,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF30" s="4" t="s">
         <v>45</v>
@@ -6138,7 +6134,7 @@
         <v>37</v>
       </c>
       <c r="AM30" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN30" s="4" t="s">
         <v>51</v>
@@ -6230,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF31" s="4" t="s">
         <v>45</v>
@@ -6254,7 +6250,7 @@
         <v>37</v>
       </c>
       <c r="AM31" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN31" s="4" t="s">
         <v>51</v>
@@ -6346,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF32" s="4" t="s">
         <v>45</v>
@@ -6370,7 +6366,7 @@
         <v>37</v>
       </c>
       <c r="AM32" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN32" s="4" t="s">
         <v>51</v>
@@ -6462,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF33" s="4" t="s">
         <v>45</v>
@@ -6486,7 +6482,7 @@
         <v>37</v>
       </c>
       <c r="AM33" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN33" s="4" t="s">
         <v>51</v>
@@ -6578,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF34" s="4" t="s">
         <v>45</v>
@@ -6602,7 +6598,7 @@
         <v>37</v>
       </c>
       <c r="AM34" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN34" s="4" t="s">
         <v>51</v>
@@ -6718,10 +6714,10 @@
         <v>37</v>
       </c>
       <c r="AM36" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN36" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -6834,10 +6830,10 @@
         <v>37</v>
       </c>
       <c r="AM37" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN37" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -6950,10 +6946,10 @@
         <v>37</v>
       </c>
       <c r="AM38" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN38" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
@@ -7042,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF39" s="4" t="s">
         <v>45</v>
@@ -7066,10 +7062,10 @@
         <v>37</v>
       </c>
       <c r="AM39" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN39" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
@@ -7158,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF40" s="4" t="s">
         <v>45</v>
@@ -7182,10 +7178,10 @@
         <v>37</v>
       </c>
       <c r="AM40" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN40" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
@@ -7274,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF41" s="4" t="s">
         <v>45</v>
@@ -7298,10 +7294,10 @@
         <v>37</v>
       </c>
       <c r="AM41" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN41" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
@@ -7414,10 +7410,10 @@
         <v>37</v>
       </c>
       <c r="AM42" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN42" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -7530,10 +7526,10 @@
         <v>37</v>
       </c>
       <c r="AM44" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN44" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -7646,10 +7642,10 @@
         <v>37</v>
       </c>
       <c r="AM45" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN45" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -7762,10 +7758,10 @@
         <v>37</v>
       </c>
       <c r="AM46" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN46" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
@@ -7854,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF47" s="4" t="s">
         <v>45</v>
@@ -7878,10 +7874,10 @@
         <v>37</v>
       </c>
       <c r="AM47" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN47" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
@@ -7972,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF48" s="4" t="s">
         <v>45</v>
@@ -7996,10 +7992,10 @@
         <v>37</v>
       </c>
       <c r="AM48" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="AN48" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="AN48" s="4" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8088,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF49" s="4" t="s">
         <v>45</v>
@@ -8112,10 +8108,10 @@
         <v>37</v>
       </c>
       <c r="AM49" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8228,10 +8224,10 @@
         <v>37</v>
       </c>
       <c r="AM50" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="AN50" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="AN50" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8346,10 +8342,10 @@
         <v>37</v>
       </c>
       <c r="AM51" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN51" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8462,7 +8458,7 @@
         <v>37</v>
       </c>
       <c r="AM52" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AN52" s="4" t="s">
         <v>63</v>
@@ -8563,7 +8559,7 @@
         <v>45</v>
       </c>
       <c r="AH53" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AI53" s="4" t="s">
         <v>45</v>
@@ -8578,10 +8574,10 @@
         <v>37</v>
       </c>
       <c r="AM53" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN53" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="AN53" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8694,10 +8690,10 @@
         <v>37</v>
       </c>
       <c r="AM54" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AN54" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8786,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF55" s="4" t="s">
         <v>45</v>
@@ -8810,10 +8806,10 @@
         <v>37</v>
       </c>
       <c r="AM55" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AN55" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
@@ -8902,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF57" s="4" t="s">
         <v>45</v>
@@ -8926,10 +8922,10 @@
         <v>37</v>
       </c>
       <c r="AM57" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN57" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.2">
@@ -9018,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="AE58" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF58" s="4" t="s">
         <v>45</v>
@@ -9042,10 +9038,10 @@
         <v>37</v>
       </c>
       <c r="AM58" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN58" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
@@ -9158,10 +9154,10 @@
         <v>37</v>
       </c>
       <c r="AM59" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN59" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.2">
@@ -9250,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF60" s="4" t="s">
         <v>45</v>
@@ -9274,10 +9270,10 @@
         <v>37</v>
       </c>
       <c r="AM60" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN60" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.2">
@@ -9368,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF61" s="4" t="s">
         <v>45</v>
@@ -9392,10 +9388,10 @@
         <v>37</v>
       </c>
       <c r="AM61" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AN61" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.2">
@@ -9484,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF62" s="4" t="s">
         <v>45</v>
@@ -9508,10 +9504,10 @@
         <v>37</v>
       </c>
       <c r="AM62" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN62" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
@@ -9624,10 +9620,10 @@
         <v>37</v>
       </c>
       <c r="AM63" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="AN63" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="AN63" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
@@ -9740,10 +9736,10 @@
         <v>37</v>
       </c>
       <c r="AM64" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN64" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="AN64" s="4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.2">
@@ -9858,10 +9854,10 @@
         <v>37</v>
       </c>
       <c r="AM65" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AN65" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="AN65" s="4" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.2">
@@ -9974,7 +9970,7 @@
         <v>37</v>
       </c>
       <c r="AM66" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AN66" s="4" t="s">
         <v>76</v>
@@ -10090,7 +10086,7 @@
         <v>37</v>
       </c>
       <c r="AM67" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AN67" s="4" t="s">
         <v>79</v>
@@ -10206,10 +10202,10 @@
         <v>37</v>
       </c>
       <c r="AM68" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AN68" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="AN68" s="4" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.2">
@@ -10322,10 +10318,10 @@
         <v>37</v>
       </c>
       <c r="AM69" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN69" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="AN69" s="4" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.2">
@@ -10438,10 +10434,10 @@
         <v>37</v>
       </c>
       <c r="AM70" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AN70" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="AN70" s="4" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.2">
@@ -10554,10 +10550,10 @@
         <v>37</v>
       </c>
       <c r="AM71" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN71" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="AN71" s="4" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.2">
@@ -10670,10 +10666,10 @@
         <v>37</v>
       </c>
       <c r="AM72" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="AN72" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="AN72" s="4" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.2">
@@ -10786,10 +10782,10 @@
         <v>37</v>
       </c>
       <c r="AM73" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AN73" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.2">
@@ -10902,10 +10898,10 @@
         <v>37</v>
       </c>
       <c r="AM75" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AN75" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.2">
@@ -10994,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AE76" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF76" s="4" t="s">
         <v>45</v>
@@ -11018,10 +11014,10 @@
         <v>37</v>
       </c>
       <c r="AM76" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN76" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.2">
@@ -11134,10 +11130,10 @@
         <v>37</v>
       </c>
       <c r="AM77" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN77" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.2">
@@ -11226,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="AE78" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF78" s="4" t="s">
         <v>45</v>
@@ -11250,10 +11246,10 @@
         <v>37</v>
       </c>
       <c r="AM78" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN78" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.2">
@@ -11344,7 +11340,7 @@
         <v>0</v>
       </c>
       <c r="AE79" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF79" s="4" t="s">
         <v>45</v>
@@ -11368,10 +11364,10 @@
         <v>37</v>
       </c>
       <c r="AM79" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN79" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.2">
@@ -11460,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AE80" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF80" s="4" t="s">
         <v>45</v>
@@ -11484,10 +11480,10 @@
         <v>37</v>
       </c>
       <c r="AM80" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN80" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.2">
@@ -11600,10 +11596,10 @@
         <v>37</v>
       </c>
       <c r="AM82" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN82" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.2">
@@ -11716,10 +11712,10 @@
         <v>37</v>
       </c>
       <c r="AM83" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN83" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11832,10 +11828,10 @@
         <v>37</v>
       </c>
       <c r="AM84" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN84" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11924,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="AE85" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF85" s="4" t="s">
         <v>45</v>
@@ -11948,10 +11944,10 @@
         <v>37</v>
       </c>
       <c r="AM85" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN85" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.2">
@@ -12042,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="AE86" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF86" s="4" t="s">
         <v>45</v>
@@ -12066,10 +12062,10 @@
         <v>37</v>
       </c>
       <c r="AM86" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN86" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.2">
@@ -12158,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="AE87" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF87" s="4" t="s">
         <v>45</v>
@@ -12182,10 +12178,10 @@
         <v>37</v>
       </c>
       <c r="AM87" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN87" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12298,10 +12294,10 @@
         <v>37</v>
       </c>
       <c r="AM88" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN88" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="AN88" s="4" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12353,8 +12349,8 @@
       <c r="R89" s="7">
         <v>315110</v>
       </c>
-      <c r="S89" s="7" t="s">
-        <v>100</v>
+      <c r="S89" s="7">
+        <v>415151</v>
       </c>
       <c r="T89" s="7">
         <v>315111</v>
@@ -12390,34 +12386,34 @@
         <v>0</v>
       </c>
       <c r="AE89" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF89" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG89" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH89" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI89" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ89" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM89" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AN89" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="AF89" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG89" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH89" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI89" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ89" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK89" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL89" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM89" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AN89" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.2">
@@ -12425,7 +12421,7 @@
         <v>11512</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -12506,7 +12502,7 @@
         <v>0</v>
       </c>
       <c r="AE90" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF90" s="4" t="s">
         <v>45</v>
@@ -12530,10 +12526,10 @@
         <v>37</v>
       </c>
       <c r="AM90" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AN90" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="AN90" s="4" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.2">
@@ -12541,7 +12537,7 @@
         <v>11513</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -12622,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="AE91" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF91" s="4" t="s">
         <v>45</v>
@@ -12646,10 +12642,10 @@
         <v>37</v>
       </c>
       <c r="AM91" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN91" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.2">
@@ -12657,7 +12653,7 @@
         <v>11514</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
@@ -12738,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="AE92" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF92" s="4" t="s">
         <v>45</v>
@@ -12762,10 +12758,10 @@
         <v>37</v>
       </c>
       <c r="AM92" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="AN92" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="AN92" s="4" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.2">
@@ -12773,7 +12769,7 @@
         <v>11515</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -12854,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="AE93" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF93" s="4" t="s">
         <v>45</v>
@@ -12878,10 +12874,10 @@
         <v>37</v>
       </c>
       <c r="AM93" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN93" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.2">
@@ -12889,7 +12885,7 @@
         <v>11516</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C94" s="4">
         <v>1</v>
@@ -12970,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="AE94" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF94" s="4" t="s">
         <v>45</v>
@@ -12994,10 +12990,10 @@
         <v>37</v>
       </c>
       <c r="AM94" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN94" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.2">
@@ -13005,7 +13001,7 @@
         <v>11517</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -13086,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="AE95" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF95" s="4" t="s">
         <v>45</v>
@@ -13110,10 +13106,10 @@
         <v>37</v>
       </c>
       <c r="AM95" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN95" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="AN95" s="4" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.2">
@@ -13121,7 +13117,7 @@
         <v>11518</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -13202,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="AE96" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF96" s="4" t="s">
         <v>45</v>
@@ -13226,10 +13222,10 @@
         <v>37</v>
       </c>
       <c r="AM96" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="AN96" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="AN96" s="4" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.2">
@@ -13318,7 +13314,7 @@
         <v>0</v>
       </c>
       <c r="AE98" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF98" s="4" t="s">
         <v>45</v>
@@ -13342,10 +13338,10 @@
         <v>37</v>
       </c>
       <c r="AM98" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN98" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.2">
@@ -13434,7 +13430,7 @@
         <v>0</v>
       </c>
       <c r="AE99" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF99" s="4" t="s">
         <v>45</v>
@@ -13458,10 +13454,10 @@
         <v>37</v>
       </c>
       <c r="AM99" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN99" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.2">
@@ -13550,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="AE100" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF100" s="4" t="s">
         <v>45</v>
@@ -13574,10 +13570,10 @@
         <v>37</v>
       </c>
       <c r="AM100" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN100" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.2">
@@ -13666,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="AE101" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF101" s="4" t="s">
         <v>45</v>
@@ -13690,10 +13686,10 @@
         <v>37</v>
       </c>
       <c r="AM101" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN101" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.2">
@@ -13784,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="AE102" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF102" s="4" t="s">
         <v>45</v>
@@ -13808,10 +13804,10 @@
         <v>37</v>
       </c>
       <c r="AM102" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN102" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.2">
@@ -13900,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="AE103" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF103" s="4" t="s">
         <v>45</v>
@@ -13924,10 +13920,10 @@
         <v>37</v>
       </c>
       <c r="AM103" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN103" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -13935,7 +13931,7 @@
         <v>11610</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C104" s="4">
         <v>3</v>
@@ -14016,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="AE104" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF104" s="4" t="s">
         <v>45</v>
@@ -14040,10 +14036,10 @@
         <v>37</v>
       </c>
       <c r="AM104" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="AN104" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="AN104" s="4" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="105" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14051,7 +14047,7 @@
         <v>11611</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C105" s="4">
         <v>1</v>
@@ -14132,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="AE105" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF105" s="4" t="s">
         <v>45</v>
@@ -14156,10 +14152,10 @@
         <v>37</v>
       </c>
       <c r="AM105" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="AN105" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="AN105" s="4" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14167,7 +14163,7 @@
         <v>11612</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C106" s="4">
         <v>2</v>
@@ -14248,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="AE106" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF106" s="4" t="s">
         <v>45</v>
@@ -14272,10 +14268,10 @@
         <v>37</v>
       </c>
       <c r="AM106" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="AN106" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="AN106" s="4" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.2">
@@ -14283,7 +14279,7 @@
         <v>11613</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C107" s="4">
         <v>3</v>
@@ -14364,7 +14360,7 @@
         <v>0</v>
       </c>
       <c r="AE107" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF107" s="4" t="s">
         <v>45</v>
@@ -14373,10 +14369,10 @@
         <v>45</v>
       </c>
       <c r="AH107" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI107" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ107" s="4" t="s">
         <v>45</v>
@@ -14388,10 +14384,10 @@
         <v>37</v>
       </c>
       <c r="AM107" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN107" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.2">
@@ -14480,7 +14476,7 @@
         <v>0</v>
       </c>
       <c r="AE109" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF109" s="4" t="s">
         <v>45</v>
@@ -14504,10 +14500,10 @@
         <v>37</v>
       </c>
       <c r="AM109" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN109" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.2">
@@ -14596,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="AE110" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF110" s="4" t="s">
         <v>45</v>
@@ -14620,10 +14616,10 @@
         <v>37</v>
       </c>
       <c r="AM110" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN110" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.2">
@@ -14712,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="AE111" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF111" s="4" t="s">
         <v>45</v>
@@ -14736,10 +14732,10 @@
         <v>37</v>
       </c>
       <c r="AM111" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN111" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.2">
@@ -14828,7 +14824,7 @@
         <v>0</v>
       </c>
       <c r="AE112" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF112" s="4" t="s">
         <v>45</v>
@@ -14852,10 +14848,10 @@
         <v>37</v>
       </c>
       <c r="AM112" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN112" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14946,7 +14942,7 @@
         <v>0</v>
       </c>
       <c r="AE113" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF113" s="4" t="s">
         <v>45</v>
@@ -14970,10 +14966,10 @@
         <v>37</v>
       </c>
       <c r="AM113" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN113" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.2">
@@ -15062,7 +15058,7 @@
         <v>0</v>
       </c>
       <c r="AE114" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF114" s="4" t="s">
         <v>45</v>
@@ -15086,10 +15082,10 @@
         <v>37</v>
       </c>
       <c r="AM114" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN114" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15097,7 +15093,7 @@
         <v>11710</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
@@ -15178,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="AE115" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF115" s="4" t="s">
         <v>45</v>
@@ -15202,10 +15198,10 @@
         <v>37</v>
       </c>
       <c r="AM115" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="AN115" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="AN115" s="4" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.2">
@@ -15213,7 +15209,7 @@
         <v>11711</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -15294,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="AE116" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF116" s="4" t="s">
         <v>45</v>
@@ -15318,10 +15314,10 @@
         <v>37</v>
       </c>
       <c r="AM116" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="AN116" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="AN116" s="4" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="117" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15329,7 +15325,7 @@
         <v>11712</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C117" s="4">
         <v>3</v>
@@ -15410,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="AE117" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF117" s="4" t="s">
         <v>45</v>
@@ -15434,10 +15430,10 @@
         <v>37</v>
       </c>
       <c r="AM117" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="AN117" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="AN117" s="4" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="118" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15445,7 +15441,7 @@
         <v>11713</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C118" s="4">
         <v>1</v>
@@ -15530,7 +15526,7 @@
         <v>0</v>
       </c>
       <c r="AE118" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF118" s="4" t="s">
         <v>45</v>
@@ -15554,10 +15550,10 @@
         <v>37</v>
       </c>
       <c r="AM118" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="AN118" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="AN118" s="4" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15565,7 +15561,7 @@
         <v>11714</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -15646,7 +15642,7 @@
         <v>0</v>
       </c>
       <c r="AE119" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF119" s="4" t="s">
         <v>45</v>
@@ -15670,10 +15666,10 @@
         <v>37</v>
       </c>
       <c r="AM119" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="AN119" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="AN119" s="4" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15681,7 +15677,7 @@
         <v>11715</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C120" s="4">
         <v>3</v>
@@ -15762,10 +15758,10 @@
         <v>0</v>
       </c>
       <c r="AE120" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF120" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG120" s="4" t="s">
         <v>45</v>
@@ -15786,10 +15782,10 @@
         <v>37</v>
       </c>
       <c r="AM120" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN120" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="AN120" s="4" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="122" spans="1:40" x14ac:dyDescent="0.2">
@@ -15878,7 +15874,7 @@
         <v>0</v>
       </c>
       <c r="AE122" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF122" s="4" t="s">
         <v>45</v>
@@ -15902,10 +15898,10 @@
         <v>37</v>
       </c>
       <c r="AM122" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN122" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.2">
@@ -15994,7 +15990,7 @@
         <v>0</v>
       </c>
       <c r="AE123" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF123" s="4" t="s">
         <v>45</v>
@@ -16018,10 +16014,10 @@
         <v>37</v>
       </c>
       <c r="AM123" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN123" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.2">
@@ -16110,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="AE124" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF124" s="4" t="s">
         <v>45</v>
@@ -16134,10 +16130,10 @@
         <v>37</v>
       </c>
       <c r="AM124" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN124" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16226,7 +16222,7 @@
         <v>0</v>
       </c>
       <c r="AE125" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF125" s="4" t="s">
         <v>45</v>
@@ -16250,10 +16246,10 @@
         <v>37</v>
       </c>
       <c r="AM125" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN125" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.2">
@@ -16344,7 +16340,7 @@
         <v>0</v>
       </c>
       <c r="AE126" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF126" s="4" t="s">
         <v>45</v>
@@ -16368,10 +16364,10 @@
         <v>37</v>
       </c>
       <c r="AM126" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN126" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="127" spans="1:40" x14ac:dyDescent="0.2">
@@ -16460,7 +16456,7 @@
         <v>0</v>
       </c>
       <c r="AE127" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF127" s="4" t="s">
         <v>45</v>
@@ -16484,10 +16480,10 @@
         <v>37</v>
       </c>
       <c r="AM127" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN127" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.2">
@@ -16495,7 +16491,7 @@
         <v>11810</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C128" s="4">
         <v>0</v>
@@ -16576,34 +16572,34 @@
         <v>0</v>
       </c>
       <c r="AE128" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF128" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG128" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH128" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI128" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ128" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM128" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN128" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="AF128" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG128" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH128" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI128" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ128" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK128" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL128" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM128" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="AN128" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:40" x14ac:dyDescent="0.2">
@@ -16611,7 +16607,7 @@
         <v>11811</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -16664,19 +16660,19 @@
         <v>318110</v>
       </c>
       <c r="U129" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V129" s="7">
         <v>318111</v>
       </c>
       <c r="W129" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X129" s="7">
         <v>318112</v>
       </c>
       <c r="Y129" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Z129" s="7">
         <v>318113</v>
@@ -16694,7 +16690,7 @@
         <v>0</v>
       </c>
       <c r="AE129" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF129" s="4" t="s">
         <v>45</v>
@@ -16718,10 +16714,10 @@
         <v>37</v>
       </c>
       <c r="AM129" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="AN129" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="AN129" s="4" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="131" spans="1:40" x14ac:dyDescent="0.2">
@@ -16810,7 +16806,7 @@
         <v>0</v>
       </c>
       <c r="AE131" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF131" s="4" t="s">
         <v>45</v>
@@ -16834,10 +16830,10 @@
         <v>37</v>
       </c>
       <c r="AM131" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN131" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:40" x14ac:dyDescent="0.2">
@@ -16926,7 +16922,7 @@
         <v>0</v>
       </c>
       <c r="AE132" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF132" s="4" t="s">
         <v>45</v>
@@ -16950,10 +16946,10 @@
         <v>37</v>
       </c>
       <c r="AM132" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN132" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="133" spans="1:40" x14ac:dyDescent="0.2">
@@ -17042,7 +17038,7 @@
         <v>0</v>
       </c>
       <c r="AE133" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF133" s="4" t="s">
         <v>45</v>
@@ -17066,10 +17062,10 @@
         <v>37</v>
       </c>
       <c r="AM133" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN133" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="1:40" x14ac:dyDescent="0.2">
@@ -17158,7 +17154,7 @@
         <v>0</v>
       </c>
       <c r="AE134" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF134" s="4" t="s">
         <v>45</v>
@@ -17182,10 +17178,10 @@
         <v>37</v>
       </c>
       <c r="AM134" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN134" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:40" x14ac:dyDescent="0.2">
@@ -17276,7 +17272,7 @@
         <v>0</v>
       </c>
       <c r="AE135" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF135" s="4" t="s">
         <v>45</v>
@@ -17300,10 +17296,10 @@
         <v>37</v>
       </c>
       <c r="AM135" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN135" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.2">
@@ -17392,7 +17388,7 @@
         <v>0</v>
       </c>
       <c r="AE136" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF136" s="4" t="s">
         <v>45</v>
@@ -17416,10 +17412,10 @@
         <v>37</v>
       </c>
       <c r="AM136" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN136" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.2">
@@ -17427,7 +17423,7 @@
         <v>11910</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C137" s="4">
         <v>2</v>
@@ -17508,7 +17504,7 @@
         <v>0</v>
       </c>
       <c r="AE137" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF137" s="4" t="s">
         <v>45</v>
@@ -17532,10 +17528,10 @@
         <v>37</v>
       </c>
       <c r="AM137" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN137" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="AN137" s="4" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.2">
@@ -17543,7 +17539,7 @@
         <v>11911</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C138" s="4">
         <v>2</v>
@@ -17624,7 +17620,7 @@
         <v>0</v>
       </c>
       <c r="AE138" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF138" s="4" t="s">
         <v>45</v>
@@ -17648,10 +17644,10 @@
         <v>37</v>
       </c>
       <c r="AM138" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="AN138" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="AN138" s="4" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="139" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17659,7 +17655,7 @@
         <v>11912</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C139" s="4">
         <v>2</v>
@@ -17740,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="AE139" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF139" s="4" t="s">
         <v>45</v>
@@ -17764,10 +17760,10 @@
         <v>37</v>
       </c>
       <c r="AM139" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="AN139" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="AN139" s="4" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="140" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17775,7 +17771,7 @@
         <v>11913</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C140" s="4">
         <v>3</v>
@@ -17856,7 +17852,7 @@
         <v>0</v>
       </c>
       <c r="AE140" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF140" s="4" t="s">
         <v>45</v>
@@ -17880,10 +17876,10 @@
         <v>37</v>
       </c>
       <c r="AM140" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="AN140" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="AN140" s="4" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="141" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17891,7 +17887,7 @@
         <v>11914</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C141" s="4">
         <v>3</v>
@@ -17972,7 +17968,7 @@
         <v>0</v>
       </c>
       <c r="AE141" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF141" s="4" t="s">
         <v>45</v>
@@ -17996,10 +17992,10 @@
         <v>37</v>
       </c>
       <c r="AM141" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AN141" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18007,7 +18003,7 @@
         <v>11915</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C142" s="4">
         <v>3</v>
@@ -18088,7 +18084,7 @@
         <v>0</v>
       </c>
       <c r="AE142" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF142" s="4" t="s">
         <v>45</v>
@@ -18112,10 +18108,10 @@
         <v>37</v>
       </c>
       <c r="AM142" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AN142" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="143" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18244,7 +18240,7 @@
         <v>0</v>
       </c>
       <c r="AE144" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF144" s="4" t="s">
         <v>45</v>
@@ -18268,10 +18264,10 @@
         <v>37</v>
       </c>
       <c r="AM144" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN144" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="145" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18360,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="AE145" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF145" s="4" t="s">
         <v>45</v>
@@ -18384,10 +18380,10 @@
         <v>37</v>
       </c>
       <c r="AM145" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN145" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="146" spans="1:40" x14ac:dyDescent="0.2">
@@ -18476,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="AE146" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF146" s="4" t="s">
         <v>45</v>
@@ -18500,10 +18496,10 @@
         <v>37</v>
       </c>
       <c r="AM146" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN146" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="147" spans="1:40" x14ac:dyDescent="0.2">
@@ -18592,7 +18588,7 @@
         <v>0</v>
       </c>
       <c r="AE147" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF147" s="4" t="s">
         <v>45</v>
@@ -18616,10 +18612,10 @@
         <v>37</v>
       </c>
       <c r="AM147" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN147" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:40" x14ac:dyDescent="0.2">
@@ -18710,7 +18706,7 @@
         <v>0</v>
       </c>
       <c r="AE148" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF148" s="4" t="s">
         <v>45</v>
@@ -18734,10 +18730,10 @@
         <v>37</v>
       </c>
       <c r="AM148" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN148" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="149" spans="1:40" x14ac:dyDescent="0.2">
@@ -18826,7 +18822,7 @@
         <v>0</v>
       </c>
       <c r="AE149" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF149" s="4" t="s">
         <v>45</v>
@@ -18850,10 +18846,10 @@
         <v>37</v>
       </c>
       <c r="AM149" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN149" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="150" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -18861,7 +18857,7 @@
         <v>12010</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C150" s="4">
         <v>1</v>
@@ -18942,7 +18938,7 @@
         <v>0</v>
       </c>
       <c r="AE150" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF150" s="4" t="s">
         <v>45</v>
@@ -18966,10 +18962,10 @@
         <v>37</v>
       </c>
       <c r="AM150" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AN150" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="151" spans="1:40" x14ac:dyDescent="0.2">
@@ -18977,7 +18973,7 @@
         <v>12011</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C151" s="4">
         <v>1</v>
@@ -19058,7 +19054,7 @@
         <v>0</v>
       </c>
       <c r="AE151" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF151" s="4" t="s">
         <v>45</v>
@@ -19082,10 +19078,10 @@
         <v>37</v>
       </c>
       <c r="AM151" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="AN151" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="AN151" s="4" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="152" spans="1:40" x14ac:dyDescent="0.2">
@@ -19093,7 +19089,7 @@
         <v>12012</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C152" s="4">
         <v>2</v>
@@ -19174,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="AE152" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF152" s="4" t="s">
         <v>45</v>
@@ -19198,10 +19194,10 @@
         <v>37</v>
       </c>
       <c r="AM152" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="AN152" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="AN152" s="4" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="153" spans="1:40" x14ac:dyDescent="0.2">
@@ -19209,7 +19205,7 @@
         <v>12013</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C153" s="4">
         <v>1</v>
@@ -19314,10 +19310,10 @@
         <v>37</v>
       </c>
       <c r="AM153" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN153" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="154" spans="1:40" x14ac:dyDescent="0.2">
@@ -19325,7 +19321,7 @@
         <v>12014</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C154" s="4">
         <v>2</v>
@@ -19409,7 +19405,7 @@
         <v>45</v>
       </c>
       <c r="AF154" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG154" s="4" t="s">
         <v>45</v>
@@ -19430,10 +19426,10 @@
         <v>37</v>
       </c>
       <c r="AM154" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN154" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="155" spans="1:40" x14ac:dyDescent="0.2">
@@ -19441,7 +19437,7 @@
         <v>12015</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C155" s="4">
         <v>3</v>
@@ -19525,7 +19521,7 @@
         <v>45</v>
       </c>
       <c r="AF155" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG155" s="4" t="s">
         <v>45</v>
@@ -19546,10 +19542,10 @@
         <v>37</v>
       </c>
       <c r="AM155" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN155" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="156" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -19557,7 +19553,7 @@
         <v>12016</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C156" s="4">
         <v>3</v>
@@ -19638,17 +19634,17 @@
         <v>0</v>
       </c>
       <c r="AE156" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF156" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AF156" s="4" t="s">
+      <c r="AG156" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH156" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AG156" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH156" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="AI156" s="4" t="s">
         <v>45</v>
       </c>
@@ -19662,10 +19658,10 @@
         <v>37</v>
       </c>
       <c r="AM156" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="AN156" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="AN156" s="4" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.2">
@@ -19754,7 +19750,7 @@
         <v>0</v>
       </c>
       <c r="AE158" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF158" s="4" t="s">
         <v>45</v>
@@ -19778,10 +19774,10 @@
         <v>37</v>
       </c>
       <c r="AM158" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN158" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" spans="1:40" x14ac:dyDescent="0.2">
@@ -19870,7 +19866,7 @@
         <v>0</v>
       </c>
       <c r="AE159" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF159" s="4" t="s">
         <v>45</v>
@@ -19894,10 +19890,10 @@
         <v>37</v>
       </c>
       <c r="AM159" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN159" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.2">
@@ -19986,7 +19982,7 @@
         <v>0</v>
       </c>
       <c r="AE160" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF160" s="4" t="s">
         <v>45</v>
@@ -20010,10 +20006,10 @@
         <v>37</v>
       </c>
       <c r="AM160" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN160" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.2">
@@ -20102,7 +20098,7 @@
         <v>0</v>
       </c>
       <c r="AE161" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF161" s="4" t="s">
         <v>45</v>
@@ -20126,10 +20122,10 @@
         <v>37</v>
       </c>
       <c r="AM161" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN161" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="162" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20220,7 +20216,7 @@
         <v>0</v>
       </c>
       <c r="AE162" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF162" s="4" t="s">
         <v>45</v>
@@ -20244,10 +20240,10 @@
         <v>37</v>
       </c>
       <c r="AM162" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN162" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="163" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20336,7 +20332,7 @@
         <v>0</v>
       </c>
       <c r="AE163" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF163" s="4" t="s">
         <v>45</v>
@@ -20360,10 +20356,10 @@
         <v>37</v>
       </c>
       <c r="AM163" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN163" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="164" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20371,7 +20367,7 @@
         <v>12110</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C164" s="4">
         <v>1</v>
@@ -20452,7 +20448,7 @@
         <v>0</v>
       </c>
       <c r="AE164" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF164" s="4" t="s">
         <v>45</v>
@@ -20476,10 +20472,10 @@
         <v>37</v>
       </c>
       <c r="AM164" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN164" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="AN164" s="4" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="165" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20487,7 +20483,7 @@
         <v>12111</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -20568,7 +20564,7 @@
         <v>0</v>
       </c>
       <c r="AE165" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF165" s="4" t="s">
         <v>45</v>
@@ -20592,10 +20588,10 @@
         <v>37</v>
       </c>
       <c r="AM165" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN165" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="AN165" s="4" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="166" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20603,7 +20599,7 @@
         <v>12112</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C166" s="4">
         <v>3</v>
@@ -20684,20 +20680,20 @@
         <v>0</v>
       </c>
       <c r="AE166" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF166" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG166" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH166" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="AF166" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG166" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH166" s="4" t="s">
+      <c r="AI166" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="AI166" s="4" t="s">
-        <v>231</v>
-      </c>
       <c r="AJ166" s="4" t="s">
         <v>45</v>
       </c>
@@ -20708,10 +20704,10 @@
         <v>37</v>
       </c>
       <c r="AM166" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="AN166" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="AN166" s="4" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="167" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20719,7 +20715,7 @@
         <v>12113</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C167" s="4">
         <v>1</v>
@@ -20800,7 +20796,7 @@
         <v>0</v>
       </c>
       <c r="AE167" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF167" s="4" t="s">
         <v>45</v>
@@ -20824,10 +20820,10 @@
         <v>37</v>
       </c>
       <c r="AM167" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AN167" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="168" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20835,7 +20831,7 @@
         <v>12114</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C168" s="4">
         <v>3</v>
@@ -20916,7 +20912,7 @@
         <v>0</v>
       </c>
       <c r="AE168" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF168" s="4" t="s">
         <v>45</v>
@@ -20940,10 +20936,10 @@
         <v>37</v>
       </c>
       <c r="AM168" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="AN168" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="AN168" s="4" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="169" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20951,7 +20947,7 @@
         <v>12115</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C169" s="4">
         <v>3</v>
@@ -21032,7 +21028,7 @@
         <v>0</v>
       </c>
       <c r="AE169" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF169" s="4" t="s">
         <v>45</v>
@@ -21056,10 +21052,10 @@
         <v>37</v>
       </c>
       <c r="AM169" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="AN169" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="AN169" s="4" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="170" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21067,7 +21063,7 @@
         <v>12116</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C170" s="4">
         <v>3</v>
@@ -21148,20 +21144,20 @@
         <v>0</v>
       </c>
       <c r="AE170" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF170" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG170" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH170" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="AF170" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG170" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH170" s="4" t="s">
+      <c r="AI170" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="AI170" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="AJ170" s="4" t="s">
         <v>45</v>
       </c>
@@ -21172,10 +21168,10 @@
         <v>37</v>
       </c>
       <c r="AM170" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="AN170" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="AN170" s="4" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="171" spans="1:40" x14ac:dyDescent="0.2">
@@ -21183,7 +21179,7 @@
         <v>12117</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C171" s="4">
         <v>2</v>
@@ -21264,20 +21260,20 @@
         <v>0</v>
       </c>
       <c r="AE171" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF171" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG171" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH171" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AF171" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG171" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH171" s="4" t="s">
+      <c r="AI171" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="AI171" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="AJ171" s="4" t="s">
         <v>45</v>
       </c>
@@ -21288,10 +21284,10 @@
         <v>37</v>
       </c>
       <c r="AM171" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="AN171" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="AN171" s="4" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="172" spans="1:40" x14ac:dyDescent="0.2">
@@ -21299,7 +21295,7 @@
         <v>12118</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C172" s="4">
         <v>1</v>
@@ -21380,11 +21376,11 @@
         <v>0</v>
       </c>
       <c r="AE172" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF172" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="AF172" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="AG172" s="4" t="s">
         <v>45</v>
       </c>
@@ -21404,10 +21400,10 @@
         <v>37</v>
       </c>
       <c r="AM172" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="AN172" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="AN172" s="4" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="174" spans="1:40" x14ac:dyDescent="0.2">
@@ -21415,7 +21411,7 @@
         <v>13000</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -21496,7 +21492,7 @@
         <v>0</v>
       </c>
       <c r="AE174" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF174" s="4" t="s">
         <v>45</v>
@@ -21520,10 +21516,10 @@
         <v>37</v>
       </c>
       <c r="AM174" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AN174" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="1:40" x14ac:dyDescent="0.2">
@@ -21614,7 +21610,7 @@
         <v>0</v>
       </c>
       <c r="AE175" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF175" s="4" t="s">
         <v>45</v>
@@ -21638,10 +21634,10 @@
         <v>37</v>
       </c>
       <c r="AM175" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AN175" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="176" spans="1:40" x14ac:dyDescent="0.2">
@@ -21732,7 +21728,7 @@
         <v>0</v>
       </c>
       <c r="AE176" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF176" s="4" t="s">
         <v>45</v>
@@ -21756,10 +21752,10 @@
         <v>37</v>
       </c>
       <c r="AM176" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AN176" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="177" spans="1:40" x14ac:dyDescent="0.2">
@@ -21767,7 +21763,7 @@
         <v>13003</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C177" s="4">
         <v>1</v>
@@ -21850,7 +21846,7 @@
         <v>0</v>
       </c>
       <c r="AE177" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF177" s="4" t="s">
         <v>45</v>
@@ -21874,10 +21870,10 @@
         <v>37</v>
       </c>
       <c r="AM177" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AN177" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="AN177" s="4" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.2">
@@ -21885,7 +21881,7 @@
         <v>13004</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C178" s="4">
         <v>1</v>
@@ -21968,7 +21964,7 @@
         <v>0</v>
       </c>
       <c r="AE178" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF178" s="4" t="s">
         <v>45</v>
@@ -21992,10 +21988,10 @@
         <v>37</v>
       </c>
       <c r="AM178" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AN178" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="AN178" s="4" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.2">
@@ -22003,7 +21999,7 @@
         <v>13005</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C179" s="4">
         <v>1</v>
@@ -22086,7 +22082,7 @@
         <v>0</v>
       </c>
       <c r="AE179" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF179" s="4" t="s">
         <v>45</v>
@@ -22110,10 +22106,10 @@
         <v>37</v>
       </c>
       <c r="AM179" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AN179" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="AN179" s="4" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.2">
@@ -22121,7 +22117,7 @@
         <v>13006</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C180" s="4">
         <v>2</v>
@@ -22204,7 +22200,7 @@
         <v>0</v>
       </c>
       <c r="AE180" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF180" s="4" t="s">
         <v>45</v>
@@ -22228,10 +22224,10 @@
         <v>37</v>
       </c>
       <c r="AM180" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AN180" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="181" spans="1:40" x14ac:dyDescent="0.2">
@@ -22239,7 +22235,7 @@
         <v>13007</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
@@ -22322,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="AE181" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF181" s="4" t="s">
         <v>45</v>
@@ -22346,10 +22342,10 @@
         <v>37</v>
       </c>
       <c r="AM181" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AN181" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.2">
@@ -22357,7 +22353,7 @@
         <v>13008</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C182" s="4">
         <v>2</v>
@@ -22440,7 +22436,7 @@
         <v>0</v>
       </c>
       <c r="AE182" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF182" s="4" t="s">
         <v>45</v>
@@ -22464,10 +22460,10 @@
         <v>37</v>
       </c>
       <c r="AM182" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AN182" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="183" spans="1:40" x14ac:dyDescent="0.2">
@@ -22475,7 +22471,7 @@
         <v>13009</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -22558,7 +22554,7 @@
         <v>0</v>
       </c>
       <c r="AE183" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF183" s="4" t="s">
         <v>45</v>
@@ -22582,10 +22578,10 @@
         <v>37</v>
       </c>
       <c r="AM183" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AN183" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.2">
@@ -22593,7 +22589,7 @@
         <v>13010</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C184" s="4">
         <v>3</v>
@@ -22676,7 +22672,7 @@
         <v>0</v>
       </c>
       <c r="AE184" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF184" s="4" t="s">
         <v>45</v>
@@ -22700,10 +22696,10 @@
         <v>37</v>
       </c>
       <c r="AM184" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AN184" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.2">
@@ -22711,7 +22707,7 @@
         <v>13011</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C185" s="4">
         <v>3</v>
@@ -22794,11 +22790,11 @@
         <v>0</v>
       </c>
       <c r="AE185" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF185" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AF185" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="AG185" s="4" t="s">
         <v>45</v>
       </c>
@@ -22818,10 +22814,10 @@
         <v>37</v>
       </c>
       <c r="AM185" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AN185" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="186" spans="1:40" x14ac:dyDescent="0.2">
@@ -22829,7 +22825,7 @@
         <v>13012</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -22910,7 +22906,7 @@
         <v>0</v>
       </c>
       <c r="AE186" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF186" s="4" t="s">
         <v>45</v>
@@ -22934,10 +22930,10 @@
         <v>37</v>
       </c>
       <c r="AM186" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN186" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="AN186" s="4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.2">
@@ -22945,7 +22941,7 @@
         <v>13013</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C187" s="4">
         <v>2</v>
@@ -23026,7 +23022,7 @@
         <v>0</v>
       </c>
       <c r="AE187" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF187" s="4" t="s">
         <v>45</v>
@@ -23050,10 +23046,10 @@
         <v>37</v>
       </c>
       <c r="AM187" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN187" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="AN187" s="4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="188" spans="1:40" x14ac:dyDescent="0.2">
@@ -23061,7 +23057,7 @@
         <v>13014</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C188" s="4">
         <v>3</v>
@@ -23142,7 +23138,7 @@
         <v>0</v>
       </c>
       <c r="AE188" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF188" s="4" t="s">
         <v>45</v>
@@ -23166,10 +23162,10 @@
         <v>37</v>
       </c>
       <c r="AM188" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AN188" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="189" spans="1:40" x14ac:dyDescent="0.2">
@@ -23177,7 +23173,7 @@
         <v>13015</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C189" s="4">
         <v>1</v>
@@ -23258,7 +23254,7 @@
         <v>0</v>
       </c>
       <c r="AE189" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF189" s="4" t="s">
         <v>45</v>
@@ -23282,10 +23278,10 @@
         <v>37</v>
       </c>
       <c r="AM189" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN189" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="AN189" s="4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="190" spans="1:40" x14ac:dyDescent="0.2">
@@ -23293,7 +23289,7 @@
         <v>13016</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C190" s="4">
         <v>2</v>
@@ -23374,7 +23370,7 @@
         <v>0</v>
       </c>
       <c r="AE190" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF190" s="4" t="s">
         <v>45</v>
@@ -23398,10 +23394,10 @@
         <v>37</v>
       </c>
       <c r="AM190" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN190" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="AN190" s="4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="191" spans="1:40" x14ac:dyDescent="0.2">
@@ -23409,7 +23405,7 @@
         <v>13017</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C191" s="4">
         <v>3</v>
@@ -23490,7 +23486,7 @@
         <v>0</v>
       </c>
       <c r="AE191" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF191" s="4" t="s">
         <v>45</v>
@@ -23514,10 +23510,10 @@
         <v>37</v>
       </c>
       <c r="AM191" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AN191" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="192" spans="1:40" x14ac:dyDescent="0.2">
@@ -23525,7 +23521,7 @@
         <v>13018</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -23606,7 +23602,7 @@
         <v>0</v>
       </c>
       <c r="AE192" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF192" s="4" t="s">
         <v>45</v>
@@ -23630,10 +23626,10 @@
         <v>37</v>
       </c>
       <c r="AM192" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AN192" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="193" spans="1:40" x14ac:dyDescent="0.2">
@@ -23653,7 +23649,7 @@
         <v>14000</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C196" s="4">
         <v>0</v>
@@ -23734,10 +23730,10 @@
         <v>0</v>
       </c>
       <c r="AE196" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF196" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG196" s="4" t="s">
         <v>45</v>
@@ -23765,7 +23761,7 @@
         <v>14001</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -23846,16 +23842,16 @@
         <v>0</v>
       </c>
       <c r="AE197" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF197" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG197" s="4" t="s">
         <v>45</v>
       </c>
       <c r="AH197" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AI197" s="4" t="s">
         <v>45</v>
@@ -23877,7 +23873,7 @@
         <v>14002</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -23958,10 +23954,10 @@
         <v>0</v>
       </c>
       <c r="AE198" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF198" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG198" s="4" t="s">
         <v>45</v>
@@ -23989,7 +23985,7 @@
         <v>14003</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -24070,10 +24066,10 @@
         <v>0</v>
       </c>
       <c r="AE199" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF199" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG199" s="4" t="s">
         <v>45</v>
@@ -24101,7 +24097,7 @@
         <v>14004</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -24182,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="AE200" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF200" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG200" s="4" t="s">
         <v>45</v>
@@ -24213,7 +24209,7 @@
         <v>14005</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -24294,10 +24290,10 @@
         <v>0</v>
       </c>
       <c r="AE201" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF201" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG201" s="4" t="s">
         <v>45</v>
@@ -24325,7 +24321,7 @@
         <v>14006</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -24406,10 +24402,10 @@
         <v>0</v>
       </c>
       <c r="AE202" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF202" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG202" s="4" t="s">
         <v>45</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4D2B59-37F1-4C8D-9576-D0DA22635ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3948AA4-21B9-498B-8E55-0345DD1B75B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13335" yWindow="5325" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18135" yWindow="5925" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="495">
   <si>
     <t>Id</t>
   </si>
@@ -1446,10 +1446,6 @@
   </si>
   <si>
     <t>在人类缺少防备时，对其进行彻底的洗脑控制。关键时刻，他们可以为组织所用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[421110,421101]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2525,6 +2521,18 @@
   </si>
   <si>
     <t>[402000,402001,402002,402003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[415123]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[415132]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[421100,421101]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2989,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG181" workbookViewId="0">
-      <selection activeCell="AN196" sqref="AN196"/>
+    <sheetView tabSelected="1" topLeftCell="AC151" workbookViewId="0">
+      <selection activeCell="AE164" sqref="AE164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3076,10 +3084,10 @@
         <v>202</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -3207,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>142</v>
@@ -3231,10 +3239,10 @@
         <v>10000</v>
       </c>
       <c r="AM2" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN2" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3323,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>44</v>
@@ -3347,10 +3355,10 @@
         <v>10001</v>
       </c>
       <c r="AM3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN3" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3439,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF4" s="4" t="s">
         <v>44</v>
@@ -3463,10 +3471,10 @@
         <v>10002</v>
       </c>
       <c r="AM4" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3555,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF5" s="4" t="s">
         <v>44</v>
@@ -3579,10 +3587,10 @@
         <v>10002</v>
       </c>
       <c r="AM5" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3590,7 +3598,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -3671,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>44</v>
@@ -3695,10 +3703,10 @@
         <v>10004</v>
       </c>
       <c r="AM6" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
@@ -3787,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>44</v>
@@ -3811,10 +3819,10 @@
         <v>10005</v>
       </c>
       <c r="AM7" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN7" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -3903,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>44</v>
@@ -3927,10 +3935,10 @@
         <v>10005</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4019,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF9" s="4" t="s">
         <v>44</v>
@@ -4043,10 +4051,10 @@
         <v>10007</v>
       </c>
       <c r="AM9" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN9" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
@@ -4159,10 +4167,10 @@
         <v>10105</v>
       </c>
       <c r="AM11" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AN11" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="AN11" s="4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -4275,10 +4283,10 @@
         <v>10105</v>
       </c>
       <c r="AM12" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AN12" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="AN12" s="4" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
@@ -4391,10 +4399,10 @@
         <v>10105</v>
       </c>
       <c r="AM13" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AN13" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="AN13" s="4" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
@@ -4507,10 +4515,10 @@
         <v>10105</v>
       </c>
       <c r="AM14" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AN14" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
@@ -4623,10 +4631,10 @@
         <v>10105</v>
       </c>
       <c r="AM15" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="AN15" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="AN15" s="4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
@@ -4739,10 +4747,10 @@
         <v>10105</v>
       </c>
       <c r="AM16" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AN16" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="AN16" s="4" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4831,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AF18" s="4" t="s">
         <v>44</v>
@@ -4855,10 +4863,10 @@
         <v>10200</v>
       </c>
       <c r="AM18" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN18" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="AN18" s="4" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
@@ -4866,7 +4874,7 @@
         <v>10201</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -4971,10 +4979,10 @@
         <v>10200</v>
       </c>
       <c r="AM19" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="AN19" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="AN19" s="4" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5087,10 +5095,10 @@
         <v>10200</v>
       </c>
       <c r="AM20" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="AN20" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="AN20" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5203,10 +5211,10 @@
         <v>10200</v>
       </c>
       <c r="AM21" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN21" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="AN21" s="4" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
@@ -5322,7 +5330,7 @@
         <v>222</v>
       </c>
       <c r="AN23" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
@@ -5438,7 +5446,7 @@
         <v>222</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
@@ -5554,7 +5562,7 @@
         <v>222</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -5667,10 +5675,10 @@
         <v>11003</v>
       </c>
       <c r="AM26" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -5786,7 +5794,7 @@
         <v>47</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -5899,10 +5907,10 @@
         <v>11005</v>
       </c>
       <c r="AM28" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN28" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="AN28" s="4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -5991,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF29" s="4" t="s">
         <v>44</v>
@@ -6015,7 +6023,7 @@
         <v>11010</v>
       </c>
       <c r="AM29" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN29" s="4" t="s">
         <v>50</v>
@@ -6107,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF30" s="4" t="s">
         <v>44</v>
@@ -6131,7 +6139,7 @@
         <v>11010</v>
       </c>
       <c r="AM30" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AN30" s="4" t="s">
         <v>50</v>
@@ -6223,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF31" s="4" t="s">
         <v>44</v>
@@ -6247,7 +6255,7 @@
         <v>11010</v>
       </c>
       <c r="AM31" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN31" s="4" t="s">
         <v>50</v>
@@ -6339,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF32" s="4" t="s">
         <v>44</v>
@@ -6363,7 +6371,7 @@
         <v>11010</v>
       </c>
       <c r="AM32" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AN32" s="4" t="s">
         <v>50</v>
@@ -6455,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF33" s="4" t="s">
         <v>44</v>
@@ -6479,7 +6487,7 @@
         <v>11010</v>
       </c>
       <c r="AM33" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN33" s="4" t="s">
         <v>50</v>
@@ -6571,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF34" s="4" t="s">
         <v>44</v>
@@ -6595,7 +6603,7 @@
         <v>11010</v>
       </c>
       <c r="AM34" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AN34" s="4" t="s">
         <v>50</v>
@@ -6714,7 +6722,7 @@
         <v>222</v>
       </c>
       <c r="AN36" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -6830,7 +6838,7 @@
         <v>222</v>
       </c>
       <c r="AN37" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -6946,7 +6954,7 @@
         <v>222</v>
       </c>
       <c r="AN38" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
@@ -7059,10 +7067,10 @@
         <v>11003</v>
       </c>
       <c r="AM39" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN39" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
@@ -7178,7 +7186,7 @@
         <v>223</v>
       </c>
       <c r="AN40" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
@@ -7294,7 +7302,7 @@
         <v>224</v>
       </c>
       <c r="AN41" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
@@ -7407,10 +7415,10 @@
         <v>13001</v>
       </c>
       <c r="AM42" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AN42" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -7526,7 +7534,7 @@
         <v>222</v>
       </c>
       <c r="AN44" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -7642,7 +7650,7 @@
         <v>222</v>
       </c>
       <c r="AN45" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -7758,7 +7766,7 @@
         <v>222</v>
       </c>
       <c r="AN46" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
@@ -7847,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF47" s="4" t="s">
         <v>44</v>
@@ -7871,10 +7879,10 @@
         <v>11003</v>
       </c>
       <c r="AM47" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN47" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
@@ -7965,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF48" s="4" t="s">
         <v>44</v>
@@ -7989,10 +7997,10 @@
         <v>11004</v>
       </c>
       <c r="AM48" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN48" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="AN48" s="4" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8108,7 +8116,7 @@
         <v>224</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8221,10 +8229,10 @@
         <v>11210</v>
       </c>
       <c r="AM50" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN50" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="AN50" s="4" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8339,10 +8347,10 @@
         <v>11210</v>
       </c>
       <c r="AM51" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AN51" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8455,7 +8463,7 @@
         <v>11210</v>
       </c>
       <c r="AM52" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AN52" s="4" t="s">
         <v>62</v>
@@ -8556,7 +8564,7 @@
         <v>44</v>
       </c>
       <c r="AH53" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AI53" s="4" t="s">
         <v>44</v>
@@ -8571,10 +8579,10 @@
         <v>11210</v>
       </c>
       <c r="AM53" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN53" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="AN53" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8687,10 +8695,10 @@
         <v>11210</v>
       </c>
       <c r="AM54" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AN54" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8779,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF55" s="4" t="s">
         <v>44</v>
@@ -8803,10 +8811,10 @@
         <v>11210</v>
       </c>
       <c r="AM55" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN55" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
@@ -8895,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF57" s="4" t="s">
         <v>44</v>
@@ -8922,7 +8930,7 @@
         <v>222</v>
       </c>
       <c r="AN57" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.2">
@@ -9011,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="AE58" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF58" s="4" t="s">
         <v>44</v>
@@ -9038,7 +9046,7 @@
         <v>222</v>
       </c>
       <c r="AN58" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
@@ -9154,7 +9162,7 @@
         <v>222</v>
       </c>
       <c r="AN59" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.2">
@@ -9243,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF60" s="4" t="s">
         <v>44</v>
@@ -9267,10 +9275,10 @@
         <v>11003</v>
       </c>
       <c r="AM60" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN60" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.2">
@@ -9361,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF61" s="4" t="s">
         <v>44</v>
@@ -9385,10 +9393,10 @@
         <v>11004</v>
       </c>
       <c r="AM61" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AN61" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.2">
@@ -9477,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF62" s="4" t="s">
         <v>44</v>
@@ -9504,7 +9512,7 @@
         <v>224</v>
       </c>
       <c r="AN62" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
@@ -9617,10 +9625,10 @@
         <v>11310</v>
       </c>
       <c r="AM63" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="AN63" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="AN63" s="4" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
@@ -9733,10 +9741,10 @@
         <v>11310</v>
       </c>
       <c r="AM64" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="AN64" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="AN64" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.2">
@@ -9851,10 +9859,10 @@
         <v>11310</v>
       </c>
       <c r="AM65" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN65" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="AN65" s="4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.2">
@@ -9967,7 +9975,7 @@
         <v>11310</v>
       </c>
       <c r="AM66" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN66" s="4" t="s">
         <v>75</v>
@@ -10083,7 +10091,7 @@
         <v>11310</v>
       </c>
       <c r="AM67" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN67" s="4" t="s">
         <v>78</v>
@@ -10199,10 +10207,10 @@
         <v>11310</v>
       </c>
       <c r="AM68" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="AN68" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="AN68" s="4" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.2">
@@ -10315,10 +10323,10 @@
         <v>11310</v>
       </c>
       <c r="AM69" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AN69" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="AN69" s="4" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.2">
@@ -10431,10 +10439,10 @@
         <v>11310</v>
       </c>
       <c r="AM70" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN70" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="AN70" s="4" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.2">
@@ -10547,10 +10555,10 @@
         <v>11310</v>
       </c>
       <c r="AM71" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AN71" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="AN71" s="4" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.2">
@@ -10663,10 +10671,10 @@
         <v>11310</v>
       </c>
       <c r="AM72" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN72" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="AN72" s="4" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.2">
@@ -10779,10 +10787,10 @@
         <v>11310</v>
       </c>
       <c r="AM73" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AN73" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.2">
@@ -10895,10 +10903,10 @@
         <v>11000</v>
       </c>
       <c r="AM75" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AN75" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.2">
@@ -11014,7 +11022,7 @@
         <v>222</v>
       </c>
       <c r="AN76" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.2">
@@ -11130,7 +11138,7 @@
         <v>222</v>
       </c>
       <c r="AN77" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.2">
@@ -11219,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="AE78" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF78" s="4" t="s">
         <v>44</v>
@@ -11243,10 +11251,10 @@
         <v>11003</v>
       </c>
       <c r="AM78" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN78" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.2">
@@ -11337,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="AE79" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF79" s="4" t="s">
         <v>44</v>
@@ -11364,7 +11372,7 @@
         <v>223</v>
       </c>
       <c r="AN79" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.2">
@@ -11453,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="AE80" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF80" s="4" t="s">
         <v>44</v>
@@ -11480,7 +11488,7 @@
         <v>224</v>
       </c>
       <c r="AN80" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.2">
@@ -11596,7 +11604,7 @@
         <v>222</v>
       </c>
       <c r="AN82" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.2">
@@ -11712,7 +11720,7 @@
         <v>222</v>
       </c>
       <c r="AN83" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="84" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11828,7 +11836,7 @@
         <v>222</v>
       </c>
       <c r="AN84" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11917,7 +11925,7 @@
         <v>0</v>
       </c>
       <c r="AE85" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF85" s="4" t="s">
         <v>44</v>
@@ -11941,10 +11949,10 @@
         <v>11003</v>
       </c>
       <c r="AM85" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN85" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.2">
@@ -12035,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="AE86" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF86" s="4" t="s">
         <v>44</v>
@@ -12062,7 +12070,7 @@
         <v>223</v>
       </c>
       <c r="AN86" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.2">
@@ -12151,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="AE87" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF87" s="4" t="s">
         <v>44</v>
@@ -12178,7 +12186,7 @@
         <v>224</v>
       </c>
       <c r="AN87" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12231,10 +12239,10 @@
         <v>315100</v>
       </c>
       <c r="S88" s="7">
-        <v>0</v>
+        <v>415101</v>
       </c>
       <c r="T88" s="7">
-        <v>0</v>
+        <v>315101</v>
       </c>
       <c r="U88" s="7">
         <v>0</v>
@@ -12291,10 +12299,10 @@
         <v>11510</v>
       </c>
       <c r="AM88" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="AN88" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="AN88" s="4" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="89" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12407,7 +12415,7 @@
         <v>11510</v>
       </c>
       <c r="AM89" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AN89" s="4" t="s">
         <v>100</v>
@@ -12508,7 +12516,7 @@
         <v>44</v>
       </c>
       <c r="AH90" s="4" t="s">
-        <v>44</v>
+        <v>492</v>
       </c>
       <c r="AI90" s="4" t="s">
         <v>44</v>
@@ -12523,10 +12531,10 @@
         <v>11510</v>
       </c>
       <c r="AM90" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="AN90" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="AN90" s="4" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.2">
@@ -12624,7 +12632,7 @@
         <v>44</v>
       </c>
       <c r="AH91" s="4" t="s">
-        <v>44</v>
+        <v>493</v>
       </c>
       <c r="AI91" s="4" t="s">
         <v>44</v>
@@ -12639,10 +12647,10 @@
         <v>11510</v>
       </c>
       <c r="AM91" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AN91" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.2">
@@ -12755,10 +12763,10 @@
         <v>11510</v>
       </c>
       <c r="AM92" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AN92" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="AN92" s="4" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.2">
@@ -12871,7 +12879,7 @@
         <v>11510</v>
       </c>
       <c r="AM93" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AN93" s="4" t="s">
         <v>108</v>
@@ -12987,7 +12995,7 @@
         <v>11510</v>
       </c>
       <c r="AM94" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AN94" s="4" t="s">
         <v>110</v>
@@ -13079,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="AE95" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF95" s="4" t="s">
         <v>44</v>
@@ -13103,10 +13111,10 @@
         <v>11510</v>
       </c>
       <c r="AM95" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="AN95" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="AN95" s="4" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.2">
@@ -13219,10 +13227,10 @@
         <v>11510</v>
       </c>
       <c r="AM96" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN96" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="AN96" s="4" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.2">
@@ -13338,7 +13346,7 @@
         <v>222</v>
       </c>
       <c r="AN98" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.2">
@@ -13454,7 +13462,7 @@
         <v>222</v>
       </c>
       <c r="AN99" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.2">
@@ -13570,7 +13578,7 @@
         <v>222</v>
       </c>
       <c r="AN100" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.2">
@@ -13659,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="AE101" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF101" s="4" t="s">
         <v>44</v>
@@ -13683,10 +13691,10 @@
         <v>11003</v>
       </c>
       <c r="AM101" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN101" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.2">
@@ -13777,7 +13785,7 @@
         <v>0</v>
       </c>
       <c r="AE102" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF102" s="4" t="s">
         <v>44</v>
@@ -13804,7 +13812,7 @@
         <v>223</v>
       </c>
       <c r="AN102" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.2">
@@ -13893,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="AE103" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF103" s="4" t="s">
         <v>44</v>
@@ -13920,7 +13928,7 @@
         <v>224</v>
       </c>
       <c r="AN103" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14009,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="AE104" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF104" s="4" t="s">
         <v>44</v>
@@ -14033,10 +14041,10 @@
         <v>11610</v>
       </c>
       <c r="AM104" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN104" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="AN104" s="4" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="105" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14149,10 +14157,10 @@
         <v>11610</v>
       </c>
       <c r="AM105" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="AN105" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="AN105" s="4" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14265,10 +14273,10 @@
         <v>11610</v>
       </c>
       <c r="AM106" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="AN106" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="AN106" s="4" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.2">
@@ -14381,10 +14389,10 @@
         <v>11610</v>
       </c>
       <c r="AM107" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AN107" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.2">
@@ -14500,7 +14508,7 @@
         <v>222</v>
       </c>
       <c r="AN109" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.2">
@@ -14616,7 +14624,7 @@
         <v>222</v>
       </c>
       <c r="AN110" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.2">
@@ -14732,7 +14740,7 @@
         <v>222</v>
       </c>
       <c r="AN111" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.2">
@@ -14821,7 +14829,7 @@
         <v>0</v>
       </c>
       <c r="AE112" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF112" s="4" t="s">
         <v>44</v>
@@ -14845,10 +14853,10 @@
         <v>11003</v>
       </c>
       <c r="AM112" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN112" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14939,7 +14947,7 @@
         <v>0</v>
       </c>
       <c r="AE113" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF113" s="4" t="s">
         <v>44</v>
@@ -14966,7 +14974,7 @@
         <v>223</v>
       </c>
       <c r="AN113" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.2">
@@ -15055,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="AE114" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF114" s="4" t="s">
         <v>44</v>
@@ -15082,7 +15090,7 @@
         <v>224</v>
       </c>
       <c r="AN114" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15090,7 +15098,7 @@
         <v>11710</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
@@ -15195,10 +15203,10 @@
         <v>11710</v>
       </c>
       <c r="AM115" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="AN115" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="AN115" s="4" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.2">
@@ -15311,10 +15319,10 @@
         <v>11710</v>
       </c>
       <c r="AM116" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="AN116" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="AN116" s="4" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="117" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15427,10 +15435,10 @@
         <v>11710</v>
       </c>
       <c r="AM117" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="AN117" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="AN117" s="4" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="118" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15547,10 +15555,10 @@
         <v>11710</v>
       </c>
       <c r="AM118" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="AN118" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="AN118" s="4" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15663,10 +15671,10 @@
         <v>11710</v>
       </c>
       <c r="AM119" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="AN119" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="AN119" s="4" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15758,7 +15766,7 @@
         <v>137</v>
       </c>
       <c r="AF120" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG120" s="4" t="s">
         <v>44</v>
@@ -15779,10 +15787,10 @@
         <v>11710</v>
       </c>
       <c r="AM120" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="AN120" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="AN120" s="4" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:40" x14ac:dyDescent="0.2">
@@ -15898,7 +15906,7 @@
         <v>222</v>
       </c>
       <c r="AN122" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.2">
@@ -16014,7 +16022,7 @@
         <v>222</v>
       </c>
       <c r="AN123" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.2">
@@ -16130,7 +16138,7 @@
         <v>222</v>
       </c>
       <c r="AN124" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="125" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16219,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="AE125" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF125" s="4" t="s">
         <v>44</v>
@@ -16243,10 +16251,10 @@
         <v>11003</v>
       </c>
       <c r="AM125" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN125" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.2">
@@ -16337,7 +16345,7 @@
         <v>0</v>
       </c>
       <c r="AE126" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF126" s="4" t="s">
         <v>44</v>
@@ -16364,7 +16372,7 @@
         <v>223</v>
       </c>
       <c r="AN126" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="127" spans="1:40" x14ac:dyDescent="0.2">
@@ -16453,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="AE127" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF127" s="4" t="s">
         <v>44</v>
@@ -16480,7 +16488,7 @@
         <v>224</v>
       </c>
       <c r="AN127" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.2">
@@ -16593,7 +16601,7 @@
         <v>10000</v>
       </c>
       <c r="AM128" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AN128" s="4" t="s">
         <v>143</v>
@@ -16669,7 +16677,7 @@
         <v>318112</v>
       </c>
       <c r="Y129" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Z129" s="7">
         <v>318113</v>
@@ -16711,10 +16719,10 @@
         <v>11811</v>
       </c>
       <c r="AM129" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="AN129" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="AN129" s="4" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="131" spans="1:40" x14ac:dyDescent="0.2">
@@ -16830,7 +16838,7 @@
         <v>222</v>
       </c>
       <c r="AN131" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="132" spans="1:40" x14ac:dyDescent="0.2">
@@ -16946,7 +16954,7 @@
         <v>222</v>
       </c>
       <c r="AN132" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="133" spans="1:40" x14ac:dyDescent="0.2">
@@ -17062,7 +17070,7 @@
         <v>222</v>
       </c>
       <c r="AN133" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="134" spans="1:40" x14ac:dyDescent="0.2">
@@ -17151,7 +17159,7 @@
         <v>0</v>
       </c>
       <c r="AE134" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF134" s="4" t="s">
         <v>44</v>
@@ -17175,10 +17183,10 @@
         <v>11003</v>
       </c>
       <c r="AM134" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN134" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="135" spans="1:40" x14ac:dyDescent="0.2">
@@ -17269,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="AE135" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF135" s="4" t="s">
         <v>44</v>
@@ -17296,7 +17304,7 @@
         <v>223</v>
       </c>
       <c r="AN135" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.2">
@@ -17385,7 +17393,7 @@
         <v>0</v>
       </c>
       <c r="AE136" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF136" s="4" t="s">
         <v>44</v>
@@ -17412,7 +17420,7 @@
         <v>224</v>
       </c>
       <c r="AN136" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.2">
@@ -17525,10 +17533,10 @@
         <v>11913</v>
       </c>
       <c r="AM137" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="AN137" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="AN137" s="4" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.2">
@@ -17641,10 +17649,10 @@
         <v>11913</v>
       </c>
       <c r="AM138" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN138" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="AN138" s="4" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="139" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17757,10 +17765,10 @@
         <v>11913</v>
       </c>
       <c r="AM139" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="AN139" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="AN139" s="4" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="140" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17873,10 +17881,10 @@
         <v>11913</v>
       </c>
       <c r="AM140" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="AN140" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="AN140" s="4" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17989,10 +17997,10 @@
         <v>11913</v>
       </c>
       <c r="AM141" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN141" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="142" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18105,10 +18113,10 @@
         <v>11913</v>
       </c>
       <c r="AM142" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AN142" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18266,7 +18274,7 @@
         <v>222</v>
       </c>
       <c r="AN144" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="145" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18382,7 +18390,7 @@
         <v>222</v>
       </c>
       <c r="AN145" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="146" spans="1:40" x14ac:dyDescent="0.2">
@@ -18498,7 +18506,7 @@
         <v>222</v>
       </c>
       <c r="AN146" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="147" spans="1:40" x14ac:dyDescent="0.2">
@@ -18587,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="AE147" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF147" s="4" t="s">
         <v>44</v>
@@ -18611,10 +18619,10 @@
         <v>11003</v>
       </c>
       <c r="AM147" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN147" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="148" spans="1:40" x14ac:dyDescent="0.2">
@@ -18705,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="AE148" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF148" s="4" t="s">
         <v>44</v>
@@ -18732,7 +18740,7 @@
         <v>223</v>
       </c>
       <c r="AN148" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="149" spans="1:40" x14ac:dyDescent="0.2">
@@ -18821,7 +18829,7 @@
         <v>0</v>
       </c>
       <c r="AE149" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF149" s="4" t="s">
         <v>44</v>
@@ -18848,7 +18856,7 @@
         <v>224</v>
       </c>
       <c r="AN149" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="150" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -18961,10 +18969,10 @@
         <v>12010</v>
       </c>
       <c r="AM150" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AN150" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="151" spans="1:40" x14ac:dyDescent="0.2">
@@ -19077,10 +19085,10 @@
         <v>12010</v>
       </c>
       <c r="AM151" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="AN151" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="AN151" s="4" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="152" spans="1:40" x14ac:dyDescent="0.2">
@@ -19193,10 +19201,10 @@
         <v>12010</v>
       </c>
       <c r="AM152" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="AN152" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="AN152" s="4" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="153" spans="1:40" x14ac:dyDescent="0.2">
@@ -19309,10 +19317,10 @@
         <v>12010</v>
       </c>
       <c r="AM153" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AN153" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="154" spans="1:40" x14ac:dyDescent="0.2">
@@ -19425,10 +19433,10 @@
         <v>12010</v>
       </c>
       <c r="AM154" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AN154" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="155" spans="1:40" x14ac:dyDescent="0.2">
@@ -19541,10 +19549,10 @@
         <v>12010</v>
       </c>
       <c r="AM155" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AN155" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="156" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -19657,10 +19665,10 @@
         <v>12010</v>
       </c>
       <c r="AM156" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="AN156" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="AN156" s="4" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.2">
@@ -19776,7 +19784,7 @@
         <v>222</v>
       </c>
       <c r="AN158" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="159" spans="1:40" x14ac:dyDescent="0.2">
@@ -19892,7 +19900,7 @@
         <v>222</v>
       </c>
       <c r="AN159" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.2">
@@ -20008,7 +20016,7 @@
         <v>222</v>
       </c>
       <c r="AN160" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.2">
@@ -20097,7 +20105,7 @@
         <v>0</v>
       </c>
       <c r="AE161" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF161" s="4" t="s">
         <v>44</v>
@@ -20121,10 +20129,10 @@
         <v>11003</v>
       </c>
       <c r="AM161" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN161" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="162" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20215,7 +20223,7 @@
         <v>0</v>
       </c>
       <c r="AE162" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF162" s="4" t="s">
         <v>44</v>
@@ -20242,7 +20250,7 @@
         <v>223</v>
       </c>
       <c r="AN162" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="163" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20331,7 +20339,7 @@
         <v>0</v>
       </c>
       <c r="AE163" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF163" s="4" t="s">
         <v>44</v>
@@ -20358,7 +20366,7 @@
         <v>224</v>
       </c>
       <c r="AN163" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="164" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20447,7 +20455,7 @@
         <v>0</v>
       </c>
       <c r="AE164" s="4" t="s">
-        <v>225</v>
+        <v>494</v>
       </c>
       <c r="AF164" s="4" t="s">
         <v>44</v>
@@ -20471,10 +20479,10 @@
         <v>12113</v>
       </c>
       <c r="AM164" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN164" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="AN164" s="4" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="165" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20563,7 +20571,7 @@
         <v>0</v>
       </c>
       <c r="AE165" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF165" s="4" t="s">
         <v>44</v>
@@ -20587,10 +20595,10 @@
         <v>12113</v>
       </c>
       <c r="AM165" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN165" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="AN165" s="4" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="166" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20679,19 +20687,19 @@
         <v>0</v>
       </c>
       <c r="AE166" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF166" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG166" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH166" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="AF166" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG166" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH166" s="4" t="s">
+      <c r="AI166" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="AI166" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="AJ166" s="4" t="s">
         <v>44</v>
@@ -20703,10 +20711,10 @@
         <v>12113</v>
       </c>
       <c r="AM166" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN166" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="AN166" s="4" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="167" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20795,7 +20803,7 @@
         <v>0</v>
       </c>
       <c r="AE167" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF167" s="4" t="s">
         <v>44</v>
@@ -20819,10 +20827,10 @@
         <v>12113</v>
       </c>
       <c r="AM167" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AN167" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="168" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20911,7 +20919,7 @@
         <v>0</v>
       </c>
       <c r="AE168" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF168" s="4" t="s">
         <v>44</v>
@@ -20935,10 +20943,10 @@
         <v>12113</v>
       </c>
       <c r="AM168" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="AN168" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="AN168" s="4" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="169" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21027,7 +21035,7 @@
         <v>0</v>
       </c>
       <c r="AE169" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF169" s="4" t="s">
         <v>44</v>
@@ -21051,10 +21059,10 @@
         <v>12113</v>
       </c>
       <c r="AM169" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="AN169" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="AN169" s="4" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="170" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21143,19 +21151,19 @@
         <v>0</v>
       </c>
       <c r="AE170" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF170" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG170" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH170" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="AF170" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG170" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH170" s="4" t="s">
+      <c r="AI170" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="AI170" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="AJ170" s="4" t="s">
         <v>44</v>
@@ -21167,10 +21175,10 @@
         <v>12113</v>
       </c>
       <c r="AM170" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="AN170" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="AN170" s="4" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="171" spans="1:40" x14ac:dyDescent="0.2">
@@ -21259,19 +21267,19 @@
         <v>0</v>
       </c>
       <c r="AE171" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF171" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG171" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH171" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="AF171" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG171" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH171" s="4" t="s">
+      <c r="AI171" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="AI171" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="AJ171" s="4" t="s">
         <v>44</v>
@@ -21283,10 +21291,10 @@
         <v>12113</v>
       </c>
       <c r="AM171" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="AN171" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="AN171" s="4" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="172" spans="1:40" x14ac:dyDescent="0.2">
@@ -21375,10 +21383,10 @@
         <v>0</v>
       </c>
       <c r="AE172" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF172" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="AF172" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="AG172" s="4" t="s">
         <v>44</v>
@@ -21399,10 +21407,10 @@
         <v>12113</v>
       </c>
       <c r="AM172" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="AN172" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="AN172" s="4" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="174" spans="1:40" x14ac:dyDescent="0.2">
@@ -21410,7 +21418,7 @@
         <v>13000</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -21491,7 +21499,7 @@
         <v>0</v>
       </c>
       <c r="AE174" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF174" s="4" t="s">
         <v>44</v>
@@ -21515,10 +21523,10 @@
         <v>13000</v>
       </c>
       <c r="AM174" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AN174" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="175" spans="1:40" x14ac:dyDescent="0.2">
@@ -21609,7 +21617,7 @@
         <v>0</v>
       </c>
       <c r="AE175" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF175" s="4" t="s">
         <v>44</v>
@@ -21633,10 +21641,10 @@
         <v>13001</v>
       </c>
       <c r="AM175" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AN175" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="176" spans="1:40" x14ac:dyDescent="0.2">
@@ -21727,7 +21735,7 @@
         <v>0</v>
       </c>
       <c r="AE176" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF176" s="4" t="s">
         <v>44</v>
@@ -21751,10 +21759,10 @@
         <v>13001</v>
       </c>
       <c r="AM176" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AN176" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="177" spans="1:40" x14ac:dyDescent="0.2">
@@ -21762,7 +21770,7 @@
         <v>13003</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C177" s="4">
         <v>1</v>
@@ -21845,7 +21853,7 @@
         <v>0</v>
       </c>
       <c r="AE177" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF177" s="4" t="s">
         <v>44</v>
@@ -21869,10 +21877,10 @@
         <v>13003</v>
       </c>
       <c r="AM177" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="AN177" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="AN177" s="4" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.2">
@@ -21880,7 +21888,7 @@
         <v>13004</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C178" s="4">
         <v>1</v>
@@ -21963,7 +21971,7 @@
         <v>0</v>
       </c>
       <c r="AE178" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF178" s="4" t="s">
         <v>44</v>
@@ -21987,10 +21995,10 @@
         <v>13003</v>
       </c>
       <c r="AM178" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="AN178" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="AN178" s="4" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.2">
@@ -21998,7 +22006,7 @@
         <v>13005</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C179" s="4">
         <v>1</v>
@@ -22081,7 +22089,7 @@
         <v>0</v>
       </c>
       <c r="AE179" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF179" s="4" t="s">
         <v>44</v>
@@ -22105,10 +22113,10 @@
         <v>13003</v>
       </c>
       <c r="AM179" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="AN179" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="AN179" s="4" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.2">
@@ -22116,7 +22124,7 @@
         <v>13006</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C180" s="4">
         <v>2</v>
@@ -22199,7 +22207,7 @@
         <v>0</v>
       </c>
       <c r="AE180" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF180" s="4" t="s">
         <v>44</v>
@@ -22223,10 +22231,10 @@
         <v>13006</v>
       </c>
       <c r="AM180" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AN180" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="181" spans="1:40" x14ac:dyDescent="0.2">
@@ -22234,7 +22242,7 @@
         <v>13007</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
@@ -22317,7 +22325,7 @@
         <v>0</v>
       </c>
       <c r="AE181" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF181" s="4" t="s">
         <v>44</v>
@@ -22341,10 +22349,10 @@
         <v>13006</v>
       </c>
       <c r="AM181" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AN181" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.2">
@@ -22352,7 +22360,7 @@
         <v>13008</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C182" s="4">
         <v>2</v>
@@ -22435,7 +22443,7 @@
         <v>0</v>
       </c>
       <c r="AE182" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF182" s="4" t="s">
         <v>44</v>
@@ -22459,10 +22467,10 @@
         <v>13006</v>
       </c>
       <c r="AM182" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AN182" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="183" spans="1:40" x14ac:dyDescent="0.2">
@@ -22470,7 +22478,7 @@
         <v>13009</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -22553,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="AE183" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF183" s="4" t="s">
         <v>44</v>
@@ -22577,10 +22585,10 @@
         <v>13009</v>
       </c>
       <c r="AM183" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN183" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.2">
@@ -22588,7 +22596,7 @@
         <v>13010</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C184" s="4">
         <v>3</v>
@@ -22671,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="AE184" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF184" s="4" t="s">
         <v>44</v>
@@ -22695,10 +22703,10 @@
         <v>13009</v>
       </c>
       <c r="AM184" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN184" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.2">
@@ -22706,7 +22714,7 @@
         <v>13011</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C185" s="4">
         <v>3</v>
@@ -22789,10 +22797,10 @@
         <v>0</v>
       </c>
       <c r="AE185" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF185" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="AF185" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="AG185" s="4" t="s">
         <v>44</v>
@@ -22813,10 +22821,10 @@
         <v>13009</v>
       </c>
       <c r="AM185" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN185" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="186" spans="1:40" x14ac:dyDescent="0.2">
@@ -22824,7 +22832,7 @@
         <v>13012</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -22905,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="AE186" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF186" s="4" t="s">
         <v>44</v>
@@ -22929,10 +22937,10 @@
         <v>13003</v>
       </c>
       <c r="AM186" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN186" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="AN186" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.2">
@@ -22940,7 +22948,7 @@
         <v>13013</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C187" s="4">
         <v>2</v>
@@ -23021,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="AE187" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF187" s="4" t="s">
         <v>44</v>
@@ -23045,10 +23053,10 @@
         <v>13006</v>
       </c>
       <c r="AM187" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN187" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="AN187" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="188" spans="1:40" x14ac:dyDescent="0.2">
@@ -23056,7 +23064,7 @@
         <v>13014</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C188" s="4">
         <v>3</v>
@@ -23137,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="AE188" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF188" s="4" t="s">
         <v>44</v>
@@ -23161,10 +23169,10 @@
         <v>13009</v>
       </c>
       <c r="AM188" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AN188" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="189" spans="1:40" x14ac:dyDescent="0.2">
@@ -23172,7 +23180,7 @@
         <v>13015</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C189" s="4">
         <v>1</v>
@@ -23253,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="AE189" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF189" s="4" t="s">
         <v>44</v>
@@ -23277,10 +23285,10 @@
         <v>13003</v>
       </c>
       <c r="AM189" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN189" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="AN189" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="190" spans="1:40" x14ac:dyDescent="0.2">
@@ -23288,7 +23296,7 @@
         <v>13016</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C190" s="4">
         <v>2</v>
@@ -23369,7 +23377,7 @@
         <v>0</v>
       </c>
       <c r="AE190" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF190" s="4" t="s">
         <v>44</v>
@@ -23393,10 +23401,10 @@
         <v>13006</v>
       </c>
       <c r="AM190" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN190" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="AN190" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="191" spans="1:40" x14ac:dyDescent="0.2">
@@ -23404,7 +23412,7 @@
         <v>13017</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C191" s="4">
         <v>3</v>
@@ -23485,7 +23493,7 @@
         <v>0</v>
       </c>
       <c r="AE191" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF191" s="4" t="s">
         <v>44</v>
@@ -23509,10 +23517,10 @@
         <v>13009</v>
       </c>
       <c r="AM191" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AN191" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="192" spans="1:40" x14ac:dyDescent="0.2">
@@ -23520,7 +23528,7 @@
         <v>13018</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -23601,7 +23609,7 @@
         <v>0</v>
       </c>
       <c r="AE192" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF192" s="4" t="s">
         <v>44</v>
@@ -23625,10 +23633,10 @@
         <v>13000</v>
       </c>
       <c r="AM192" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AN192" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="196" spans="1:40" x14ac:dyDescent="0.2">
@@ -23838,7 +23846,7 @@
         <v>44</v>
       </c>
       <c r="AH197" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AI197" s="4" t="s">
         <v>44</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3948AA4-21B9-498B-8E55-0345DD1B75B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8ECA8F-F658-4524-B58A-B4AAC735BCD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18135" yWindow="5925" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16470" yWindow="5745" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -1449,10 +1449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[421120,421111,421112]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[421120,421124]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2533,6 +2529,10 @@
   </si>
   <si>
     <t>[421100,421101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[421110,421111,421112]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2997,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC151" workbookViewId="0">
-      <selection activeCell="AE164" sqref="AE164"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3084,10 +3084,10 @@
         <v>202</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>142</v>
@@ -3239,10 +3239,10 @@
         <v>10000</v>
       </c>
       <c r="AM2" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="AN2" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>44</v>
@@ -3355,10 +3355,10 @@
         <v>10001</v>
       </c>
       <c r="AM3" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN3" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF4" s="4" t="s">
         <v>44</v>
@@ -3471,10 +3471,10 @@
         <v>10002</v>
       </c>
       <c r="AM4" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF5" s="4" t="s">
         <v>44</v>
@@ -3587,10 +3587,10 @@
         <v>10002</v>
       </c>
       <c r="AM5" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3598,7 +3598,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>44</v>
@@ -3703,10 +3703,10 @@
         <v>10004</v>
       </c>
       <c r="AM6" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>44</v>
@@ -3819,10 +3819,10 @@
         <v>10005</v>
       </c>
       <c r="AM7" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN7" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>44</v>
@@ -3935,10 +3935,10 @@
         <v>10005</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF9" s="4" t="s">
         <v>44</v>
@@ -4051,10 +4051,10 @@
         <v>10007</v>
       </c>
       <c r="AM9" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN9" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
@@ -4167,10 +4167,10 @@
         <v>10105</v>
       </c>
       <c r="AM11" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN11" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="AN11" s="4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -4283,10 +4283,10 @@
         <v>10105</v>
       </c>
       <c r="AM12" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AN12" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="AN12" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
@@ -4399,10 +4399,10 @@
         <v>10105</v>
       </c>
       <c r="AM13" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AN13" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="AN13" s="4" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
@@ -4515,10 +4515,10 @@
         <v>10105</v>
       </c>
       <c r="AM14" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN14" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
@@ -4631,10 +4631,10 @@
         <v>10105</v>
       </c>
       <c r="AM15" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="AN15" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="AN15" s="4" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
@@ -4747,10 +4747,10 @@
         <v>10105</v>
       </c>
       <c r="AM16" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN16" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="AN16" s="4" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF18" s="4" t="s">
         <v>44</v>
@@ -4863,10 +4863,10 @@
         <v>10200</v>
       </c>
       <c r="AM18" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="AN18" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="AN18" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
@@ -4874,7 +4874,7 @@
         <v>10201</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -4979,10 +4979,10 @@
         <v>10200</v>
       </c>
       <c r="AM19" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN19" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="AN19" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5095,10 +5095,10 @@
         <v>10200</v>
       </c>
       <c r="AM20" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN20" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="AN20" s="4" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5211,10 +5211,10 @@
         <v>10200</v>
       </c>
       <c r="AM21" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="AN21" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="AN21" s="4" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
@@ -5330,7 +5330,7 @@
         <v>222</v>
       </c>
       <c r="AN23" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
@@ -5446,7 +5446,7 @@
         <v>222</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
@@ -5562,7 +5562,7 @@
         <v>222</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -5675,10 +5675,10 @@
         <v>11003</v>
       </c>
       <c r="AM26" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -5794,7 +5794,7 @@
         <v>47</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -5907,10 +5907,10 @@
         <v>11005</v>
       </c>
       <c r="AM28" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN28" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="AN28" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF29" s="4" t="s">
         <v>44</v>
@@ -6023,7 +6023,7 @@
         <v>11010</v>
       </c>
       <c r="AM29" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN29" s="4" t="s">
         <v>50</v>
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF30" s="4" t="s">
         <v>44</v>
@@ -6139,7 +6139,7 @@
         <v>11010</v>
       </c>
       <c r="AM30" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN30" s="4" t="s">
         <v>50</v>
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF31" s="4" t="s">
         <v>44</v>
@@ -6255,7 +6255,7 @@
         <v>11010</v>
       </c>
       <c r="AM31" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN31" s="4" t="s">
         <v>50</v>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF32" s="4" t="s">
         <v>44</v>
@@ -6371,7 +6371,7 @@
         <v>11010</v>
       </c>
       <c r="AM32" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN32" s="4" t="s">
         <v>50</v>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF33" s="4" t="s">
         <v>44</v>
@@ -6487,7 +6487,7 @@
         <v>11010</v>
       </c>
       <c r="AM33" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN33" s="4" t="s">
         <v>50</v>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF34" s="4" t="s">
         <v>44</v>
@@ -6603,7 +6603,7 @@
         <v>11010</v>
       </c>
       <c r="AM34" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN34" s="4" t="s">
         <v>50</v>
@@ -6722,7 +6722,7 @@
         <v>222</v>
       </c>
       <c r="AN36" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -6838,7 +6838,7 @@
         <v>222</v>
       </c>
       <c r="AN37" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -6954,7 +6954,7 @@
         <v>222</v>
       </c>
       <c r="AN38" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
@@ -7067,10 +7067,10 @@
         <v>11003</v>
       </c>
       <c r="AM39" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN39" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
@@ -7186,7 +7186,7 @@
         <v>223</v>
       </c>
       <c r="AN40" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
@@ -7302,7 +7302,7 @@
         <v>224</v>
       </c>
       <c r="AN41" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
@@ -7415,10 +7415,10 @@
         <v>13001</v>
       </c>
       <c r="AM42" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AN42" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -7534,7 +7534,7 @@
         <v>222</v>
       </c>
       <c r="AN44" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -7650,7 +7650,7 @@
         <v>222</v>
       </c>
       <c r="AN45" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -7766,7 +7766,7 @@
         <v>222</v>
       </c>
       <c r="AN46" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF47" s="4" t="s">
         <v>44</v>
@@ -7879,10 +7879,10 @@
         <v>11003</v>
       </c>
       <c r="AM47" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN47" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF48" s="4" t="s">
         <v>44</v>
@@ -7997,10 +7997,10 @@
         <v>11004</v>
       </c>
       <c r="AM48" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AN48" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="AN48" s="4" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8116,7 +8116,7 @@
         <v>224</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8229,10 +8229,10 @@
         <v>11210</v>
       </c>
       <c r="AM50" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN50" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="AN50" s="4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8347,10 +8347,10 @@
         <v>11210</v>
       </c>
       <c r="AM51" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN51" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8463,7 +8463,7 @@
         <v>11210</v>
       </c>
       <c r="AM52" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AN52" s="4" t="s">
         <v>62</v>
@@ -8564,7 +8564,7 @@
         <v>44</v>
       </c>
       <c r="AH53" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AI53" s="4" t="s">
         <v>44</v>
@@ -8579,10 +8579,10 @@
         <v>11210</v>
       </c>
       <c r="AM53" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN53" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="AN53" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8695,10 +8695,10 @@
         <v>11210</v>
       </c>
       <c r="AM54" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AN54" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF55" s="4" t="s">
         <v>44</v>
@@ -8811,10 +8811,10 @@
         <v>11210</v>
       </c>
       <c r="AM55" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AN55" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF57" s="4" t="s">
         <v>44</v>
@@ -8930,7 +8930,7 @@
         <v>222</v>
       </c>
       <c r="AN57" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.2">
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="AE58" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF58" s="4" t="s">
         <v>44</v>
@@ -9046,7 +9046,7 @@
         <v>222</v>
       </c>
       <c r="AN58" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
@@ -9162,7 +9162,7 @@
         <v>222</v>
       </c>
       <c r="AN59" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.2">
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF60" s="4" t="s">
         <v>44</v>
@@ -9275,10 +9275,10 @@
         <v>11003</v>
       </c>
       <c r="AM60" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN60" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.2">
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF61" s="4" t="s">
         <v>44</v>
@@ -9393,10 +9393,10 @@
         <v>11004</v>
       </c>
       <c r="AM61" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN61" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.2">
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF62" s="4" t="s">
         <v>44</v>
@@ -9512,7 +9512,7 @@
         <v>224</v>
       </c>
       <c r="AN62" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
@@ -9625,10 +9625,10 @@
         <v>11310</v>
       </c>
       <c r="AM63" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AN63" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="AN63" s="4" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
@@ -9741,10 +9741,10 @@
         <v>11310</v>
       </c>
       <c r="AM64" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="AN64" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="AN64" s="4" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.2">
@@ -9758,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E65" s="4">
         <v>0</v>
@@ -9859,10 +9859,10 @@
         <v>11310</v>
       </c>
       <c r="AM65" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="AN65" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="AN65" s="4" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.2">
@@ -9975,7 +9975,7 @@
         <v>11310</v>
       </c>
       <c r="AM66" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AN66" s="4" t="s">
         <v>75</v>
@@ -10091,7 +10091,7 @@
         <v>11310</v>
       </c>
       <c r="AM67" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN67" s="4" t="s">
         <v>78</v>
@@ -10207,10 +10207,10 @@
         <v>11310</v>
       </c>
       <c r="AM68" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AN68" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="AN68" s="4" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.2">
@@ -10323,10 +10323,10 @@
         <v>11310</v>
       </c>
       <c r="AM69" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AN69" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="AN69" s="4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.2">
@@ -10439,10 +10439,10 @@
         <v>11310</v>
       </c>
       <c r="AM70" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN70" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="AN70" s="4" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.2">
@@ -10555,10 +10555,10 @@
         <v>11310</v>
       </c>
       <c r="AM71" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="AN71" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="AN71" s="4" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.2">
@@ -10671,10 +10671,10 @@
         <v>11310</v>
       </c>
       <c r="AM72" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="AN72" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="AN72" s="4" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.2">
@@ -10787,10 +10787,10 @@
         <v>11310</v>
       </c>
       <c r="AM73" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN73" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.2">
@@ -10903,10 +10903,10 @@
         <v>11000</v>
       </c>
       <c r="AM75" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AN75" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.2">
@@ -11022,7 +11022,7 @@
         <v>222</v>
       </c>
       <c r="AN76" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.2">
@@ -11138,7 +11138,7 @@
         <v>222</v>
       </c>
       <c r="AN77" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.2">
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="AE78" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF78" s="4" t="s">
         <v>44</v>
@@ -11251,10 +11251,10 @@
         <v>11003</v>
       </c>
       <c r="AM78" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN78" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.2">
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="AE79" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF79" s="4" t="s">
         <v>44</v>
@@ -11372,7 +11372,7 @@
         <v>223</v>
       </c>
       <c r="AN79" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.2">
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="AE80" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF80" s="4" t="s">
         <v>44</v>
@@ -11488,7 +11488,7 @@
         <v>224</v>
       </c>
       <c r="AN80" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.2">
@@ -11604,7 +11604,7 @@
         <v>222</v>
       </c>
       <c r="AN82" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.2">
@@ -11720,7 +11720,7 @@
         <v>222</v>
       </c>
       <c r="AN83" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11836,7 +11836,7 @@
         <v>222</v>
       </c>
       <c r="AN84" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11925,7 +11925,7 @@
         <v>0</v>
       </c>
       <c r="AE85" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF85" s="4" t="s">
         <v>44</v>
@@ -11949,10 +11949,10 @@
         <v>11003</v>
       </c>
       <c r="AM85" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN85" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.2">
@@ -12043,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="AE86" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF86" s="4" t="s">
         <v>44</v>
@@ -12070,7 +12070,7 @@
         <v>223</v>
       </c>
       <c r="AN86" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.2">
@@ -12159,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="AE87" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF87" s="4" t="s">
         <v>44</v>
@@ -12186,7 +12186,7 @@
         <v>224</v>
       </c>
       <c r="AN87" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12299,10 +12299,10 @@
         <v>11510</v>
       </c>
       <c r="AM88" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="AN88" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="AN88" s="4" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="89" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12415,7 +12415,7 @@
         <v>11510</v>
       </c>
       <c r="AM89" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AN89" s="4" t="s">
         <v>100</v>
@@ -12516,7 +12516,7 @@
         <v>44</v>
       </c>
       <c r="AH90" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AI90" s="4" t="s">
         <v>44</v>
@@ -12531,10 +12531,10 @@
         <v>11510</v>
       </c>
       <c r="AM90" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN90" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="AN90" s="4" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.2">
@@ -12632,7 +12632,7 @@
         <v>44</v>
       </c>
       <c r="AH91" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AI91" s="4" t="s">
         <v>44</v>
@@ -12647,10 +12647,10 @@
         <v>11510</v>
       </c>
       <c r="AM91" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AN91" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.2">
@@ -12763,10 +12763,10 @@
         <v>11510</v>
       </c>
       <c r="AM92" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AN92" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="AN92" s="4" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.2">
@@ -12879,7 +12879,7 @@
         <v>11510</v>
       </c>
       <c r="AM93" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN93" s="4" t="s">
         <v>108</v>
@@ -12995,7 +12995,7 @@
         <v>11510</v>
       </c>
       <c r="AM94" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN94" s="4" t="s">
         <v>110</v>
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="AE95" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF95" s="4" t="s">
         <v>44</v>
@@ -13111,10 +13111,10 @@
         <v>11510</v>
       </c>
       <c r="AM95" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="AN95" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="AN95" s="4" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.2">
@@ -13227,10 +13227,10 @@
         <v>11510</v>
       </c>
       <c r="AM96" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN96" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="AN96" s="4" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.2">
@@ -13346,7 +13346,7 @@
         <v>222</v>
       </c>
       <c r="AN98" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.2">
@@ -13462,7 +13462,7 @@
         <v>222</v>
       </c>
       <c r="AN99" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.2">
@@ -13578,7 +13578,7 @@
         <v>222</v>
       </c>
       <c r="AN100" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.2">
@@ -13667,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="AE101" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF101" s="4" t="s">
         <v>44</v>
@@ -13691,10 +13691,10 @@
         <v>11003</v>
       </c>
       <c r="AM101" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN101" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.2">
@@ -13785,7 +13785,7 @@
         <v>0</v>
       </c>
       <c r="AE102" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF102" s="4" t="s">
         <v>44</v>
@@ -13812,7 +13812,7 @@
         <v>223</v>
       </c>
       <c r="AN102" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.2">
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="AE103" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF103" s="4" t="s">
         <v>44</v>
@@ -13928,7 +13928,7 @@
         <v>224</v>
       </c>
       <c r="AN103" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="AE104" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF104" s="4" t="s">
         <v>44</v>
@@ -14041,10 +14041,10 @@
         <v>11610</v>
       </c>
       <c r="AM104" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AN104" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="AN104" s="4" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="105" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14157,10 +14157,10 @@
         <v>11610</v>
       </c>
       <c r="AM105" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="AN105" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="AN105" s="4" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14273,10 +14273,10 @@
         <v>11610</v>
       </c>
       <c r="AM106" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="AN106" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="AN106" s="4" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.2">
@@ -14389,10 +14389,10 @@
         <v>11610</v>
       </c>
       <c r="AM107" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN107" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.2">
@@ -14508,7 +14508,7 @@
         <v>222</v>
       </c>
       <c r="AN109" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.2">
@@ -14624,7 +14624,7 @@
         <v>222</v>
       </c>
       <c r="AN110" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.2">
@@ -14740,7 +14740,7 @@
         <v>222</v>
       </c>
       <c r="AN111" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.2">
@@ -14829,7 +14829,7 @@
         <v>0</v>
       </c>
       <c r="AE112" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF112" s="4" t="s">
         <v>44</v>
@@ -14853,10 +14853,10 @@
         <v>11003</v>
       </c>
       <c r="AM112" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN112" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14947,7 +14947,7 @@
         <v>0</v>
       </c>
       <c r="AE113" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF113" s="4" t="s">
         <v>44</v>
@@ -14974,7 +14974,7 @@
         <v>223</v>
       </c>
       <c r="AN113" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.2">
@@ -15063,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="AE114" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF114" s="4" t="s">
         <v>44</v>
@@ -15090,7 +15090,7 @@
         <v>224</v>
       </c>
       <c r="AN114" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15098,7 +15098,7 @@
         <v>11710</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
@@ -15203,10 +15203,10 @@
         <v>11710</v>
       </c>
       <c r="AM115" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="AN115" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="AN115" s="4" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.2">
@@ -15319,10 +15319,10 @@
         <v>11710</v>
       </c>
       <c r="AM116" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN116" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="AN116" s="4" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="117" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15435,10 +15435,10 @@
         <v>11710</v>
       </c>
       <c r="AM117" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN117" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="AN117" s="4" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="118" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15555,10 +15555,10 @@
         <v>11710</v>
       </c>
       <c r="AM118" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AN118" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="AN118" s="4" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15671,10 +15671,10 @@
         <v>11710</v>
       </c>
       <c r="AM119" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AN119" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="AN119" s="4" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15766,7 +15766,7 @@
         <v>137</v>
       </c>
       <c r="AF120" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG120" s="4" t="s">
         <v>44</v>
@@ -15787,10 +15787,10 @@
         <v>11710</v>
       </c>
       <c r="AM120" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="AN120" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="AN120" s="4" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="122" spans="1:40" x14ac:dyDescent="0.2">
@@ -15906,7 +15906,7 @@
         <v>222</v>
       </c>
       <c r="AN122" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.2">
@@ -16022,7 +16022,7 @@
         <v>222</v>
       </c>
       <c r="AN123" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.2">
@@ -16138,7 +16138,7 @@
         <v>222</v>
       </c>
       <c r="AN124" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16227,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="AE125" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF125" s="4" t="s">
         <v>44</v>
@@ -16251,10 +16251,10 @@
         <v>11003</v>
       </c>
       <c r="AM125" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN125" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.2">
@@ -16345,7 +16345,7 @@
         <v>0</v>
       </c>
       <c r="AE126" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF126" s="4" t="s">
         <v>44</v>
@@ -16372,7 +16372,7 @@
         <v>223</v>
       </c>
       <c r="AN126" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="127" spans="1:40" x14ac:dyDescent="0.2">
@@ -16461,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="AE127" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF127" s="4" t="s">
         <v>44</v>
@@ -16488,7 +16488,7 @@
         <v>224</v>
       </c>
       <c r="AN127" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.2">
@@ -16601,7 +16601,7 @@
         <v>10000</v>
       </c>
       <c r="AM128" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN128" s="4" t="s">
         <v>143</v>
@@ -16677,7 +16677,7 @@
         <v>318112</v>
       </c>
       <c r="Y129" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Z129" s="7">
         <v>318113</v>
@@ -16719,10 +16719,10 @@
         <v>11811</v>
       </c>
       <c r="AM129" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="AN129" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="AN129" s="4" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="131" spans="1:40" x14ac:dyDescent="0.2">
@@ -16838,7 +16838,7 @@
         <v>222</v>
       </c>
       <c r="AN131" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="132" spans="1:40" x14ac:dyDescent="0.2">
@@ -16954,7 +16954,7 @@
         <v>222</v>
       </c>
       <c r="AN132" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="133" spans="1:40" x14ac:dyDescent="0.2">
@@ -17070,7 +17070,7 @@
         <v>222</v>
       </c>
       <c r="AN133" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="134" spans="1:40" x14ac:dyDescent="0.2">
@@ -17159,7 +17159,7 @@
         <v>0</v>
       </c>
       <c r="AE134" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF134" s="4" t="s">
         <v>44</v>
@@ -17183,10 +17183,10 @@
         <v>11003</v>
       </c>
       <c r="AM134" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN134" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="135" spans="1:40" x14ac:dyDescent="0.2">
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="AE135" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF135" s="4" t="s">
         <v>44</v>
@@ -17304,7 +17304,7 @@
         <v>223</v>
       </c>
       <c r="AN135" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.2">
@@ -17393,7 +17393,7 @@
         <v>0</v>
       </c>
       <c r="AE136" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF136" s="4" t="s">
         <v>44</v>
@@ -17420,7 +17420,7 @@
         <v>224</v>
       </c>
       <c r="AN136" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.2">
@@ -17533,10 +17533,10 @@
         <v>11913</v>
       </c>
       <c r="AM137" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="AN137" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AN137" s="4" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.2">
@@ -17649,10 +17649,10 @@
         <v>11913</v>
       </c>
       <c r="AM138" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="AN138" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="AN138" s="4" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="139" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17765,10 +17765,10 @@
         <v>11913</v>
       </c>
       <c r="AM139" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="AN139" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="AN139" s="4" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="140" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17881,10 +17881,10 @@
         <v>11913</v>
       </c>
       <c r="AM140" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="AN140" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="AN140" s="4" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="141" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17997,10 +17997,10 @@
         <v>11913</v>
       </c>
       <c r="AM141" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AN141" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="142" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18113,10 +18113,10 @@
         <v>11913</v>
       </c>
       <c r="AM142" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN142" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="143" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18274,7 +18274,7 @@
         <v>222</v>
       </c>
       <c r="AN144" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="145" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18390,7 +18390,7 @@
         <v>222</v>
       </c>
       <c r="AN145" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="146" spans="1:40" x14ac:dyDescent="0.2">
@@ -18506,7 +18506,7 @@
         <v>222</v>
       </c>
       <c r="AN146" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="147" spans="1:40" x14ac:dyDescent="0.2">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="AE147" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF147" s="4" t="s">
         <v>44</v>
@@ -18619,10 +18619,10 @@
         <v>11003</v>
       </c>
       <c r="AM147" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN147" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" spans="1:40" x14ac:dyDescent="0.2">
@@ -18713,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="AE148" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF148" s="4" t="s">
         <v>44</v>
@@ -18740,7 +18740,7 @@
         <v>223</v>
       </c>
       <c r="AN148" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:40" x14ac:dyDescent="0.2">
@@ -18829,7 +18829,7 @@
         <v>0</v>
       </c>
       <c r="AE149" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF149" s="4" t="s">
         <v>44</v>
@@ -18856,7 +18856,7 @@
         <v>224</v>
       </c>
       <c r="AN149" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="150" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -18969,10 +18969,10 @@
         <v>12010</v>
       </c>
       <c r="AM150" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AN150" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="151" spans="1:40" x14ac:dyDescent="0.2">
@@ -19085,10 +19085,10 @@
         <v>12010</v>
       </c>
       <c r="AM151" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN151" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="AN151" s="4" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="152" spans="1:40" x14ac:dyDescent="0.2">
@@ -19201,10 +19201,10 @@
         <v>12010</v>
       </c>
       <c r="AM152" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="AN152" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="AN152" s="4" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="153" spans="1:40" x14ac:dyDescent="0.2">
@@ -19317,10 +19317,10 @@
         <v>12010</v>
       </c>
       <c r="AM153" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN153" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="154" spans="1:40" x14ac:dyDescent="0.2">
@@ -19433,10 +19433,10 @@
         <v>12010</v>
       </c>
       <c r="AM154" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN154" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="155" spans="1:40" x14ac:dyDescent="0.2">
@@ -19549,10 +19549,10 @@
         <v>12010</v>
       </c>
       <c r="AM155" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN155" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="156" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -19665,10 +19665,10 @@
         <v>12010</v>
       </c>
       <c r="AM156" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="AN156" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="AN156" s="4" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.2">
@@ -19784,7 +19784,7 @@
         <v>222</v>
       </c>
       <c r="AN158" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="159" spans="1:40" x14ac:dyDescent="0.2">
@@ -19900,7 +19900,7 @@
         <v>222</v>
       </c>
       <c r="AN159" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.2">
@@ -20016,7 +20016,7 @@
         <v>222</v>
       </c>
       <c r="AN160" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.2">
@@ -20105,7 +20105,7 @@
         <v>0</v>
       </c>
       <c r="AE161" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF161" s="4" t="s">
         <v>44</v>
@@ -20129,10 +20129,10 @@
         <v>11003</v>
       </c>
       <c r="AM161" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN161" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="162" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20223,7 +20223,7 @@
         <v>0</v>
       </c>
       <c r="AE162" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF162" s="4" t="s">
         <v>44</v>
@@ -20250,7 +20250,7 @@
         <v>223</v>
       </c>
       <c r="AN162" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="163" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20339,7 +20339,7 @@
         <v>0</v>
       </c>
       <c r="AE163" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF163" s="4" t="s">
         <v>44</v>
@@ -20366,7 +20366,7 @@
         <v>224</v>
       </c>
       <c r="AN163" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="164" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20455,7 +20455,7 @@
         <v>0</v>
       </c>
       <c r="AE164" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF164" s="4" t="s">
         <v>44</v>
@@ -20479,10 +20479,10 @@
         <v>12113</v>
       </c>
       <c r="AM164" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="AN164" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="AN164" s="4" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="165" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20571,7 +20571,7 @@
         <v>0</v>
       </c>
       <c r="AE165" s="4" t="s">
-        <v>225</v>
+        <v>494</v>
       </c>
       <c r="AF165" s="4" t="s">
         <v>44</v>
@@ -20595,10 +20595,10 @@
         <v>12113</v>
       </c>
       <c r="AM165" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="AN165" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="AN165" s="4" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="166" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20627,7 +20627,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="5">
-        <v>0</v>
+        <v>22016</v>
       </c>
       <c r="J166" s="5">
         <v>0</v>
@@ -20687,19 +20687,19 @@
         <v>0</v>
       </c>
       <c r="AE166" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF166" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG166" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH166" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="AF166" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG166" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH166" s="4" t="s">
+      <c r="AI166" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="AI166" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="AJ166" s="4" t="s">
         <v>44</v>
@@ -20711,10 +20711,10 @@
         <v>12113</v>
       </c>
       <c r="AM166" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="AN166" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="AN166" s="4" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="167" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20803,7 +20803,7 @@
         <v>0</v>
       </c>
       <c r="AE167" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF167" s="4" t="s">
         <v>44</v>
@@ -20827,10 +20827,10 @@
         <v>12113</v>
       </c>
       <c r="AM167" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN167" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="168" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20919,7 +20919,7 @@
         <v>0</v>
       </c>
       <c r="AE168" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF168" s="4" t="s">
         <v>44</v>
@@ -20943,10 +20943,10 @@
         <v>12113</v>
       </c>
       <c r="AM168" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AN168" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="AN168" s="4" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="169" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21035,7 +21035,7 @@
         <v>0</v>
       </c>
       <c r="AE169" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF169" s="4" t="s">
         <v>44</v>
@@ -21059,10 +21059,10 @@
         <v>12113</v>
       </c>
       <c r="AM169" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN169" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="AN169" s="4" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="170" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21151,19 +21151,19 @@
         <v>0</v>
       </c>
       <c r="AE170" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF170" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG170" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH170" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="AF170" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG170" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH170" s="4" t="s">
+      <c r="AI170" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="AI170" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="AJ170" s="4" t="s">
         <v>44</v>
@@ -21175,10 +21175,10 @@
         <v>12113</v>
       </c>
       <c r="AM170" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="AN170" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="AN170" s="4" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="171" spans="1:40" x14ac:dyDescent="0.2">
@@ -21267,19 +21267,19 @@
         <v>0</v>
       </c>
       <c r="AE171" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF171" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG171" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH171" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="AF171" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG171" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH171" s="4" t="s">
+      <c r="AI171" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="AI171" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="AJ171" s="4" t="s">
         <v>44</v>
@@ -21291,10 +21291,10 @@
         <v>12113</v>
       </c>
       <c r="AM171" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="AN171" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="AN171" s="4" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="172" spans="1:40" x14ac:dyDescent="0.2">
@@ -21383,10 +21383,10 @@
         <v>0</v>
       </c>
       <c r="AE172" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF172" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="AF172" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="AG172" s="4" t="s">
         <v>44</v>
@@ -21407,10 +21407,10 @@
         <v>12113</v>
       </c>
       <c r="AM172" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="AN172" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="AN172" s="4" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="174" spans="1:40" x14ac:dyDescent="0.2">
@@ -21418,7 +21418,7 @@
         <v>13000</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -21499,7 +21499,7 @@
         <v>0</v>
       </c>
       <c r="AE174" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF174" s="4" t="s">
         <v>44</v>
@@ -21523,10 +21523,10 @@
         <v>13000</v>
       </c>
       <c r="AM174" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AN174" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="175" spans="1:40" x14ac:dyDescent="0.2">
@@ -21617,7 +21617,7 @@
         <v>0</v>
       </c>
       <c r="AE175" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF175" s="4" t="s">
         <v>44</v>
@@ -21641,10 +21641,10 @@
         <v>13001</v>
       </c>
       <c r="AM175" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN175" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="176" spans="1:40" x14ac:dyDescent="0.2">
@@ -21735,7 +21735,7 @@
         <v>0</v>
       </c>
       <c r="AE176" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF176" s="4" t="s">
         <v>44</v>
@@ -21759,10 +21759,10 @@
         <v>13001</v>
       </c>
       <c r="AM176" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AN176" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="177" spans="1:40" x14ac:dyDescent="0.2">
@@ -21770,7 +21770,7 @@
         <v>13003</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C177" s="4">
         <v>1</v>
@@ -21853,7 +21853,7 @@
         <v>0</v>
       </c>
       <c r="AE177" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF177" s="4" t="s">
         <v>44</v>
@@ -21877,10 +21877,10 @@
         <v>13003</v>
       </c>
       <c r="AM177" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="AN177" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="AN177" s="4" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.2">
@@ -21888,7 +21888,7 @@
         <v>13004</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C178" s="4">
         <v>1</v>
@@ -21971,7 +21971,7 @@
         <v>0</v>
       </c>
       <c r="AE178" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF178" s="4" t="s">
         <v>44</v>
@@ -21995,10 +21995,10 @@
         <v>13003</v>
       </c>
       <c r="AM178" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="AN178" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="AN178" s="4" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.2">
@@ -22006,7 +22006,7 @@
         <v>13005</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C179" s="4">
         <v>1</v>
@@ -22089,7 +22089,7 @@
         <v>0</v>
       </c>
       <c r="AE179" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF179" s="4" t="s">
         <v>44</v>
@@ -22113,10 +22113,10 @@
         <v>13003</v>
       </c>
       <c r="AM179" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="AN179" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="AN179" s="4" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.2">
@@ -22124,7 +22124,7 @@
         <v>13006</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C180" s="4">
         <v>2</v>
@@ -22207,7 +22207,7 @@
         <v>0</v>
       </c>
       <c r="AE180" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF180" s="4" t="s">
         <v>44</v>
@@ -22231,10 +22231,10 @@
         <v>13006</v>
       </c>
       <c r="AM180" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN180" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="181" spans="1:40" x14ac:dyDescent="0.2">
@@ -22242,7 +22242,7 @@
         <v>13007</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
@@ -22325,7 +22325,7 @@
         <v>0</v>
       </c>
       <c r="AE181" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF181" s="4" t="s">
         <v>44</v>
@@ -22349,10 +22349,10 @@
         <v>13006</v>
       </c>
       <c r="AM181" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN181" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.2">
@@ -22360,7 +22360,7 @@
         <v>13008</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C182" s="4">
         <v>2</v>
@@ -22443,7 +22443,7 @@
         <v>0</v>
       </c>
       <c r="AE182" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF182" s="4" t="s">
         <v>44</v>
@@ -22467,10 +22467,10 @@
         <v>13006</v>
       </c>
       <c r="AM182" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN182" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="183" spans="1:40" x14ac:dyDescent="0.2">
@@ -22478,7 +22478,7 @@
         <v>13009</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="AE183" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF183" s="4" t="s">
         <v>44</v>
@@ -22585,10 +22585,10 @@
         <v>13009</v>
       </c>
       <c r="AM183" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN183" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.2">
@@ -22596,7 +22596,7 @@
         <v>13010</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C184" s="4">
         <v>3</v>
@@ -22679,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="AE184" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF184" s="4" t="s">
         <v>44</v>
@@ -22703,10 +22703,10 @@
         <v>13009</v>
       </c>
       <c r="AM184" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN184" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.2">
@@ -22714,7 +22714,7 @@
         <v>13011</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C185" s="4">
         <v>3</v>
@@ -22797,10 +22797,10 @@
         <v>0</v>
       </c>
       <c r="AE185" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF185" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="AF185" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="AG185" s="4" t="s">
         <v>44</v>
@@ -22821,10 +22821,10 @@
         <v>13009</v>
       </c>
       <c r="AM185" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN185" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="186" spans="1:40" x14ac:dyDescent="0.2">
@@ -22832,7 +22832,7 @@
         <v>13012</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="AE186" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF186" s="4" t="s">
         <v>44</v>
@@ -22937,10 +22937,10 @@
         <v>13003</v>
       </c>
       <c r="AM186" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN186" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="AN186" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.2">
@@ -22948,7 +22948,7 @@
         <v>13013</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C187" s="4">
         <v>2</v>
@@ -23029,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="AE187" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF187" s="4" t="s">
         <v>44</v>
@@ -23053,10 +23053,10 @@
         <v>13006</v>
       </c>
       <c r="AM187" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN187" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="AN187" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="188" spans="1:40" x14ac:dyDescent="0.2">
@@ -23064,7 +23064,7 @@
         <v>13014</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C188" s="4">
         <v>3</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="AE188" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF188" s="4" t="s">
         <v>44</v>
@@ -23169,10 +23169,10 @@
         <v>13009</v>
       </c>
       <c r="AM188" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AN188" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="189" spans="1:40" x14ac:dyDescent="0.2">
@@ -23180,7 +23180,7 @@
         <v>13015</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C189" s="4">
         <v>1</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="AE189" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF189" s="4" t="s">
         <v>44</v>
@@ -23285,10 +23285,10 @@
         <v>13003</v>
       </c>
       <c r="AM189" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN189" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="AN189" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="190" spans="1:40" x14ac:dyDescent="0.2">
@@ -23296,7 +23296,7 @@
         <v>13016</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C190" s="4">
         <v>2</v>
@@ -23377,7 +23377,7 @@
         <v>0</v>
       </c>
       <c r="AE190" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF190" s="4" t="s">
         <v>44</v>
@@ -23401,10 +23401,10 @@
         <v>13006</v>
       </c>
       <c r="AM190" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN190" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="AN190" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="191" spans="1:40" x14ac:dyDescent="0.2">
@@ -23412,7 +23412,7 @@
         <v>13017</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C191" s="4">
         <v>3</v>
@@ -23493,7 +23493,7 @@
         <v>0</v>
       </c>
       <c r="AE191" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF191" s="4" t="s">
         <v>44</v>
@@ -23517,10 +23517,10 @@
         <v>13009</v>
       </c>
       <c r="AM191" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AN191" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="1:40" x14ac:dyDescent="0.2">
@@ -23528,7 +23528,7 @@
         <v>13018</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -23609,7 +23609,7 @@
         <v>0</v>
       </c>
       <c r="AE192" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF192" s="4" t="s">
         <v>44</v>
@@ -23633,10 +23633,10 @@
         <v>13000</v>
       </c>
       <c r="AM192" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AN192" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="196" spans="1:40" x14ac:dyDescent="0.2">
@@ -23846,7 +23846,7 @@
         <v>44</v>
       </c>
       <c r="AH197" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AI197" s="4" t="s">
         <v>44</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8ECA8F-F658-4524-B58A-B4AAC735BCD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0789486-7D59-4FDF-BDDE-CAECBE28B32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16470" yWindow="5745" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9270" yWindow="3780" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="498">
   <si>
     <t>Id</t>
   </si>
@@ -874,9 +874,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[413100]</t>
-  </si>
-  <si>
     <t>寄送遗书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -888,16 +885,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[413120]</t>
-  </si>
-  <si>
     <t>宁静</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[413130]</t>
-  </si>
-  <si>
     <t>主教从家里返回，也没有失窃，于是内心充满了宁静。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -906,9 +897,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[413140]</t>
-  </si>
-  <si>
     <t>观察主教家中失窃后的反应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -917,37 +905,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[413150]</t>
-  </si>
-  <si>
     <t>救赎的使徒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[413160]</t>
-  </si>
-  <si>
     <t>猫的凝视</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[413200]</t>
-  </si>
-  <si>
     <t>观察日记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[413210]</t>
-  </si>
-  <si>
     <t>猫的研究</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[413220]</t>
-  </si>
-  <si>
     <t>神的使徒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1395,14 +1368,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[401030]</t>
-  </si>
-  <si>
     <t>颠倒的酒杯</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[401040]</t>
   </si>
   <si>
     <t>圣杯的力量</t>
@@ -1963,9 +1930,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[413040,413041,459002]</t>
-  </si>
-  <si>
     <t>进行洗脑控制，猫咪影响极大幅提升</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2532,7 +2496,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>需要获得神启的猫咪参与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413210,413211]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413220,413221]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413150,413151]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413160,413161]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413040,413041,459002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413100,413101,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413200,413201,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413130,413131,413132]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413140,413142]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413131]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413120,413121,413122]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[421110,421111,421112]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[401030,401031,401032]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[401040,401041]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号-神启</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2672,7 +2696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2713,6 +2737,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2997,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3078,16 +3105,16 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -3215,10 +3242,10 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AG2" s="4" t="s">
         <v>44</v>
@@ -3239,10 +3266,10 @@
         <v>10000</v>
       </c>
       <c r="AM2" s="13" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3331,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>44</v>
@@ -3355,10 +3382,10 @@
         <v>10001</v>
       </c>
       <c r="AM3" s="13" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3447,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AF4" s="4" t="s">
         <v>44</v>
@@ -3471,10 +3498,10 @@
         <v>10002</v>
       </c>
       <c r="AM4" s="13" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3563,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="AF5" s="4" t="s">
         <v>44</v>
@@ -3587,10 +3614,10 @@
         <v>10002</v>
       </c>
       <c r="AM5" s="13" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3598,7 +3625,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -3679,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>44</v>
@@ -3703,10 +3730,10 @@
         <v>10004</v>
       </c>
       <c r="AM6" s="13" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
@@ -3795,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>44</v>
@@ -3819,10 +3846,10 @@
         <v>10005</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -3911,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>44</v>
@@ -3935,10 +3962,10 @@
         <v>10005</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4027,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="AF9" s="4" t="s">
         <v>44</v>
@@ -4051,10 +4078,10 @@
         <v>10007</v>
       </c>
       <c r="AM9" s="13" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
@@ -4062,7 +4089,7 @@
         <v>10100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -4143,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AF11" s="4" t="s">
         <v>44</v>
@@ -4167,10 +4194,10 @@
         <v>10105</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -4178,7 +4205,7 @@
         <v>10101</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -4259,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="AF12" s="4" t="s">
         <v>44</v>
@@ -4283,10 +4310,10 @@
         <v>10105</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
@@ -4294,7 +4321,7 @@
         <v>10102</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -4375,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AF13" s="4" t="s">
         <v>44</v>
@@ -4399,10 +4426,10 @@
         <v>10105</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
@@ -4410,7 +4437,7 @@
         <v>10103</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -4491,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>210</v>
+        <v>495</v>
       </c>
       <c r="AF14" s="4" t="s">
         <v>44</v>
@@ -4515,10 +4542,10 @@
         <v>10105</v>
       </c>
       <c r="AM14" s="4" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
@@ -4526,7 +4553,7 @@
         <v>10104</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
@@ -4607,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>212</v>
+        <v>496</v>
       </c>
       <c r="AF15" s="4" t="s">
         <v>44</v>
@@ -4631,10 +4658,10 @@
         <v>10105</v>
       </c>
       <c r="AM15" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
@@ -4642,7 +4669,7 @@
         <v>10105</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
@@ -4723,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AF16" s="4" t="s">
         <v>44</v>
@@ -4747,10 +4774,10 @@
         <v>10105</v>
       </c>
       <c r="AM16" s="4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4758,7 +4785,7 @@
         <v>10200</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -4839,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="AF18" s="4" t="s">
         <v>44</v>
@@ -4863,10 +4890,10 @@
         <v>10200</v>
       </c>
       <c r="AM18" s="13" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
@@ -4874,7 +4901,7 @@
         <v>10201</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -4955,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AF19" s="4" t="s">
         <v>44</v>
@@ -4979,10 +5006,10 @@
         <v>10200</v>
       </c>
       <c r="AM19" s="4" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AN19" s="4" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4990,7 +5017,7 @@
         <v>10202</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -5071,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="AF20" s="4" t="s">
         <v>44</v>
@@ -5095,10 +5122,10 @@
         <v>10200</v>
       </c>
       <c r="AM20" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5106,7 +5133,7 @@
         <v>10203</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -5187,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="AF21" s="4" t="s">
         <v>44</v>
@@ -5211,10 +5238,10 @@
         <v>10200</v>
       </c>
       <c r="AM21" s="13" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AN21" s="4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
@@ -5303,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AF23" s="4" t="s">
         <v>44</v>
@@ -5327,10 +5354,10 @@
         <v>11000</v>
       </c>
       <c r="AM23" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN23" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
@@ -5419,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AF24" s="4" t="s">
         <v>44</v>
@@ -5443,10 +5470,10 @@
         <v>11000</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
@@ -5535,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AF25" s="4" t="s">
         <v>44</v>
@@ -5559,10 +5586,10 @@
         <v>11000</v>
       </c>
       <c r="AM25" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -5651,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AF26" s="4" t="s">
         <v>44</v>
@@ -5675,10 +5702,10 @@
         <v>11003</v>
       </c>
       <c r="AM26" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -5767,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AF27" s="4" t="s">
         <v>44</v>
@@ -5794,7 +5821,7 @@
         <v>47</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -5883,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="AF28" s="4" t="s">
         <v>44</v>
@@ -5907,10 +5934,10 @@
         <v>11005</v>
       </c>
       <c r="AM28" s="4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="AN28" s="4" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -5999,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="AF29" s="4" t="s">
         <v>44</v>
@@ -6023,7 +6050,7 @@
         <v>11010</v>
       </c>
       <c r="AM29" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AN29" s="4" t="s">
         <v>50</v>
@@ -6115,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="AF30" s="4" t="s">
         <v>44</v>
@@ -6139,7 +6166,7 @@
         <v>11010</v>
       </c>
       <c r="AM30" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="AN30" s="4" t="s">
         <v>50</v>
@@ -6231,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="AF31" s="4" t="s">
         <v>44</v>
@@ -6255,7 +6282,7 @@
         <v>11010</v>
       </c>
       <c r="AM31" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AN31" s="4" t="s">
         <v>50</v>
@@ -6347,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="AF32" s="4" t="s">
         <v>44</v>
@@ -6371,7 +6398,7 @@
         <v>11010</v>
       </c>
       <c r="AM32" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="AN32" s="4" t="s">
         <v>50</v>
@@ -6463,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="AF33" s="4" t="s">
         <v>44</v>
@@ -6487,7 +6514,7 @@
         <v>11010</v>
       </c>
       <c r="AM33" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AN33" s="4" t="s">
         <v>50</v>
@@ -6579,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="AF34" s="4" t="s">
         <v>44</v>
@@ -6603,7 +6630,7 @@
         <v>11010</v>
       </c>
       <c r="AM34" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="AN34" s="4" t="s">
         <v>50</v>
@@ -6719,10 +6746,10 @@
         <v>11000</v>
       </c>
       <c r="AM36" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN36" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -6835,10 +6862,10 @@
         <v>11000</v>
       </c>
       <c r="AM37" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN37" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -6951,10 +6978,10 @@
         <v>11000</v>
       </c>
       <c r="AM38" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN38" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
@@ -7043,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AF39" s="4" t="s">
         <v>44</v>
@@ -7067,10 +7094,10 @@
         <v>11003</v>
       </c>
       <c r="AM39" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AN39" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
@@ -7159,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AF40" s="4" t="s">
         <v>44</v>
@@ -7183,10 +7210,10 @@
         <v>11004</v>
       </c>
       <c r="AM40" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AN40" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
@@ -7275,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AF41" s="4" t="s">
         <v>44</v>
@@ -7299,10 +7326,10 @@
         <v>11005</v>
       </c>
       <c r="AM41" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="AN41" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
@@ -7415,10 +7442,10 @@
         <v>13001</v>
       </c>
       <c r="AM42" s="14" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="AN42" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -7531,10 +7558,10 @@
         <v>11000</v>
       </c>
       <c r="AM44" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN44" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -7647,10 +7674,10 @@
         <v>11000</v>
       </c>
       <c r="AM45" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN45" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -7763,10 +7790,10 @@
         <v>11000</v>
       </c>
       <c r="AM46" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN46" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
@@ -7855,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="4" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AF47" s="4" t="s">
         <v>44</v>
@@ -7879,10 +7906,10 @@
         <v>11003</v>
       </c>
       <c r="AM47" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AN47" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
@@ -7973,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="4" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AF48" s="4" t="s">
         <v>44</v>
@@ -7997,10 +8024,10 @@
         <v>11004</v>
       </c>
       <c r="AM48" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AN48" s="4" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8089,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AF49" s="4" t="s">
         <v>44</v>
@@ -8113,10 +8140,10 @@
         <v>11005</v>
       </c>
       <c r="AM49" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8229,10 +8256,10 @@
         <v>11210</v>
       </c>
       <c r="AM50" s="13" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AN50" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8347,10 +8374,10 @@
         <v>11210</v>
       </c>
       <c r="AM51" s="13" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="AN51" s="4" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8463,7 +8490,7 @@
         <v>11210</v>
       </c>
       <c r="AM52" s="13" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="AN52" s="4" t="s">
         <v>62</v>
@@ -8564,7 +8591,7 @@
         <v>44</v>
       </c>
       <c r="AH53" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AI53" s="4" t="s">
         <v>44</v>
@@ -8579,10 +8606,10 @@
         <v>11210</v>
       </c>
       <c r="AM53" s="13" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="AN53" s="4" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8695,10 +8722,10 @@
         <v>11210</v>
       </c>
       <c r="AM54" s="13" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="AN54" s="4" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8787,7 +8814,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="4" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="AF55" s="4" t="s">
         <v>44</v>
@@ -8811,10 +8838,10 @@
         <v>11210</v>
       </c>
       <c r="AM55" s="13" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="AN55" s="4" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
@@ -8903,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AF57" s="4" t="s">
         <v>44</v>
@@ -8927,10 +8954,10 @@
         <v>11000</v>
       </c>
       <c r="AM57" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN57" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.2">
@@ -9019,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="AE58" s="4" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="AF58" s="4" t="s">
         <v>44</v>
@@ -9043,10 +9070,10 @@
         <v>11000</v>
       </c>
       <c r="AM58" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN58" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
@@ -9159,10 +9186,10 @@
         <v>11000</v>
       </c>
       <c r="AM59" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN59" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.2">
@@ -9251,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="AF60" s="4" t="s">
         <v>44</v>
@@ -9275,10 +9302,10 @@
         <v>11003</v>
       </c>
       <c r="AM60" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AN60" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.2">
@@ -9369,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="4" t="s">
-        <v>352</v>
+        <v>487</v>
       </c>
       <c r="AF61" s="4" t="s">
         <v>44</v>
@@ -9393,10 +9420,10 @@
         <v>11004</v>
       </c>
       <c r="AM61" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN61" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="AN61" s="4" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.2">
@@ -9485,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="4" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="AF62" s="4" t="s">
         <v>44</v>
@@ -9509,10 +9536,10 @@
         <v>11005</v>
       </c>
       <c r="AM62" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="AN62" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
@@ -9601,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="AE63" s="4" t="s">
-        <v>68</v>
+        <v>488</v>
       </c>
       <c r="AF63" s="4" t="s">
         <v>44</v>
@@ -9625,10 +9652,10 @@
         <v>11310</v>
       </c>
       <c r="AM63" s="4" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="AN63" s="4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
@@ -9636,7 +9663,7 @@
         <v>11311</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" s="4">
         <v>3</v>
@@ -9717,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF64" s="4" t="s">
         <v>44</v>
@@ -9741,10 +9768,10 @@
         <v>11310</v>
       </c>
       <c r="AM64" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="AN64" s="4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.2">
@@ -9752,7 +9779,7 @@
         <v>11312</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
@@ -9776,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="5">
         <v>100</v>
@@ -9793,7 +9820,9 @@
       <c r="O65" s="5">
         <v>513121</v>
       </c>
-      <c r="P65" s="5"/>
+      <c r="P65" s="16">
+        <v>510100</v>
+      </c>
       <c r="Q65" s="5"/>
       <c r="R65" s="7">
         <v>313120</v>
@@ -9835,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="4" t="s">
-        <v>72</v>
+        <v>493</v>
       </c>
       <c r="AF65" s="4" t="s">
         <v>44</v>
@@ -9859,10 +9888,10 @@
         <v>11310</v>
       </c>
       <c r="AM65" s="4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AN65" s="4" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.2">
@@ -9870,7 +9899,7 @@
         <v>11313</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
@@ -9951,7 +9980,7 @@
         <v>0</v>
       </c>
       <c r="AE66" s="4" t="s">
-        <v>74</v>
+        <v>490</v>
       </c>
       <c r="AF66" s="4" t="s">
         <v>44</v>
@@ -9975,10 +10004,10 @@
         <v>11310</v>
       </c>
       <c r="AM66" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AN66" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.2">
@@ -9986,7 +10015,7 @@
         <v>11314</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
@@ -10067,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="4" t="s">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="AF67" s="4" t="s">
         <v>44</v>
@@ -10076,7 +10105,7 @@
         <v>44</v>
       </c>
       <c r="AH67" s="4" t="s">
-        <v>44</v>
+        <v>492</v>
       </c>
       <c r="AI67" s="4" t="s">
         <v>44</v>
@@ -10091,10 +10120,10 @@
         <v>11310</v>
       </c>
       <c r="AM67" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AN67" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.2">
@@ -10102,7 +10131,7 @@
         <v>11315</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C68" s="4">
         <v>2</v>
@@ -10183,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="4" t="s">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="AF68" s="4" t="s">
         <v>44</v>
@@ -10207,10 +10236,10 @@
         <v>11310</v>
       </c>
       <c r="AM68" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AN68" s="4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.2">
@@ -10218,7 +10247,7 @@
         <v>11316</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C69" s="4">
         <v>3</v>
@@ -10299,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="AE69" s="4" t="s">
-        <v>82</v>
+        <v>486</v>
       </c>
       <c r="AF69" s="4" t="s">
         <v>44</v>
@@ -10323,10 +10352,10 @@
         <v>11310</v>
       </c>
       <c r="AM69" s="4" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AN69" s="4" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.2">
@@ -10334,7 +10363,7 @@
         <v>11320</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C70" s="4">
         <v>3</v>
@@ -10415,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="AE70" s="4" t="s">
-        <v>84</v>
+        <v>489</v>
       </c>
       <c r="AF70" s="4" t="s">
         <v>44</v>
@@ -10439,10 +10468,10 @@
         <v>11310</v>
       </c>
       <c r="AM70" s="4" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="AN70" s="4" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.2">
@@ -10450,7 +10479,7 @@
         <v>11321</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C71" s="4">
         <v>3</v>
@@ -10531,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="AE71" s="4" t="s">
-        <v>86</v>
+        <v>483</v>
       </c>
       <c r="AF71" s="4" t="s">
         <v>44</v>
@@ -10555,10 +10584,10 @@
         <v>11310</v>
       </c>
       <c r="AM71" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="AN71" s="4" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.2">
@@ -10566,7 +10595,7 @@
         <v>11322</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C72" s="4">
         <v>2</v>
@@ -10647,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="AE72" s="4" t="s">
-        <v>88</v>
+        <v>484</v>
       </c>
       <c r="AF72" s="4" t="s">
         <v>44</v>
@@ -10671,10 +10700,10 @@
         <v>11310</v>
       </c>
       <c r="AM72" s="4" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AN72" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.2">
@@ -10682,7 +10711,7 @@
         <v>11323</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C73" s="4">
         <v>3</v>
@@ -10712,10 +10741,10 @@
         <v>100</v>
       </c>
       <c r="L73" s="6">
-        <v>0</v>
+        <v>413231</v>
       </c>
       <c r="M73" s="6">
-        <v>0</v>
+        <v>413232</v>
       </c>
       <c r="N73" s="6">
         <v>0</v>
@@ -10763,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="AE73" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF73" s="4" t="s">
         <v>44</v>
@@ -10787,10 +10816,10 @@
         <v>11310</v>
       </c>
       <c r="AM73" s="4" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="AN73" s="4" t="s">
-        <v>366</v>
+        <v>482</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.2">
@@ -10879,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="AE75" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AF75" s="4" t="s">
         <v>44</v>
@@ -10903,10 +10932,10 @@
         <v>11000</v>
       </c>
       <c r="AM75" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="AN75" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.2">
@@ -10995,7 +11024,7 @@
         <v>0</v>
       </c>
       <c r="AE76" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AF76" s="4" t="s">
         <v>44</v>
@@ -11019,10 +11048,10 @@
         <v>11000</v>
       </c>
       <c r="AM76" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN76" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.2">
@@ -11111,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="AE77" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AF77" s="4" t="s">
         <v>44</v>
@@ -11135,10 +11164,10 @@
         <v>11000</v>
       </c>
       <c r="AM77" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN77" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.2">
@@ -11227,7 +11256,7 @@
         <v>0</v>
       </c>
       <c r="AE78" s="4" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="AF78" s="4" t="s">
         <v>44</v>
@@ -11251,10 +11280,10 @@
         <v>11003</v>
       </c>
       <c r="AM78" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AN78" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.2">
@@ -11345,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="AE79" s="4" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="AF79" s="4" t="s">
         <v>44</v>
@@ -11369,10 +11398,10 @@
         <v>11004</v>
       </c>
       <c r="AM79" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AN79" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.2">
@@ -11461,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="AE80" s="4" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AF80" s="4" t="s">
         <v>44</v>
@@ -11485,10 +11514,10 @@
         <v>11005</v>
       </c>
       <c r="AM80" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="AN80" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.2">
@@ -11577,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="AE82" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AF82" s="4" t="s">
         <v>44</v>
@@ -11601,10 +11630,10 @@
         <v>11000</v>
       </c>
       <c r="AM82" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN82" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.2">
@@ -11693,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="AE83" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AF83" s="4" t="s">
         <v>44</v>
@@ -11717,10 +11746,10 @@
         <v>11000</v>
       </c>
       <c r="AM83" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN83" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11809,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="AE84" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AF84" s="4" t="s">
         <v>44</v>
@@ -11833,10 +11862,10 @@
         <v>11000</v>
       </c>
       <c r="AM84" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN84" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11925,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="AE85" s="4" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="AF85" s="4" t="s">
         <v>44</v>
@@ -11949,10 +11978,10 @@
         <v>11003</v>
       </c>
       <c r="AM85" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AN85" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.2">
@@ -12043,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="AE86" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AF86" s="4" t="s">
         <v>44</v>
@@ -12067,10 +12096,10 @@
         <v>11004</v>
       </c>
       <c r="AM86" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AN86" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.2">
@@ -12159,7 +12188,7 @@
         <v>0</v>
       </c>
       <c r="AE87" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="AF87" s="4" t="s">
         <v>44</v>
@@ -12183,10 +12212,10 @@
         <v>11005</v>
       </c>
       <c r="AM87" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="AN87" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12194,7 +12223,7 @@
         <v>11510</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -12275,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="AE88" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AF88" s="4" t="s">
         <v>44</v>
@@ -12299,10 +12328,10 @@
         <v>11510</v>
       </c>
       <c r="AM88" s="13" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AN88" s="4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="89" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12310,7 +12339,7 @@
         <v>11511</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -12391,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="AE89" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="AF89" s="4" t="s">
         <v>44</v>
@@ -12415,10 +12444,10 @@
         <v>11510</v>
       </c>
       <c r="AM89" s="13" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="AN89" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.2">
@@ -12426,7 +12455,7 @@
         <v>11512</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -12507,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="AE90" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AF90" s="4" t="s">
         <v>44</v>
@@ -12516,7 +12545,7 @@
         <v>44</v>
       </c>
       <c r="AH90" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="AI90" s="4" t="s">
         <v>44</v>
@@ -12531,10 +12560,10 @@
         <v>11510</v>
       </c>
       <c r="AM90" s="4" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="AN90" s="4" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.2">
@@ -12542,7 +12571,7 @@
         <v>11513</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -12623,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="AE91" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AF91" s="4" t="s">
         <v>44</v>
@@ -12632,7 +12661,7 @@
         <v>44</v>
       </c>
       <c r="AH91" s="4" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="AI91" s="4" t="s">
         <v>44</v>
@@ -12647,10 +12676,10 @@
         <v>11510</v>
       </c>
       <c r="AM91" s="4" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="AN91" s="4" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.2">
@@ -12658,7 +12687,7 @@
         <v>11514</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
@@ -12739,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="AE92" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="AF92" s="4" t="s">
         <v>44</v>
@@ -12763,10 +12792,10 @@
         <v>11510</v>
       </c>
       <c r="AM92" s="4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AN92" s="4" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.2">
@@ -12774,7 +12803,7 @@
         <v>11515</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -12855,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="AE93" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AF93" s="4" t="s">
         <v>44</v>
@@ -12879,10 +12908,10 @@
         <v>11510</v>
       </c>
       <c r="AM93" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AN93" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.2">
@@ -12890,7 +12919,7 @@
         <v>11516</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C94" s="4">
         <v>1</v>
@@ -12971,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="AE94" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AF94" s="4" t="s">
         <v>44</v>
@@ -12995,10 +13024,10 @@
         <v>11510</v>
       </c>
       <c r="AM94" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AN94" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.2">
@@ -13006,7 +13035,7 @@
         <v>11517</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -13087,7 +13116,7 @@
         <v>0</v>
       </c>
       <c r="AE95" s="4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="AF95" s="4" t="s">
         <v>44</v>
@@ -13111,10 +13140,10 @@
         <v>11510</v>
       </c>
       <c r="AM95" s="4" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="AN95" s="4" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.2">
@@ -13122,7 +13151,7 @@
         <v>11518</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -13203,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="AE96" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="AF96" s="4" t="s">
         <v>44</v>
@@ -13227,10 +13256,10 @@
         <v>11510</v>
       </c>
       <c r="AM96" s="4" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="AN96" s="4" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.2">
@@ -13319,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="AE98" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="AF98" s="4" t="s">
         <v>44</v>
@@ -13343,10 +13372,10 @@
         <v>11000</v>
       </c>
       <c r="AM98" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN98" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.2">
@@ -13435,7 +13464,7 @@
         <v>0</v>
       </c>
       <c r="AE99" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AF99" s="4" t="s">
         <v>44</v>
@@ -13459,10 +13488,10 @@
         <v>11000</v>
       </c>
       <c r="AM99" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN99" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.2">
@@ -13551,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="AE100" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AF100" s="4" t="s">
         <v>44</v>
@@ -13575,10 +13604,10 @@
         <v>11000</v>
       </c>
       <c r="AM100" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN100" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.2">
@@ -13667,7 +13696,7 @@
         <v>0</v>
       </c>
       <c r="AE101" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="AF101" s="4" t="s">
         <v>44</v>
@@ -13691,10 +13720,10 @@
         <v>11003</v>
       </c>
       <c r="AM101" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AN101" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.2">
@@ -13785,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="AE102" s="4" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="AF102" s="4" t="s">
         <v>44</v>
@@ -13809,10 +13838,10 @@
         <v>11004</v>
       </c>
       <c r="AM102" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AN102" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.2">
@@ -13901,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="AE103" s="4" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AF103" s="4" t="s">
         <v>44</v>
@@ -13925,10 +13954,10 @@
         <v>11005</v>
       </c>
       <c r="AM103" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="AN103" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -13936,7 +13965,7 @@
         <v>11610</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C104" s="4">
         <v>3</v>
@@ -14017,7 +14046,7 @@
         <v>0</v>
       </c>
       <c r="AE104" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="AF104" s="4" t="s">
         <v>44</v>
@@ -14041,10 +14070,10 @@
         <v>11610</v>
       </c>
       <c r="AM104" s="13" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="AN104" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14052,7 +14081,7 @@
         <v>11611</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C105" s="4">
         <v>1</v>
@@ -14133,7 +14162,7 @@
         <v>0</v>
       </c>
       <c r="AE105" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="AF105" s="4" t="s">
         <v>44</v>
@@ -14157,10 +14186,10 @@
         <v>11610</v>
       </c>
       <c r="AM105" s="13" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="AN105" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14168,7 +14197,7 @@
         <v>11612</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C106" s="4">
         <v>2</v>
@@ -14249,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="AE106" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="AF106" s="4" t="s">
         <v>44</v>
@@ -14273,10 +14302,10 @@
         <v>11610</v>
       </c>
       <c r="AM106" s="13" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="AN106" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.2">
@@ -14284,7 +14313,7 @@
         <v>11613</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C107" s="4">
         <v>3</v>
@@ -14365,7 +14394,7 @@
         <v>0</v>
       </c>
       <c r="AE107" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AF107" s="4" t="s">
         <v>44</v>
@@ -14374,10 +14403,10 @@
         <v>44</v>
       </c>
       <c r="AH107" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="AI107" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AJ107" s="4" t="s">
         <v>44</v>
@@ -14389,10 +14418,10 @@
         <v>11610</v>
       </c>
       <c r="AM107" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AN107" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.2">
@@ -14481,7 +14510,7 @@
         <v>0</v>
       </c>
       <c r="AE109" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="AF109" s="4" t="s">
         <v>44</v>
@@ -14505,10 +14534,10 @@
         <v>11000</v>
       </c>
       <c r="AM109" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN109" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.2">
@@ -14597,7 +14626,7 @@
         <v>0</v>
       </c>
       <c r="AE110" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="AF110" s="4" t="s">
         <v>44</v>
@@ -14621,10 +14650,10 @@
         <v>11000</v>
       </c>
       <c r="AM110" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN110" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.2">
@@ -14713,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="AE111" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="AF111" s="4" t="s">
         <v>44</v>
@@ -14737,10 +14766,10 @@
         <v>11000</v>
       </c>
       <c r="AM111" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN111" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.2">
@@ -14829,7 +14858,7 @@
         <v>0</v>
       </c>
       <c r="AE112" s="4" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AF112" s="4" t="s">
         <v>44</v>
@@ -14853,10 +14882,10 @@
         <v>11003</v>
       </c>
       <c r="AM112" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AN112" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="113" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14947,7 +14976,7 @@
         <v>0</v>
       </c>
       <c r="AE113" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="AF113" s="4" t="s">
         <v>44</v>
@@ -14971,10 +15000,10 @@
         <v>11004</v>
       </c>
       <c r="AM113" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AN113" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.2">
@@ -15063,7 +15092,7 @@
         <v>0</v>
       </c>
       <c r="AE114" s="4" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="AF114" s="4" t="s">
         <v>44</v>
@@ -15087,10 +15116,10 @@
         <v>11005</v>
       </c>
       <c r="AM114" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="AN114" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15098,7 +15127,7 @@
         <v>11710</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
@@ -15179,7 +15208,7 @@
         <v>0</v>
       </c>
       <c r="AE115" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="AF115" s="4" t="s">
         <v>44</v>
@@ -15203,10 +15232,10 @@
         <v>11710</v>
       </c>
       <c r="AM115" s="13" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="AN115" s="4" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.2">
@@ -15214,7 +15243,7 @@
         <v>11711</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -15295,7 +15324,7 @@
         <v>0</v>
       </c>
       <c r="AE116" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="AF116" s="4" t="s">
         <v>44</v>
@@ -15319,10 +15348,10 @@
         <v>11710</v>
       </c>
       <c r="AM116" s="4" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="AN116" s="4" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15330,7 +15359,7 @@
         <v>11712</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C117" s="4">
         <v>3</v>
@@ -15411,7 +15440,7 @@
         <v>0</v>
       </c>
       <c r="AE117" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AF117" s="4" t="s">
         <v>44</v>
@@ -15435,10 +15464,10 @@
         <v>11710</v>
       </c>
       <c r="AM117" s="13" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="AN117" s="4" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15446,7 +15475,7 @@
         <v>11713</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C118" s="4">
         <v>1</v>
@@ -15531,7 +15560,7 @@
         <v>0</v>
       </c>
       <c r="AE118" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="AF118" s="4" t="s">
         <v>44</v>
@@ -15555,10 +15584,10 @@
         <v>11710</v>
       </c>
       <c r="AM118" s="13" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AN118" s="4" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15566,7 +15595,7 @@
         <v>11714</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -15647,7 +15676,7 @@
         <v>0</v>
       </c>
       <c r="AE119" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AF119" s="4" t="s">
         <v>44</v>
@@ -15671,10 +15700,10 @@
         <v>11710</v>
       </c>
       <c r="AM119" s="13" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AN119" s="4" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15682,7 +15711,7 @@
         <v>11715</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C120" s="4">
         <v>3</v>
@@ -15763,10 +15792,10 @@
         <v>0</v>
       </c>
       <c r="AE120" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AF120" s="4" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="AG120" s="4" t="s">
         <v>44</v>
@@ -15787,10 +15816,10 @@
         <v>11710</v>
       </c>
       <c r="AM120" s="13" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="AN120" s="4" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="122" spans="1:40" x14ac:dyDescent="0.2">
@@ -15879,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="AE122" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="AF122" s="4" t="s">
         <v>44</v>
@@ -15903,10 +15932,10 @@
         <v>11000</v>
       </c>
       <c r="AM122" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN122" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.2">
@@ -15995,7 +16024,7 @@
         <v>0</v>
       </c>
       <c r="AE123" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AF123" s="4" t="s">
         <v>44</v>
@@ -16019,10 +16048,10 @@
         <v>11000</v>
       </c>
       <c r="AM123" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN123" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.2">
@@ -16111,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="AE124" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="AF124" s="4" t="s">
         <v>44</v>
@@ -16135,10 +16164,10 @@
         <v>11000</v>
       </c>
       <c r="AM124" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN124" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="125" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16227,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="AE125" s="4" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="AF125" s="4" t="s">
         <v>44</v>
@@ -16251,10 +16280,10 @@
         <v>11003</v>
       </c>
       <c r="AM125" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AN125" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.2">
@@ -16345,7 +16374,7 @@
         <v>0</v>
       </c>
       <c r="AE126" s="4" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="AF126" s="4" t="s">
         <v>44</v>
@@ -16369,10 +16398,10 @@
         <v>11004</v>
       </c>
       <c r="AM126" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AN126" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="127" spans="1:40" x14ac:dyDescent="0.2">
@@ -16461,7 +16490,7 @@
         <v>0</v>
       </c>
       <c r="AE127" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="AF127" s="4" t="s">
         <v>44</v>
@@ -16485,10 +16514,10 @@
         <v>11005</v>
       </c>
       <c r="AM127" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="AN127" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.2">
@@ -16496,7 +16525,7 @@
         <v>11810</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C128" s="4">
         <v>0</v>
@@ -16577,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="AE128" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AF128" s="4" t="s">
         <v>44</v>
@@ -16601,10 +16630,10 @@
         <v>10000</v>
       </c>
       <c r="AM128" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AN128" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:40" x14ac:dyDescent="0.2">
@@ -16612,7 +16641,7 @@
         <v>11811</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -16665,19 +16694,19 @@
         <v>318110</v>
       </c>
       <c r="U129" s="9" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="V129" s="7">
         <v>318111</v>
       </c>
       <c r="W129" s="9" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="X129" s="7">
         <v>318112</v>
       </c>
       <c r="Y129" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="Z129" s="7">
         <v>318113</v>
@@ -16695,7 +16724,7 @@
         <v>0</v>
       </c>
       <c r="AE129" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="AF129" s="4" t="s">
         <v>44</v>
@@ -16719,10 +16748,10 @@
         <v>11811</v>
       </c>
       <c r="AM129" s="4" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="AN129" s="4" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" spans="1:40" x14ac:dyDescent="0.2">
@@ -16811,7 +16840,7 @@
         <v>0</v>
       </c>
       <c r="AE131" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="AF131" s="4" t="s">
         <v>44</v>
@@ -16835,10 +16864,10 @@
         <v>11000</v>
       </c>
       <c r="AM131" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN131" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" spans="1:40" x14ac:dyDescent="0.2">
@@ -16927,7 +16956,7 @@
         <v>0</v>
       </c>
       <c r="AE132" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="AF132" s="4" t="s">
         <v>44</v>
@@ -16951,10 +16980,10 @@
         <v>11000</v>
       </c>
       <c r="AM132" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN132" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="133" spans="1:40" x14ac:dyDescent="0.2">
@@ -17043,7 +17072,7 @@
         <v>0</v>
       </c>
       <c r="AE133" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AF133" s="4" t="s">
         <v>44</v>
@@ -17067,10 +17096,10 @@
         <v>11000</v>
       </c>
       <c r="AM133" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN133" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" spans="1:40" x14ac:dyDescent="0.2">
@@ -17159,7 +17188,7 @@
         <v>0</v>
       </c>
       <c r="AE134" s="4" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="AF134" s="4" t="s">
         <v>44</v>
@@ -17183,10 +17212,10 @@
         <v>11003</v>
       </c>
       <c r="AM134" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AN134" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" spans="1:40" x14ac:dyDescent="0.2">
@@ -17277,7 +17306,7 @@
         <v>0</v>
       </c>
       <c r="AE135" s="4" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="AF135" s="4" t="s">
         <v>44</v>
@@ -17301,10 +17330,10 @@
         <v>11004</v>
       </c>
       <c r="AM135" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AN135" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.2">
@@ -17393,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="AE136" s="4" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="AF136" s="4" t="s">
         <v>44</v>
@@ -17417,10 +17446,10 @@
         <v>11005</v>
       </c>
       <c r="AM136" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="AN136" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.2">
@@ -17428,7 +17457,7 @@
         <v>11910</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C137" s="4">
         <v>2</v>
@@ -17509,7 +17538,7 @@
         <v>0</v>
       </c>
       <c r="AE137" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="AF137" s="4" t="s">
         <v>44</v>
@@ -17533,10 +17562,10 @@
         <v>11913</v>
       </c>
       <c r="AM137" s="4" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AN137" s="4" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.2">
@@ -17544,7 +17573,7 @@
         <v>11911</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C138" s="4">
         <v>2</v>
@@ -17625,7 +17654,7 @@
         <v>0</v>
       </c>
       <c r="AE138" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="AF138" s="4" t="s">
         <v>44</v>
@@ -17649,10 +17678,10 @@
         <v>11913</v>
       </c>
       <c r="AM138" s="4" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="AN138" s="4" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="139" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17660,7 +17689,7 @@
         <v>11912</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C139" s="4">
         <v>2</v>
@@ -17741,7 +17770,7 @@
         <v>0</v>
       </c>
       <c r="AE139" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="AF139" s="4" t="s">
         <v>44</v>
@@ -17765,10 +17794,10 @@
         <v>11913</v>
       </c>
       <c r="AM139" s="4" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="AN139" s="4" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="140" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17776,7 +17805,7 @@
         <v>11913</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C140" s="4">
         <v>3</v>
@@ -17857,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="AE140" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AF140" s="4" t="s">
         <v>44</v>
@@ -17881,10 +17910,10 @@
         <v>11913</v>
       </c>
       <c r="AM140" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="AN140" s="4" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="141" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17892,7 +17921,7 @@
         <v>11914</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C141" s="4">
         <v>3</v>
@@ -17973,7 +18002,7 @@
         <v>0</v>
       </c>
       <c r="AE141" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AF141" s="4" t="s">
         <v>44</v>
@@ -17997,10 +18026,10 @@
         <v>11913</v>
       </c>
       <c r="AM141" s="4" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="AN141" s="4" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="142" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18008,7 +18037,7 @@
         <v>11915</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C142" s="4">
         <v>3</v>
@@ -18089,7 +18118,7 @@
         <v>0</v>
       </c>
       <c r="AE142" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AF142" s="4" t="s">
         <v>44</v>
@@ -18113,10 +18142,10 @@
         <v>11913</v>
       </c>
       <c r="AM142" s="4" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="AN142" s="4" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="143" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18247,7 +18276,7 @@
         <v>0</v>
       </c>
       <c r="AE144" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AF144" s="4" t="s">
         <v>44</v>
@@ -18271,10 +18300,10 @@
         <v>11000</v>
       </c>
       <c r="AM144" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN144" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="145" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18363,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="AE145" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AF145" s="4" t="s">
         <v>44</v>
@@ -18387,10 +18416,10 @@
         <v>11000</v>
       </c>
       <c r="AM145" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN145" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="146" spans="1:40" x14ac:dyDescent="0.2">
@@ -18479,7 +18508,7 @@
         <v>0</v>
       </c>
       <c r="AE146" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AF146" s="4" t="s">
         <v>44</v>
@@ -18503,10 +18532,10 @@
         <v>11000</v>
       </c>
       <c r="AM146" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN146" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="147" spans="1:40" x14ac:dyDescent="0.2">
@@ -18595,7 +18624,7 @@
         <v>0</v>
       </c>
       <c r="AE147" s="4" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="AF147" s="4" t="s">
         <v>44</v>
@@ -18619,10 +18648,10 @@
         <v>11003</v>
       </c>
       <c r="AM147" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AN147" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="148" spans="1:40" x14ac:dyDescent="0.2">
@@ -18713,7 +18742,7 @@
         <v>0</v>
       </c>
       <c r="AE148" s="4" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="AF148" s="4" t="s">
         <v>44</v>
@@ -18737,10 +18766,10 @@
         <v>11004</v>
       </c>
       <c r="AM148" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AN148" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="149" spans="1:40" x14ac:dyDescent="0.2">
@@ -18829,7 +18858,7 @@
         <v>0</v>
       </c>
       <c r="AE149" s="4" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="AF149" s="4" t="s">
         <v>44</v>
@@ -18853,10 +18882,10 @@
         <v>11005</v>
       </c>
       <c r="AM149" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="AN149" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="150" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -18864,7 +18893,7 @@
         <v>12010</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C150" s="4">
         <v>1</v>
@@ -18945,7 +18974,7 @@
         <v>0</v>
       </c>
       <c r="AE150" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AF150" s="4" t="s">
         <v>44</v>
@@ -18969,10 +18998,10 @@
         <v>12010</v>
       </c>
       <c r="AM150" s="13" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="AN150" s="4" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="151" spans="1:40" x14ac:dyDescent="0.2">
@@ -18980,7 +19009,7 @@
         <v>12011</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C151" s="4">
         <v>1</v>
@@ -19061,7 +19090,7 @@
         <v>0</v>
       </c>
       <c r="AE151" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AF151" s="4" t="s">
         <v>44</v>
@@ -19085,10 +19114,10 @@
         <v>12010</v>
       </c>
       <c r="AM151" s="4" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="AN151" s="4" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="152" spans="1:40" x14ac:dyDescent="0.2">
@@ -19096,7 +19125,7 @@
         <v>12012</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C152" s="4">
         <v>2</v>
@@ -19177,7 +19206,7 @@
         <v>0</v>
       </c>
       <c r="AE152" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AF152" s="4" t="s">
         <v>44</v>
@@ -19201,10 +19230,10 @@
         <v>12010</v>
       </c>
       <c r="AM152" s="4" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="AN152" s="4" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="153" spans="1:40" x14ac:dyDescent="0.2">
@@ -19212,7 +19241,7 @@
         <v>12013</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C153" s="4">
         <v>1</v>
@@ -19317,10 +19346,10 @@
         <v>12010</v>
       </c>
       <c r="AM153" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AN153" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="1:40" x14ac:dyDescent="0.2">
@@ -19328,7 +19357,7 @@
         <v>12014</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C154" s="4">
         <v>2</v>
@@ -19412,7 +19441,7 @@
         <v>44</v>
       </c>
       <c r="AF154" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG154" s="4" t="s">
         <v>44</v>
@@ -19433,10 +19462,10 @@
         <v>12010</v>
       </c>
       <c r="AM154" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AN154" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="155" spans="1:40" x14ac:dyDescent="0.2">
@@ -19444,7 +19473,7 @@
         <v>12015</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C155" s="4">
         <v>3</v>
@@ -19528,7 +19557,7 @@
         <v>44</v>
       </c>
       <c r="AF155" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AG155" s="4" t="s">
         <v>44</v>
@@ -19549,10 +19578,10 @@
         <v>12010</v>
       </c>
       <c r="AM155" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AN155" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -19560,7 +19589,7 @@
         <v>12016</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C156" s="4">
         <v>3</v>
@@ -19641,16 +19670,16 @@
         <v>0</v>
       </c>
       <c r="AE156" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AF156" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AG156" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AH156" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="AI156" s="4" t="s">
         <v>44</v>
@@ -19665,10 +19694,10 @@
         <v>12010</v>
       </c>
       <c r="AM156" s="13" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="AN156" s="4" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.2">
@@ -19757,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="AE158" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AF158" s="4" t="s">
         <v>44</v>
@@ -19781,10 +19810,10 @@
         <v>11000</v>
       </c>
       <c r="AM158" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN158" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="159" spans="1:40" x14ac:dyDescent="0.2">
@@ -19873,7 +19902,7 @@
         <v>0</v>
       </c>
       <c r="AE159" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AF159" s="4" t="s">
         <v>44</v>
@@ -19897,10 +19926,10 @@
         <v>11000</v>
       </c>
       <c r="AM159" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN159" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.2">
@@ -19989,7 +20018,7 @@
         <v>0</v>
       </c>
       <c r="AE160" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AF160" s="4" t="s">
         <v>44</v>
@@ -20013,10 +20042,10 @@
         <v>11000</v>
       </c>
       <c r="AM160" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AN160" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.2">
@@ -20105,7 +20134,7 @@
         <v>0</v>
       </c>
       <c r="AE161" s="4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="AF161" s="4" t="s">
         <v>44</v>
@@ -20129,10 +20158,10 @@
         <v>11003</v>
       </c>
       <c r="AM161" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AN161" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="162" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20223,7 +20252,7 @@
         <v>0</v>
       </c>
       <c r="AE162" s="4" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="AF162" s="4" t="s">
         <v>44</v>
@@ -20247,10 +20276,10 @@
         <v>11004</v>
       </c>
       <c r="AM162" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AN162" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="163" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20339,7 +20368,7 @@
         <v>0</v>
       </c>
       <c r="AE163" s="4" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="AF163" s="4" t="s">
         <v>44</v>
@@ -20363,10 +20392,10 @@
         <v>11005</v>
       </c>
       <c r="AM163" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="AN163" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="164" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20374,7 +20403,7 @@
         <v>12110</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C164" s="4">
         <v>1</v>
@@ -20455,7 +20484,7 @@
         <v>0</v>
       </c>
       <c r="AE164" s="4" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="AF164" s="4" t="s">
         <v>44</v>
@@ -20479,10 +20508,10 @@
         <v>12113</v>
       </c>
       <c r="AM164" s="13" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="AN164" s="4" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="165" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20490,7 +20519,7 @@
         <v>12111</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -20532,13 +20561,13 @@
       <c r="P165" s="5"/>
       <c r="Q165" s="5"/>
       <c r="R165" s="7">
-        <v>321110</v>
+        <v>321111</v>
       </c>
       <c r="S165" s="7">
         <v>421113</v>
       </c>
       <c r="T165" s="7">
-        <v>321111</v>
+        <v>321110</v>
       </c>
       <c r="U165" s="7">
         <v>0</v>
@@ -20595,10 +20624,10 @@
         <v>12113</v>
       </c>
       <c r="AM165" s="4" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="AN165" s="4" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20606,7 +20635,7 @@
         <v>12112</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C166" s="4">
         <v>3</v>
@@ -20687,7 +20716,7 @@
         <v>0</v>
       </c>
       <c r="AE166" s="4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="AF166" s="4" t="s">
         <v>44</v>
@@ -20696,10 +20725,10 @@
         <v>44</v>
       </c>
       <c r="AH166" s="4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="AI166" s="4" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="AJ166" s="4" t="s">
         <v>44</v>
@@ -20711,10 +20740,10 @@
         <v>12113</v>
       </c>
       <c r="AM166" s="13" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="AN166" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="167" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20722,7 +20751,7 @@
         <v>12113</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C167" s="4">
         <v>1</v>
@@ -20803,7 +20832,7 @@
         <v>0</v>
       </c>
       <c r="AE167" s="4" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="AF167" s="4" t="s">
         <v>44</v>
@@ -20827,10 +20856,10 @@
         <v>12113</v>
       </c>
       <c r="AM167" s="13" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="AN167" s="4" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20838,7 +20867,7 @@
         <v>12114</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C168" s="4">
         <v>3</v>
@@ -20919,7 +20948,7 @@
         <v>0</v>
       </c>
       <c r="AE168" s="4" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AF168" s="4" t="s">
         <v>44</v>
@@ -20943,10 +20972,10 @@
         <v>12113</v>
       </c>
       <c r="AM168" s="4" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="AN168" s="4" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="169" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20954,7 +20983,7 @@
         <v>12115</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C169" s="4">
         <v>3</v>
@@ -21035,7 +21064,7 @@
         <v>0</v>
       </c>
       <c r="AE169" s="4" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="AF169" s="4" t="s">
         <v>44</v>
@@ -21059,10 +21088,10 @@
         <v>12113</v>
       </c>
       <c r="AM169" s="4" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="AN169" s="4" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="170" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21070,7 +21099,7 @@
         <v>12116</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C170" s="4">
         <v>3</v>
@@ -21151,7 +21180,7 @@
         <v>0</v>
       </c>
       <c r="AE170" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="AF170" s="4" t="s">
         <v>44</v>
@@ -21160,10 +21189,10 @@
         <v>44</v>
       </c>
       <c r="AH170" s="4" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="AI170" s="4" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="AJ170" s="4" t="s">
         <v>44</v>
@@ -21175,10 +21204,10 @@
         <v>12113</v>
       </c>
       <c r="AM170" s="4" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="AN170" s="4" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="171" spans="1:40" x14ac:dyDescent="0.2">
@@ -21186,7 +21215,7 @@
         <v>12117</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C171" s="4">
         <v>2</v>
@@ -21267,7 +21296,7 @@
         <v>0</v>
       </c>
       <c r="AE171" s="4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AF171" s="4" t="s">
         <v>44</v>
@@ -21276,10 +21305,10 @@
         <v>44</v>
       </c>
       <c r="AH171" s="4" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="AI171" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="AJ171" s="4" t="s">
         <v>44</v>
@@ -21291,10 +21320,10 @@
         <v>12113</v>
       </c>
       <c r="AM171" s="4" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="AN171" s="4" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="172" spans="1:40" x14ac:dyDescent="0.2">
@@ -21302,7 +21331,7 @@
         <v>12118</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C172" s="4">
         <v>1</v>
@@ -21383,10 +21412,10 @@
         <v>0</v>
       </c>
       <c r="AE172" s="4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="AF172" s="4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AG172" s="4" t="s">
         <v>44</v>
@@ -21407,10 +21436,10 @@
         <v>12113</v>
       </c>
       <c r="AM172" s="4" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN172" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="174" spans="1:40" x14ac:dyDescent="0.2">
@@ -21418,7 +21447,7 @@
         <v>13000</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -21499,7 +21528,7 @@
         <v>0</v>
       </c>
       <c r="AE174" s="4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AF174" s="4" t="s">
         <v>44</v>
@@ -21523,10 +21552,10 @@
         <v>13000</v>
       </c>
       <c r="AM174" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="AN174" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="175" spans="1:40" x14ac:dyDescent="0.2">
@@ -21617,7 +21646,7 @@
         <v>0</v>
       </c>
       <c r="AE175" s="4" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="AF175" s="4" t="s">
         <v>44</v>
@@ -21641,10 +21670,10 @@
         <v>13001</v>
       </c>
       <c r="AM175" s="4" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="AN175" s="4" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" spans="1:40" x14ac:dyDescent="0.2">
@@ -21735,7 +21764,7 @@
         <v>0</v>
       </c>
       <c r="AE176" s="4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="AF176" s="4" t="s">
         <v>44</v>
@@ -21759,10 +21788,10 @@
         <v>13001</v>
       </c>
       <c r="AM176" s="4" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="AN176" s="4" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="1:40" x14ac:dyDescent="0.2">
@@ -21770,7 +21799,7 @@
         <v>13003</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C177" s="4">
         <v>1</v>
@@ -21853,7 +21882,7 @@
         <v>0</v>
       </c>
       <c r="AE177" s="4" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="AF177" s="4" t="s">
         <v>44</v>
@@ -21877,10 +21906,10 @@
         <v>13003</v>
       </c>
       <c r="AM177" s="4" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="AN177" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.2">
@@ -21888,7 +21917,7 @@
         <v>13004</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C178" s="4">
         <v>1</v>
@@ -21971,7 +22000,7 @@
         <v>0</v>
       </c>
       <c r="AE178" s="4" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="AF178" s="4" t="s">
         <v>44</v>
@@ -21995,10 +22024,10 @@
         <v>13003</v>
       </c>
       <c r="AM178" s="4" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="AN178" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.2">
@@ -22006,7 +22035,7 @@
         <v>13005</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C179" s="4">
         <v>1</v>
@@ -22089,7 +22118,7 @@
         <v>0</v>
       </c>
       <c r="AE179" s="4" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AF179" s="4" t="s">
         <v>44</v>
@@ -22113,10 +22142,10 @@
         <v>13003</v>
       </c>
       <c r="AM179" s="4" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="AN179" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.2">
@@ -22124,7 +22153,7 @@
         <v>13006</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C180" s="4">
         <v>2</v>
@@ -22207,7 +22236,7 @@
         <v>0</v>
       </c>
       <c r="AE180" s="4" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="AF180" s="4" t="s">
         <v>44</v>
@@ -22231,10 +22260,10 @@
         <v>13006</v>
       </c>
       <c r="AM180" s="4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AN180" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="181" spans="1:40" x14ac:dyDescent="0.2">
@@ -22242,7 +22271,7 @@
         <v>13007</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
@@ -22325,7 +22354,7 @@
         <v>0</v>
       </c>
       <c r="AE181" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AF181" s="4" t="s">
         <v>44</v>
@@ -22349,10 +22378,10 @@
         <v>13006</v>
       </c>
       <c r="AM181" s="4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AN181" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.2">
@@ -22360,7 +22389,7 @@
         <v>13008</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C182" s="4">
         <v>2</v>
@@ -22443,7 +22472,7 @@
         <v>0</v>
       </c>
       <c r="AE182" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="AF182" s="4" t="s">
         <v>44</v>
@@ -22467,10 +22496,10 @@
         <v>13006</v>
       </c>
       <c r="AM182" s="4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AN182" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="183" spans="1:40" x14ac:dyDescent="0.2">
@@ -22478,7 +22507,7 @@
         <v>13009</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -22561,7 +22590,7 @@
         <v>0</v>
       </c>
       <c r="AE183" s="4" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AF183" s="4" t="s">
         <v>44</v>
@@ -22585,10 +22614,10 @@
         <v>13009</v>
       </c>
       <c r="AM183" s="4" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="AN183" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.2">
@@ -22596,7 +22625,7 @@
         <v>13010</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C184" s="4">
         <v>3</v>
@@ -22679,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="AE184" s="4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="AF184" s="4" t="s">
         <v>44</v>
@@ -22703,10 +22732,10 @@
         <v>13009</v>
       </c>
       <c r="AM184" s="4" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="AN184" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.2">
@@ -22714,7 +22743,7 @@
         <v>13011</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C185" s="4">
         <v>3</v>
@@ -22797,10 +22826,10 @@
         <v>0</v>
       </c>
       <c r="AE185" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AF185" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="AG185" s="4" t="s">
         <v>44</v>
@@ -22821,10 +22850,10 @@
         <v>13009</v>
       </c>
       <c r="AM185" s="4" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="AN185" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="186" spans="1:40" x14ac:dyDescent="0.2">
@@ -22832,7 +22861,7 @@
         <v>13012</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -22913,7 +22942,7 @@
         <v>0</v>
       </c>
       <c r="AE186" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="AF186" s="4" t="s">
         <v>44</v>
@@ -22937,10 +22966,10 @@
         <v>13003</v>
       </c>
       <c r="AM186" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="AN186" s="4" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.2">
@@ -22948,7 +22977,7 @@
         <v>13013</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C187" s="4">
         <v>2</v>
@@ -23029,7 +23058,7 @@
         <v>0</v>
       </c>
       <c r="AE187" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="AF187" s="4" t="s">
         <v>44</v>
@@ -23053,10 +23082,10 @@
         <v>13006</v>
       </c>
       <c r="AM187" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="AN187" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="188" spans="1:40" x14ac:dyDescent="0.2">
@@ -23064,7 +23093,7 @@
         <v>13014</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C188" s="4">
         <v>3</v>
@@ -23145,7 +23174,7 @@
         <v>0</v>
       </c>
       <c r="AE188" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="AF188" s="4" t="s">
         <v>44</v>
@@ -23169,10 +23198,10 @@
         <v>13009</v>
       </c>
       <c r="AM188" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AN188" s="4" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="1:40" x14ac:dyDescent="0.2">
@@ -23180,7 +23209,7 @@
         <v>13015</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C189" s="4">
         <v>1</v>
@@ -23261,7 +23290,7 @@
         <v>0</v>
       </c>
       <c r="AE189" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="AF189" s="4" t="s">
         <v>44</v>
@@ -23285,10 +23314,10 @@
         <v>13003</v>
       </c>
       <c r="AM189" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="AN189" s="4" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="190" spans="1:40" x14ac:dyDescent="0.2">
@@ -23296,7 +23325,7 @@
         <v>13016</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C190" s="4">
         <v>2</v>
@@ -23377,7 +23406,7 @@
         <v>0</v>
       </c>
       <c r="AE190" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="AF190" s="4" t="s">
         <v>44</v>
@@ -23401,10 +23430,10 @@
         <v>13006</v>
       </c>
       <c r="AM190" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="AN190" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="191" spans="1:40" x14ac:dyDescent="0.2">
@@ -23412,7 +23441,7 @@
         <v>13017</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C191" s="4">
         <v>3</v>
@@ -23493,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="AE191" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="AF191" s="4" t="s">
         <v>44</v>
@@ -23517,10 +23546,10 @@
         <v>13009</v>
       </c>
       <c r="AM191" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AN191" s="4" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="1:40" x14ac:dyDescent="0.2">
@@ -23528,7 +23557,7 @@
         <v>13018</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -23609,7 +23638,7 @@
         <v>0</v>
       </c>
       <c r="AE192" s="4" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="AF192" s="4" t="s">
         <v>44</v>
@@ -23633,10 +23662,10 @@
         <v>13000</v>
       </c>
       <c r="AM192" s="4" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="AN192" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="196" spans="1:40" x14ac:dyDescent="0.2">
@@ -23644,7 +23673,7 @@
         <v>14000</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C196" s="4">
         <v>0</v>
@@ -23725,10 +23754,10 @@
         <v>0</v>
       </c>
       <c r="AE196" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AF196" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AG196" s="4" t="s">
         <v>44</v>
@@ -23756,7 +23785,7 @@
         <v>14001</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -23837,16 +23866,16 @@
         <v>0</v>
       </c>
       <c r="AE197" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AF197" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AG197" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AH197" s="4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="AI197" s="4" t="s">
         <v>44</v>
@@ -23868,7 +23897,7 @@
         <v>14002</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -23949,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="AE198" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AF198" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AG198" s="4" t="s">
         <v>44</v>
@@ -23980,7 +24009,7 @@
         <v>14003</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>197</v>
+        <v>497</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -24061,10 +24090,10 @@
         <v>0</v>
       </c>
       <c r="AE199" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AF199" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AG199" s="4" t="s">
         <v>44</v>
@@ -24092,7 +24121,7 @@
         <v>14004</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -24173,10 +24202,10 @@
         <v>0</v>
       </c>
       <c r="AE200" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AF200" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AG200" s="4" t="s">
         <v>44</v>
@@ -24204,7 +24233,7 @@
         <v>14005</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -24285,10 +24314,10 @@
         <v>0</v>
       </c>
       <c r="AE201" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AF201" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AG201" s="4" t="s">
         <v>44</v>
@@ -24316,7 +24345,7 @@
         <v>14006</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -24397,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="AE202" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AF202" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AG202" s="4" t="s">
         <v>44</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0789486-7D59-4FDF-BDDE-CAECBE28B32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC745384-E252-4825-81C7-3F186B26F727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="3780" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="5100" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -3024,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3376,10 +3376,10 @@
         <v>44</v>
       </c>
       <c r="AK3" s="3">
-        <v>10001</v>
+        <v>10007</v>
       </c>
       <c r="AL3" s="3">
-        <v>10001</v>
+        <v>10007</v>
       </c>
       <c r="AM3" s="13" t="s">
         <v>269</v>
@@ -3492,10 +3492,10 @@
         <v>44</v>
       </c>
       <c r="AK4" s="3">
-        <v>10002</v>
+        <v>10007</v>
       </c>
       <c r="AL4" s="3">
-        <v>10002</v>
+        <v>10007</v>
       </c>
       <c r="AM4" s="13" t="s">
         <v>271</v>
@@ -3608,10 +3608,10 @@
         <v>44</v>
       </c>
       <c r="AK5" s="3">
-        <v>10002</v>
+        <v>10007</v>
       </c>
       <c r="AL5" s="3">
-        <v>10002</v>
+        <v>10007</v>
       </c>
       <c r="AM5" s="13" t="s">
         <v>272</v>
@@ -3724,10 +3724,10 @@
         <v>44</v>
       </c>
       <c r="AK6" s="3">
-        <v>10004</v>
+        <v>11310</v>
       </c>
       <c r="AL6" s="3">
-        <v>10004</v>
+        <v>11310</v>
       </c>
       <c r="AM6" s="13" t="s">
         <v>273</v>
@@ -3840,10 +3840,10 @@
         <v>44</v>
       </c>
       <c r="AK7" s="3">
-        <v>10005</v>
+        <v>10007</v>
       </c>
       <c r="AL7" s="3">
-        <v>10005</v>
+        <v>10007</v>
       </c>
       <c r="AM7" s="4" t="s">
         <v>297</v>
@@ -3956,10 +3956,10 @@
         <v>44</v>
       </c>
       <c r="AK8" s="3">
-        <v>10005</v>
+        <v>10007</v>
       </c>
       <c r="AL8" s="3">
-        <v>10005</v>
+        <v>10007</v>
       </c>
       <c r="AM8" s="4" t="s">
         <v>299</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC745384-E252-4825-81C7-3F186B26F727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3D72E5-85AC-4066-A04B-F8FDA3D17F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="5100" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11340" yWindow="6225" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="497">
   <si>
     <t>Id</t>
   </si>
@@ -1623,941 +1623,862 @@
     <t>[440030]</t>
   </si>
   <si>
-    <t>王后：陛下已高烧三天了，病还没有起色吗？\n
+    <t>我们的药水能拯救人类，并让他理解猫的语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与国王交涉，达成对我们有利的提案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解人类的喜好后，可以让猫咪对症下药，进一步降低其防备。</t>
+  </si>
+  <si>
+    <t>控制国王，意味着对一个地区政权的高度控制。自此，猫咪开始了颠覆人类的第一步。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对国王的暗杀活动没有停止，现在只有我们能保护国王的安全。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪卡莉参与行动，获得“猫咪陪伴”能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣猫咪入住，监听情报，伺机破坏路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制主教，以消解宗教支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[400000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[400010]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王试图只身逃离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[400020]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪的行动会导致隐匿度下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[400030]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亏欠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆尝试说服主教，帮助国王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[400040]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王有几分动摇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为组织挣得好名声时，可获得影响力</t>
+  </si>
+  <si>
+    <t>[400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传言说在王城周边有许多的遗址，圣杯可能与这些地方有关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析圣杯传言中潜藏的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神启表明，圣杯的位置与火焰存在关联。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析圣杯痕迹中潜藏的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文献记载，圣杯最后一次是出现在数十年前的某个女巫家中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析圣杯线索中潜藏的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火刑场遗迹是当年女巫审判的发生地，许多猫咪在这里被烧死。圣杯应该藏在遗迹的某处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有猫咪称几日前发现塞达在遗迹附近游荡，现在得想办法撬开他的嘴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制乞丐，获悉”传家宝“的秘密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣杯散发出黯淡的光芒。只要接近，都能感受到难以名状的神圣感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举行仪式，提升猫咪的影响力与隐匿度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听王后与亲王的对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禀告国王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带领国王寻找王后背叛的证据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王的精神十分脆弱，我们可以乘虚而入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能见度增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙：致卡莉——已与国王达成交易。请尽快与其他成员联络，调查圣杯相关的线索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心防减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[412030,459001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们应当把骨干猫咪安插到核心人物的家庭中，以便密切监视。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要猫咪凯修参与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[412040,412041,459002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗50点影响力，请求外地猫咪协助行动</t>
+  </si>
+  <si>
+    <t>[412132]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒进的行动，将损失5点隐匿度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[412100,412132]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413000,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413010]</t>
+  </si>
+  <si>
+    <t>[413030,459001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要猫咪科恩参与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行洗脑控制，猫咪影响极大幅提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413050,413051,413052,459003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果主教动摇了，我们便有机会控制他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将伪造的信件送给主教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举办葬礼时，主教会离开家中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们可以再吓唬他一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙：在主教睡着时给他用点药剂吧，时机已经成熟了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸下主教的防备，为控制主教做好准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主教注意到了我们。这是危机，也是机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们需要适当的“表演”一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们可以篡改典籍，诱导主教的研究方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类的能见度提升后，与其有关的事件会逐步被揭露出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[414030,459001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收养一只猫咪，猫咪隐匿度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[414040,414041,459002]</t>
+  </si>
+  <si>
+    <t>进行洗脑控制，猫咪影响大幅提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[414050,414051,414052,459003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[415030,459001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[415040,415041,459002]</t>
+  </si>
+  <si>
+    <t>[415050,415051,415052,459003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门提尔在传授炼金术的知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们可以拿一些研究的副产物换钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙：赶在王后抄家之前，我们可以先下手为强。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜入炼金术士家中搜刮遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科恩：我们曾用苹果，推动过人类物理学的发展。现在，让我们用苹果再推动一次进步吧，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[415170,415171,415172,415173]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得一些人类货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[416030,459001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[416040,416041,459002]</t>
+  </si>
+  <si>
+    <t>[416050,416051,416052,459003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有猫咪在遭受虐待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[416100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[417030,459001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[417040,417041,459002]</t>
+  </si>
+  <si>
+    <t>[417050,417051,417052,459003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘密任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪不会放过任何的机密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪们也可以来凑凑热闹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他会选择事业，还是爱情？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[418030,459001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[418040,418041,459002]</t>
+  </si>
+  <si>
+    <t>[418050,418051,459003]</t>
+  </si>
+  <si>
+    <t>花费20人类货币，让猫咪入神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[418113]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[419030,459001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[419040,419041,459002]</t>
+  </si>
+  <si>
+    <t>[419050,419051,419052,459003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鼠药会有用么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪可以帮助他，也可以不帮助他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茵菲尔：怎么在大殿上都能看见老鼠到处跑了，我可爱的卡莉没有被吓到吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为捕鼠做出贡献，提升影响力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[420030,459001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[420040,420041,459002]</t>
+  </si>
+  <si>
+    <t>[420050,420051,420052,459003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们在讨论兵变的事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要把他们联络的鸽子抓下来，密函就送不到国外。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[421030,459001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[421040,421041,459002]</t>
+  </si>
+  <si>
+    <t>[421050,421051,421052,459003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趁主教不在家中，可以去小赚一笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高利贷是个无底洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>款待猫咪，提升影响。可以多吃几次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当隐匿度降为0后，猫咪组织将因人类打击而被毁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡莉：致凯修——时机已经成熟，请前往王都，协助调查圣杯的传闻。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡莉：致科恩——调查圣杯古文献需要您的协助，请问您能否在百忙之中抽取时间前来王都？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让猫咪们在大街小巷中穿梭，观察，并向当地猫咪打听圣杯的传言。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗20点影响力</t>
+  </si>
+  <si>
+    <t>[430040,430041,459002]</t>
+  </si>
+  <si>
+    <t>猫咪全员交际能力提升，交流事件执行加快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类的统治者已经发现了猫咪共济会的存在。组织即将承受覆灭的命运。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[400050,400051]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[400060,400061]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[410100,410102,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[410100,410101,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[410110,410102,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[410110,410101,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[410120,410102,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[410120,410101,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果@4.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果@4.条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[417151]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[402000,402001,402002,402003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[415123]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[415132]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[421100,421101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要获得神启的猫咪参与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413210,413211]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413220,413221]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413150,413151]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413160,413161]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413040,413041,459002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413100,413101,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413200,413201,400070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413130,413131,413132]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413140,413142]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413131]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413120,413121,413122]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[421110,421111,421112]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[401030,401031,401032]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[401040,401041]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号-神启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王后：陛下已高烧三天了，病还没有起色吗？
 女仆：情况还在恶化，恐怕撑不过今夜了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们的药水能拯救人类，并让他理解猫的语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛林：猫、猫说话了！这将死之人的幻觉吗？\n
+  </si>
+  <si>
+    <t>国王：猫、猫说话了！这将死之人的幻觉吗？
 西蒙：是猫咪拯救了你，陛下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与国王交涉，达成对我们有利的提案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛林：那只黑猫在骗我吗，安彼西奥要谋反？\n
-葛林：我得想办法离开这里。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛林：宫中四处都是叛贼的耳目，小心行事。 \n
+  </si>
+  <si>
+    <t>国王：那只黑猫在骗我吗，亲王要谋反？
+国王：我得想办法离开这里。</t>
+  </si>
+  <si>
+    <t>国王：宫中四处都是叛贼的耳目，小心行事。 
 女仆：我一定会将这封信交给佩尔主教。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女仆：如果不是你，我也不会沦落至此。\n
-佩尔：我是亏欠于你，但私情不能打破原则。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解人类的喜好后，可以让猫咪对症下药，进一步降低其防备。</t>
-  </si>
-  <si>
-    <t>控制国王，意味着对一个地区政权的高度控制。自此，猫咪开始了颠覆人类的第一步。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗脑葛林，取得该区域的统治胜利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对国王的暗杀活动没有停止，现在只有我们能保护国王的安全。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对国王的暗杀活动没有停止。有嘉帕兹在，我们可以更快找出威胁。但注意不要被她发现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪卡莉参与行动，获得“猫咪陪伴”能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德：兵器在秘密运送，没有被人盘查。\n
-安彼西奥：很好。低调行事，不要引人耳目。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>派遣猫咪入住，监听情报，伺机破坏路线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德：军队将在数日后抵达王都。\n
-安彼西奥：我的傻侄子还蒙在鼓里吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德：这次宴会，各地的侯爵都会到场。\n
-安彼西奥：说服他们不干涉我们的计划就行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安彼西奥：佩尔主教回复了吗？\n
-尼奥塔德：他很顽固。拉拢他还需要点时间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制主教，以消解宗教支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安彼西奥：这浓烟到底是怎么回事？\n
-瓦林提亚：厨房起火了，马上就要烧到这了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安彼西奥：随意调动戍边的士兵并不明智。\n
-尼奥塔德：可我们已经没有退路了，殿下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[400000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[400010]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国王试图只身逃离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[400020]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪的行动会导致隐匿度下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[400030]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亏欠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女仆尝试说服主教，帮助国王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[400040]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛林：有人要谋害于我，身边却没有可依靠的人。最信任的仆从因我而死，我该怎么办？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国王有几分动摇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛林：有人要谋害于我，我却做不了什么。主教不肯伸出援手，我该怎么对抗叛贼的部队？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛林：我已走投无路，只好求助于你。\n
+  </si>
+  <si>
+    <t>女仆：如果不是你，我也不会沦落至此。
+主教：我是亏欠于你，但私情不能打破原则。</t>
+  </si>
+  <si>
+    <t>国王：有人要谋害于我，身边却没有可依靠的人。最信任的仆从因我而死，我该怎么办？</t>
+  </si>
+  <si>
+    <t>国王：有人要谋害于我，我却做不了什么。主教不肯伸出援手，我该怎么对抗叛贼的部队？</t>
+  </si>
+  <si>
+    <t>国王：我已走投无路，只好求助于你。
 西蒙：那接下来，让我们谈谈契约的细则吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为组织挣得好名声时，可获得影响力</t>
-  </si>
-  <si>
-    <t>[400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传言说在王城周边有许多的遗址，圣杯可能与这些地方有关。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析圣杯传言中潜藏的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神启表明，圣杯的位置与火焰存在关联。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析圣杯痕迹中潜藏的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文献记载，圣杯最后一次是出现在数十年前的某个女巫家中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析圣杯线索中潜藏的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火刑场遗迹是当年女巫审判的发生地，许多猫咪在这里被烧死。圣杯应该藏在遗迹的某处。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往火刑场遗迹寻找圣杯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有猫咪称几日前发现塞达在遗迹附近游荡，现在得想办法撬开他的嘴。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制乞丐，获悉”传家宝“的秘密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣杯散发出黯淡的光芒。只要接近，都能感受到难以名状的神圣感。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举行仪式，提升猫咪的影响力与隐匿度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茵菲尔：我下了好几次毒，但都被察觉了。\n
-安彼西奥：等军队到了，他也就跑不了了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监听王后与亲王的对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禀告国王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛林：不可能。我跟茵菲尔从小就认识，这么多年我不会不了解她。她不可能背叛我。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带领国王寻找王后背叛的证据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茵菲尔：我不曾背叛过您，葛林陛下。\n
-葛林：我也想相信你，我也希望不是这样。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛林的家事，交给他自己处理吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛林：没想到最后能陪在我身边的只有你。\n
+  </si>
+  <si>
+    <t>茵菲尔：我下了好几次毒，但都被察觉了。
+亲王：等军队到了，他也就跑不了了。</t>
+  </si>
+  <si>
+    <t>国王：不可能。我跟茵菲尔从小就认识，这么多年我不会不了解她。她不可能背叛我。</t>
+  </si>
+  <si>
+    <t>茵菲尔：我不曾背叛过您，国王陛下。
+国王：我也想相信你，我也希望不是这样。</t>
+  </si>
+  <si>
+    <t>国王的家事，交给他自己处理吧</t>
+  </si>
+  <si>
+    <t>国王：没想到最后能陪在我身边的只有你。
 西蒙：安心吧陛下，猫咪会为你解决一切的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国王的精神十分脆弱，我们可以乘虚而入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能见度增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙：致卡莉——已与国王达成交易。请尽快与其他成员联络，调查圣杯相关的线索。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心防减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[412030,459001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们应当把骨干猫咪安插到核心人物的家庭中，以便密切监视。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要猫咪凯修参与</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[412040,412041,459002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗50点影响力，请求外地猫咪协助行动</t>
-  </si>
-  <si>
-    <t>[412132]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒进的行动，将损失5点隐匿度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔对嘉帕兹作有过承诺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[412100,412132]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413000,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413010]</t>
-  </si>
-  <si>
-    <t>[413030,459001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要猫咪科恩参与</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行洗脑控制，猫咪影响极大幅提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413050,413051,413052,459003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙：原来嘉帕兹和佩尔是这样的关系。有利用的价值，来模仿她的笔记写一封信吧，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果主教动摇了，我们便有机会控制他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：嘉帕兹竟然主动联系我了。五年，我终于等到这一天了。里面到底写了什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将伪造的信件送给主教</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：“愿主怜悯你，让你前往极乐的天国。你所承受的一切苦难，都会得到主的回报……“</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举办葬礼时，主教会离开家中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：又是小偷又是葬礼，现在我的心十分动摇。让我祷告一下吧，神职者需要保持宁静。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：密函、教衣、权杖，一切都丢了。这是神对我当年舍弃你的惩罚吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：你的灵魂没办法升上天国吗，我的女儿？我能为你做什么吗，什么都可以！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们可以再吓唬他一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙：在主教睡着时给他用点药剂吧，时机已经成熟了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卸下主教的防备，为控制主教做好准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：最近常有一种被猫盯着的感觉。我似乎从它们身上感受到了神性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主教注意到了我们。这是危机，也是机会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：这些猫行动的背后，可能存在某种规律。这需要记录归纳一下，才能得出结论。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们需要适当的“表演”一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：一些古老的文献上有着相关的记载，或许我可以从旧的典籍上找到一些线索。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们可以篡改典籍，诱导主教的研究方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：猫曾是神的使徒。近些年对猫的迫害，引发不祥的征兆。必须向教廷禀告此事。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类的能见度提升后，与其有关的事件会逐步被揭露出来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[414030,459001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收养一只猫咪，猫咪隐匿度提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[414040,414041,459002]</t>
-  </si>
-  <si>
-    <t>进行洗脑控制，猫咪影响大幅提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[414050,414051,414052,459003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[415030,459001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[415040,415041,459002]</t>
-  </si>
-  <si>
-    <t>[415050,415051,415052,459003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔：今天讲介质与触媒。你在打瞌睡吗？\n.
-费琳娜：不，我醒着呢，老师。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔在传授炼金术的知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔：再给我一点时间，马上就有突破了。\n
+  </si>
+  <si>
+    <t>洗脑国王，取得该区域的统治胜利</t>
+  </si>
+  <si>
+    <t>对国王的暗杀活动没有停止。有女仆在，我们可以更快找出威胁。但注意不要被她发现。</t>
+  </si>
+  <si>
+    <t>侯爵：兵器在秘密运送，没有被人盘查。
+亲王：很好。低调行事，不要引人耳目。</t>
+  </si>
+  <si>
+    <t>侯爵：军队将在数日后抵达王都。
+亲王：我的傻侄子还蒙在鼓里吧。</t>
+  </si>
+  <si>
+    <t>侯爵：这次宴会，各地的侯爵都会到场。
+亲王：说服他们不干涉我们的计划就行。</t>
+  </si>
+  <si>
+    <t>亲王：佩尔主教回复了吗？
+侯爵：他很顽固。拉拢他还需要点时间。</t>
+  </si>
+  <si>
+    <t>亲王：这浓烟到底是怎么回事？
+侍从：厨房起火了，马上就要烧到这了！</t>
+  </si>
+  <si>
+    <t>主教对女仆作有过承诺</t>
+  </si>
+  <si>
+    <t>西蒙：原来女仆和主教是这样的关系。有利用的价值，来模仿她的笔记写一封信吧，</t>
+  </si>
+  <si>
+    <t>主教：嘉帕兹竟然主动联系我了。五年，我终于等到这一天了。里面到底写了什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主教：“愿主怜悯你，让你前往极乐的天国。你所承受的一切苦难，都会得到主的回报……“</t>
+  </si>
+  <si>
+    <t>主教：又是小偷又是葬礼，现在我的心十分动摇。让我祷告一下吧，神职者需要保持宁静。</t>
+  </si>
+  <si>
+    <t>主教：密函、教衣、权杖，一切都丢了。这是神对我当年舍弃你的惩罚吗？</t>
+  </si>
+  <si>
+    <t>主教：你的灵魂没办法升上天国吗，我的女儿？我能为你做什么吗，什么都可以！</t>
+  </si>
+  <si>
+    <t>主教：最近常有一种被猫盯着的感觉。我似乎从它们身上感受到了神性。</t>
+  </si>
+  <si>
+    <t>主教：这些猫行动的背后，可能存在某种规律。这需要记录归纳一下，才能得出结论。</t>
+  </si>
+  <si>
+    <t>主教：一些古老的文献上有着相关的记载，或许我可以从旧的典籍上找到一些线索。</t>
+  </si>
+  <si>
+    <t>主教：猫曾是神的使徒。近些年对猫的迫害，引发不祥的征兆。必须向教廷禀告此事。</t>
+  </si>
+  <si>
+    <t>炼金术士：今天讲介质与触媒。你在打瞌睡吗？.
+医生：不，我醒着呢，老师。</t>
+  </si>
+  <si>
+    <t>炼金术士：再给我一点时间，马上就有突破了。
 茵菲尔：让我先看看成果，再考虑资助的事。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔：材料又用完了，可是没钱买新的啊。看看能不能找些纯度高的替代品……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们可以拿一些研究的副产物换钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔：三份贤者之石，两份铅……嗯，材料用完了，再去买点吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙：赶在王后抄家之前，我们可以先下手为强。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜入炼金术士家中搜刮遗物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科恩：我们曾用苹果，推动过人类物理学的发展。现在，让我们用苹果再推动一次进步吧，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得神启的猫咪，可以推动门提尔的研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[415170,415171,415172,415173]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙：这里有如此多的金子。就算少了一些，门提尔也不会知道。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得一些人类货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[416030,459001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[416040,416041,459002]</t>
-  </si>
-  <si>
-    <t>[416050,416051,416052,459003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班诺：因西亚的骑士，怎么会输给一个侍卫？ \n
-班诺：臭猫，是不是你给我下了什么咒？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有猫咪在遭受虐待</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[416100]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班诺：懦夫，你敢与我再比试一次吗？\n
-瓦林提亚：你天天烦我，难道就没正事做吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班诺不断地向瓦林提亚发起挑衅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">班诺：你是怕又输给我，所以才会拒绝我吧？\n
-瓦林提亚：我受够你了，今天就做个了断吧。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班诺与瓦林提亚开始决斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[417030,459001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[417040,417041,459002]</t>
-  </si>
-  <si>
-    <t>[417050,417051,417052,459003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘密任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林提亚：有什么吩咐吗，殿下？\n
-安彼西奥：去帮我送一封信。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪不会放过任何的机密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依斯皮柯：瓦林提亚，他以前的那些风流韵事我可很清楚。得让他我妹妹远一点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他一直怀疑瓦林提亚的人品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费琳娜：你最近工作好像很忙。\n
-瓦林提亚：再忙我也会抽出时间陪你的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪们也可以来凑凑热闹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女人：塞达呢，今天怎么不是他来？\n
-瓦林提亚：他最近失踪了，殿下要我来送信。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达，一个值得关注的名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依斯皮柯：看见了吧，他在跟别的女人幽会。\n
-费琳娜：不可能！你在做什么，瓦林提亚！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费琳娜突然冲了出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林提亚：你不相信我吗，费琳娜？\n
-费琳娜：我也想相信你，只要你能解释一下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他会选择事业，还是爱情？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[418030,459001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[418040,418041,459002]</t>
-  </si>
-  <si>
-    <t>[418050,418051,459003]</t>
-  </si>
-  <si>
-    <t>费琳娜家中有许多圣草。不过我们需要准备点钱去交换，避免药品失窃的事显得过于招摇。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费20人类货币，让猫咪入神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[418113]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[419030,459001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[419040,419041,459002]</t>
-  </si>
-  <si>
-    <t>[419050,419051,419052,459003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依斯皮柯：最近厨房里怎么这么多老鼠。是那群邋遢的水手从外地带回来的吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依斯皮柯正为鼠患而头疼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依斯皮柯：这每一颗药都像金子一样昂贵。要是没用，我就去揍死那个卖药的小子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鼠药会有用么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依斯皮柯：猫出现在祷告台上，这是某种预兆。或许可以试试找几只猫。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪可以帮助他，也可以不帮助他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茵菲尔：怎么在大殿上都能看见老鼠到处跑了，我可爱的卡莉没有被吓到吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为捕鼠做出贡献，提升影响力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德：噢！噢！怎么这么多的老鼠，我的仆从们呢，这到底是怎么回事？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林提亚：家里应该没有食物才对，这些老鼠从哪里来的？看来得找费琳娜讨点药草了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[420030,459001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[420040,420041,459002]</t>
-  </si>
-  <si>
-    <t>[420050,420051,420052,459003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他们在讨论兵变的事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德的作息有些反常，每天晚上他都会失踪一段时间。这值得调查一下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟踪尼奥塔德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只要把他们联络的鸽子抓下来，密函就送不到国外。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拦截尼奥塔德向外国势力的通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科恩：现在，猫咪命令你放弃塞达的债权。\n
-尼奥塔德：我一定遵守共济会的意志。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求尼奥塔德放弃向塞达追债</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[421030,459001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[421040,421041,459002]</t>
-  </si>
-  <si>
-    <t>[421050,421051,421052,459003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德：我可知道你还藏着值钱的东西！\n
-塞达：没……没有，我真的全都给你了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达理解猫语，他的事件不会降低隐匿度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达：与其手指被砍，不如拼一把。那边是主教的房子，里面应该会有些值钱的东西。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趁主教不在家中，可以去小赚一笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达：这些钱难道还不够吗？\n
-尼奥塔德：本金是还上了，但还有利息呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高利贷是个无底洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉帕兹：你好像受伤了，需要什么帮助吗？\n
-塞达：别出声，就行了。有人在追我。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达：我听得懂你们在说什么，也知道你们这些猫满脑子都是坏心思。你也来吃点吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陪塞达聊聊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达：五年前的我要是看见这些东西，应该会难以下咽吧。你们随便吃吧，也没剩多少了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>款待猫咪，提升影响。可以多吃几次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达：反抗吗，确实之前没有想过。要是你们愿意帮我的话，倒确实可以试试。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协助塞达，设置机关，抵挡要债的人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">塞达：他们来了吗？我去拉粪水的机关。小猫，你去拖延一下时间，一会儿就好。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协助塞达，抵挡向他逃债的人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达：债不用还了吗？这倒是值得庆祝的事情。攒的这点钱……干脆再请小猫们吃一顿吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达款待猫咪，影响力提升</t>
-  </si>
-  <si>
-    <t>当隐匿度降为0后，猫咪组织将因人类打击而被毁。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡莉：致凯修——时机已经成熟，请前往王都，协助调查圣杯的传闻。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡莉：致科恩——调查圣杯古文献需要您的协助，请问您能否在百忙之中抽取时间前来王都？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>让猫咪们在大街小巷中穿梭，观察，并向当地猫咪打听圣杯的传言。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗20点影响力</t>
-  </si>
-  <si>
-    <t>[430040,430041,459002]</t>
-  </si>
-  <si>
-    <t>猫咪全员交际能力提升，交流事件执行加快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类的统治者已经发现了猫咪共济会的存在。组织即将承受覆灭的命运。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[400050,400051]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[400060,400061]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410100,410102,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410100,410101,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410110,410102,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410110,410101,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410120,410102,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410120,410101,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果@4.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果@4.条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[417151]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[402000,402001,402002,402003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[415123]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[415132]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[421100,421101]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要获得神启的猫咪参与</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413210,413211]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413220,413221]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413150,413151]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413160,413161]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413040,413041,459002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413100,413101,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413200,413201,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413130,413131,413132]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413140,413142]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413131]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413120,413121,413122]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[421110,421111,421112]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[401030,401031,401032]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[401040,401041]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号-神启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金术士：材料又用完了，可是没钱买新的啊。看看能不能找些纯度高的替代品……</t>
+  </si>
+  <si>
+    <t>炼金术士：三份贤者之石，两份铅……嗯，材料用完了，再去买点吧。</t>
+  </si>
+  <si>
+    <t>获得神启的猫咪，可以推动炼金术士的研究</t>
+  </si>
+  <si>
+    <t>西蒙：这里有如此多的金子。就算少了一些，炼金术士也不会知道。</t>
+  </si>
+  <si>
+    <t>骑士：因西亚的骑士，怎么会输给一个侍卫？ 
+骑士：臭猫，是不是你给我下了什么咒？</t>
+  </si>
+  <si>
+    <t>骑士：懦夫，你敢与我再比试一次吗？
+侍从：你天天烦我，难道就没正事做吗？</t>
+  </si>
+  <si>
+    <t>骑士不断地向侍从发起挑衅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骑士：你是怕又输给我，所以才会拒绝我吧？
+侍从：我受够你了，今天就做个了断吧。 </t>
+  </si>
+  <si>
+    <t>骑士与侍从开始决斗</t>
+  </si>
+  <si>
+    <t>侍从：有什么吩咐吗，殿下？
+亲王：去帮我送一封信。</t>
+  </si>
+  <si>
+    <t>厨师：瓦林提亚，他以前的那些风流韵事我可很清楚。得让他我妹妹远一点。</t>
+  </si>
+  <si>
+    <t>他一直怀疑侍从的人品</t>
+  </si>
+  <si>
+    <t>医生：你最近工作好像很忙。
+侍从：再忙我也会抽出时间陪你的。</t>
+  </si>
+  <si>
+    <t>女人：那个乞丐呢，今天怎么不是他来？
+侍从：他最近失踪了，殿下要我来送信。</t>
+  </si>
+  <si>
+    <t>亲王与乞丐有关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨师：看见了吧，他在跟别的女人幽会。
+医生：不可能！你在做什么，瓦林提亚！</t>
+  </si>
+  <si>
+    <t>医生突然冲了出来</t>
+  </si>
+  <si>
+    <t>侍从：你不相信我吗，医生？
+医生：我也想相信你，只要你能解释一下。</t>
+  </si>
+  <si>
+    <t>医生家中有许多圣草。不过我们需要准备点钱去交换，避免药品失窃的事显得过于招摇。</t>
+  </si>
+  <si>
+    <t>厨师：最近厨房里怎么这么多老鼠。是那群邋遢的水手从外地带回来的吗？</t>
+  </si>
+  <si>
+    <t>厨师正为鼠患而头疼</t>
+  </si>
+  <si>
+    <t>厨师：这每一颗药都像金子一样昂贵。要是没用，我就去揍死那个卖药的小子。</t>
+  </si>
+  <si>
+    <t>厨师：猫出现在祷告台上，这是某种预兆。或许可以试试找几只猫。</t>
+  </si>
+  <si>
+    <t>侯爵：噢！噢！怎么这么多的老鼠，我的仆从们呢，这到底是怎么回事？</t>
+  </si>
+  <si>
+    <t>侍从：家里应该没有食物才对，这些老鼠从哪里来的？看来得找费琳娜讨点药草了。</t>
+  </si>
+  <si>
+    <t>亲王：随意调动戍边的士兵并不明智。
+侯爵：可我们已经没有退路了，殿下。</t>
+  </si>
+  <si>
+    <t>侯爵的作息有些反常，每天晚上他都会失踪一段时间。这值得调查一下。</t>
+  </si>
+  <si>
+    <t>跟踪侯爵</t>
+  </si>
+  <si>
+    <t>拦截侯爵向外国势力的通信</t>
+  </si>
+  <si>
+    <t>科恩：现在，猫咪命令你放弃塞达的债权。
+侯爵：我一定遵守共济会的意志。</t>
+  </si>
+  <si>
+    <t>要求侯爵放弃向乞丐追债</t>
+  </si>
+  <si>
+    <t>侯爵：我可知道你还藏着值钱的东西！
+乞丐：没……没有，我真的全都给你了！</t>
+  </si>
+  <si>
+    <t>乞丐理解猫语，他的事件不会降低隐匿度</t>
+  </si>
+  <si>
+    <t>乞丐：与其手指被砍，不如拼一把。那边是主教的房子，里面应该会有些值钱的东西。</t>
+  </si>
+  <si>
+    <t>乞丐：这些钱难道还不够吗？
+侯爵：本金是还上了，但还有利息呢？</t>
+  </si>
+  <si>
+    <t>女仆：你好像受伤了，需要什么帮助吗？
+乞丐：别出声，就行了。有人在追我。</t>
+  </si>
+  <si>
+    <t>乞丐：我听得懂你们在说什么，也知道你们这些猫满脑子都是坏心思。你也来吃点吧。</t>
+  </si>
+  <si>
+    <t>陪乞丐聊聊</t>
+  </si>
+  <si>
+    <t>乞丐：五年前的我要是看见这些东西，应该会难以下咽吧。你们随便吃吧，也没剩多少了。</t>
+  </si>
+  <si>
+    <t>乞丐：反抗吗，确实之前没有想过。要是你们愿意帮我的话，倒确实可以试试。</t>
+  </si>
+  <si>
+    <t>协助乞丐，设置机关，抵挡要债的人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乞丐：他们来了吗？我去拉粪水的机关。小猫，你去拖延一下时间，一会儿就好。 </t>
+  </si>
+  <si>
+    <t>协助乞丐，抵挡向他逃债的人</t>
+  </si>
+  <si>
+    <t>乞丐：债不用还了吗？这倒是值得庆祝的事情。攒的这点钱……干脆再请小猫们吃一顿吧。</t>
+  </si>
+  <si>
+    <t>乞丐款待猫咪，影响力提升</t>
   </si>
 </sst>
 </file>
@@ -3024,8 +2945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2:AL9"/>
+    <sheetView tabSelected="1" topLeftCell="AC185" workbookViewId="0">
+      <selection activeCell="AM174" sqref="AM174:AN192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3111,10 +3032,10 @@
         <v>193</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>475</v>
+        <v>396</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>476</v>
+        <v>397</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -3242,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>133</v>
@@ -3266,10 +3187,10 @@
         <v>10000</v>
       </c>
       <c r="AM2" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="AN2" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3358,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>44</v>
@@ -3382,10 +3303,10 @@
         <v>10007</v>
       </c>
       <c r="AM3" s="13" t="s">
-        <v>269</v>
+        <v>420</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3474,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="AF4" s="4" t="s">
         <v>44</v>
@@ -3498,10 +3419,10 @@
         <v>10007</v>
       </c>
       <c r="AM4" s="13" t="s">
-        <v>271</v>
+        <v>421</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3590,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="AF5" s="4" t="s">
         <v>44</v>
@@ -3614,10 +3535,10 @@
         <v>10007</v>
       </c>
       <c r="AM5" s="13" t="s">
-        <v>272</v>
+        <v>422</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3625,7 +3546,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -3706,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>44</v>
@@ -3730,10 +3651,10 @@
         <v>11310</v>
       </c>
       <c r="AM6" s="13" t="s">
-        <v>273</v>
+        <v>423</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
@@ -3822,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>467</v>
+        <v>388</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>44</v>
@@ -3846,10 +3767,10 @@
         <v>10007</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>297</v>
+        <v>424</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -3938,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>468</v>
+        <v>389</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>44</v>
@@ -3962,10 +3883,10 @@
         <v>10007</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>299</v>
+        <v>425</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4054,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AF9" s="4" t="s">
         <v>44</v>
@@ -4078,10 +3999,10 @@
         <v>10007</v>
       </c>
       <c r="AM9" s="13" t="s">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
@@ -4194,10 +4115,10 @@
         <v>10105</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -4310,10 +4231,10 @@
         <v>10105</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
@@ -4426,10 +4347,10 @@
         <v>10105</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
@@ -4518,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>495</v>
+        <v>416</v>
       </c>
       <c r="AF14" s="4" t="s">
         <v>44</v>
@@ -4542,10 +4463,10 @@
         <v>10105</v>
       </c>
       <c r="AM14" s="4" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
@@ -4634,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>496</v>
+        <v>417</v>
       </c>
       <c r="AF15" s="4" t="s">
         <v>44</v>
@@ -4658,10 +4579,10 @@
         <v>10105</v>
       </c>
       <c r="AM15" s="4" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
@@ -4774,10 +4695,10 @@
         <v>10105</v>
       </c>
       <c r="AM16" s="4" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4866,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>478</v>
+        <v>399</v>
       </c>
       <c r="AF18" s="4" t="s">
         <v>44</v>
@@ -4890,10 +4811,10 @@
         <v>10200</v>
       </c>
       <c r="AM18" s="13" t="s">
-        <v>315</v>
+        <v>427</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
@@ -4901,7 +4822,7 @@
         <v>10201</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -5006,10 +4927,10 @@
         <v>10200</v>
       </c>
       <c r="AM19" s="4" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
       <c r="AN19" s="4" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5122,10 +5043,10 @@
         <v>10200</v>
       </c>
       <c r="AM20" s="13" t="s">
-        <v>320</v>
+        <v>429</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>321</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5238,10 +5159,10 @@
         <v>10200</v>
       </c>
       <c r="AM21" s="13" t="s">
-        <v>322</v>
+        <v>431</v>
       </c>
       <c r="AN21" s="4" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
@@ -5357,7 +5278,7 @@
         <v>211</v>
       </c>
       <c r="AN23" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
@@ -5473,7 +5394,7 @@
         <v>211</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
@@ -5589,7 +5510,7 @@
         <v>211</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -5702,10 +5623,10 @@
         <v>11003</v>
       </c>
       <c r="AM26" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -5821,7 +5742,7 @@
         <v>47</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -5934,10 +5855,10 @@
         <v>11005</v>
       </c>
       <c r="AM28" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AN28" s="4" t="s">
-        <v>276</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -6026,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>469</v>
+        <v>390</v>
       </c>
       <c r="AF29" s="4" t="s">
         <v>44</v>
@@ -6050,7 +5971,7 @@
         <v>11010</v>
       </c>
       <c r="AM29" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AN29" s="4" t="s">
         <v>50</v>
@@ -6142,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>470</v>
+        <v>391</v>
       </c>
       <c r="AF30" s="4" t="s">
         <v>44</v>
@@ -6166,7 +6087,7 @@
         <v>11010</v>
       </c>
       <c r="AM30" s="4" t="s">
-        <v>278</v>
+        <v>433</v>
       </c>
       <c r="AN30" s="4" t="s">
         <v>50</v>
@@ -6258,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>471</v>
+        <v>392</v>
       </c>
       <c r="AF31" s="4" t="s">
         <v>44</v>
@@ -6282,7 +6203,7 @@
         <v>11010</v>
       </c>
       <c r="AM31" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AN31" s="4" t="s">
         <v>50</v>
@@ -6374,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>472</v>
+        <v>393</v>
       </c>
       <c r="AF32" s="4" t="s">
         <v>44</v>
@@ -6398,7 +6319,7 @@
         <v>11010</v>
       </c>
       <c r="AM32" s="4" t="s">
-        <v>278</v>
+        <v>433</v>
       </c>
       <c r="AN32" s="4" t="s">
         <v>50</v>
@@ -6490,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>473</v>
+        <v>394</v>
       </c>
       <c r="AF33" s="4" t="s">
         <v>44</v>
@@ -6514,7 +6435,7 @@
         <v>11010</v>
       </c>
       <c r="AM33" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AN33" s="4" t="s">
         <v>50</v>
@@ -6606,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>474</v>
+        <v>395</v>
       </c>
       <c r="AF34" s="4" t="s">
         <v>44</v>
@@ -6630,7 +6551,7 @@
         <v>11010</v>
       </c>
       <c r="AM34" s="4" t="s">
-        <v>278</v>
+        <v>433</v>
       </c>
       <c r="AN34" s="4" t="s">
         <v>50</v>
@@ -6749,7 +6670,7 @@
         <v>211</v>
       </c>
       <c r="AN36" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -6865,7 +6786,7 @@
         <v>211</v>
       </c>
       <c r="AN37" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -6981,7 +6902,7 @@
         <v>211</v>
       </c>
       <c r="AN38" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
@@ -7094,10 +7015,10 @@
         <v>11003</v>
       </c>
       <c r="AM39" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AN39" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
@@ -7213,7 +7134,7 @@
         <v>212</v>
       </c>
       <c r="AN40" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
@@ -7329,7 +7250,7 @@
         <v>213</v>
       </c>
       <c r="AN41" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
@@ -7442,10 +7363,10 @@
         <v>13001</v>
       </c>
       <c r="AM42" s="14" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="AN42" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -7561,7 +7482,7 @@
         <v>211</v>
       </c>
       <c r="AN44" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -7677,7 +7598,7 @@
         <v>211</v>
       </c>
       <c r="AN45" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -7793,7 +7714,7 @@
         <v>211</v>
       </c>
       <c r="AN46" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
@@ -7882,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="4" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="AF47" s="4" t="s">
         <v>44</v>
@@ -7906,10 +7827,10 @@
         <v>11003</v>
       </c>
       <c r="AM47" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AN47" s="4" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
@@ -8000,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="4" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="AF48" s="4" t="s">
         <v>44</v>
@@ -8024,10 +7945,10 @@
         <v>11004</v>
       </c>
       <c r="AM48" s="4" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="AN48" s="4" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8143,7 +8064,7 @@
         <v>213</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8256,10 +8177,10 @@
         <v>11210</v>
       </c>
       <c r="AM50" s="13" t="s">
-        <v>280</v>
+        <v>434</v>
       </c>
       <c r="AN50" s="4" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8374,10 +8295,10 @@
         <v>11210</v>
       </c>
       <c r="AM51" s="13" t="s">
-        <v>282</v>
+        <v>435</v>
       </c>
       <c r="AN51" s="4" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8490,7 +8411,7 @@
         <v>11210</v>
       </c>
       <c r="AM52" s="13" t="s">
-        <v>283</v>
+        <v>436</v>
       </c>
       <c r="AN52" s="4" t="s">
         <v>62</v>
@@ -8591,7 +8512,7 @@
         <v>44</v>
       </c>
       <c r="AH53" s="4" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="AI53" s="4" t="s">
         <v>44</v>
@@ -8606,10 +8527,10 @@
         <v>11210</v>
       </c>
       <c r="AM53" s="13" t="s">
-        <v>284</v>
+        <v>437</v>
       </c>
       <c r="AN53" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8722,10 +8643,10 @@
         <v>11210</v>
       </c>
       <c r="AM54" s="13" t="s">
-        <v>286</v>
+        <v>438</v>
       </c>
       <c r="AN54" s="4" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8814,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="4" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="AF55" s="4" t="s">
         <v>44</v>
@@ -8838,10 +8759,10 @@
         <v>11210</v>
       </c>
       <c r="AM55" s="13" t="s">
-        <v>284</v>
+        <v>437</v>
       </c>
       <c r="AN55" s="4" t="s">
-        <v>335</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
@@ -8930,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="4" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="AF57" s="4" t="s">
         <v>44</v>
@@ -8957,7 +8878,7 @@
         <v>211</v>
       </c>
       <c r="AN57" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.2">
@@ -9046,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="AE58" s="4" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="AF58" s="4" t="s">
         <v>44</v>
@@ -9073,7 +8994,7 @@
         <v>211</v>
       </c>
       <c r="AN58" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
@@ -9189,7 +9110,7 @@
         <v>211</v>
       </c>
       <c r="AN59" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.2">
@@ -9278,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="AF60" s="4" t="s">
         <v>44</v>
@@ -9302,10 +9223,10 @@
         <v>11003</v>
       </c>
       <c r="AM60" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AN60" s="4" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.2">
@@ -9396,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="4" t="s">
-        <v>487</v>
+        <v>408</v>
       </c>
       <c r="AF61" s="4" t="s">
         <v>44</v>
@@ -9420,10 +9341,10 @@
         <v>11004</v>
       </c>
       <c r="AM61" s="4" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="AN61" s="4" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.2">
@@ -9512,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="4" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="AF62" s="4" t="s">
         <v>44</v>
@@ -9539,7 +9460,7 @@
         <v>213</v>
       </c>
       <c r="AN62" s="4" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
@@ -9628,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="AE63" s="4" t="s">
-        <v>488</v>
+        <v>409</v>
       </c>
       <c r="AF63" s="4" t="s">
         <v>44</v>
@@ -9652,10 +9573,10 @@
         <v>11310</v>
       </c>
       <c r="AM63" s="4" t="s">
-        <v>343</v>
+        <v>440</v>
       </c>
       <c r="AN63" s="4" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
@@ -9768,10 +9689,10 @@
         <v>11310</v>
       </c>
       <c r="AM64" s="4" t="s">
-        <v>345</v>
+        <v>441</v>
       </c>
       <c r="AN64" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.2">
@@ -9864,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="4" t="s">
-        <v>493</v>
+        <v>414</v>
       </c>
       <c r="AF65" s="4" t="s">
         <v>44</v>
@@ -9888,10 +9809,10 @@
         <v>11310</v>
       </c>
       <c r="AM65" s="4" t="s">
-        <v>347</v>
+        <v>442</v>
       </c>
       <c r="AN65" s="4" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.2">
@@ -9980,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="AE66" s="4" t="s">
-        <v>490</v>
+        <v>411</v>
       </c>
       <c r="AF66" s="4" t="s">
         <v>44</v>
@@ -10004,7 +9925,7 @@
         <v>11310</v>
       </c>
       <c r="AM66" s="4" t="s">
-        <v>349</v>
+        <v>443</v>
       </c>
       <c r="AN66" s="4" t="s">
         <v>72</v>
@@ -10096,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="4" t="s">
-        <v>491</v>
+        <v>412</v>
       </c>
       <c r="AF67" s="4" t="s">
         <v>44</v>
@@ -10105,7 +10026,7 @@
         <v>44</v>
       </c>
       <c r="AH67" s="4" t="s">
-        <v>492</v>
+        <v>413</v>
       </c>
       <c r="AI67" s="4" t="s">
         <v>44</v>
@@ -10120,7 +10041,7 @@
         <v>11310</v>
       </c>
       <c r="AM67" s="4" t="s">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="AN67" s="4" t="s">
         <v>74</v>
@@ -10212,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="4" t="s">
-        <v>485</v>
+        <v>406</v>
       </c>
       <c r="AF68" s="4" t="s">
         <v>44</v>
@@ -10236,10 +10157,10 @@
         <v>11310</v>
       </c>
       <c r="AM68" s="4" t="s">
-        <v>351</v>
+        <v>445</v>
       </c>
       <c r="AN68" s="4" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.2">
@@ -10328,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="AE69" s="4" t="s">
-        <v>486</v>
+        <v>407</v>
       </c>
       <c r="AF69" s="4" t="s">
         <v>44</v>
@@ -10352,10 +10273,10 @@
         <v>11310</v>
       </c>
       <c r="AM69" s="4" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="AN69" s="4" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.2">
@@ -10444,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="AE70" s="4" t="s">
-        <v>489</v>
+        <v>410</v>
       </c>
       <c r="AF70" s="4" t="s">
         <v>44</v>
@@ -10468,10 +10389,10 @@
         <v>11310</v>
       </c>
       <c r="AM70" s="4" t="s">
-        <v>355</v>
+        <v>446</v>
       </c>
       <c r="AN70" s="4" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.2">
@@ -10560,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="AE71" s="4" t="s">
-        <v>483</v>
+        <v>404</v>
       </c>
       <c r="AF71" s="4" t="s">
         <v>44</v>
@@ -10584,10 +10505,10 @@
         <v>11310</v>
       </c>
       <c r="AM71" s="4" t="s">
-        <v>357</v>
+        <v>447</v>
       </c>
       <c r="AN71" s="4" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.2">
@@ -10676,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="AE72" s="4" t="s">
-        <v>484</v>
+        <v>405</v>
       </c>
       <c r="AF72" s="4" t="s">
         <v>44</v>
@@ -10700,10 +10621,10 @@
         <v>11310</v>
       </c>
       <c r="AM72" s="4" t="s">
-        <v>359</v>
+        <v>448</v>
       </c>
       <c r="AN72" s="4" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.2">
@@ -10816,10 +10737,10 @@
         <v>11310</v>
       </c>
       <c r="AM73" s="4" t="s">
-        <v>361</v>
+        <v>449</v>
       </c>
       <c r="AN73" s="4" t="s">
-        <v>482</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.2">
@@ -10932,10 +10853,10 @@
         <v>11000</v>
       </c>
       <c r="AM75" s="4" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="AN75" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.2">
@@ -11051,7 +10972,7 @@
         <v>211</v>
       </c>
       <c r="AN76" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.2">
@@ -11167,7 +11088,7 @@
         <v>211</v>
       </c>
       <c r="AN77" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.2">
@@ -11256,7 +11177,7 @@
         <v>0</v>
       </c>
       <c r="AE78" s="4" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="AF78" s="4" t="s">
         <v>44</v>
@@ -11280,10 +11201,10 @@
         <v>11003</v>
       </c>
       <c r="AM78" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AN78" s="4" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.2">
@@ -11374,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="AE79" s="4" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="AF79" s="4" t="s">
         <v>44</v>
@@ -11401,7 +11322,7 @@
         <v>212</v>
       </c>
       <c r="AN79" s="4" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.2">
@@ -11490,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="AE80" s="4" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="AF80" s="4" t="s">
         <v>44</v>
@@ -11517,7 +11438,7 @@
         <v>213</v>
       </c>
       <c r="AN80" s="4" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.2">
@@ -11633,7 +11554,7 @@
         <v>211</v>
       </c>
       <c r="AN82" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.2">
@@ -11749,7 +11670,7 @@
         <v>211</v>
       </c>
       <c r="AN83" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11865,7 +11786,7 @@
         <v>211</v>
       </c>
       <c r="AN84" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11954,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="AE85" s="4" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="AF85" s="4" t="s">
         <v>44</v>
@@ -11978,10 +11899,10 @@
         <v>11003</v>
       </c>
       <c r="AM85" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AN85" s="4" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.2">
@@ -12072,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="AE86" s="4" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="AF86" s="4" t="s">
         <v>44</v>
@@ -12099,7 +12020,7 @@
         <v>212</v>
       </c>
       <c r="AN86" s="4" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.2">
@@ -12188,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="AE87" s="4" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="AF87" s="4" t="s">
         <v>44</v>
@@ -12215,7 +12136,7 @@
         <v>213</v>
       </c>
       <c r="AN87" s="4" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12328,10 +12249,10 @@
         <v>11510</v>
       </c>
       <c r="AM88" s="13" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="AN88" s="4" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12444,7 +12365,7 @@
         <v>11510</v>
       </c>
       <c r="AM89" s="13" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="AN89" s="4" t="s">
         <v>91</v>
@@ -12545,7 +12466,7 @@
         <v>44</v>
       </c>
       <c r="AH90" s="4" t="s">
-        <v>479</v>
+        <v>400</v>
       </c>
       <c r="AI90" s="4" t="s">
         <v>44</v>
@@ -12560,10 +12481,10 @@
         <v>11510</v>
       </c>
       <c r="AM90" s="4" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="AN90" s="4" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.2">
@@ -12661,7 +12582,7 @@
         <v>44</v>
       </c>
       <c r="AH91" s="4" t="s">
-        <v>480</v>
+        <v>401</v>
       </c>
       <c r="AI91" s="4" t="s">
         <v>44</v>
@@ -12676,10 +12597,10 @@
         <v>11510</v>
       </c>
       <c r="AM91" s="4" t="s">
-        <v>376</v>
+        <v>453</v>
       </c>
       <c r="AN91" s="4" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.2">
@@ -12792,10 +12713,10 @@
         <v>11510</v>
       </c>
       <c r="AM92" s="4" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="AN92" s="4" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.2">
@@ -12908,7 +12829,7 @@
         <v>11510</v>
       </c>
       <c r="AM93" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="AN93" s="4" t="s">
         <v>99</v>
@@ -13024,7 +12945,7 @@
         <v>11510</v>
       </c>
       <c r="AM94" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="AN94" s="4" t="s">
         <v>101</v>
@@ -13116,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="AE95" s="4" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="AF95" s="4" t="s">
         <v>44</v>
@@ -13140,10 +13061,10 @@
         <v>11510</v>
       </c>
       <c r="AM95" s="4" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="AN95" s="4" t="s">
-        <v>380</v>
+        <v>454</v>
       </c>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.2">
@@ -13256,10 +13177,10 @@
         <v>11510</v>
       </c>
       <c r="AM96" s="4" t="s">
-        <v>382</v>
+        <v>455</v>
       </c>
       <c r="AN96" s="4" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.2">
@@ -13375,7 +13296,7 @@
         <v>211</v>
       </c>
       <c r="AN98" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.2">
@@ -13491,7 +13412,7 @@
         <v>211</v>
       </c>
       <c r="AN99" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.2">
@@ -13607,7 +13528,7 @@
         <v>211</v>
       </c>
       <c r="AN100" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.2">
@@ -13696,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="AE101" s="4" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="AF101" s="4" t="s">
         <v>44</v>
@@ -13720,10 +13641,10 @@
         <v>11003</v>
       </c>
       <c r="AM101" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AN101" s="4" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.2">
@@ -13814,7 +13735,7 @@
         <v>0</v>
       </c>
       <c r="AE102" s="4" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="AF102" s="4" t="s">
         <v>44</v>
@@ -13841,7 +13762,7 @@
         <v>212</v>
       </c>
       <c r="AN102" s="4" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.2">
@@ -13930,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="AE103" s="4" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="AF103" s="4" t="s">
         <v>44</v>
@@ -13957,7 +13878,7 @@
         <v>213</v>
       </c>
       <c r="AN103" s="4" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14046,7 +13967,7 @@
         <v>0</v>
       </c>
       <c r="AE104" s="4" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="AF104" s="4" t="s">
         <v>44</v>
@@ -14070,10 +13991,10 @@
         <v>11610</v>
       </c>
       <c r="AM104" s="13" t="s">
-        <v>387</v>
+        <v>456</v>
       </c>
       <c r="AN104" s="4" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14186,10 +14107,10 @@
         <v>11610</v>
       </c>
       <c r="AM105" s="13" t="s">
-        <v>390</v>
+        <v>457</v>
       </c>
       <c r="AN105" s="4" t="s">
-        <v>391</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14302,10 +14223,10 @@
         <v>11610</v>
       </c>
       <c r="AM106" s="13" t="s">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="AN106" s="4" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.2">
@@ -14418,10 +14339,10 @@
         <v>11610</v>
       </c>
       <c r="AM107" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="AN107" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.2">
@@ -14537,7 +14458,7 @@
         <v>211</v>
       </c>
       <c r="AN109" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.2">
@@ -14653,7 +14574,7 @@
         <v>211</v>
       </c>
       <c r="AN110" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.2">
@@ -14769,7 +14690,7 @@
         <v>211</v>
       </c>
       <c r="AN111" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.2">
@@ -14858,7 +14779,7 @@
         <v>0</v>
       </c>
       <c r="AE112" s="4" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="AF112" s="4" t="s">
         <v>44</v>
@@ -14882,10 +14803,10 @@
         <v>11003</v>
       </c>
       <c r="AM112" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AN112" s="4" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="113" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14976,7 +14897,7 @@
         <v>0</v>
       </c>
       <c r="AE113" s="4" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="AF113" s="4" t="s">
         <v>44</v>
@@ -15003,7 +14924,7 @@
         <v>212</v>
       </c>
       <c r="AN113" s="4" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.2">
@@ -15092,7 +15013,7 @@
         <v>0</v>
       </c>
       <c r="AE114" s="4" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="AF114" s="4" t="s">
         <v>44</v>
@@ -15119,7 +15040,7 @@
         <v>213</v>
       </c>
       <c r="AN114" s="4" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
     </row>
     <row r="115" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15127,7 +15048,7 @@
         <v>11710</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
@@ -15232,10 +15153,10 @@
         <v>11710</v>
       </c>
       <c r="AM115" s="13" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
       <c r="AN115" s="4" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.2">
@@ -15348,10 +15269,10 @@
         <v>11710</v>
       </c>
       <c r="AM116" s="4" t="s">
-        <v>400</v>
+        <v>462</v>
       </c>
       <c r="AN116" s="4" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15464,10 +15385,10 @@
         <v>11710</v>
       </c>
       <c r="AM117" s="13" t="s">
-        <v>402</v>
+        <v>464</v>
       </c>
       <c r="AN117" s="4" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15584,10 +15505,10 @@
         <v>11710</v>
       </c>
       <c r="AM118" s="13" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
       <c r="AN118" s="4" t="s">
-        <v>405</v>
+        <v>466</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15700,10 +15621,10 @@
         <v>11710</v>
       </c>
       <c r="AM119" s="13" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="AN119" s="4" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15795,7 +15716,7 @@
         <v>128</v>
       </c>
       <c r="AF120" s="4" t="s">
-        <v>477</v>
+        <v>398</v>
       </c>
       <c r="AG120" s="4" t="s">
         <v>44</v>
@@ -15816,10 +15737,10 @@
         <v>11710</v>
       </c>
       <c r="AM120" s="13" t="s">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="AN120" s="4" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
     </row>
     <row r="122" spans="1:40" x14ac:dyDescent="0.2">
@@ -15935,7 +15856,7 @@
         <v>211</v>
       </c>
       <c r="AN122" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.2">
@@ -16051,7 +15972,7 @@
         <v>211</v>
       </c>
       <c r="AN123" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.2">
@@ -16167,7 +16088,7 @@
         <v>211</v>
       </c>
       <c r="AN124" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16256,7 +16177,7 @@
         <v>0</v>
       </c>
       <c r="AE125" s="4" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="AF125" s="4" t="s">
         <v>44</v>
@@ -16280,10 +16201,10 @@
         <v>11003</v>
       </c>
       <c r="AM125" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AN125" s="4" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.2">
@@ -16374,7 +16295,7 @@
         <v>0</v>
       </c>
       <c r="AE126" s="4" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="AF126" s="4" t="s">
         <v>44</v>
@@ -16401,7 +16322,7 @@
         <v>212</v>
       </c>
       <c r="AN126" s="4" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
     </row>
     <row r="127" spans="1:40" x14ac:dyDescent="0.2">
@@ -16490,7 +16411,7 @@
         <v>0</v>
       </c>
       <c r="AE127" s="4" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="AF127" s="4" t="s">
         <v>44</v>
@@ -16517,7 +16438,7 @@
         <v>213</v>
       </c>
       <c r="AN127" s="4" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.2">
@@ -16630,7 +16551,7 @@
         <v>10000</v>
       </c>
       <c r="AM128" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="AN128" s="4" t="s">
         <v>134</v>
@@ -16706,7 +16627,7 @@
         <v>318112</v>
       </c>
       <c r="Y129" s="7" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="Z129" s="7">
         <v>318113</v>
@@ -16748,10 +16669,10 @@
         <v>11811</v>
       </c>
       <c r="AM129" s="4" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="AN129" s="4" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
     </row>
     <row r="131" spans="1:40" x14ac:dyDescent="0.2">
@@ -16867,7 +16788,7 @@
         <v>211</v>
       </c>
       <c r="AN131" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:40" x14ac:dyDescent="0.2">
@@ -16983,7 +16904,7 @@
         <v>211</v>
       </c>
       <c r="AN132" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="133" spans="1:40" x14ac:dyDescent="0.2">
@@ -17099,7 +17020,7 @@
         <v>211</v>
       </c>
       <c r="AN133" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:40" x14ac:dyDescent="0.2">
@@ -17188,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="AE134" s="4" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="AF134" s="4" t="s">
         <v>44</v>
@@ -17212,10 +17133,10 @@
         <v>11003</v>
       </c>
       <c r="AM134" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AN134" s="4" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="135" spans="1:40" x14ac:dyDescent="0.2">
@@ -17306,7 +17227,7 @@
         <v>0</v>
       </c>
       <c r="AE135" s="4" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="AF135" s="4" t="s">
         <v>44</v>
@@ -17333,7 +17254,7 @@
         <v>212</v>
       </c>
       <c r="AN135" s="4" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.2">
@@ -17422,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="AE136" s="4" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="AF136" s="4" t="s">
         <v>44</v>
@@ -17449,7 +17370,7 @@
         <v>213</v>
       </c>
       <c r="AN136" s="4" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.2">
@@ -17562,10 +17483,10 @@
         <v>11913</v>
       </c>
       <c r="AM137" s="4" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="AN137" s="4" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.2">
@@ -17678,10 +17599,10 @@
         <v>11913</v>
       </c>
       <c r="AM138" s="4" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="AN138" s="4" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17794,10 +17715,10 @@
         <v>11913</v>
       </c>
       <c r="AM139" s="4" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="AN139" s="4" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
     </row>
     <row r="140" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17910,10 +17831,10 @@
         <v>11913</v>
       </c>
       <c r="AM140" s="4" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="AN140" s="4" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18026,10 +17947,10 @@
         <v>11913</v>
       </c>
       <c r="AM141" s="4" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="AN141" s="4" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
     </row>
     <row r="142" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18142,10 +18063,10 @@
         <v>11913</v>
       </c>
       <c r="AM142" s="4" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="AN142" s="4" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
     </row>
     <row r="143" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18303,7 +18224,7 @@
         <v>211</v>
       </c>
       <c r="AN144" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="145" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18419,7 +18340,7 @@
         <v>211</v>
       </c>
       <c r="AN145" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="146" spans="1:40" x14ac:dyDescent="0.2">
@@ -18535,7 +18456,7 @@
         <v>211</v>
       </c>
       <c r="AN146" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="147" spans="1:40" x14ac:dyDescent="0.2">
@@ -18624,7 +18545,7 @@
         <v>0</v>
       </c>
       <c r="AE147" s="4" t="s">
-        <v>429</v>
+        <v>369</v>
       </c>
       <c r="AF147" s="4" t="s">
         <v>44</v>
@@ -18648,10 +18569,10 @@
         <v>11003</v>
       </c>
       <c r="AM147" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AN147" s="4" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="148" spans="1:40" x14ac:dyDescent="0.2">
@@ -18742,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="AE148" s="4" t="s">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="AF148" s="4" t="s">
         <v>44</v>
@@ -18769,7 +18690,7 @@
         <v>212</v>
       </c>
       <c r="AN148" s="4" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
     </row>
     <row r="149" spans="1:40" x14ac:dyDescent="0.2">
@@ -18858,7 +18779,7 @@
         <v>0</v>
       </c>
       <c r="AE149" s="4" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="AF149" s="4" t="s">
         <v>44</v>
@@ -18885,7 +18806,7 @@
         <v>213</v>
       </c>
       <c r="AN149" s="4" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
     </row>
     <row r="150" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -18998,10 +18919,10 @@
         <v>12010</v>
       </c>
       <c r="AM150" s="13" t="s">
-        <v>287</v>
+        <v>477</v>
       </c>
       <c r="AN150" s="4" t="s">
-        <v>432</v>
+        <v>372</v>
       </c>
     </row>
     <row r="151" spans="1:40" x14ac:dyDescent="0.2">
@@ -19114,10 +19035,10 @@
         <v>12010</v>
       </c>
       <c r="AM151" s="4" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="AN151" s="4" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
     </row>
     <row r="152" spans="1:40" x14ac:dyDescent="0.2">
@@ -19230,10 +19151,10 @@
         <v>12010</v>
       </c>
       <c r="AM152" s="4" t="s">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="AN152" s="4" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
     </row>
     <row r="153" spans="1:40" x14ac:dyDescent="0.2">
@@ -19346,10 +19267,10 @@
         <v>12010</v>
       </c>
       <c r="AM153" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="AN153" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154" spans="1:40" x14ac:dyDescent="0.2">
@@ -19462,10 +19383,10 @@
         <v>12010</v>
       </c>
       <c r="AM154" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="AN154" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:40" x14ac:dyDescent="0.2">
@@ -19578,10 +19499,10 @@
         <v>12010</v>
       </c>
       <c r="AM155" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="AN155" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -19694,10 +19615,10 @@
         <v>12010</v>
       </c>
       <c r="AM156" s="13" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="AN156" s="4" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.2">
@@ -19813,7 +19734,7 @@
         <v>211</v>
       </c>
       <c r="AN158" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:40" x14ac:dyDescent="0.2">
@@ -19929,7 +19850,7 @@
         <v>211</v>
       </c>
       <c r="AN159" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.2">
@@ -20045,7 +19966,7 @@
         <v>211</v>
       </c>
       <c r="AN160" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.2">
@@ -20134,7 +20055,7 @@
         <v>0</v>
       </c>
       <c r="AE161" s="4" t="s">
-        <v>439</v>
+        <v>374</v>
       </c>
       <c r="AF161" s="4" t="s">
         <v>44</v>
@@ -20158,10 +20079,10 @@
         <v>11003</v>
       </c>
       <c r="AM161" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AN161" s="4" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="162" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20252,7 +20173,7 @@
         <v>0</v>
       </c>
       <c r="AE162" s="4" t="s">
-        <v>440</v>
+        <v>375</v>
       </c>
       <c r="AF162" s="4" t="s">
         <v>44</v>
@@ -20279,7 +20200,7 @@
         <v>212</v>
       </c>
       <c r="AN162" s="4" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
     </row>
     <row r="163" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20368,7 +20289,7 @@
         <v>0</v>
       </c>
       <c r="AE163" s="4" t="s">
-        <v>441</v>
+        <v>376</v>
       </c>
       <c r="AF163" s="4" t="s">
         <v>44</v>
@@ -20395,7 +20316,7 @@
         <v>213</v>
       </c>
       <c r="AN163" s="4" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
     </row>
     <row r="164" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20484,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="AE164" s="4" t="s">
-        <v>481</v>
+        <v>402</v>
       </c>
       <c r="AF164" s="4" t="s">
         <v>44</v>
@@ -20508,10 +20429,10 @@
         <v>12113</v>
       </c>
       <c r="AM164" s="13" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="AN164" s="4" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
     </row>
     <row r="165" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20600,7 +20521,7 @@
         <v>0</v>
       </c>
       <c r="AE165" s="4" t="s">
-        <v>494</v>
+        <v>415</v>
       </c>
       <c r="AF165" s="4" t="s">
         <v>44</v>
@@ -20624,10 +20545,10 @@
         <v>12113</v>
       </c>
       <c r="AM165" s="4" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="AN165" s="4" t="s">
-        <v>445</v>
+        <v>377</v>
       </c>
     </row>
     <row r="166" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20740,10 +20661,10 @@
         <v>12113</v>
       </c>
       <c r="AM166" s="13" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="AN166" s="4" t="s">
-        <v>447</v>
+        <v>378</v>
       </c>
     </row>
     <row r="167" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20856,10 +20777,10 @@
         <v>12113</v>
       </c>
       <c r="AM167" s="13" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="AN167" s="4" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
     </row>
     <row r="168" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20972,10 +20893,10 @@
         <v>12113</v>
       </c>
       <c r="AM168" s="4" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="AN168" s="4" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
     </row>
     <row r="169" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21088,10 +21009,10 @@
         <v>12113</v>
       </c>
       <c r="AM169" s="4" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="AN169" s="4" t="s">
-        <v>452</v>
+        <v>379</v>
       </c>
     </row>
     <row r="170" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21204,10 +21125,10 @@
         <v>12113</v>
       </c>
       <c r="AM170" s="4" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="AN170" s="4" t="s">
-        <v>454</v>
+        <v>492</v>
       </c>
     </row>
     <row r="171" spans="1:40" x14ac:dyDescent="0.2">
@@ -21320,10 +21241,10 @@
         <v>12113</v>
       </c>
       <c r="AM171" s="4" t="s">
-        <v>455</v>
+        <v>493</v>
       </c>
       <c r="AN171" s="4" t="s">
-        <v>456</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:40" x14ac:dyDescent="0.2">
@@ -21436,10 +21357,10 @@
         <v>12113</v>
       </c>
       <c r="AM172" s="4" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="AN172" s="4" t="s">
-        <v>458</v>
+        <v>496</v>
       </c>
     </row>
     <row r="174" spans="1:40" x14ac:dyDescent="0.2">
@@ -21555,7 +21476,7 @@
         <v>229</v>
       </c>
       <c r="AN174" s="4" t="s">
-        <v>459</v>
+        <v>380</v>
       </c>
     </row>
     <row r="175" spans="1:40" x14ac:dyDescent="0.2">
@@ -21670,7 +21591,7 @@
         <v>13001</v>
       </c>
       <c r="AM175" s="4" t="s">
-        <v>460</v>
+        <v>381</v>
       </c>
       <c r="AN175" s="4" t="s">
         <v>231</v>
@@ -21788,7 +21709,7 @@
         <v>13001</v>
       </c>
       <c r="AM176" s="4" t="s">
-        <v>461</v>
+        <v>382</v>
       </c>
       <c r="AN176" s="4" t="s">
         <v>233</v>
@@ -21906,10 +21827,10 @@
         <v>13003</v>
       </c>
       <c r="AM177" s="4" t="s">
-        <v>462</v>
+        <v>383</v>
       </c>
       <c r="AN177" s="4" t="s">
-        <v>463</v>
+        <v>384</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.2">
@@ -22000,7 +21921,7 @@
         <v>0</v>
       </c>
       <c r="AE178" s="4" t="s">
-        <v>464</v>
+        <v>385</v>
       </c>
       <c r="AF178" s="4" t="s">
         <v>44</v>
@@ -22024,10 +21945,10 @@
         <v>13003</v>
       </c>
       <c r="AM178" s="4" t="s">
-        <v>462</v>
+        <v>383</v>
       </c>
       <c r="AN178" s="4" t="s">
-        <v>463</v>
+        <v>384</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.2">
@@ -22142,10 +22063,10 @@
         <v>13003</v>
       </c>
       <c r="AM179" s="4" t="s">
-        <v>462</v>
+        <v>383</v>
       </c>
       <c r="AN179" s="4" t="s">
-        <v>463</v>
+        <v>384</v>
       </c>
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.2">
@@ -22263,7 +22184,7 @@
         <v>239</v>
       </c>
       <c r="AN180" s="4" t="s">
-        <v>463</v>
+        <v>384</v>
       </c>
     </row>
     <row r="181" spans="1:40" x14ac:dyDescent="0.2">
@@ -22381,7 +22302,7 @@
         <v>239</v>
       </c>
       <c r="AN181" s="4" t="s">
-        <v>463</v>
+        <v>384</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.2">
@@ -22499,7 +22420,7 @@
         <v>239</v>
       </c>
       <c r="AN182" s="4" t="s">
-        <v>463</v>
+        <v>384</v>
       </c>
     </row>
     <row r="183" spans="1:40" x14ac:dyDescent="0.2">
@@ -22617,7 +22538,7 @@
         <v>244</v>
       </c>
       <c r="AN183" s="4" t="s">
-        <v>463</v>
+        <v>384</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.2">
@@ -22735,7 +22656,7 @@
         <v>244</v>
       </c>
       <c r="AN184" s="4" t="s">
-        <v>463</v>
+        <v>384</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.2">
@@ -22853,7 +22774,7 @@
         <v>244</v>
       </c>
       <c r="AN185" s="4" t="s">
-        <v>463</v>
+        <v>384</v>
       </c>
     </row>
     <row r="186" spans="1:40" x14ac:dyDescent="0.2">
@@ -23201,7 +23122,7 @@
         <v>258</v>
       </c>
       <c r="AN188" s="4" t="s">
-        <v>465</v>
+        <v>386</v>
       </c>
     </row>
     <row r="189" spans="1:40" x14ac:dyDescent="0.2">
@@ -23549,7 +23470,7 @@
         <v>258</v>
       </c>
       <c r="AN191" s="4" t="s">
-        <v>465</v>
+        <v>386</v>
       </c>
     </row>
     <row r="192" spans="1:40" x14ac:dyDescent="0.2">
@@ -23662,7 +23583,7 @@
         <v>13000</v>
       </c>
       <c r="AM192" s="4" t="s">
-        <v>466</v>
+        <v>387</v>
       </c>
       <c r="AN192" s="4" t="s">
         <v>264</v>
@@ -24009,7 +23930,7 @@
         <v>14003</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>497</v>
+        <v>418</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3D72E5-85AC-4066-A04B-F8FDA3D17F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021C1770-9950-43AB-A2E7-E47F2AF4108B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="6225" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="5595" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -812,10 +812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[411000,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[411010]</t>
   </si>
   <si>
@@ -826,9 +822,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[412000,400070]</t>
-  </si>
-  <si>
     <t>[412010]</t>
   </si>
   <si>
@@ -928,16 +921,9 @@
     <t>[413230]</t>
   </si>
   <si>
-    <t>[414000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[414020]</t>
   </si>
   <si>
-    <t>[415000,400070]</t>
-  </si>
-  <si>
     <t>[415010]</t>
   </si>
   <si>
@@ -1014,9 +1000,6 @@
     <t>[415180]</t>
   </si>
   <si>
-    <t>[416000,400070]</t>
-  </si>
-  <si>
     <t>[416010]</t>
   </si>
   <si>
@@ -1051,9 +1034,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[417000,400070]</t>
-  </si>
-  <si>
     <t>[417010]</t>
   </si>
   <si>
@@ -1100,9 +1080,6 @@
     <t>[417150]</t>
   </si>
   <si>
-    <t>[418000,400070]</t>
-  </si>
-  <si>
     <t>[418010]</t>
   </si>
   <si>
@@ -1137,9 +1114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[419000,400070]</t>
-  </si>
-  <si>
     <t>[419010]</t>
   </si>
   <si>
@@ -1182,9 +1156,6 @@
     <t>[419150]</t>
   </si>
   <si>
-    <t>[420000,400070]</t>
-  </si>
-  <si>
     <t>[420010]</t>
   </si>
   <si>
@@ -1249,9 +1220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[421000,400070]</t>
-  </si>
-  <si>
     <t>[421010]</t>
   </si>
   <si>
@@ -1294,10 +1262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[414010,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[410000]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1314,18 +1278,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[440030]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1480,9 +1436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[430000,400070]</t>
-  </si>
-  <si>
     <t>猫咪凯修参与行动，获得“猫咪入住”能力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1808,10 +1761,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[413000,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[413010]</t>
   </si>
   <si>
@@ -1875,10 +1824,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收养一只猫咪，猫咪隐匿度提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[414040,414041,459002]</t>
   </si>
   <si>
@@ -2100,30 +2045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[410100,410102,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410100,410101,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410110,410102,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410110,410101,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410120,410102,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[410120,410101,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结果@4.id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2173,14 +2094,6 @@
   </si>
   <si>
     <t>[413040,413041,459002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413100,413101,400070]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[413200,413201,400070]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2479,6 +2392,81 @@
   </si>
   <si>
     <t>乞丐款待猫咪，影响力提升</t>
+  </si>
+  <si>
+    <t>1号-跳过序幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3号-神启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[414000,414001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[410100,410102,459010]</t>
+  </si>
+  <si>
+    <t>[410100,410101,459010]</t>
+  </si>
+  <si>
+    <t>[410110,410102,459010]</t>
+  </si>
+  <si>
+    <t>[410110,410101,459010]</t>
+  </si>
+  <si>
+    <t>[410120,410102,459010]</t>
+  </si>
+  <si>
+    <t>[410120,410101,459010]</t>
+  </si>
+  <si>
+    <t>[411000,459010]</t>
+  </si>
+  <si>
+    <t>[412000,459010]</t>
+  </si>
+  <si>
+    <t>[413000,459010]</t>
+  </si>
+  <si>
+    <t>[413100,413101,459010]</t>
+  </si>
+  <si>
+    <t>[413200,413201,459010]</t>
+  </si>
+  <si>
+    <t>[414010,459010]</t>
+  </si>
+  <si>
+    <t>[415000,459010]</t>
+  </si>
+  <si>
+    <t>[416000,459010]</t>
+  </si>
+  <si>
+    <t>[417000,459010]</t>
+  </si>
+  <si>
+    <t>[418000,459010]</t>
+  </si>
+  <si>
+    <t>[419000,459010]</t>
+  </si>
+  <si>
+    <t>[420000,459010]</t>
+  </si>
+  <si>
+    <t>[421000,459010]</t>
+  </si>
+  <si>
+    <t>[430000,459010]</t>
+  </si>
+  <si>
+    <t>花费20货币，令人类收养一只猫咪，隐匿度提升</t>
   </si>
 </sst>
 </file>
@@ -2945,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC185" workbookViewId="0">
-      <selection activeCell="AM174" sqref="AM174:AN192"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3026,16 +3014,16 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -3163,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AG2" s="4" t="s">
         <v>44</v>
@@ -3187,10 +3175,10 @@
         <v>10000</v>
       </c>
       <c r="AM2" s="13" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3279,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>44</v>
@@ -3303,10 +3291,10 @@
         <v>10007</v>
       </c>
       <c r="AM3" s="13" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3395,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="AF4" s="4" t="s">
         <v>44</v>
@@ -3419,10 +3407,10 @@
         <v>10007</v>
       </c>
       <c r="AM4" s="13" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3511,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AF5" s="4" t="s">
         <v>44</v>
@@ -3535,10 +3523,10 @@
         <v>10007</v>
       </c>
       <c r="AM5" s="13" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3546,7 +3534,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -3627,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>44</v>
@@ -3651,10 +3639,10 @@
         <v>11310</v>
       </c>
       <c r="AM6" s="13" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
@@ -3743,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>44</v>
@@ -3767,10 +3755,10 @@
         <v>10007</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -3859,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>44</v>
@@ -3883,10 +3871,10 @@
         <v>10007</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3975,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="AF9" s="4" t="s">
         <v>44</v>
@@ -3999,10 +3987,10 @@
         <v>10007</v>
       </c>
       <c r="AM9" s="13" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
@@ -4010,7 +3998,7 @@
         <v>10100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -4091,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="AF11" s="4" t="s">
         <v>44</v>
@@ -4115,10 +4103,10 @@
         <v>10105</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -4126,7 +4114,7 @@
         <v>10101</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -4207,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="AF12" s="4" t="s">
         <v>44</v>
@@ -4231,10 +4219,10 @@
         <v>10105</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
@@ -4242,7 +4230,7 @@
         <v>10102</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -4323,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="AF13" s="4" t="s">
         <v>44</v>
@@ -4347,10 +4335,10 @@
         <v>10105</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
@@ -4358,7 +4346,7 @@
         <v>10103</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -4439,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="AF14" s="4" t="s">
         <v>44</v>
@@ -4463,10 +4451,10 @@
         <v>10105</v>
       </c>
       <c r="AM14" s="4" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
@@ -4474,7 +4462,7 @@
         <v>10104</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
@@ -4555,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="AF15" s="4" t="s">
         <v>44</v>
@@ -4579,10 +4567,10 @@
         <v>10105</v>
       </c>
       <c r="AM15" s="4" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
@@ -4590,7 +4578,7 @@
         <v>10105</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
@@ -4671,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AF16" s="4" t="s">
         <v>44</v>
@@ -4695,10 +4683,10 @@
         <v>10105</v>
       </c>
       <c r="AM16" s="4" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4706,7 +4694,7 @@
         <v>10200</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -4787,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="AF18" s="4" t="s">
         <v>44</v>
@@ -4811,10 +4799,10 @@
         <v>10200</v>
       </c>
       <c r="AM18" s="13" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
@@ -4822,7 +4810,7 @@
         <v>10201</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -4903,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AF19" s="4" t="s">
         <v>44</v>
@@ -4927,10 +4915,10 @@
         <v>10200</v>
       </c>
       <c r="AM19" s="4" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="AN19" s="4" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4938,7 +4926,7 @@
         <v>10202</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -5019,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="AF20" s="4" t="s">
         <v>44</v>
@@ -5043,10 +5031,10 @@
         <v>10200</v>
       </c>
       <c r="AM20" s="13" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5054,7 +5042,7 @@
         <v>10203</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -5135,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="AF21" s="4" t="s">
         <v>44</v>
@@ -5159,10 +5147,10 @@
         <v>10200</v>
       </c>
       <c r="AM21" s="13" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="AN21" s="4" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
@@ -5251,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="AF23" s="4" t="s">
         <v>44</v>
@@ -5275,10 +5263,10 @@
         <v>11000</v>
       </c>
       <c r="AM23" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN23" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
@@ -5367,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AF24" s="4" t="s">
         <v>44</v>
@@ -5391,10 +5379,10 @@
         <v>11000</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
@@ -5483,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AF25" s="4" t="s">
         <v>44</v>
@@ -5507,10 +5495,10 @@
         <v>11000</v>
       </c>
       <c r="AM25" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -5599,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AF26" s="4" t="s">
         <v>44</v>
@@ -5623,10 +5611,10 @@
         <v>11003</v>
       </c>
       <c r="AM26" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -5715,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AF27" s="4" t="s">
         <v>44</v>
@@ -5742,7 +5730,7 @@
         <v>47</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -5831,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="AF28" s="4" t="s">
         <v>44</v>
@@ -5855,10 +5843,10 @@
         <v>11005</v>
       </c>
       <c r="AM28" s="4" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="AN28" s="4" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -5947,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>390</v>
+        <v>476</v>
       </c>
       <c r="AF29" s="4" t="s">
         <v>44</v>
@@ -5971,7 +5959,7 @@
         <v>11010</v>
       </c>
       <c r="AM29" s="4" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="AN29" s="4" t="s">
         <v>50</v>
@@ -6063,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>391</v>
+        <v>477</v>
       </c>
       <c r="AF30" s="4" t="s">
         <v>44</v>
@@ -6087,7 +6075,7 @@
         <v>11010</v>
       </c>
       <c r="AM30" s="4" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="AN30" s="4" t="s">
         <v>50</v>
@@ -6179,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>392</v>
+        <v>478</v>
       </c>
       <c r="AF31" s="4" t="s">
         <v>44</v>
@@ -6203,7 +6191,7 @@
         <v>11010</v>
       </c>
       <c r="AM31" s="4" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="AN31" s="4" t="s">
         <v>50</v>
@@ -6295,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>393</v>
+        <v>479</v>
       </c>
       <c r="AF32" s="4" t="s">
         <v>44</v>
@@ -6319,7 +6307,7 @@
         <v>11010</v>
       </c>
       <c r="AM32" s="4" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="AN32" s="4" t="s">
         <v>50</v>
@@ -6411,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>394</v>
+        <v>480</v>
       </c>
       <c r="AF33" s="4" t="s">
         <v>44</v>
@@ -6435,7 +6423,7 @@
         <v>11010</v>
       </c>
       <c r="AM33" s="4" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="AN33" s="4" t="s">
         <v>50</v>
@@ -6527,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>395</v>
+        <v>481</v>
       </c>
       <c r="AF34" s="4" t="s">
         <v>44</v>
@@ -6551,7 +6539,7 @@
         <v>11010</v>
       </c>
       <c r="AM34" s="4" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="AN34" s="4" t="s">
         <v>50</v>
@@ -6643,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="AE36" s="4" t="s">
-        <v>51</v>
+        <v>482</v>
       </c>
       <c r="AF36" s="4" t="s">
         <v>44</v>
@@ -6667,10 +6655,10 @@
         <v>11000</v>
       </c>
       <c r="AM36" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN36" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -6759,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF37" s="4" t="s">
         <v>44</v>
@@ -6783,10 +6771,10 @@
         <v>11000</v>
       </c>
       <c r="AM37" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN37" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -6875,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF38" s="4" t="s">
         <v>44</v>
@@ -6899,10 +6887,10 @@
         <v>11000</v>
       </c>
       <c r="AM38" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN38" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
@@ -6991,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AF39" s="4" t="s">
         <v>44</v>
@@ -7015,10 +7003,10 @@
         <v>11003</v>
       </c>
       <c r="AM39" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AN39" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
@@ -7107,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AF40" s="4" t="s">
         <v>44</v>
@@ -7131,10 +7119,10 @@
         <v>11004</v>
       </c>
       <c r="AM40" s="4" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AN40" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
@@ -7223,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AF41" s="4" t="s">
         <v>44</v>
@@ -7247,10 +7235,10 @@
         <v>11005</v>
       </c>
       <c r="AM41" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AN41" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
@@ -7258,7 +7246,7 @@
         <v>11106</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="4">
         <v>3</v>
@@ -7339,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="AE42" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF42" s="4" t="s">
         <v>44</v>
@@ -7363,10 +7351,10 @@
         <v>13001</v>
       </c>
       <c r="AM42" s="14" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="AN42" s="4" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -7455,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="4" t="s">
-        <v>55</v>
+        <v>483</v>
       </c>
       <c r="AF44" s="4" t="s">
         <v>44</v>
@@ -7479,10 +7467,10 @@
         <v>11000</v>
       </c>
       <c r="AM44" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN44" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -7571,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="AE45" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AF45" s="4" t="s">
         <v>44</v>
@@ -7595,10 +7583,10 @@
         <v>11000</v>
       </c>
       <c r="AM45" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN45" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -7687,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="AE46" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AF46" s="4" t="s">
         <v>44</v>
@@ -7711,10 +7699,10 @@
         <v>11000</v>
       </c>
       <c r="AM46" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN46" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
@@ -7803,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="4" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="AF47" s="4" t="s">
         <v>44</v>
@@ -7827,10 +7815,10 @@
         <v>11003</v>
       </c>
       <c r="AM47" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AN47" s="4" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
@@ -7921,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="4" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="AF48" s="4" t="s">
         <v>44</v>
@@ -7945,10 +7933,10 @@
         <v>11004</v>
       </c>
       <c r="AM48" s="4" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="AN48" s="4" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8037,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AF49" s="4" t="s">
         <v>44</v>
@@ -8061,10 +8049,10 @@
         <v>11005</v>
       </c>
       <c r="AM49" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8072,7 +8060,7 @@
         <v>11210</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -8153,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="AE50" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF50" s="4" t="s">
         <v>44</v>
@@ -8177,10 +8165,10 @@
         <v>11210</v>
       </c>
       <c r="AM50" s="13" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="AN50" s="4" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8188,7 +8176,7 @@
         <v>11211</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="4">
         <v>3</v>
@@ -8271,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="AE51" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF51" s="4" t="s">
         <v>44</v>
@@ -8295,10 +8283,10 @@
         <v>11210</v>
       </c>
       <c r="AM51" s="13" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="AN51" s="4" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8306,7 +8294,7 @@
         <v>11212</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -8387,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="AE52" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF52" s="4" t="s">
         <v>44</v>
@@ -8411,10 +8399,10 @@
         <v>11210</v>
       </c>
       <c r="AM52" s="13" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="AN52" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8422,7 +8410,7 @@
         <v>11213</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="4">
         <v>2</v>
@@ -8503,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AE53" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF53" s="4" t="s">
         <v>44</v>
@@ -8512,7 +8500,7 @@
         <v>44</v>
       </c>
       <c r="AH53" s="4" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="AI53" s="4" t="s">
         <v>44</v>
@@ -8527,10 +8515,10 @@
         <v>11210</v>
       </c>
       <c r="AM53" s="13" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="AN53" s="4" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8538,7 +8526,7 @@
         <v>11214</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
@@ -8619,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="AE54" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AF54" s="4" t="s">
         <v>44</v>
@@ -8643,10 +8631,10 @@
         <v>11210</v>
       </c>
       <c r="AM54" s="13" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="AN54" s="4" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8654,7 +8642,7 @@
         <v>11215</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="4">
         <v>2</v>
@@ -8735,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="4" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="AF55" s="4" t="s">
         <v>44</v>
@@ -8759,10 +8747,10 @@
         <v>11210</v>
       </c>
       <c r="AM55" s="13" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="AN55" s="4" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
@@ -8851,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="4" t="s">
-        <v>314</v>
+        <v>484</v>
       </c>
       <c r="AF57" s="4" t="s">
         <v>44</v>
@@ -8875,10 +8863,10 @@
         <v>11000</v>
       </c>
       <c r="AM57" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN57" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.2">
@@ -8967,7 +8955,7 @@
         <v>0</v>
       </c>
       <c r="AE58" s="4" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="AF58" s="4" t="s">
         <v>44</v>
@@ -8991,10 +8979,10 @@
         <v>11000</v>
       </c>
       <c r="AM58" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN58" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
@@ -9083,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="AE59" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AF59" s="4" t="s">
         <v>44</v>
@@ -9107,10 +9095,10 @@
         <v>11000</v>
       </c>
       <c r="AM59" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN59" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.2">
@@ -9199,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="AF60" s="4" t="s">
         <v>44</v>
@@ -9223,10 +9211,10 @@
         <v>11003</v>
       </c>
       <c r="AM60" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AN60" s="4" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.2">
@@ -9317,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="4" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="AF61" s="4" t="s">
         <v>44</v>
@@ -9341,10 +9329,10 @@
         <v>11004</v>
       </c>
       <c r="AM61" s="4" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="AN61" s="4" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.2">
@@ -9433,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="4" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="AF62" s="4" t="s">
         <v>44</v>
@@ -9457,10 +9445,10 @@
         <v>11005</v>
       </c>
       <c r="AM62" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AN62" s="4" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
@@ -9468,7 +9456,7 @@
         <v>11310</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C63" s="4">
         <v>2</v>
@@ -9549,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="AE63" s="4" t="s">
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="AF63" s="4" t="s">
         <v>44</v>
@@ -9573,10 +9561,10 @@
         <v>11310</v>
       </c>
       <c r="AM63" s="4" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="AN63" s="4" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
@@ -9584,7 +9572,7 @@
         <v>11311</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C64" s="4">
         <v>3</v>
@@ -9665,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AF64" s="4" t="s">
         <v>44</v>
@@ -9689,10 +9677,10 @@
         <v>11310</v>
       </c>
       <c r="AM64" s="4" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="AN64" s="4" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.2">
@@ -9700,7 +9688,7 @@
         <v>11312</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
@@ -9785,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="4" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="AF65" s="4" t="s">
         <v>44</v>
@@ -9809,10 +9797,10 @@
         <v>11310</v>
       </c>
       <c r="AM65" s="4" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="AN65" s="4" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.2">
@@ -9820,7 +9808,7 @@
         <v>11313</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
@@ -9901,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="AE66" s="4" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="AF66" s="4" t="s">
         <v>44</v>
@@ -9925,10 +9913,10 @@
         <v>11310</v>
       </c>
       <c r="AM66" s="4" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="AN66" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.2">
@@ -9936,7 +9924,7 @@
         <v>11314</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
@@ -10017,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="4" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="AF67" s="4" t="s">
         <v>44</v>
@@ -10026,7 +10014,7 @@
         <v>44</v>
       </c>
       <c r="AH67" s="4" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="AI67" s="4" t="s">
         <v>44</v>
@@ -10041,10 +10029,10 @@
         <v>11310</v>
       </c>
       <c r="AM67" s="4" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="AN67" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.2">
@@ -10052,7 +10040,7 @@
         <v>11315</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C68" s="4">
         <v>2</v>
@@ -10133,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="4" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="AF68" s="4" t="s">
         <v>44</v>
@@ -10157,10 +10145,10 @@
         <v>11310</v>
       </c>
       <c r="AM68" s="4" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="AN68" s="4" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.2">
@@ -10168,7 +10156,7 @@
         <v>11316</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C69" s="4">
         <v>3</v>
@@ -10249,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="AE69" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="AF69" s="4" t="s">
         <v>44</v>
@@ -10273,10 +10261,10 @@
         <v>11310</v>
       </c>
       <c r="AM69" s="4" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="AN69" s="4" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.2">
@@ -10284,7 +10272,7 @@
         <v>11320</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C70" s="4">
         <v>3</v>
@@ -10365,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="AE70" s="4" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="AF70" s="4" t="s">
         <v>44</v>
@@ -10389,10 +10377,10 @@
         <v>11310</v>
       </c>
       <c r="AM70" s="4" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="AN70" s="4" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.2">
@@ -10400,7 +10388,7 @@
         <v>11321</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C71" s="4">
         <v>3</v>
@@ -10481,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="AE71" s="4" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="AF71" s="4" t="s">
         <v>44</v>
@@ -10505,10 +10493,10 @@
         <v>11310</v>
       </c>
       <c r="AM71" s="4" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="AN71" s="4" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.2">
@@ -10516,7 +10504,7 @@
         <v>11322</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C72" s="4">
         <v>2</v>
@@ -10597,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="AE72" s="4" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="AF72" s="4" t="s">
         <v>44</v>
@@ -10621,10 +10609,10 @@
         <v>11310</v>
       </c>
       <c r="AM72" s="4" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="AN72" s="4" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.2">
@@ -10632,7 +10620,7 @@
         <v>11323</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C73" s="4">
         <v>3</v>
@@ -10713,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="AE73" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AF73" s="4" t="s">
         <v>44</v>
@@ -10737,10 +10725,10 @@
         <v>11310</v>
       </c>
       <c r="AM73" s="4" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="AN73" s="4" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.2">
@@ -10829,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="AE75" s="4" t="s">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="AF75" s="4" t="s">
         <v>44</v>
@@ -10853,10 +10841,10 @@
         <v>11000</v>
       </c>
       <c r="AM75" s="4" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="AN75" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.2">
@@ -10945,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="AE76" s="4" t="s">
-        <v>182</v>
+        <v>487</v>
       </c>
       <c r="AF76" s="4" t="s">
         <v>44</v>
@@ -10969,10 +10957,10 @@
         <v>11000</v>
       </c>
       <c r="AM76" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN76" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.2">
@@ -11061,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="AE77" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AF77" s="4" t="s">
         <v>44</v>
@@ -11085,10 +11073,10 @@
         <v>11000</v>
       </c>
       <c r="AM77" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN77" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.2">
@@ -11177,7 +11165,7 @@
         <v>0</v>
       </c>
       <c r="AE78" s="4" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="AF78" s="4" t="s">
         <v>44</v>
@@ -11201,10 +11189,10 @@
         <v>11003</v>
       </c>
       <c r="AM78" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AN78" s="4" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.2">
@@ -11295,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="AE79" s="4" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AF79" s="4" t="s">
         <v>44</v>
@@ -11319,10 +11307,10 @@
         <v>11004</v>
       </c>
       <c r="AM79" s="4" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AN79" s="4" t="s">
-        <v>331</v>
+        <v>496</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.2">
@@ -11411,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AE80" s="4" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="AF80" s="4" t="s">
         <v>44</v>
@@ -11435,10 +11423,10 @@
         <v>11005</v>
       </c>
       <c r="AM80" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AN80" s="4" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.2">
@@ -11527,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="AE82" s="4" t="s">
-        <v>84</v>
+        <v>488</v>
       </c>
       <c r="AF82" s="4" t="s">
         <v>44</v>
@@ -11551,10 +11539,10 @@
         <v>11000</v>
       </c>
       <c r="AM82" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN82" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.2">
@@ -11643,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="AE83" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AF83" s="4" t="s">
         <v>44</v>
@@ -11667,10 +11655,10 @@
         <v>11000</v>
       </c>
       <c r="AM83" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN83" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11759,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="AE84" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF84" s="4" t="s">
         <v>44</v>
@@ -11783,10 +11771,10 @@
         <v>11000</v>
       </c>
       <c r="AM84" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN84" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11875,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="AE85" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="AF85" s="4" t="s">
         <v>44</v>
@@ -11899,10 +11887,10 @@
         <v>11003</v>
       </c>
       <c r="AM85" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AN85" s="4" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.2">
@@ -11993,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="AE86" s="4" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="AF86" s="4" t="s">
         <v>44</v>
@@ -12017,10 +12005,10 @@
         <v>11004</v>
       </c>
       <c r="AM86" s="4" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AN86" s="4" t="s">
-        <v>331</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.2">
@@ -12109,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="AE87" s="4" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="AF87" s="4" t="s">
         <v>44</v>
@@ -12133,10 +12121,10 @@
         <v>11005</v>
       </c>
       <c r="AM87" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AN87" s="4" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12144,7 +12132,7 @@
         <v>11510</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -12225,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="AE88" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AF88" s="4" t="s">
         <v>44</v>
@@ -12249,10 +12237,10 @@
         <v>11510</v>
       </c>
       <c r="AM88" s="13" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="AN88" s="4" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12260,7 +12248,7 @@
         <v>11511</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -12341,7 +12329,7 @@
         <v>0</v>
       </c>
       <c r="AE89" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AF89" s="4" t="s">
         <v>44</v>
@@ -12365,10 +12353,10 @@
         <v>11510</v>
       </c>
       <c r="AM89" s="13" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="AN89" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.2">
@@ -12376,7 +12364,7 @@
         <v>11512</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -12457,7 +12445,7 @@
         <v>0</v>
       </c>
       <c r="AE90" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AF90" s="4" t="s">
         <v>44</v>
@@ -12466,7 +12454,7 @@
         <v>44</v>
       </c>
       <c r="AH90" s="4" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="AI90" s="4" t="s">
         <v>44</v>
@@ -12481,10 +12469,10 @@
         <v>11510</v>
       </c>
       <c r="AM90" s="4" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="AN90" s="4" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.2">
@@ -12492,7 +12480,7 @@
         <v>11513</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -12573,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="AE91" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AF91" s="4" t="s">
         <v>44</v>
@@ -12582,7 +12570,7 @@
         <v>44</v>
       </c>
       <c r="AH91" s="4" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="AI91" s="4" t="s">
         <v>44</v>
@@ -12597,10 +12585,10 @@
         <v>11510</v>
       </c>
       <c r="AM91" s="4" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="AN91" s="4" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.2">
@@ -12608,7 +12596,7 @@
         <v>11514</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
@@ -12689,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="AE92" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AF92" s="4" t="s">
         <v>44</v>
@@ -12713,10 +12701,10 @@
         <v>11510</v>
       </c>
       <c r="AM92" s="4" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AN92" s="4" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.2">
@@ -12724,7 +12712,7 @@
         <v>11515</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -12805,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="AE93" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AF93" s="4" t="s">
         <v>44</v>
@@ -12829,10 +12817,10 @@
         <v>11510</v>
       </c>
       <c r="AM93" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="AN93" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.2">
@@ -12840,7 +12828,7 @@
         <v>11516</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C94" s="4">
         <v>1</v>
@@ -12921,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="AE94" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AF94" s="4" t="s">
         <v>44</v>
@@ -12945,10 +12933,10 @@
         <v>11510</v>
       </c>
       <c r="AM94" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="AN94" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.2">
@@ -12956,7 +12944,7 @@
         <v>11517</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -13037,7 +13025,7 @@
         <v>0</v>
       </c>
       <c r="AE95" s="4" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="AF95" s="4" t="s">
         <v>44</v>
@@ -13061,10 +13049,10 @@
         <v>11510</v>
       </c>
       <c r="AM95" s="4" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="AN95" s="4" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.2">
@@ -13072,7 +13060,7 @@
         <v>11518</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -13153,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="AE96" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AF96" s="4" t="s">
         <v>44</v>
@@ -13177,10 +13165,10 @@
         <v>11510</v>
       </c>
       <c r="AM96" s="4" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="AN96" s="4" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.2">
@@ -13269,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="AE98" s="4" t="s">
-        <v>105</v>
+        <v>489</v>
       </c>
       <c r="AF98" s="4" t="s">
         <v>44</v>
@@ -13293,10 +13281,10 @@
         <v>11000</v>
       </c>
       <c r="AM98" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN98" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.2">
@@ -13385,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="AE99" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AF99" s="4" t="s">
         <v>44</v>
@@ -13409,10 +13397,10 @@
         <v>11000</v>
       </c>
       <c r="AM99" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN99" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.2">
@@ -13501,7 +13489,7 @@
         <v>0</v>
       </c>
       <c r="AE100" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AF100" s="4" t="s">
         <v>44</v>
@@ -13525,10 +13513,10 @@
         <v>11000</v>
       </c>
       <c r="AM100" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN100" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.2">
@@ -13617,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="AE101" s="4" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="AF101" s="4" t="s">
         <v>44</v>
@@ -13641,10 +13629,10 @@
         <v>11003</v>
       </c>
       <c r="AM101" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AN101" s="4" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.2">
@@ -13735,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="AE102" s="4" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="AF102" s="4" t="s">
         <v>44</v>
@@ -13759,10 +13747,10 @@
         <v>11004</v>
       </c>
       <c r="AM102" s="4" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AN102" s="4" t="s">
-        <v>331</v>
+        <v>496</v>
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.2">
@@ -13851,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="AE103" s="4" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="AF103" s="4" t="s">
         <v>44</v>
@@ -13875,10 +13863,10 @@
         <v>11005</v>
       </c>
       <c r="AM103" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AN103" s="4" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -13886,7 +13874,7 @@
         <v>11610</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C104" s="4">
         <v>3</v>
@@ -13967,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="AE104" s="4" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="AF104" s="4" t="s">
         <v>44</v>
@@ -13991,10 +13979,10 @@
         <v>11610</v>
       </c>
       <c r="AM104" s="13" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="AN104" s="4" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14002,7 +13990,7 @@
         <v>11611</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C105" s="4">
         <v>1</v>
@@ -14083,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="AE105" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AF105" s="4" t="s">
         <v>44</v>
@@ -14107,10 +14095,10 @@
         <v>11610</v>
       </c>
       <c r="AM105" s="13" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="AN105" s="4" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -14118,7 +14106,7 @@
         <v>11612</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C106" s="4">
         <v>2</v>
@@ -14199,7 +14187,7 @@
         <v>0</v>
       </c>
       <c r="AE106" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AF106" s="4" t="s">
         <v>44</v>
@@ -14223,10 +14211,10 @@
         <v>11610</v>
       </c>
       <c r="AM106" s="13" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="AN106" s="4" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.2">
@@ -14234,7 +14222,7 @@
         <v>11613</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C107" s="4">
         <v>3</v>
@@ -14315,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="AE107" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AF107" s="4" t="s">
         <v>44</v>
@@ -14324,10 +14312,10 @@
         <v>44</v>
       </c>
       <c r="AH107" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AI107" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AJ107" s="4" t="s">
         <v>44</v>
@@ -14339,10 +14327,10 @@
         <v>11610</v>
       </c>
       <c r="AM107" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="AN107" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.2">
@@ -14431,7 +14419,7 @@
         <v>0</v>
       </c>
       <c r="AE109" s="4" t="s">
-        <v>115</v>
+        <v>490</v>
       </c>
       <c r="AF109" s="4" t="s">
         <v>44</v>
@@ -14455,10 +14443,10 @@
         <v>11000</v>
       </c>
       <c r="AM109" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN109" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.2">
@@ -14547,7 +14535,7 @@
         <v>0</v>
       </c>
       <c r="AE110" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AF110" s="4" t="s">
         <v>44</v>
@@ -14571,10 +14559,10 @@
         <v>11000</v>
       </c>
       <c r="AM110" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN110" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.2">
@@ -14663,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="AE111" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF111" s="4" t="s">
         <v>44</v>
@@ -14687,10 +14675,10 @@
         <v>11000</v>
       </c>
       <c r="AM111" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN111" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.2">
@@ -14779,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="AE112" s="4" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="AF112" s="4" t="s">
         <v>44</v>
@@ -14803,10 +14791,10 @@
         <v>11003</v>
       </c>
       <c r="AM112" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AN112" s="4" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="113" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14897,7 +14885,7 @@
         <v>0</v>
       </c>
       <c r="AE113" s="4" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="AF113" s="4" t="s">
         <v>44</v>
@@ -14921,10 +14909,10 @@
         <v>11004</v>
       </c>
       <c r="AM113" s="4" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AN113" s="4" t="s">
-        <v>331</v>
+        <v>496</v>
       </c>
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.2">
@@ -15013,7 +15001,7 @@
         <v>0</v>
       </c>
       <c r="AE114" s="4" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="AF114" s="4" t="s">
         <v>44</v>
@@ -15037,10 +15025,10 @@
         <v>11005</v>
       </c>
       <c r="AM114" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AN114" s="4" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15048,7 +15036,7 @@
         <v>11710</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
@@ -15129,7 +15117,7 @@
         <v>0</v>
       </c>
       <c r="AE115" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AF115" s="4" t="s">
         <v>44</v>
@@ -15153,10 +15141,10 @@
         <v>11710</v>
       </c>
       <c r="AM115" s="13" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="AN115" s="4" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.2">
@@ -15164,7 +15152,7 @@
         <v>11711</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -15245,7 +15233,7 @@
         <v>0</v>
       </c>
       <c r="AE116" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AF116" s="4" t="s">
         <v>44</v>
@@ -15269,10 +15257,10 @@
         <v>11710</v>
       </c>
       <c r="AM116" s="4" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="AN116" s="4" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15280,7 +15268,7 @@
         <v>11712</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C117" s="4">
         <v>3</v>
@@ -15361,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="AE117" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AF117" s="4" t="s">
         <v>44</v>
@@ -15385,10 +15373,10 @@
         <v>11710</v>
       </c>
       <c r="AM117" s="13" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="AN117" s="4" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15396,7 +15384,7 @@
         <v>11713</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C118" s="4">
         <v>1</v>
@@ -15481,7 +15469,7 @@
         <v>0</v>
       </c>
       <c r="AE118" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AF118" s="4" t="s">
         <v>44</v>
@@ -15505,10 +15493,10 @@
         <v>11710</v>
       </c>
       <c r="AM118" s="13" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="AN118" s="4" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15516,7 +15504,7 @@
         <v>11714</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -15597,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="AE119" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AF119" s="4" t="s">
         <v>44</v>
@@ -15621,10 +15609,10 @@
         <v>11710</v>
       </c>
       <c r="AM119" s="13" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="AN119" s="4" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15632,7 +15620,7 @@
         <v>11715</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C120" s="4">
         <v>3</v>
@@ -15713,10 +15701,10 @@
         <v>0</v>
       </c>
       <c r="AE120" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF120" s="4" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="AG120" s="4" t="s">
         <v>44</v>
@@ -15737,10 +15725,10 @@
         <v>11710</v>
       </c>
       <c r="AM120" s="13" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="AN120" s="4" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="122" spans="1:40" x14ac:dyDescent="0.2">
@@ -15829,7 +15817,7 @@
         <v>0</v>
       </c>
       <c r="AE122" s="4" t="s">
-        <v>129</v>
+        <v>491</v>
       </c>
       <c r="AF122" s="4" t="s">
         <v>44</v>
@@ -15853,10 +15841,10 @@
         <v>11000</v>
       </c>
       <c r="AM122" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN122" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.2">
@@ -15945,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="AE123" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AF123" s="4" t="s">
         <v>44</v>
@@ -15969,10 +15957,10 @@
         <v>11000</v>
       </c>
       <c r="AM123" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN123" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.2">
@@ -16061,7 +16049,7 @@
         <v>0</v>
       </c>
       <c r="AE124" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AF124" s="4" t="s">
         <v>44</v>
@@ -16085,10 +16073,10 @@
         <v>11000</v>
       </c>
       <c r="AM124" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN124" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16177,7 +16165,7 @@
         <v>0</v>
       </c>
       <c r="AE125" s="4" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="AF125" s="4" t="s">
         <v>44</v>
@@ -16201,10 +16189,10 @@
         <v>11003</v>
       </c>
       <c r="AM125" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AN125" s="4" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.2">
@@ -16295,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="AE126" s="4" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="AF126" s="4" t="s">
         <v>44</v>
@@ -16319,10 +16307,10 @@
         <v>11004</v>
       </c>
       <c r="AM126" s="4" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AN126" s="4" t="s">
-        <v>331</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:40" x14ac:dyDescent="0.2">
@@ -16411,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="AE127" s="4" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="AF127" s="4" t="s">
         <v>44</v>
@@ -16435,10 +16423,10 @@
         <v>11005</v>
       </c>
       <c r="AM127" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AN127" s="4" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.2">
@@ -16446,7 +16434,7 @@
         <v>11810</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C128" s="4">
         <v>0</v>
@@ -16527,7 +16515,7 @@
         <v>0</v>
       </c>
       <c r="AE128" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AF128" s="4" t="s">
         <v>44</v>
@@ -16551,10 +16539,10 @@
         <v>10000</v>
       </c>
       <c r="AM128" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="AN128" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:40" x14ac:dyDescent="0.2">
@@ -16562,7 +16550,7 @@
         <v>11811</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -16615,19 +16603,19 @@
         <v>318110</v>
       </c>
       <c r="U129" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="V129" s="7">
         <v>318111</v>
       </c>
       <c r="W129" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="X129" s="7">
         <v>318112</v>
       </c>
       <c r="Y129" s="7" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="Z129" s="7">
         <v>318113</v>
@@ -16645,7 +16633,7 @@
         <v>0</v>
       </c>
       <c r="AE129" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AF129" s="4" t="s">
         <v>44</v>
@@ -16669,10 +16657,10 @@
         <v>11811</v>
       </c>
       <c r="AM129" s="4" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="AN129" s="4" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="131" spans="1:40" x14ac:dyDescent="0.2">
@@ -16761,7 +16749,7 @@
         <v>0</v>
       </c>
       <c r="AE131" s="4" t="s">
-        <v>139</v>
+        <v>492</v>
       </c>
       <c r="AF131" s="4" t="s">
         <v>44</v>
@@ -16785,10 +16773,10 @@
         <v>11000</v>
       </c>
       <c r="AM131" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN131" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:40" x14ac:dyDescent="0.2">
@@ -16877,7 +16865,7 @@
         <v>0</v>
       </c>
       <c r="AE132" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AF132" s="4" t="s">
         <v>44</v>
@@ -16901,10 +16889,10 @@
         <v>11000</v>
       </c>
       <c r="AM132" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN132" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="133" spans="1:40" x14ac:dyDescent="0.2">
@@ -16993,7 +16981,7 @@
         <v>0</v>
       </c>
       <c r="AE133" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AF133" s="4" t="s">
         <v>44</v>
@@ -17017,10 +17005,10 @@
         <v>11000</v>
       </c>
       <c r="AM133" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN133" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="134" spans="1:40" x14ac:dyDescent="0.2">
@@ -17109,7 +17097,7 @@
         <v>0</v>
       </c>
       <c r="AE134" s="4" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AF134" s="4" t="s">
         <v>44</v>
@@ -17133,10 +17121,10 @@
         <v>11003</v>
       </c>
       <c r="AM134" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AN134" s="4" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="135" spans="1:40" x14ac:dyDescent="0.2">
@@ -17227,7 +17215,7 @@
         <v>0</v>
       </c>
       <c r="AE135" s="4" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AF135" s="4" t="s">
         <v>44</v>
@@ -17251,10 +17239,10 @@
         <v>11004</v>
       </c>
       <c r="AM135" s="4" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AN135" s="4" t="s">
-        <v>331</v>
+        <v>496</v>
       </c>
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.2">
@@ -17343,7 +17331,7 @@
         <v>0</v>
       </c>
       <c r="AE136" s="4" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="AF136" s="4" t="s">
         <v>44</v>
@@ -17367,10 +17355,10 @@
         <v>11005</v>
       </c>
       <c r="AM136" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AN136" s="4" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.2">
@@ -17378,7 +17366,7 @@
         <v>11910</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C137" s="4">
         <v>2</v>
@@ -17459,7 +17447,7 @@
         <v>0</v>
       </c>
       <c r="AE137" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AF137" s="4" t="s">
         <v>44</v>
@@ -17483,10 +17471,10 @@
         <v>11913</v>
       </c>
       <c r="AM137" s="4" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="AN137" s="4" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.2">
@@ -17494,7 +17482,7 @@
         <v>11911</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C138" s="4">
         <v>2</v>
@@ -17575,7 +17563,7 @@
         <v>0</v>
       </c>
       <c r="AE138" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AF138" s="4" t="s">
         <v>44</v>
@@ -17599,10 +17587,10 @@
         <v>11913</v>
       </c>
       <c r="AM138" s="4" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="AN138" s="4" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="139" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17610,7 +17598,7 @@
         <v>11912</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C139" s="4">
         <v>2</v>
@@ -17691,7 +17679,7 @@
         <v>0</v>
       </c>
       <c r="AE139" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AF139" s="4" t="s">
         <v>44</v>
@@ -17715,10 +17703,10 @@
         <v>11913</v>
       </c>
       <c r="AM139" s="4" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="AN139" s="4" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="140" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17726,7 +17714,7 @@
         <v>11913</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C140" s="4">
         <v>3</v>
@@ -17807,7 +17795,7 @@
         <v>0</v>
       </c>
       <c r="AE140" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AF140" s="4" t="s">
         <v>44</v>
@@ -17831,10 +17819,10 @@
         <v>11913</v>
       </c>
       <c r="AM140" s="4" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="AN140" s="4" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17842,7 +17830,7 @@
         <v>11914</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C141" s="4">
         <v>3</v>
@@ -17923,7 +17911,7 @@
         <v>0</v>
       </c>
       <c r="AE141" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AF141" s="4" t="s">
         <v>44</v>
@@ -17947,10 +17935,10 @@
         <v>11913</v>
       </c>
       <c r="AM141" s="4" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="AN141" s="4" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="142" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -17958,7 +17946,7 @@
         <v>11915</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C142" s="4">
         <v>3</v>
@@ -18039,7 +18027,7 @@
         <v>0</v>
       </c>
       <c r="AE142" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AF142" s="4" t="s">
         <v>44</v>
@@ -18063,10 +18051,10 @@
         <v>11913</v>
       </c>
       <c r="AM142" s="4" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="AN142" s="4" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="143" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18197,7 +18185,7 @@
         <v>0</v>
       </c>
       <c r="AE144" s="4" t="s">
-        <v>152</v>
+        <v>493</v>
       </c>
       <c r="AF144" s="4" t="s">
         <v>44</v>
@@ -18221,10 +18209,10 @@
         <v>11000</v>
       </c>
       <c r="AM144" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN144" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18313,7 +18301,7 @@
         <v>0</v>
       </c>
       <c r="AE145" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AF145" s="4" t="s">
         <v>44</v>
@@ -18337,10 +18325,10 @@
         <v>11000</v>
       </c>
       <c r="AM145" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN145" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:40" x14ac:dyDescent="0.2">
@@ -18429,7 +18417,7 @@
         <v>0</v>
       </c>
       <c r="AE146" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="AF146" s="4" t="s">
         <v>44</v>
@@ -18453,10 +18441,10 @@
         <v>11000</v>
       </c>
       <c r="AM146" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN146" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:40" x14ac:dyDescent="0.2">
@@ -18545,7 +18533,7 @@
         <v>0</v>
       </c>
       <c r="AE147" s="4" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="AF147" s="4" t="s">
         <v>44</v>
@@ -18569,10 +18557,10 @@
         <v>11003</v>
       </c>
       <c r="AM147" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AN147" s="4" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:40" x14ac:dyDescent="0.2">
@@ -18663,7 +18651,7 @@
         <v>0</v>
       </c>
       <c r="AE148" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="AF148" s="4" t="s">
         <v>44</v>
@@ -18687,10 +18675,10 @@
         <v>11004</v>
       </c>
       <c r="AM148" s="4" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AN148" s="4" t="s">
-        <v>331</v>
+        <v>496</v>
       </c>
     </row>
     <row r="149" spans="1:40" x14ac:dyDescent="0.2">
@@ -18779,7 +18767,7 @@
         <v>0</v>
       </c>
       <c r="AE149" s="4" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="AF149" s="4" t="s">
         <v>44</v>
@@ -18803,10 +18791,10 @@
         <v>11005</v>
       </c>
       <c r="AM149" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AN149" s="4" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="150" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -18814,7 +18802,7 @@
         <v>12010</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C150" s="4">
         <v>1</v>
@@ -18895,7 +18883,7 @@
         <v>0</v>
       </c>
       <c r="AE150" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="AF150" s="4" t="s">
         <v>44</v>
@@ -18919,10 +18907,10 @@
         <v>12010</v>
       </c>
       <c r="AM150" s="13" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="AN150" s="4" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="151" spans="1:40" x14ac:dyDescent="0.2">
@@ -18930,7 +18918,7 @@
         <v>12011</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C151" s="4">
         <v>1</v>
@@ -19011,7 +18999,7 @@
         <v>0</v>
       </c>
       <c r="AE151" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AF151" s="4" t="s">
         <v>44</v>
@@ -19035,10 +19023,10 @@
         <v>12010</v>
       </c>
       <c r="AM151" s="4" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="AN151" s="4" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
     </row>
     <row r="152" spans="1:40" x14ac:dyDescent="0.2">
@@ -19046,7 +19034,7 @@
         <v>12012</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C152" s="4">
         <v>2</v>
@@ -19127,7 +19115,7 @@
         <v>0</v>
       </c>
       <c r="AE152" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AF152" s="4" t="s">
         <v>44</v>
@@ -19151,10 +19139,10 @@
         <v>12010</v>
       </c>
       <c r="AM152" s="4" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="AN152" s="4" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="153" spans="1:40" x14ac:dyDescent="0.2">
@@ -19162,7 +19150,7 @@
         <v>12013</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C153" s="4">
         <v>1</v>
@@ -19267,10 +19255,10 @@
         <v>12010</v>
       </c>
       <c r="AM153" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="AN153" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="154" spans="1:40" x14ac:dyDescent="0.2">
@@ -19278,7 +19266,7 @@
         <v>12014</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C154" s="4">
         <v>2</v>
@@ -19362,7 +19350,7 @@
         <v>44</v>
       </c>
       <c r="AF154" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AG154" s="4" t="s">
         <v>44</v>
@@ -19383,10 +19371,10 @@
         <v>12010</v>
       </c>
       <c r="AM154" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="AN154" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="155" spans="1:40" x14ac:dyDescent="0.2">
@@ -19394,7 +19382,7 @@
         <v>12015</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C155" s="4">
         <v>3</v>
@@ -19478,7 +19466,7 @@
         <v>44</v>
       </c>
       <c r="AF155" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AG155" s="4" t="s">
         <v>44</v>
@@ -19499,10 +19487,10 @@
         <v>12010</v>
       </c>
       <c r="AM155" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="AN155" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="156" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -19510,7 +19498,7 @@
         <v>12016</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C156" s="4">
         <v>3</v>
@@ -19591,16 +19579,16 @@
         <v>0</v>
       </c>
       <c r="AE156" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AF156" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AG156" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AH156" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AI156" s="4" t="s">
         <v>44</v>
@@ -19615,10 +19603,10 @@
         <v>12010</v>
       </c>
       <c r="AM156" s="13" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="AN156" s="4" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.2">
@@ -19707,7 +19695,7 @@
         <v>0</v>
       </c>
       <c r="AE158" s="4" t="s">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="AF158" s="4" t="s">
         <v>44</v>
@@ -19731,10 +19719,10 @@
         <v>11000</v>
       </c>
       <c r="AM158" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN158" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="159" spans="1:40" x14ac:dyDescent="0.2">
@@ -19823,7 +19811,7 @@
         <v>0</v>
       </c>
       <c r="AE159" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="AF159" s="4" t="s">
         <v>44</v>
@@ -19847,10 +19835,10 @@
         <v>11000</v>
       </c>
       <c r="AM159" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN159" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.2">
@@ -19939,7 +19927,7 @@
         <v>0</v>
       </c>
       <c r="AE160" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AF160" s="4" t="s">
         <v>44</v>
@@ -19963,10 +19951,10 @@
         <v>11000</v>
       </c>
       <c r="AM160" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AN160" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.2">
@@ -20055,7 +20043,7 @@
         <v>0</v>
       </c>
       <c r="AE161" s="4" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="AF161" s="4" t="s">
         <v>44</v>
@@ -20079,10 +20067,10 @@
         <v>11003</v>
       </c>
       <c r="AM161" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AN161" s="4" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20173,7 +20161,7 @@
         <v>0</v>
       </c>
       <c r="AE162" s="4" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="AF162" s="4" t="s">
         <v>44</v>
@@ -20197,10 +20185,10 @@
         <v>11004</v>
       </c>
       <c r="AM162" s="4" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AN162" s="4" t="s">
-        <v>331</v>
+        <v>496</v>
       </c>
     </row>
     <row r="163" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20289,7 +20277,7 @@
         <v>0</v>
       </c>
       <c r="AE163" s="4" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="AF163" s="4" t="s">
         <v>44</v>
@@ -20313,10 +20301,10 @@
         <v>11005</v>
       </c>
       <c r="AM163" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AN163" s="4" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20324,7 +20312,7 @@
         <v>12110</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C164" s="4">
         <v>1</v>
@@ -20405,7 +20393,7 @@
         <v>0</v>
       </c>
       <c r="AE164" s="4" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="AF164" s="4" t="s">
         <v>44</v>
@@ -20429,10 +20417,10 @@
         <v>12113</v>
       </c>
       <c r="AM164" s="13" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="AN164" s="4" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
     </row>
     <row r="165" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20440,7 +20428,7 @@
         <v>12111</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -20521,7 +20509,7 @@
         <v>0</v>
       </c>
       <c r="AE165" s="4" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="AF165" s="4" t="s">
         <v>44</v>
@@ -20545,10 +20533,10 @@
         <v>12113</v>
       </c>
       <c r="AM165" s="4" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="AN165" s="4" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="166" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20556,7 +20544,7 @@
         <v>12112</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C166" s="4">
         <v>3</v>
@@ -20637,7 +20625,7 @@
         <v>0</v>
       </c>
       <c r="AE166" s="4" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AF166" s="4" t="s">
         <v>44</v>
@@ -20646,10 +20634,10 @@
         <v>44</v>
       </c>
       <c r="AH166" s="4" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="AI166" s="4" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AJ166" s="4" t="s">
         <v>44</v>
@@ -20661,10 +20649,10 @@
         <v>12113</v>
       </c>
       <c r="AM166" s="13" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="AN166" s="4" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="167" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20672,7 +20660,7 @@
         <v>12113</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C167" s="4">
         <v>1</v>
@@ -20753,7 +20741,7 @@
         <v>0</v>
       </c>
       <c r="AE167" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="AF167" s="4" t="s">
         <v>44</v>
@@ -20777,10 +20765,10 @@
         <v>12113</v>
       </c>
       <c r="AM167" s="13" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="AN167" s="4" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20788,7 +20776,7 @@
         <v>12114</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C168" s="4">
         <v>3</v>
@@ -20869,7 +20857,7 @@
         <v>0</v>
       </c>
       <c r="AE168" s="4" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="AF168" s="4" t="s">
         <v>44</v>
@@ -20893,10 +20881,10 @@
         <v>12113</v>
       </c>
       <c r="AM168" s="4" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="AN168" s="4" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
     </row>
     <row r="169" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20904,7 +20892,7 @@
         <v>12115</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C169" s="4">
         <v>3</v>
@@ -20985,7 +20973,7 @@
         <v>0</v>
       </c>
       <c r="AE169" s="4" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="AF169" s="4" t="s">
         <v>44</v>
@@ -21009,10 +20997,10 @@
         <v>12113</v>
       </c>
       <c r="AM169" s="4" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="AN169" s="4" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="170" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21020,7 +21008,7 @@
         <v>12116</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C170" s="4">
         <v>3</v>
@@ -21101,7 +21089,7 @@
         <v>0</v>
       </c>
       <c r="AE170" s="4" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="AF170" s="4" t="s">
         <v>44</v>
@@ -21110,10 +21098,10 @@
         <v>44</v>
       </c>
       <c r="AH170" s="4" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="AI170" s="4" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="AJ170" s="4" t="s">
         <v>44</v>
@@ -21125,10 +21113,10 @@
         <v>12113</v>
       </c>
       <c r="AM170" s="4" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="AN170" s="4" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="171" spans="1:40" x14ac:dyDescent="0.2">
@@ -21136,7 +21124,7 @@
         <v>12117</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C171" s="4">
         <v>2</v>
@@ -21217,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="AE171" s="4" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="AF171" s="4" t="s">
         <v>44</v>
@@ -21226,10 +21214,10 @@
         <v>44</v>
       </c>
       <c r="AH171" s="4" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="AI171" s="4" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="AJ171" s="4" t="s">
         <v>44</v>
@@ -21241,10 +21229,10 @@
         <v>12113</v>
       </c>
       <c r="AM171" s="4" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="AN171" s="4" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
     </row>
     <row r="172" spans="1:40" x14ac:dyDescent="0.2">
@@ -21252,7 +21240,7 @@
         <v>12118</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C172" s="4">
         <v>1</v>
@@ -21333,10 +21321,10 @@
         <v>0</v>
       </c>
       <c r="AE172" s="4" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="AF172" s="4" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="AG172" s="4" t="s">
         <v>44</v>
@@ -21357,10 +21345,10 @@
         <v>12113</v>
       </c>
       <c r="AM172" s="4" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="AN172" s="4" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
     </row>
     <row r="174" spans="1:40" x14ac:dyDescent="0.2">
@@ -21368,7 +21356,7 @@
         <v>13000</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -21389,7 +21377,7 @@
         <v>100</v>
       </c>
       <c r="I174" s="5">
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="J174" s="5">
         <v>0</v>
@@ -21449,7 +21437,7 @@
         <v>0</v>
       </c>
       <c r="AE174" s="4" t="s">
-        <v>230</v>
+        <v>495</v>
       </c>
       <c r="AF174" s="4" t="s">
         <v>44</v>
@@ -21473,10 +21461,10 @@
         <v>13000</v>
       </c>
       <c r="AM174" s="4" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="AN174" s="4" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="175" spans="1:40" x14ac:dyDescent="0.2">
@@ -21484,7 +21472,7 @@
         <v>13001</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C175" s="4">
         <v>3</v>
@@ -21567,7 +21555,7 @@
         <v>0</v>
       </c>
       <c r="AE175" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AF175" s="4" t="s">
         <v>44</v>
@@ -21591,10 +21579,10 @@
         <v>13001</v>
       </c>
       <c r="AM175" s="4" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="AN175" s="4" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="1:40" x14ac:dyDescent="0.2">
@@ -21602,7 +21590,7 @@
         <v>13002</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C176" s="4">
         <v>3</v>
@@ -21685,7 +21673,7 @@
         <v>0</v>
       </c>
       <c r="AE176" s="4" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AF176" s="4" t="s">
         <v>44</v>
@@ -21709,10 +21697,10 @@
         <v>13001</v>
       </c>
       <c r="AM176" s="4" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="AN176" s="4" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="177" spans="1:40" x14ac:dyDescent="0.2">
@@ -21720,7 +21708,7 @@
         <v>13003</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C177" s="4">
         <v>1</v>
@@ -21803,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="AE177" s="4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AF177" s="4" t="s">
         <v>44</v>
@@ -21827,10 +21815,10 @@
         <v>13003</v>
       </c>
       <c r="AM177" s="4" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="AN177" s="4" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.2">
@@ -21838,7 +21826,7 @@
         <v>13004</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C178" s="4">
         <v>1</v>
@@ -21921,7 +21909,7 @@
         <v>0</v>
       </c>
       <c r="AE178" s="4" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="AF178" s="4" t="s">
         <v>44</v>
@@ -21945,10 +21933,10 @@
         <v>13003</v>
       </c>
       <c r="AM178" s="4" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="AN178" s="4" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.2">
@@ -21956,7 +21944,7 @@
         <v>13005</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C179" s="4">
         <v>1</v>
@@ -22039,7 +22027,7 @@
         <v>0</v>
       </c>
       <c r="AE179" s="4" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="AF179" s="4" t="s">
         <v>44</v>
@@ -22063,10 +22051,10 @@
         <v>13003</v>
       </c>
       <c r="AM179" s="4" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="AN179" s="4" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.2">
@@ -22074,7 +22062,7 @@
         <v>13006</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C180" s="4">
         <v>2</v>
@@ -22157,7 +22145,7 @@
         <v>0</v>
       </c>
       <c r="AE180" s="4" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="AF180" s="4" t="s">
         <v>44</v>
@@ -22181,10 +22169,10 @@
         <v>13006</v>
       </c>
       <c r="AM180" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="AN180" s="4" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="181" spans="1:40" x14ac:dyDescent="0.2">
@@ -22192,7 +22180,7 @@
         <v>13007</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
@@ -22275,7 +22263,7 @@
         <v>0</v>
       </c>
       <c r="AE181" s="4" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="AF181" s="4" t="s">
         <v>44</v>
@@ -22299,10 +22287,10 @@
         <v>13006</v>
       </c>
       <c r="AM181" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="AN181" s="4" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.2">
@@ -22310,7 +22298,7 @@
         <v>13008</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C182" s="4">
         <v>2</v>
@@ -22393,7 +22381,7 @@
         <v>0</v>
       </c>
       <c r="AE182" s="4" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="AF182" s="4" t="s">
         <v>44</v>
@@ -22417,10 +22405,10 @@
         <v>13006</v>
       </c>
       <c r="AM182" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="AN182" s="4" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="183" spans="1:40" x14ac:dyDescent="0.2">
@@ -22428,7 +22416,7 @@
         <v>13009</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -22511,7 +22499,7 @@
         <v>0</v>
       </c>
       <c r="AE183" s="4" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="AF183" s="4" t="s">
         <v>44</v>
@@ -22535,10 +22523,10 @@
         <v>13009</v>
       </c>
       <c r="AM183" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="AN183" s="4" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.2">
@@ -22546,7 +22534,7 @@
         <v>13010</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C184" s="4">
         <v>3</v>
@@ -22629,7 +22617,7 @@
         <v>0</v>
       </c>
       <c r="AE184" s="4" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="AF184" s="4" t="s">
         <v>44</v>
@@ -22653,10 +22641,10 @@
         <v>13009</v>
       </c>
       <c r="AM184" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="AN184" s="4" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.2">
@@ -22664,7 +22652,7 @@
         <v>13011</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C185" s="4">
         <v>3</v>
@@ -22747,10 +22735,10 @@
         <v>0</v>
       </c>
       <c r="AE185" s="4" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="AF185" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AG185" s="4" t="s">
         <v>44</v>
@@ -22771,10 +22759,10 @@
         <v>13009</v>
       </c>
       <c r="AM185" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="AN185" s="4" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="186" spans="1:40" x14ac:dyDescent="0.2">
@@ -22782,7 +22770,7 @@
         <v>13012</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -22863,7 +22851,7 @@
         <v>0</v>
       </c>
       <c r="AE186" s="4" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="AF186" s="4" t="s">
         <v>44</v>
@@ -22887,10 +22875,10 @@
         <v>13003</v>
       </c>
       <c r="AM186" s="4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="AN186" s="4" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.2">
@@ -22898,7 +22886,7 @@
         <v>13013</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C187" s="4">
         <v>2</v>
@@ -22979,7 +22967,7 @@
         <v>0</v>
       </c>
       <c r="AE187" s="4" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="AF187" s="4" t="s">
         <v>44</v>
@@ -23003,10 +22991,10 @@
         <v>13006</v>
       </c>
       <c r="AM187" s="4" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="AN187" s="4" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="188" spans="1:40" x14ac:dyDescent="0.2">
@@ -23014,7 +23002,7 @@
         <v>13014</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C188" s="4">
         <v>3</v>
@@ -23095,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="AE188" s="4" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="AF188" s="4" t="s">
         <v>44</v>
@@ -23119,10 +23107,10 @@
         <v>13009</v>
       </c>
       <c r="AM188" s="4" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="AN188" s="4" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="189" spans="1:40" x14ac:dyDescent="0.2">
@@ -23130,7 +23118,7 @@
         <v>13015</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C189" s="4">
         <v>1</v>
@@ -23211,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="AE189" s="4" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="AF189" s="4" t="s">
         <v>44</v>
@@ -23235,10 +23223,10 @@
         <v>13003</v>
       </c>
       <c r="AM189" s="4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="AN189" s="4" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="190" spans="1:40" x14ac:dyDescent="0.2">
@@ -23246,7 +23234,7 @@
         <v>13016</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C190" s="4">
         <v>2</v>
@@ -23327,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="AE190" s="4" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="AF190" s="4" t="s">
         <v>44</v>
@@ -23351,10 +23339,10 @@
         <v>13006</v>
       </c>
       <c r="AM190" s="4" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="AN190" s="4" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="191" spans="1:40" x14ac:dyDescent="0.2">
@@ -23362,7 +23350,7 @@
         <v>13017</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C191" s="4">
         <v>3</v>
@@ -23443,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="AE191" s="4" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="AF191" s="4" t="s">
         <v>44</v>
@@ -23467,10 +23455,10 @@
         <v>13009</v>
       </c>
       <c r="AM191" s="4" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="AN191" s="4" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="192" spans="1:40" x14ac:dyDescent="0.2">
@@ -23478,7 +23466,7 @@
         <v>13018</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -23559,7 +23547,7 @@
         <v>0</v>
       </c>
       <c r="AE192" s="4" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="AF192" s="4" t="s">
         <v>44</v>
@@ -23583,10 +23571,10 @@
         <v>13000</v>
       </c>
       <c r="AM192" s="4" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="AN192" s="4" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="196" spans="1:40" x14ac:dyDescent="0.2">
@@ -23594,7 +23582,7 @@
         <v>14000</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C196" s="4">
         <v>0</v>
@@ -23675,10 +23663,10 @@
         <v>0</v>
       </c>
       <c r="AE196" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="AF196" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AG196" s="4" t="s">
         <v>44</v>
@@ -23706,7 +23694,7 @@
         <v>14001</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -23787,16 +23775,16 @@
         <v>0</v>
       </c>
       <c r="AE197" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="AF197" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AG197" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AH197" s="4" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="AI197" s="4" t="s">
         <v>44</v>
@@ -23818,7 +23806,7 @@
         <v>14002</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>187</v>
+        <v>473</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -23899,10 +23887,10 @@
         <v>0</v>
       </c>
       <c r="AE198" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="AF198" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AG198" s="4" t="s">
         <v>44</v>
@@ -23930,7 +23918,7 @@
         <v>14003</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -24011,10 +23999,10 @@
         <v>0</v>
       </c>
       <c r="AE199" s="4" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="AF199" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AG199" s="4" t="s">
         <v>44</v>
@@ -24042,7 +24030,7 @@
         <v>14004</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>189</v>
+        <v>474</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -24123,10 +24111,10 @@
         <v>0</v>
       </c>
       <c r="AE200" s="4" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AF200" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AG200" s="4" t="s">
         <v>44</v>
@@ -24154,7 +24142,7 @@
         <v>14005</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -24235,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="AE201" s="4" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="AF201" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AG201" s="4" t="s">
         <v>44</v>
@@ -24266,7 +24254,7 @@
         <v>14006</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -24347,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="AE202" s="4" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="AF202" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AG202" s="4" t="s">
         <v>44</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B267ED3F-5069-48F3-AECC-5B8D116F2DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A8ED59-CA13-48EF-8092-07C63E913E47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13590" yWindow="5280" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13275" yWindow="5010" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -3006,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="5">
         <v>200</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A8ED59-CA13-48EF-8092-07C63E913E47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8122F345-F5C1-41A3-9973-DDB30BF910EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13275" yWindow="5010" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9195" yWindow="5475" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="524">
   <si>
     <t>Id</t>
   </si>
@@ -2545,6 +2545,46 @@
   </si>
   <si>
     <t>组织暴露导致完全失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谨慎坚定的人，需要更高的能见度才能展开行动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413050]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[414050]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[415050]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[416050]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[417050]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[418050]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[419050]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[420050]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[421050]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3006,8 +3046,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A24" sqref="A24"/>
+      <selection pane="topRight" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7656,7 +7698,7 @@
         <v>11000</v>
       </c>
       <c r="AM45" s="4" t="s">
-        <v>193</v>
+        <v>514</v>
       </c>
       <c r="AN45" s="4" t="s">
         <v>278</v>
@@ -7772,7 +7814,7 @@
         <v>11000</v>
       </c>
       <c r="AM46" s="4" t="s">
-        <v>193</v>
+        <v>514</v>
       </c>
       <c r="AN46" s="4" t="s">
         <v>278</v>
@@ -9385,7 +9427,7 @@
         <v>44</v>
       </c>
       <c r="AH61" s="4" t="s">
-        <v>44</v>
+        <v>515</v>
       </c>
       <c r="AI61" s="4" t="s">
         <v>44</v>
@@ -11361,7 +11403,7 @@
         <v>44</v>
       </c>
       <c r="AH79" s="4" t="s">
-        <v>44</v>
+        <v>516</v>
       </c>
       <c r="AI79" s="4" t="s">
         <v>44</v>
@@ -12059,7 +12101,7 @@
         <v>44</v>
       </c>
       <c r="AH86" s="4" t="s">
-        <v>44</v>
+        <v>517</v>
       </c>
       <c r="AI86" s="4" t="s">
         <v>44</v>
@@ -13802,7 +13844,7 @@
         <v>44</v>
       </c>
       <c r="AH102" s="4" t="s">
-        <v>44</v>
+        <v>518</v>
       </c>
       <c r="AI102" s="4" t="s">
         <v>44</v>
@@ -14964,7 +15006,7 @@
         <v>44</v>
       </c>
       <c r="AH113" s="4" t="s">
-        <v>44</v>
+        <v>519</v>
       </c>
       <c r="AI113" s="4" t="s">
         <v>44</v>
@@ -16362,7 +16404,7 @@
         <v>44</v>
       </c>
       <c r="AH126" s="4" t="s">
-        <v>44</v>
+        <v>520</v>
       </c>
       <c r="AI126" s="4" t="s">
         <v>44</v>
@@ -16744,7 +16786,7 @@
         <v>0</v>
       </c>
       <c r="D130" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E130" s="4">
         <v>0</v>
@@ -17294,7 +17336,7 @@
         <v>44</v>
       </c>
       <c r="AH135" s="4" t="s">
-        <v>44</v>
+        <v>521</v>
       </c>
       <c r="AI135" s="4" t="s">
         <v>44</v>
@@ -18730,7 +18772,7 @@
         <v>44</v>
       </c>
       <c r="AH148" s="4" t="s">
-        <v>44</v>
+        <v>522</v>
       </c>
       <c r="AI148" s="4" t="s">
         <v>44</v>
@@ -20240,7 +20282,7 @@
         <v>44</v>
       </c>
       <c r="AH162" s="4" t="s">
-        <v>44</v>
+        <v>523</v>
       </c>
       <c r="AI162" s="4" t="s">
         <v>44</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8122F345-F5C1-41A3-9973-DDB30BF910EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A0A352-EB82-4606-A83D-3BD1680B5C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9195" yWindow="5475" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9765" yWindow="3945" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -2454,10 +2454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[414000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花费20货币，令人类收养一只猫咪，隐匿度提升</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2585,6 +2581,10 @@
   </si>
   <si>
     <t>[421050]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[414000,414001]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3046,10 +3046,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="D131" sqref="D131"/>
+      <selection pane="topRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="5">
         <v>200</v>
@@ -7698,7 +7698,7 @@
         <v>11000</v>
       </c>
       <c r="AM45" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN45" s="4" t="s">
         <v>278</v>
@@ -7814,7 +7814,7 @@
         <v>11000</v>
       </c>
       <c r="AM46" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN46" s="4" t="s">
         <v>278</v>
@@ -9427,7 +9427,7 @@
         <v>44</v>
       </c>
       <c r="AH61" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AI61" s="4" t="s">
         <v>44</v>
@@ -10989,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="5">
         <v>200</v>
@@ -11046,7 +11046,7 @@
         <v>0</v>
       </c>
       <c r="AE76" s="4" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="AF76" s="4" t="s">
         <v>44</v>
@@ -11403,7 +11403,7 @@
         <v>44</v>
       </c>
       <c r="AH79" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AI79" s="4" t="s">
         <v>44</v>
@@ -11539,7 +11539,7 @@
         <v>194</v>
       </c>
       <c r="AN80" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.2">
@@ -11637,7 +11637,7 @@
         <v>44</v>
       </c>
       <c r="AH81" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AI81" s="4" t="s">
         <v>44</v>
@@ -12101,7 +12101,7 @@
         <v>44</v>
       </c>
       <c r="AH86" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI86" s="4" t="s">
         <v>44</v>
@@ -12237,7 +12237,7 @@
         <v>194</v>
       </c>
       <c r="AN87" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.2">
@@ -12466,10 +12466,10 @@
         <v>11510</v>
       </c>
       <c r="AM89" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="AN89" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="AN89" s="4" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="90" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12582,7 +12582,7 @@
         <v>11510</v>
       </c>
       <c r="AM90" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AN90" s="4" t="s">
         <v>86</v>
@@ -13031,7 +13031,7 @@
         <v>44</v>
       </c>
       <c r="AH94" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AI94" s="4" t="s">
         <v>44</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="AE97" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF97" s="4" t="s">
         <v>44</v>
@@ -13844,7 +13844,7 @@
         <v>44</v>
       </c>
       <c r="AH102" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI102" s="4" t="s">
         <v>44</v>
@@ -14078,7 +14078,7 @@
         <v>44</v>
       </c>
       <c r="AH104" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AI104" s="4" t="s">
         <v>44</v>
@@ -15006,7 +15006,7 @@
         <v>44</v>
       </c>
       <c r="AH113" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AI113" s="4" t="s">
         <v>44</v>
@@ -15240,7 +15240,7 @@
         <v>44</v>
       </c>
       <c r="AH115" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AI115" s="4" t="s">
         <v>44</v>
@@ -15815,7 +15815,7 @@
         <v>0</v>
       </c>
       <c r="AE120" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF120" s="4" t="s">
         <v>44</v>
@@ -15850,7 +15850,7 @@
         <v>11715</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C121" s="4">
         <v>3</v>
@@ -16404,7 +16404,7 @@
         <v>44</v>
       </c>
       <c r="AH126" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI126" s="4" t="s">
         <v>44</v>
@@ -16638,7 +16638,7 @@
         <v>44</v>
       </c>
       <c r="AH128" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AI128" s="4" t="s">
         <v>44</v>
@@ -17336,7 +17336,7 @@
         <v>44</v>
       </c>
       <c r="AH135" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AI135" s="4" t="s">
         <v>44</v>
@@ -17445,7 +17445,7 @@
         <v>0</v>
       </c>
       <c r="AE136" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF136" s="4" t="s">
         <v>44</v>
@@ -17570,7 +17570,7 @@
         <v>44</v>
       </c>
       <c r="AH137" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AI137" s="4" t="s">
         <v>44</v>
@@ -18025,7 +18025,7 @@
         <v>0</v>
       </c>
       <c r="AE141" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AF141" s="4" t="s">
         <v>44</v>
@@ -18772,7 +18772,7 @@
         <v>44</v>
       </c>
       <c r="AH148" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AI148" s="4" t="s">
         <v>44</v>
@@ -18881,7 +18881,7 @@
         <v>0</v>
       </c>
       <c r="AE149" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AF149" s="4" t="s">
         <v>44</v>
@@ -19006,7 +19006,7 @@
         <v>44</v>
       </c>
       <c r="AH150" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AI150" s="4" t="s">
         <v>44</v>
@@ -20282,7 +20282,7 @@
         <v>44</v>
       </c>
       <c r="AH162" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AI162" s="4" t="s">
         <v>44</v>
@@ -20516,7 +20516,7 @@
         <v>44</v>
       </c>
       <c r="AH164" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI164" s="4" t="s">
         <v>44</v>
@@ -21785,7 +21785,7 @@
         <v>0</v>
       </c>
       <c r="AE176" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF176" s="4" t="s">
         <v>44</v>
@@ -23081,7 +23081,7 @@
         <v>0</v>
       </c>
       <c r="AE187" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF187" s="4" t="s">
         <v>44</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="AE193" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF193" s="4" t="s">
         <v>44</v>
@@ -23804,7 +23804,7 @@
         <v>358</v>
       </c>
       <c r="AN193" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="197" spans="1:40" x14ac:dyDescent="0.2">

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A0A352-EB82-4606-A83D-3BD1680B5C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E8A5D8-7669-44B2-86D6-335878B27EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="3945" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="3390" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -1703,10 +1703,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要猫咪凯修参与</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[412040,412041,459002]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1730,10 +1726,6 @@
   </si>
   <si>
     <t>[413030,459001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要猫咪科恩参与</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2585,6 +2577,14 @@
   </si>
   <si>
     <t>[414000,414001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要猫咪凯修参与，花费50人类货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要猫咪科恩参与，花费50人类货币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2724,7 +2724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2762,6 +2762,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3046,10 +3049,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="O5" sqref="O5"/>
+      <selection pane="topRight" activeCell="P124" sqref="P124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3135,10 +3138,10 @@
         <v>175</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -3290,7 +3293,7 @@
         <v>10000</v>
       </c>
       <c r="AM2" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AN2" s="4" t="s">
         <v>244</v>
@@ -3406,7 +3409,7 @@
         <v>10007</v>
       </c>
       <c r="AM3" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AN3" s="4" t="s">
         <v>245</v>
@@ -3522,7 +3525,7 @@
         <v>10007</v>
       </c>
       <c r="AM4" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AN4" s="4" t="s">
         <v>254</v>
@@ -3638,7 +3641,7 @@
         <v>10007</v>
       </c>
       <c r="AM5" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AN5" s="4" t="s">
         <v>256</v>
@@ -3754,7 +3757,7 @@
         <v>11310</v>
       </c>
       <c r="AM6" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AN6" s="4" t="s">
         <v>259</v>
@@ -3846,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>44</v>
@@ -3870,7 +3873,7 @@
         <v>10007</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AN7" s="4" t="s">
         <v>261</v>
@@ -3962,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>44</v>
@@ -3986,7 +3989,7 @@
         <v>10007</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AN8" s="4" t="s">
         <v>261</v>
@@ -4102,7 +4105,7 @@
         <v>10007</v>
       </c>
       <c r="AM9" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AN9" s="4" t="s">
         <v>262</v>
@@ -4542,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AF14" s="4" t="s">
         <v>44</v>
@@ -4658,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AF15" s="4" t="s">
         <v>44</v>
@@ -4801,7 +4804,7 @@
         <v>273</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4890,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AF18" s="4" t="s">
         <v>44</v>
@@ -4914,7 +4917,7 @@
         <v>10200</v>
       </c>
       <c r="AM18" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AN18" s="4" t="s">
         <v>274</v>
@@ -5030,7 +5033,7 @@
         <v>10200</v>
       </c>
       <c r="AM19" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AN19" s="4" t="s">
         <v>276</v>
@@ -5146,10 +5149,10 @@
         <v>10200</v>
       </c>
       <c r="AM20" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5262,7 +5265,7 @@
         <v>10200</v>
       </c>
       <c r="AM21" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AN21" s="4" t="s">
         <v>277</v>
@@ -5378,7 +5381,7 @@
         <v>11000</v>
       </c>
       <c r="AM23" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AN23" s="4" t="s">
         <v>278</v>
@@ -5961,7 +5964,7 @@
         <v>247</v>
       </c>
       <c r="AN28" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -6050,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AF29" s="4" t="s">
         <v>44</v>
@@ -6166,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AF30" s="4" t="s">
         <v>44</v>
@@ -6190,7 +6193,7 @@
         <v>11010</v>
       </c>
       <c r="AM30" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AN30" s="4" t="s">
         <v>50</v>
@@ -6282,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AF31" s="4" t="s">
         <v>44</v>
@@ -6398,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AF32" s="4" t="s">
         <v>44</v>
@@ -6422,7 +6425,7 @@
         <v>11010</v>
       </c>
       <c r="AM32" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AN32" s="4" t="s">
         <v>50</v>
@@ -6514,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF33" s="4" t="s">
         <v>44</v>
@@ -6630,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AF34" s="4" t="s">
         <v>44</v>
@@ -6654,7 +6657,7 @@
         <v>11010</v>
       </c>
       <c r="AM34" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AN34" s="4" t="s">
         <v>50</v>
@@ -6746,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="AE36" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AF36" s="4" t="s">
         <v>44</v>
@@ -6978,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AF38" s="4" t="s">
         <v>44</v>
@@ -7558,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AF44" s="4" t="s">
         <v>44</v>
@@ -7698,7 +7701,7 @@
         <v>11000</v>
       </c>
       <c r="AM45" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AN45" s="4" t="s">
         <v>278</v>
@@ -7814,7 +7817,7 @@
         <v>11000</v>
       </c>
       <c r="AM46" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AN46" s="4" t="s">
         <v>278</v>
@@ -7930,7 +7933,7 @@
         <v>11003</v>
       </c>
       <c r="AM47" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AN47" s="4" t="s">
         <v>281</v>
@@ -7970,8 +7973,8 @@
       <c r="K48" s="5">
         <v>180</v>
       </c>
-      <c r="L48" s="6">
-        <v>412042</v>
+      <c r="L48" s="15">
+        <v>0</v>
       </c>
       <c r="M48" s="6">
         <v>459005</v>
@@ -8024,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF48" s="4" t="s">
         <v>44</v>
@@ -8051,7 +8054,7 @@
         <v>283</v>
       </c>
       <c r="AN48" s="4" t="s">
-        <v>284</v>
+        <v>522</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8149,7 +8152,7 @@
         <v>44</v>
       </c>
       <c r="AH49" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AI49" s="4" t="s">
         <v>44</v>
@@ -8280,7 +8283,7 @@
         <v>11210</v>
       </c>
       <c r="AM50" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AN50" s="4" t="s">
         <v>250</v>
@@ -8398,10 +8401,10 @@
         <v>11210</v>
       </c>
       <c r="AM51" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AN51" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8514,7 +8517,7 @@
         <v>11210</v>
       </c>
       <c r="AM52" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AN52" s="4" t="s">
         <v>59</v>
@@ -8615,7 +8618,7 @@
         <v>44</v>
       </c>
       <c r="AH53" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AI53" s="4" t="s">
         <v>44</v>
@@ -8630,7 +8633,7 @@
         <v>11210</v>
       </c>
       <c r="AM53" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AN53" s="4" t="s">
         <v>251</v>
@@ -8746,10 +8749,10 @@
         <v>11210</v>
       </c>
       <c r="AM54" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AN54" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8838,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF55" s="4" t="s">
         <v>44</v>
@@ -8862,10 +8865,10 @@
         <v>11210</v>
       </c>
       <c r="AM55" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AN55" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.2">
@@ -8873,7 +8876,7 @@
         <v>11216</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C56" s="4">
         <v>3</v>
@@ -8954,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="AE56" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AF56" s="4" t="s">
         <v>44</v>
@@ -8978,10 +8981,10 @@
         <v>11210</v>
       </c>
       <c r="AM56" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AN56" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.2">
@@ -9070,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="AE58" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AF58" s="4" t="s">
         <v>44</v>
@@ -9186,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="AE59" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF59" s="4" t="s">
         <v>44</v>
@@ -9418,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF61" s="4" t="s">
         <v>44</v>
@@ -9427,7 +9430,7 @@
         <v>44</v>
       </c>
       <c r="AH61" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AI61" s="4" t="s">
         <v>44</v>
@@ -9536,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AF62" s="4" t="s">
         <v>44</v>
@@ -9563,7 +9566,7 @@
         <v>283</v>
       </c>
       <c r="AN62" s="4" t="s">
-        <v>292</v>
+        <v>523</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
@@ -9652,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="AE63" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF63" s="4" t="s">
         <v>44</v>
@@ -9661,7 +9664,7 @@
         <v>44</v>
       </c>
       <c r="AH63" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AI63" s="4" t="s">
         <v>44</v>
@@ -9679,7 +9682,7 @@
         <v>195</v>
       </c>
       <c r="AN63" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
@@ -9768,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AF64" s="4" t="s">
         <v>44</v>
@@ -9792,10 +9795,10 @@
         <v>11310</v>
       </c>
       <c r="AM64" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AN64" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.2">
@@ -9908,10 +9911,10 @@
         <v>11310</v>
       </c>
       <c r="AM65" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AN65" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.2">
@@ -10002,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="AE66" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AF66" s="4" t="s">
         <v>44</v>
@@ -10026,10 +10029,10 @@
         <v>11310</v>
       </c>
       <c r="AM66" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AN66" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.2">
@@ -10118,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AF67" s="4" t="s">
         <v>44</v>
@@ -10142,7 +10145,7 @@
         <v>11310</v>
       </c>
       <c r="AM67" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AN67" s="4" t="s">
         <v>69</v>
@@ -10234,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AF68" s="4" t="s">
         <v>44</v>
@@ -10243,7 +10246,7 @@
         <v>44</v>
       </c>
       <c r="AH68" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AI68" s="4" t="s">
         <v>44</v>
@@ -10258,7 +10261,7 @@
         <v>11310</v>
       </c>
       <c r="AM68" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AN68" s="4" t="s">
         <v>71</v>
@@ -10350,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="AE69" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AF69" s="4" t="s">
         <v>44</v>
@@ -10374,10 +10377,10 @@
         <v>11310</v>
       </c>
       <c r="AM69" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AN69" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.2">
@@ -10466,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="AE70" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AF70" s="4" t="s">
         <v>44</v>
@@ -10490,10 +10493,10 @@
         <v>11310</v>
       </c>
       <c r="AM70" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AN70" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.2">
@@ -10582,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="AE71" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AF71" s="4" t="s">
         <v>44</v>
@@ -10606,10 +10609,10 @@
         <v>11310</v>
       </c>
       <c r="AM71" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AN71" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.2">
@@ -10698,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="AE72" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AF72" s="4" t="s">
         <v>44</v>
@@ -10722,10 +10725,10 @@
         <v>11310</v>
       </c>
       <c r="AM72" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AN72" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.2">
@@ -10814,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="AE73" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AF73" s="4" t="s">
         <v>44</v>
@@ -10838,10 +10841,10 @@
         <v>11310</v>
       </c>
       <c r="AM73" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AN73" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.2">
@@ -10954,10 +10957,10 @@
         <v>11310</v>
       </c>
       <c r="AM74" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AN74" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.2">
@@ -11046,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="AE76" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AF76" s="4" t="s">
         <v>44</v>
@@ -11070,7 +11073,7 @@
         <v>11000</v>
       </c>
       <c r="AM76" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AN76" s="4" t="s">
         <v>278</v>
@@ -11162,7 +11165,7 @@
         <v>0</v>
       </c>
       <c r="AE77" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AF77" s="4" t="s">
         <v>44</v>
@@ -11394,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="AE79" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AF79" s="4" t="s">
         <v>44</v>
@@ -11403,7 +11406,7 @@
         <v>44</v>
       </c>
       <c r="AH79" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AI79" s="4" t="s">
         <v>44</v>
@@ -11512,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="AE80" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AF80" s="4" t="s">
         <v>44</v>
@@ -11539,7 +11542,7 @@
         <v>194</v>
       </c>
       <c r="AN80" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.2">
@@ -11628,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="AE81" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AF81" s="4" t="s">
         <v>44</v>
@@ -11637,7 +11640,7 @@
         <v>44</v>
       </c>
       <c r="AH81" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AI81" s="4" t="s">
         <v>44</v>
@@ -11655,7 +11658,7 @@
         <v>195</v>
       </c>
       <c r="AN81" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.2">
@@ -11744,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="AE83" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AF83" s="4" t="s">
         <v>44</v>
@@ -12092,7 +12095,7 @@
         <v>0</v>
       </c>
       <c r="AE86" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AF86" s="4" t="s">
         <v>44</v>
@@ -12101,7 +12104,7 @@
         <v>44</v>
       </c>
       <c r="AH86" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AI86" s="4" t="s">
         <v>44</v>
@@ -12210,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="AE87" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AF87" s="4" t="s">
         <v>44</v>
@@ -12237,7 +12240,7 @@
         <v>194</v>
       </c>
       <c r="AN87" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.2">
@@ -12326,7 +12329,7 @@
         <v>0</v>
       </c>
       <c r="AE88" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AF88" s="4" t="s">
         <v>44</v>
@@ -12353,7 +12356,7 @@
         <v>195</v>
       </c>
       <c r="AN88" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="89" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12466,10 +12469,10 @@
         <v>11510</v>
       </c>
       <c r="AM89" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AN89" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12582,7 +12585,7 @@
         <v>11510</v>
       </c>
       <c r="AM90" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AN90" s="4" t="s">
         <v>86</v>
@@ -12683,7 +12686,7 @@
         <v>44</v>
       </c>
       <c r="AH91" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AI91" s="4" t="s">
         <v>44</v>
@@ -12698,10 +12701,10 @@
         <v>11510</v>
       </c>
       <c r="AM91" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AN91" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.2">
@@ -12799,7 +12802,7 @@
         <v>44</v>
       </c>
       <c r="AH92" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AI92" s="4" t="s">
         <v>44</v>
@@ -12814,10 +12817,10 @@
         <v>11510</v>
       </c>
       <c r="AM92" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AN92" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.2">
@@ -12930,10 +12933,10 @@
         <v>11510</v>
       </c>
       <c r="AM93" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN93" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.2">
@@ -13031,7 +13034,7 @@
         <v>44</v>
       </c>
       <c r="AH94" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AI94" s="4" t="s">
         <v>44</v>
@@ -13254,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="AE96" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AF96" s="4" t="s">
         <v>44</v>
@@ -13278,10 +13281,10 @@
         <v>11510</v>
       </c>
       <c r="AM96" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AN96" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="97" spans="1:42" x14ac:dyDescent="0.2">
@@ -13370,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="AE97" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AF97" s="4" t="s">
         <v>44</v>
@@ -13394,10 +13397,10 @@
         <v>11510</v>
       </c>
       <c r="AM97" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AN97" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AP97" s="1"/>
     </row>
@@ -13487,7 +13490,7 @@
         <v>0</v>
       </c>
       <c r="AE99" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AF99" s="4" t="s">
         <v>44</v>
@@ -13835,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="AE102" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AF102" s="4" t="s">
         <v>44</v>
@@ -13844,7 +13847,7 @@
         <v>44</v>
       </c>
       <c r="AH102" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AI102" s="4" t="s">
         <v>44</v>
@@ -13953,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="AE103" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AF103" s="4" t="s">
         <v>44</v>
@@ -13980,7 +13983,7 @@
         <v>194</v>
       </c>
       <c r="AN103" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.2">
@@ -14069,7 +14072,7 @@
         <v>0</v>
       </c>
       <c r="AE104" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AF104" s="4" t="s">
         <v>44</v>
@@ -14078,7 +14081,7 @@
         <v>44</v>
       </c>
       <c r="AH104" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AI104" s="4" t="s">
         <v>44</v>
@@ -14096,7 +14099,7 @@
         <v>195</v>
       </c>
       <c r="AN104" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:42" ht="28.5" x14ac:dyDescent="0.2">
@@ -14185,7 +14188,7 @@
         <v>0</v>
       </c>
       <c r="AE105" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AF105" s="4" t="s">
         <v>44</v>
@@ -14209,10 +14212,10 @@
         <v>11610</v>
       </c>
       <c r="AM105" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AN105" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="28.5" x14ac:dyDescent="0.2">
@@ -14325,10 +14328,10 @@
         <v>11610</v>
       </c>
       <c r="AM106" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AN106" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="107" spans="1:42" ht="28.5" x14ac:dyDescent="0.2">
@@ -14441,10 +14444,10 @@
         <v>11610</v>
       </c>
       <c r="AM107" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AN107" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="108" spans="1:42" x14ac:dyDescent="0.2">
@@ -14649,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="AE110" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AF110" s="4" t="s">
         <v>44</v>
@@ -14997,7 +15000,7 @@
         <v>0</v>
       </c>
       <c r="AE113" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AF113" s="4" t="s">
         <v>44</v>
@@ -15006,7 +15009,7 @@
         <v>44</v>
       </c>
       <c r="AH113" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AI113" s="4" t="s">
         <v>44</v>
@@ -15115,7 +15118,7 @@
         <v>0</v>
       </c>
       <c r="AE114" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AF114" s="4" t="s">
         <v>44</v>
@@ -15142,7 +15145,7 @@
         <v>194</v>
       </c>
       <c r="AN114" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:40" x14ac:dyDescent="0.2">
@@ -15231,7 +15234,7 @@
         <v>0</v>
       </c>
       <c r="AE115" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AF115" s="4" t="s">
         <v>44</v>
@@ -15240,7 +15243,7 @@
         <v>44</v>
       </c>
       <c r="AH115" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AI115" s="4" t="s">
         <v>44</v>
@@ -15258,7 +15261,7 @@
         <v>195</v>
       </c>
       <c r="AN115" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15266,7 +15269,7 @@
         <v>11710</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -15371,10 +15374,10 @@
         <v>11710</v>
       </c>
       <c r="AM116" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AN116" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:40" x14ac:dyDescent="0.2">
@@ -15487,10 +15490,10 @@
         <v>11710</v>
       </c>
       <c r="AM117" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AN117" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15603,10 +15606,10 @@
         <v>11710</v>
       </c>
       <c r="AM118" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AN118" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15723,10 +15726,10 @@
         <v>11710</v>
       </c>
       <c r="AM119" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AN119" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15815,7 +15818,7 @@
         <v>0</v>
       </c>
       <c r="AE120" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AF120" s="4" t="s">
         <v>44</v>
@@ -15839,10 +15842,10 @@
         <v>11710</v>
       </c>
       <c r="AM120" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AN120" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15850,7 +15853,7 @@
         <v>11715</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C121" s="4">
         <v>3</v>
@@ -15934,7 +15937,7 @@
         <v>118</v>
       </c>
       <c r="AF121" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AG121" s="4" t="s">
         <v>44</v>
@@ -15955,10 +15958,10 @@
         <v>11710</v>
       </c>
       <c r="AM121" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AN121" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.2">
@@ -16047,7 +16050,7 @@
         <v>0</v>
       </c>
       <c r="AE123" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AF123" s="4" t="s">
         <v>44</v>
@@ -16395,7 +16398,7 @@
         <v>0</v>
       </c>
       <c r="AE126" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF126" s="4" t="s">
         <v>44</v>
@@ -16404,7 +16407,7 @@
         <v>44</v>
       </c>
       <c r="AH126" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AI126" s="4" t="s">
         <v>44</v>
@@ -16513,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="AE127" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF127" s="4" t="s">
         <v>44</v>
@@ -16540,7 +16543,7 @@
         <v>194</v>
       </c>
       <c r="AN127" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.2">
@@ -16629,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="AE128" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF128" s="4" t="s">
         <v>44</v>
@@ -16638,7 +16641,7 @@
         <v>44</v>
       </c>
       <c r="AH128" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AI128" s="4" t="s">
         <v>44</v>
@@ -16656,7 +16659,7 @@
         <v>195</v>
       </c>
       <c r="AN128" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:40" x14ac:dyDescent="0.2">
@@ -16845,7 +16848,7 @@
         <v>318112</v>
       </c>
       <c r="Y130" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Z130" s="7">
         <v>318113</v>
@@ -16887,10 +16890,10 @@
         <v>11811</v>
       </c>
       <c r="AM130" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AN130" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132" spans="1:40" x14ac:dyDescent="0.2">
@@ -16979,7 +16982,7 @@
         <v>0</v>
       </c>
       <c r="AE132" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AF132" s="4" t="s">
         <v>44</v>
@@ -17327,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="AE135" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AF135" s="4" t="s">
         <v>44</v>
@@ -17336,7 +17339,7 @@
         <v>44</v>
       </c>
       <c r="AH135" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AI135" s="4" t="s">
         <v>44</v>
@@ -17445,7 +17448,7 @@
         <v>0</v>
       </c>
       <c r="AE136" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AF136" s="4" t="s">
         <v>44</v>
@@ -17472,7 +17475,7 @@
         <v>194</v>
       </c>
       <c r="AN136" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.2">
@@ -17561,7 +17564,7 @@
         <v>0</v>
       </c>
       <c r="AE137" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AF137" s="4" t="s">
         <v>44</v>
@@ -17570,7 +17573,7 @@
         <v>44</v>
       </c>
       <c r="AH137" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AI137" s="4" t="s">
         <v>44</v>
@@ -17588,7 +17591,7 @@
         <v>195</v>
       </c>
       <c r="AN137" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.2">
@@ -17701,10 +17704,10 @@
         <v>11913</v>
       </c>
       <c r="AM138" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AN138" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="139" spans="1:40" x14ac:dyDescent="0.2">
@@ -17817,10 +17820,10 @@
         <v>11913</v>
       </c>
       <c r="AM139" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AN139" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="140" spans="1:40" x14ac:dyDescent="0.2">
@@ -17933,10 +17936,10 @@
         <v>11913</v>
       </c>
       <c r="AM140" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AN140" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" spans="1:40" x14ac:dyDescent="0.2">
@@ -18025,7 +18028,7 @@
         <v>0</v>
       </c>
       <c r="AE141" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AF141" s="4" t="s">
         <v>44</v>
@@ -18049,10 +18052,10 @@
         <v>11913</v>
       </c>
       <c r="AM141" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AN141" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="142" spans="1:40" x14ac:dyDescent="0.2">
@@ -18165,10 +18168,10 @@
         <v>11913</v>
       </c>
       <c r="AM142" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AN142" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="143" spans="1:40" x14ac:dyDescent="0.2">
@@ -18281,10 +18284,10 @@
         <v>11913</v>
       </c>
       <c r="AM143" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AN143" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="144" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18415,7 +18418,7 @@
         <v>0</v>
       </c>
       <c r="AE145" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AF145" s="4" t="s">
         <v>44</v>
@@ -18763,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="AE148" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF148" s="4" t="s">
         <v>44</v>
@@ -18772,7 +18775,7 @@
         <v>44</v>
       </c>
       <c r="AH148" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AI148" s="4" t="s">
         <v>44</v>
@@ -18881,7 +18884,7 @@
         <v>0</v>
       </c>
       <c r="AE149" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AF149" s="4" t="s">
         <v>44</v>
@@ -18908,7 +18911,7 @@
         <v>194</v>
       </c>
       <c r="AN149" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="1:40" x14ac:dyDescent="0.2">
@@ -18997,7 +19000,7 @@
         <v>0</v>
       </c>
       <c r="AE150" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AF150" s="4" t="s">
         <v>44</v>
@@ -19006,7 +19009,7 @@
         <v>44</v>
       </c>
       <c r="AH150" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AI150" s="4" t="s">
         <v>44</v>
@@ -19024,7 +19027,7 @@
         <v>195</v>
       </c>
       <c r="AN150" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="151" spans="1:40" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -19137,10 +19140,10 @@
         <v>12010</v>
       </c>
       <c r="AM151" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AN151" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="152" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19253,10 +19256,10 @@
         <v>12010</v>
       </c>
       <c r="AM152" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AN152" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="153" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19369,10 +19372,10 @@
         <v>12010</v>
       </c>
       <c r="AM153" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AN153" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="154" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19833,10 +19836,10 @@
         <v>12010</v>
       </c>
       <c r="AM157" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AN157" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="159" spans="1:40" x14ac:dyDescent="0.2">
@@ -19925,7 +19928,7 @@
         <v>0</v>
       </c>
       <c r="AE159" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AF159" s="4" t="s">
         <v>44</v>
@@ -20273,7 +20276,7 @@
         <v>0</v>
       </c>
       <c r="AE162" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AF162" s="4" t="s">
         <v>44</v>
@@ -20282,7 +20285,7 @@
         <v>44</v>
       </c>
       <c r="AH162" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AI162" s="4" t="s">
         <v>44</v>
@@ -20391,7 +20394,7 @@
         <v>0</v>
       </c>
       <c r="AE163" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AF163" s="4" t="s">
         <v>44</v>
@@ -20418,7 +20421,7 @@
         <v>194</v>
       </c>
       <c r="AN163" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="164" spans="1:40" x14ac:dyDescent="0.2">
@@ -20507,7 +20510,7 @@
         <v>0</v>
       </c>
       <c r="AE164" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AF164" s="4" t="s">
         <v>44</v>
@@ -20516,7 +20519,7 @@
         <v>44</v>
       </c>
       <c r="AH164" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AI164" s="4" t="s">
         <v>44</v>
@@ -20534,7 +20537,7 @@
         <v>195</v>
       </c>
       <c r="AN164" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="165" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20623,7 +20626,7 @@
         <v>0</v>
       </c>
       <c r="AE165" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AF165" s="4" t="s">
         <v>44</v>
@@ -20647,10 +20650,10 @@
         <v>12113</v>
       </c>
       <c r="AM165" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AN165" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20739,7 +20742,7 @@
         <v>0</v>
       </c>
       <c r="AE166" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AF166" s="4" t="s">
         <v>44</v>
@@ -20763,10 +20766,10 @@
         <v>12113</v>
       </c>
       <c r="AM166" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AN166" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="167" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20879,10 +20882,10 @@
         <v>12113</v>
       </c>
       <c r="AM167" s="13" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AN167" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="168" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20995,10 +20998,10 @@
         <v>12113</v>
       </c>
       <c r="AM168" s="13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AN168" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21111,10 +21114,10 @@
         <v>12113</v>
       </c>
       <c r="AM169" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AN169" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="170" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21227,10 +21230,10 @@
         <v>12113</v>
       </c>
       <c r="AM170" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AN170" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="171" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21343,10 +21346,10 @@
         <v>12113</v>
       </c>
       <c r="AM171" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AN171" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="172" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21459,10 +21462,10 @@
         <v>12113</v>
       </c>
       <c r="AM172" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AN172" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="173" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21575,10 +21578,10 @@
         <v>12113</v>
       </c>
       <c r="AM173" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AN173" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="175" spans="1:40" x14ac:dyDescent="0.2">
@@ -21667,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="AE175" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AF175" s="4" t="s">
         <v>44</v>
@@ -21694,7 +21697,7 @@
         <v>211</v>
       </c>
       <c r="AN175" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="176" spans="1:40" x14ac:dyDescent="0.2">
@@ -21785,7 +21788,7 @@
         <v>0</v>
       </c>
       <c r="AE176" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AF176" s="4" t="s">
         <v>44</v>
@@ -21809,7 +21812,7 @@
         <v>13001</v>
       </c>
       <c r="AM176" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AN176" s="4" t="s">
         <v>212</v>
@@ -21927,7 +21930,7 @@
         <v>13001</v>
       </c>
       <c r="AM177" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AN177" s="4" t="s">
         <v>213</v>
@@ -22045,10 +22048,10 @@
         <v>13003</v>
       </c>
       <c r="AM178" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AN178" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.2">
@@ -22139,7 +22142,7 @@
         <v>0</v>
       </c>
       <c r="AE179" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AF179" s="4" t="s">
         <v>44</v>
@@ -22163,10 +22166,10 @@
         <v>13003</v>
       </c>
       <c r="AM179" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AN179" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.2">
@@ -22281,10 +22284,10 @@
         <v>13003</v>
       </c>
       <c r="AM180" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AN180" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="181" spans="1:40" x14ac:dyDescent="0.2">
@@ -22402,7 +22405,7 @@
         <v>219</v>
       </c>
       <c r="AN181" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.2">
@@ -22520,7 +22523,7 @@
         <v>219</v>
       </c>
       <c r="AN182" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="183" spans="1:40" x14ac:dyDescent="0.2">
@@ -22638,7 +22641,7 @@
         <v>219</v>
       </c>
       <c r="AN183" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.2">
@@ -22756,7 +22759,7 @@
         <v>224</v>
       </c>
       <c r="AN184" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.2">
@@ -22874,7 +22877,7 @@
         <v>224</v>
       </c>
       <c r="AN185" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="186" spans="1:40" x14ac:dyDescent="0.2">
@@ -22992,7 +22995,7 @@
         <v>224</v>
       </c>
       <c r="AN186" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.2">
@@ -23081,7 +23084,7 @@
         <v>0</v>
       </c>
       <c r="AE187" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AF187" s="4" t="s">
         <v>44</v>
@@ -23340,7 +23343,7 @@
         <v>237</v>
       </c>
       <c r="AN189" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="190" spans="1:40" x14ac:dyDescent="0.2">
@@ -23688,7 +23691,7 @@
         <v>237</v>
       </c>
       <c r="AN192" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="193" spans="1:40" x14ac:dyDescent="0.2">
@@ -23777,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="AE193" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AF193" s="4" t="s">
         <v>44</v>
@@ -23801,10 +23804,10 @@
         <v>13000</v>
       </c>
       <c r="AM193" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AN193" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="197" spans="1:40" x14ac:dyDescent="0.2">
@@ -24036,7 +24039,7 @@
         <v>14002</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -24148,7 +24151,7 @@
         <v>14003</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -24260,7 +24263,7 @@
         <v>14004</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E8A5D8-7669-44B2-86D6-335878B27EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3E9618-5B42-4AB3-A40B-45E8914B5CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="3390" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="3915" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -2724,7 +2724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2765,6 +2765,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3049,10 +3052,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="P124" sqref="P124"/>
+      <selection pane="topRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5284,8 +5287,8 @@
       <c r="D23" s="4">
         <v>5</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
+      <c r="E23" s="16">
+        <v>50</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3E9618-5B42-4AB3-A40B-45E8914B5CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D86F9B-CFD8-491C-ADB9-20FCB40B4742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="3915" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="3270" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -2724,7 +2724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2765,9 +2765,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3055,7 +3052,7 @@
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="E23" sqref="E23"/>
+      <selection pane="topRight" activeCell="G27" sqref="G27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5287,8 +5284,8 @@
       <c r="D23" s="4">
         <v>5</v>
       </c>
-      <c r="E23" s="16">
-        <v>50</v>
+      <c r="E23" s="4">
+        <v>0</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D86F9B-CFD8-491C-ADB9-20FCB40B4742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA2416E-73A7-4CB6-AA43-9200C8DA5F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="3270" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="2115" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -2724,7 +2724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2765,6 +2765,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3049,10 +3052,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="G27" sqref="G27:H27"/>
+      <selection pane="topRight" activeCell="AE41" sqref="AE41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7328,8 +7331,8 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-      <c r="AE41" s="4" t="s">
-        <v>122</v>
+      <c r="AE41" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="AF41" s="4" t="s">
         <v>44</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC40D283-C145-43D1-8E43-E4F87EA90A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3769D47B-CF03-42E0-81F2-D68C03D013D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="5250" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="4500" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -2037,10 +2037,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[413140,413142]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[413131]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2550,6 +2546,10 @@
   </si>
   <si>
     <t>隐匿度降为0后，猫咪会遭到人类剿杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[413140,413142]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3011,10 +3011,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="AP9" sqref="AP9"/>
+      <selection pane="topRight" activeCell="AI55" sqref="AI55:AJ55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3255,7 +3255,7 @@
         <v>10000</v>
       </c>
       <c r="AM2" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AN2" s="4" t="s">
         <v>244</v>
@@ -3371,7 +3371,7 @@
         <v>10007</v>
       </c>
       <c r="AM3" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AN3" s="4" t="s">
         <v>245</v>
@@ -3487,7 +3487,7 @@
         <v>10007</v>
       </c>
       <c r="AM4" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AN4" s="4" t="s">
         <v>254</v>
@@ -3603,10 +3603,10 @@
         <v>10007</v>
       </c>
       <c r="AM5" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
         <v>11310</v>
       </c>
       <c r="AM6" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN6" s="4" t="s">
         <v>258</v>
@@ -3835,10 +3835,10 @@
         <v>10007</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -3951,10 +3951,10 @@
         <v>10007</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4067,7 +4067,7 @@
         <v>10007</v>
       </c>
       <c r="AM9" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AN9" s="4" t="s">
         <v>260</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF14" s="4" t="s">
         <v>44</v>
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF15" s="4" t="s">
         <v>44</v>
@@ -4766,7 +4766,7 @@
         <v>271</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
         <v>10200</v>
       </c>
       <c r="AM18" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AN18" s="4" t="s">
         <v>272</v>
@@ -4995,7 +4995,7 @@
         <v>10200</v>
       </c>
       <c r="AM19" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AN19" s="4" t="s">
         <v>274</v>
@@ -5111,10 +5111,10 @@
         <v>10200</v>
       </c>
       <c r="AM20" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN20" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="AN20" s="4" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5227,7 +5227,7 @@
         <v>10200</v>
       </c>
       <c r="AM21" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AN21" s="4" t="s">
         <v>275</v>
@@ -5343,7 +5343,7 @@
         <v>11000</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AN24" s="4" t="s">
         <v>276</v>
@@ -5926,7 +5926,7 @@
         <v>247</v>
       </c>
       <c r="AN29" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF30" s="4" t="s">
         <v>44</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF31" s="4" t="s">
         <v>44</v>
@@ -6155,7 +6155,7 @@
         <v>11010</v>
       </c>
       <c r="AM31" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AN31" s="4" t="s">
         <v>50</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF32" s="4" t="s">
         <v>44</v>
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF33" s="4" t="s">
         <v>44</v>
@@ -6387,7 +6387,7 @@
         <v>11010</v>
       </c>
       <c r="AM33" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AN33" s="4" t="s">
         <v>50</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF34" s="4" t="s">
         <v>44</v>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="AE35" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF35" s="4" t="s">
         <v>44</v>
@@ -6619,7 +6619,7 @@
         <v>11010</v>
       </c>
       <c r="AM35" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AN35" s="4" t="s">
         <v>50</v>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF37" s="4" t="s">
         <v>44</v>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF39" s="4" t="s">
         <v>44</v>
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="5">
         <v>200</v>
@@ -7523,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="AE45" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF45" s="4" t="s">
         <v>44</v>
@@ -7663,7 +7663,7 @@
         <v>11000</v>
       </c>
       <c r="AM46" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AN46" s="4" t="s">
         <v>276</v>
@@ -7779,7 +7779,7 @@
         <v>11000</v>
       </c>
       <c r="AM47" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AN47" s="4" t="s">
         <v>276</v>
@@ -7880,7 +7880,7 @@
         <v>44</v>
       </c>
       <c r="AH48" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI48" s="4" t="s">
         <v>44</v>
@@ -7895,7 +7895,7 @@
         <v>11003</v>
       </c>
       <c r="AM48" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AN48" s="4" t="s">
         <v>279</v>
@@ -8016,7 +8016,7 @@
         <v>281</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8245,7 +8245,7 @@
         <v>11210</v>
       </c>
       <c r="AM51" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN51" s="4" t="s">
         <v>250</v>
@@ -8363,7 +8363,7 @@
         <v>11210</v>
       </c>
       <c r="AM52" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN52" s="4" t="s">
         <v>283</v>
@@ -8479,7 +8479,7 @@
         <v>11210</v>
       </c>
       <c r="AM53" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AN53" s="4" t="s">
         <v>59</v>
@@ -8595,7 +8595,7 @@
         <v>11210</v>
       </c>
       <c r="AM54" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AN54" s="4" t="s">
         <v>251</v>
@@ -8711,7 +8711,7 @@
         <v>11210</v>
       </c>
       <c r="AM55" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AN55" s="4" t="s">
         <v>285</v>
@@ -8827,10 +8827,10 @@
         <v>11210</v>
       </c>
       <c r="AM56" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AN56" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
@@ -8838,7 +8838,7 @@
         <v>11216</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C57" s="4">
         <v>3</v>
@@ -8919,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF57" s="4" t="s">
         <v>44</v>
@@ -8943,10 +8943,10 @@
         <v>11210</v>
       </c>
       <c r="AM57" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="AN57" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="AN57" s="4" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="AE59" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF59" s="4" t="s">
         <v>44</v>
@@ -9392,7 +9392,7 @@
         <v>44</v>
       </c>
       <c r="AH62" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AI62" s="4" t="s">
         <v>44</v>
@@ -9528,7 +9528,7 @@
         <v>281</v>
       </c>
       <c r="AN63" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF65" s="4" t="s">
         <v>44</v>
@@ -9757,7 +9757,7 @@
         <v>11310</v>
       </c>
       <c r="AM65" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AN65" s="4" t="s">
         <v>291</v>
@@ -9873,7 +9873,7 @@
         <v>11310</v>
       </c>
       <c r="AM66" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AN66" s="4" t="s">
         <v>292</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E67" s="4">
         <v>0</v>
@@ -9967,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF67" s="4" t="s">
         <v>44</v>
@@ -9991,7 +9991,7 @@
         <v>11310</v>
       </c>
       <c r="AM67" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AN67" s="4" t="s">
         <v>293</v>
@@ -10092,7 +10092,7 @@
         <v>44</v>
       </c>
       <c r="AH68" s="4" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="AI68" s="4" t="s">
         <v>44</v>
@@ -10107,7 +10107,7 @@
         <v>11310</v>
       </c>
       <c r="AM68" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AN68" s="4" t="s">
         <v>69</v>
@@ -10199,16 +10199,16 @@
         <v>0</v>
       </c>
       <c r="AE69" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AF69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH69" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="AF69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH69" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="AI69" s="4" t="s">
         <v>44</v>
@@ -10223,7 +10223,7 @@
         <v>11310</v>
       </c>
       <c r="AM69" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AN69" s="4" t="s">
         <v>71</v>
@@ -10339,7 +10339,7 @@
         <v>11310</v>
       </c>
       <c r="AM70" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AN70" s="4" t="s">
         <v>294</v>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="AE72" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF72" s="4" t="s">
         <v>44</v>
@@ -10571,7 +10571,7 @@
         <v>11310</v>
       </c>
       <c r="AM72" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN72" s="4" t="s">
         <v>297</v>
@@ -10687,7 +10687,7 @@
         <v>11310</v>
       </c>
       <c r="AM73" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AN73" s="4" t="s">
         <v>298</v>
@@ -10803,7 +10803,7 @@
         <v>11310</v>
       </c>
       <c r="AM74" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AN74" s="4" t="s">
         <v>299</v>
@@ -10919,7 +10919,7 @@
         <v>11310</v>
       </c>
       <c r="AM75" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AN75" s="4" t="s">
         <v>363</v>
@@ -11011,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="AE77" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF77" s="4" t="s">
         <v>44</v>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="AE78" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF78" s="4" t="s">
         <v>44</v>
@@ -11368,7 +11368,7 @@
         <v>44</v>
       </c>
       <c r="AH80" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AI80" s="4" t="s">
         <v>44</v>
@@ -11504,7 +11504,7 @@
         <v>194</v>
       </c>
       <c r="AN81" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.2">
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="AE84" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF84" s="4" t="s">
         <v>44</v>
@@ -12066,7 +12066,7 @@
         <v>44</v>
       </c>
       <c r="AH87" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AI87" s="4" t="s">
         <v>44</v>
@@ -12202,7 +12202,7 @@
         <v>194</v>
       </c>
       <c r="AN88" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.2">
@@ -12431,10 +12431,10 @@
         <v>11510</v>
       </c>
       <c r="AM90" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="AN90" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="AN90" s="4" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="91" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12547,7 +12547,7 @@
         <v>11510</v>
       </c>
       <c r="AM91" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AN91" s="4" t="s">
         <v>86</v>
@@ -12663,7 +12663,7 @@
         <v>11510</v>
       </c>
       <c r="AM92" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AN92" s="4" t="s">
         <v>308</v>
@@ -12779,7 +12779,7 @@
         <v>11510</v>
       </c>
       <c r="AM93" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AN93" s="4" t="s">
         <v>308</v>
@@ -13246,7 +13246,7 @@
         <v>311</v>
       </c>
       <c r="AN97" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.2">
@@ -13335,7 +13335,7 @@
         <v>0</v>
       </c>
       <c r="AE98" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF98" s="4" t="s">
         <v>44</v>
@@ -13359,7 +13359,7 @@
         <v>11510</v>
       </c>
       <c r="AM98" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AN98" s="4" t="s">
         <v>313</v>
@@ -13452,7 +13452,7 @@
         <v>0</v>
       </c>
       <c r="AE100" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF100" s="4" t="s">
         <v>44</v>
@@ -13809,7 +13809,7 @@
         <v>44</v>
       </c>
       <c r="AH103" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AI103" s="4" t="s">
         <v>44</v>
@@ -13945,7 +13945,7 @@
         <v>194</v>
       </c>
       <c r="AN104" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.2">
@@ -14174,7 +14174,7 @@
         <v>11610</v>
       </c>
       <c r="AM106" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AN106" s="4" t="s">
         <v>317</v>
@@ -14290,10 +14290,10 @@
         <v>11610</v>
       </c>
       <c r="AM107" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="AN107" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="AN107" s="4" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="108" spans="1:42" ht="28.5" x14ac:dyDescent="0.2">
@@ -14406,10 +14406,10 @@
         <v>11610</v>
       </c>
       <c r="AM108" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN108" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="AN108" s="4" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.2">
@@ -14614,7 +14614,7 @@
         <v>0</v>
       </c>
       <c r="AE111" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AF111" s="4" t="s">
         <v>44</v>
@@ -14971,7 +14971,7 @@
         <v>44</v>
       </c>
       <c r="AH114" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AI114" s="4" t="s">
         <v>44</v>
@@ -15107,7 +15107,7 @@
         <v>194</v>
       </c>
       <c r="AN115" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.2">
@@ -15336,7 +15336,7 @@
         <v>11710</v>
       </c>
       <c r="AM117" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AN117" s="4" t="s">
         <v>323</v>
@@ -15452,10 +15452,10 @@
         <v>11710</v>
       </c>
       <c r="AM118" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="AN118" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="AN118" s="4" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15568,7 +15568,7 @@
         <v>11710</v>
       </c>
       <c r="AM119" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AN119" s="4" t="s">
         <v>324</v>
@@ -15688,10 +15688,10 @@
         <v>11710</v>
       </c>
       <c r="AM120" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AN120" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="AN120" s="4" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="121" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15780,7 +15780,7 @@
         <v>0</v>
       </c>
       <c r="AE121" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF121" s="4" t="s">
         <v>44</v>
@@ -15804,10 +15804,10 @@
         <v>11710</v>
       </c>
       <c r="AM121" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="AN121" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="AN121" s="4" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="122" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15815,7 +15815,7 @@
         <v>11715</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C122" s="4">
         <v>3</v>
@@ -15920,7 +15920,7 @@
         <v>11710</v>
       </c>
       <c r="AM122" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AN122" s="4" t="s">
         <v>325</v>
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="AE124" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF124" s="4" t="s">
         <v>44</v>
@@ -16369,7 +16369,7 @@
         <v>44</v>
       </c>
       <c r="AH127" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AI127" s="4" t="s">
         <v>44</v>
@@ -16505,7 +16505,7 @@
         <v>194</v>
       </c>
       <c r="AN128" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="129" spans="1:40" x14ac:dyDescent="0.2">
@@ -16594,7 +16594,7 @@
         <v>0</v>
       </c>
       <c r="AE129" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF129" s="4" t="s">
         <v>44</v>
@@ -16852,7 +16852,7 @@
         <v>11811</v>
       </c>
       <c r="AM131" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN131" s="4" t="s">
         <v>328</v>
@@ -16944,7 +16944,7 @@
         <v>0</v>
       </c>
       <c r="AE133" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF133" s="4" t="s">
         <v>44</v>
@@ -17301,7 +17301,7 @@
         <v>44</v>
       </c>
       <c r="AH136" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AI136" s="4" t="s">
         <v>44</v>
@@ -17410,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="AE137" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AF137" s="4" t="s">
         <v>44</v>
@@ -17437,7 +17437,7 @@
         <v>194</v>
       </c>
       <c r="AN137" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.2">
@@ -17666,10 +17666,10 @@
         <v>11913</v>
       </c>
       <c r="AM139" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN139" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="AN139" s="4" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="140" spans="1:40" x14ac:dyDescent="0.2">
@@ -17782,7 +17782,7 @@
         <v>11913</v>
       </c>
       <c r="AM140" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AN140" s="4" t="s">
         <v>332</v>
@@ -17898,7 +17898,7 @@
         <v>11913</v>
       </c>
       <c r="AM141" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AN141" s="4" t="s">
         <v>333</v>
@@ -17990,7 +17990,7 @@
         <v>0</v>
       </c>
       <c r="AE142" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF142" s="4" t="s">
         <v>44</v>
@@ -18130,7 +18130,7 @@
         <v>11913</v>
       </c>
       <c r="AM143" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN143" s="4" t="s">
         <v>335</v>
@@ -18246,7 +18246,7 @@
         <v>11913</v>
       </c>
       <c r="AM144" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN144" s="4" t="s">
         <v>335</v>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="AE146" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF146" s="4" t="s">
         <v>44</v>
@@ -18737,7 +18737,7 @@
         <v>44</v>
       </c>
       <c r="AH149" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AI149" s="4" t="s">
         <v>44</v>
@@ -18846,7 +18846,7 @@
         <v>0</v>
       </c>
       <c r="AE150" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF150" s="4" t="s">
         <v>44</v>
@@ -18873,7 +18873,7 @@
         <v>194</v>
       </c>
       <c r="AN150" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="151" spans="1:40" x14ac:dyDescent="0.2">
@@ -19102,7 +19102,7 @@
         <v>12010</v>
       </c>
       <c r="AM152" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN152" s="4" t="s">
         <v>338</v>
@@ -19218,10 +19218,10 @@
         <v>12010</v>
       </c>
       <c r="AM153" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="AN153" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AN153" s="4" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="154" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19337,7 +19337,7 @@
         <v>339</v>
       </c>
       <c r="AN154" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="155" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19798,10 +19798,10 @@
         <v>12010</v>
       </c>
       <c r="AM158" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN158" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="AN158" s="4" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.2">
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="AE160" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF160" s="4" t="s">
         <v>44</v>
@@ -20247,7 +20247,7 @@
         <v>44</v>
       </c>
       <c r="AH163" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AI163" s="4" t="s">
         <v>44</v>
@@ -20383,7 +20383,7 @@
         <v>194</v>
       </c>
       <c r="AN164" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="165" spans="1:40" x14ac:dyDescent="0.2">
@@ -20612,10 +20612,10 @@
         <v>12113</v>
       </c>
       <c r="AM166" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="AN166" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="AN166" s="4" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="167" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="AE167" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF167" s="4" t="s">
         <v>44</v>
@@ -20728,7 +20728,7 @@
         <v>12113</v>
       </c>
       <c r="AM167" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AN167" s="4" t="s">
         <v>343</v>
@@ -20844,7 +20844,7 @@
         <v>12113</v>
       </c>
       <c r="AM168" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AN168" s="4" t="s">
         <v>344</v>
@@ -20960,10 +20960,10 @@
         <v>12113</v>
       </c>
       <c r="AM169" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN169" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="170" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21076,10 +21076,10 @@
         <v>12113</v>
       </c>
       <c r="AM170" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="AN170" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="AN170" s="4" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="171" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21192,7 +21192,7 @@
         <v>12113</v>
       </c>
       <c r="AM171" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AN171" s="4" t="s">
         <v>345</v>
@@ -21308,10 +21308,10 @@
         <v>12113</v>
       </c>
       <c r="AM172" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="AN172" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="AN172" s="4" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="173" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21424,10 +21424,10 @@
         <v>12113</v>
       </c>
       <c r="AM173" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="AN173" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="AN173" s="4" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="174" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21540,10 +21540,10 @@
         <v>12113</v>
       </c>
       <c r="AM174" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="AN174" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="AN174" s="4" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="176" spans="1:40" x14ac:dyDescent="0.2">
@@ -21632,7 +21632,7 @@
         <v>0</v>
       </c>
       <c r="AE176" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF176" s="4" t="s">
         <v>44</v>
@@ -21750,7 +21750,7 @@
         <v>0</v>
       </c>
       <c r="AE177" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AF177" s="4" t="s">
         <v>44</v>
@@ -23046,7 +23046,7 @@
         <v>0</v>
       </c>
       <c r="AE188" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AF188" s="4" t="s">
         <v>44</v>
@@ -23742,7 +23742,7 @@
         <v>0</v>
       </c>
       <c r="AE194" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF194" s="4" t="s">
         <v>44</v>
@@ -23769,7 +23769,7 @@
         <v>353</v>
       </c>
       <c r="AN194" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="198" spans="1:40" x14ac:dyDescent="0.2">
@@ -24001,7 +24001,7 @@
         <v>14002</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>14003</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -24225,7 +24225,7 @@
         <v>14004</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3769D47B-CF03-42E0-81F2-D68C03D013D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44672A0-2030-4A5E-8640-2581131FE143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4335" yWindow="4500" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3011,10 +3011,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="T1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="AI55" sqref="AI55:AJ55"/>
+      <selection pane="topRight" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="5">
-        <v>60001</v>
+        <v>60000</v>
       </c>
       <c r="H57" s="5">
         <v>1</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44672A0-2030-4A5E-8640-2581131FE143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F2C8F3-143F-46E5-9728-60C2C305EDC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="4500" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10635" yWindow="3915" windowWidth="25785" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="517">
   <si>
     <t>Id</t>
   </si>
@@ -1420,30 +1420,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猫咪凯修参与行动，获得“猫咪入住”能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪科恩参与行动，获得“猫咪洗脑”能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[430020,430021]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猫咪巡游</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[430030,430031]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[430050,430051,430052]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猫咪仪式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1452,18 +1432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[430060,430061]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[430070,430071]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[430080,430081,430082]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猫咪集会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1472,22 +1440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[430090,430091]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[430100,430101]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[430110,430111,430112]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[430110,430111,430113]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>穿梭特训</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1960,9 +1912,6 @@
   </si>
   <si>
     <t>消耗20点影响力</t>
-  </si>
-  <si>
-    <t>[430040,430041,459002]</t>
   </si>
   <si>
     <t>猫咪全员交际能力提升，交流事件执行加快</t>
@@ -2065,10 +2014,6 @@
 女仆：情况还在恶化，恐怕撑不过今夜了。</t>
   </si>
   <si>
-    <t>国王：猫、猫说话了！这将死之人的幻觉吗？
-西蒙：是猫咪拯救了你，陛下。</t>
-  </si>
-  <si>
     <t>国王：那只黑猫在骗我吗，亲王要谋反？
 国王：我得想办法离开这里。</t>
   </si>
@@ -2469,10 +2414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[430010,430011]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[430120]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2545,11 +2486,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>隐匿度降为0后，猫咪会遭到人类剿杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[413140,413142]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王：猫、猫说话了！这将死之人的幻觉吗？
+猫咪西蒙：是猫咪拯救了你，陛下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王有几分动摇</t>
+  </si>
+  <si>
+    <t>[430011]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[430021]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[430031]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[430041]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[430061]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[430071]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[430091]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[430101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗40点影响力，猫咪凯修参与行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗40点影响力，猫咪科恩参与行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[430051]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[430081]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[430111]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得神启的猫咪参与，消耗20点影响力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住主教家中寻找文献，消耗20点影响力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救过知情的猫咪，消耗20点影响力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3011,10 +3020,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="G57" sqref="G57"/>
+      <selection pane="topRight" activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3100,10 +3109,10 @@
         <v>175</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -3156,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -3231,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>122</v>
@@ -3255,10 +3264,10 @@
         <v>10000</v>
       </c>
       <c r="AM2" s="13" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3272,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -3347,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>44</v>
@@ -3371,10 +3380,10 @@
         <v>10007</v>
       </c>
       <c r="AM3" s="13" t="s">
-        <v>377</v>
+        <v>499</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3388,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -3463,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="AF4" s="4" t="s">
         <v>44</v>
@@ -3487,10 +3496,10 @@
         <v>10007</v>
       </c>
       <c r="AM4" s="13" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3504,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -3579,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="AF5" s="4" t="s">
         <v>44</v>
@@ -3603,10 +3612,10 @@
         <v>10007</v>
       </c>
       <c r="AM5" s="13" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3614,13 +3623,13 @@
         <v>10004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -3695,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>44</v>
@@ -3719,10 +3728,10 @@
         <v>11310</v>
       </c>
       <c r="AM6" s="13" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
@@ -3736,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -3811,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>44</v>
@@ -3835,10 +3844,10 @@
         <v>10007</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -3852,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -3927,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>44</v>
@@ -3951,10 +3960,10 @@
         <v>10007</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3968,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -4043,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AF9" s="4" t="s">
         <v>44</v>
@@ -4067,10 +4076,10 @@
         <v>10007</v>
       </c>
       <c r="AM9" s="13" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
@@ -4084,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -4183,10 +4192,10 @@
         <v>10105</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -4200,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="4">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -4299,10 +4308,10 @@
         <v>10105</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
@@ -4316,7 +4325,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="4">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -4415,10 +4424,10 @@
         <v>10105</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
@@ -4432,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -4507,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="AF14" s="4" t="s">
         <v>44</v>
@@ -4531,10 +4540,10 @@
         <v>10105</v>
       </c>
       <c r="AM14" s="4" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
@@ -4548,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -4623,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="AF15" s="4" t="s">
         <v>44</v>
@@ -4647,10 +4656,10 @@
         <v>10105</v>
       </c>
       <c r="AM15" s="4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
@@ -4661,10 +4670,10 @@
         <v>184</v>
       </c>
       <c r="C16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -4763,10 +4772,10 @@
         <v>10105</v>
       </c>
       <c r="AM16" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4780,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -4855,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="AF18" s="4" t="s">
         <v>44</v>
@@ -4879,10 +4888,10 @@
         <v>10200</v>
       </c>
       <c r="AM18" s="13" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
@@ -4890,16 +4899,16 @@
         <v>10201</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
       </c>
       <c r="D19" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E19" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -4995,10 +5004,10 @@
         <v>10200</v>
       </c>
       <c r="AM19" s="4" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="AN19" s="4" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5012,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -5111,10 +5120,10 @@
         <v>10200</v>
       </c>
       <c r="AM20" s="13" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5128,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -5227,10 +5236,10 @@
         <v>10200</v>
       </c>
       <c r="AM21" s="13" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="AN21" s="4" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
@@ -5244,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -5343,10 +5352,10 @@
         <v>11000</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
@@ -5360,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -5462,7 +5471,7 @@
         <v>193</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -5476,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -5578,7 +5587,7 @@
         <v>193</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -5592,7 +5601,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -5691,10 +5700,10 @@
         <v>11003</v>
       </c>
       <c r="AM27" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -5708,7 +5717,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -5810,7 +5819,7 @@
         <v>47</v>
       </c>
       <c r="AN28" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -5824,7 +5833,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -5923,10 +5932,10 @@
         <v>11005</v>
       </c>
       <c r="AM29" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="AN29" s="4" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
@@ -5940,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E30" s="4">
         <v>90</v>
@@ -6015,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="AF30" s="4" t="s">
         <v>44</v>
@@ -6039,7 +6048,7 @@
         <v>11010</v>
       </c>
       <c r="AM30" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AN30" s="4" t="s">
         <v>50</v>
@@ -6056,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E31" s="4">
         <v>90</v>
@@ -6131,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="AF31" s="4" t="s">
         <v>44</v>
@@ -6155,7 +6164,7 @@
         <v>11010</v>
       </c>
       <c r="AM31" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AN31" s="4" t="s">
         <v>50</v>
@@ -6172,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E32" s="4">
         <v>90</v>
@@ -6247,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="AF32" s="4" t="s">
         <v>44</v>
@@ -6271,7 +6280,7 @@
         <v>11010</v>
       </c>
       <c r="AM32" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AN32" s="4" t="s">
         <v>50</v>
@@ -6288,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="4">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E33" s="4">
         <v>90</v>
@@ -6363,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="AF33" s="4" t="s">
         <v>44</v>
@@ -6387,7 +6396,7 @@
         <v>11010</v>
       </c>
       <c r="AM33" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AN33" s="4" t="s">
         <v>50</v>
@@ -6404,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="4">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E34" s="4">
         <v>90</v>
@@ -6479,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="AF34" s="4" t="s">
         <v>44</v>
@@ -6503,7 +6512,7 @@
         <v>11010</v>
       </c>
       <c r="AM34" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AN34" s="4" t="s">
         <v>50</v>
@@ -6520,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E35" s="4">
         <v>90</v>
@@ -6595,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AE35" s="4" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="AF35" s="4" t="s">
         <v>44</v>
@@ -6619,7 +6628,7 @@
         <v>11010</v>
       </c>
       <c r="AM35" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AN35" s="4" t="s">
         <v>50</v>
@@ -6636,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -6711,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="AF37" s="4" t="s">
         <v>44</v>
@@ -6738,7 +6747,7 @@
         <v>193</v>
       </c>
       <c r="AN37" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -6752,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -6854,7 +6863,7 @@
         <v>193</v>
       </c>
       <c r="AN38" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
@@ -6868,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -6943,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="AF39" s="4" t="s">
         <v>44</v>
@@ -6970,7 +6979,7 @@
         <v>193</v>
       </c>
       <c r="AN39" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
@@ -6984,7 +6993,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -7083,10 +7092,10 @@
         <v>11003</v>
       </c>
       <c r="AM40" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AN40" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
@@ -7100,7 +7109,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -7202,7 +7211,7 @@
         <v>194</v>
       </c>
       <c r="AN41" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
@@ -7216,7 +7225,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -7318,7 +7327,7 @@
         <v>195</v>
       </c>
       <c r="AN42" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
@@ -7332,7 +7341,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -7431,10 +7440,10 @@
         <v>13001</v>
       </c>
       <c r="AM43" s="14" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="AN43" s="4" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -7448,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
@@ -7523,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="AE45" s="4" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="AF45" s="4" t="s">
         <v>44</v>
@@ -7550,7 +7559,7 @@
         <v>193</v>
       </c>
       <c r="AN45" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -7564,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
@@ -7663,10 +7672,10 @@
         <v>11000</v>
       </c>
       <c r="AM46" s="4" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="AN46" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
@@ -7680,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
@@ -7779,10 +7788,10 @@
         <v>11000</v>
       </c>
       <c r="AM47" s="4" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="AN47" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
@@ -7796,7 +7805,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -7871,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="4" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF48" s="4" t="s">
         <v>44</v>
@@ -7880,7 +7889,7 @@
         <v>44</v>
       </c>
       <c r="AH48" s="4" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="AI48" s="4" t="s">
         <v>44</v>
@@ -7895,10 +7904,10 @@
         <v>11003</v>
       </c>
       <c r="AM48" s="4" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="AN48" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.2">
@@ -7912,7 +7921,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
@@ -7989,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="4" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="AF49" s="4" t="s">
         <v>44</v>
@@ -8013,10 +8022,10 @@
         <v>11004</v>
       </c>
       <c r="AM49" s="4" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8030,7 +8039,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -8132,7 +8141,7 @@
         <v>195</v>
       </c>
       <c r="AN50" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8146,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E51" s="4">
         <v>0</v>
@@ -8245,10 +8254,10 @@
         <v>11210</v>
       </c>
       <c r="AM51" s="13" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="AN51" s="4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8262,7 +8271,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E52" s="4">
         <v>0</v>
@@ -8363,10 +8372,10 @@
         <v>11210</v>
       </c>
       <c r="AM52" s="13" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AN52" s="4" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8380,7 +8389,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
@@ -8479,7 +8488,7 @@
         <v>11210</v>
       </c>
       <c r="AM53" s="13" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="AN53" s="4" t="s">
         <v>59</v>
@@ -8496,7 +8505,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
@@ -8580,7 +8589,7 @@
         <v>44</v>
       </c>
       <c r="AH54" s="4" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AI54" s="4" t="s">
         <v>44</v>
@@ -8595,10 +8604,10 @@
         <v>11210</v>
       </c>
       <c r="AM54" s="13" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="AN54" s="4" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8612,7 +8621,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E55" s="4">
         <v>0</v>
@@ -8711,10 +8720,10 @@
         <v>11210</v>
       </c>
       <c r="AM55" s="13" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="AN55" s="4" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8728,7 +8737,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E56" s="4">
         <v>0</v>
@@ -8803,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="AE56" s="4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AF56" s="4" t="s">
         <v>44</v>
@@ -8827,10 +8836,10 @@
         <v>11210</v>
       </c>
       <c r="AM56" s="13" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="AN56" s="4" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
@@ -8838,13 +8847,13 @@
         <v>11216</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C57" s="4">
         <v>3</v>
       </c>
       <c r="D57" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
@@ -8919,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="4" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="AF57" s="4" t="s">
         <v>44</v>
@@ -8943,10 +8952,10 @@
         <v>11210</v>
       </c>
       <c r="AM57" s="13" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="AN57" s="4" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
@@ -8960,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E59" s="4">
         <v>0</v>
@@ -9035,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="AE59" s="4" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="AF59" s="4" t="s">
         <v>44</v>
@@ -9062,7 +9071,7 @@
         <v>193</v>
       </c>
       <c r="AN59" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.2">
@@ -9076,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E60" s="4">
         <v>0</v>
@@ -9151,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AF60" s="4" t="s">
         <v>44</v>
@@ -9178,7 +9187,7 @@
         <v>193</v>
       </c>
       <c r="AN60" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.2">
@@ -9192,7 +9201,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E61" s="4">
         <v>0</v>
@@ -9294,7 +9303,7 @@
         <v>193</v>
       </c>
       <c r="AN61" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.2">
@@ -9308,7 +9317,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E62" s="4">
         <v>0</v>
@@ -9383,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="4" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AF62" s="4" t="s">
         <v>44</v>
@@ -9392,7 +9401,7 @@
         <v>44</v>
       </c>
       <c r="AH62" s="4" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="AI62" s="4" t="s">
         <v>44</v>
@@ -9407,10 +9416,10 @@
         <v>11003</v>
       </c>
       <c r="AM62" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AN62" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
@@ -9424,7 +9433,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E63" s="4">
         <v>0</v>
@@ -9501,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="AE63" s="4" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="AF63" s="4" t="s">
         <v>44</v>
@@ -9525,10 +9534,10 @@
         <v>11004</v>
       </c>
       <c r="AM63" s="4" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="AN63" s="4" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
@@ -9542,7 +9551,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E64" s="4">
         <v>0</v>
@@ -9617,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="4" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AF64" s="4" t="s">
         <v>44</v>
@@ -9644,7 +9653,7 @@
         <v>195</v>
       </c>
       <c r="AN64" s="4" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.2">
@@ -9658,7 +9667,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E65" s="4">
         <v>0</v>
@@ -9733,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="4" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="AF65" s="4" t="s">
         <v>44</v>
@@ -9757,10 +9766,10 @@
         <v>11310</v>
       </c>
       <c r="AM65" s="4" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="AN65" s="4" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.2">
@@ -9774,7 +9783,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -9873,10 +9882,10 @@
         <v>11310</v>
       </c>
       <c r="AM66" s="4" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="AN66" s="4" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.2">
@@ -9890,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="4">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E67" s="4">
         <v>0</v>
@@ -9967,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="4" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="AF67" s="4" t="s">
         <v>44</v>
@@ -9991,10 +10000,10 @@
         <v>11310</v>
       </c>
       <c r="AM67" s="4" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="AN67" s="4" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.2">
@@ -10008,7 +10017,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E68" s="4">
         <v>0</v>
@@ -10083,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="4" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="AF68" s="4" t="s">
         <v>44</v>
@@ -10107,7 +10116,7 @@
         <v>11310</v>
       </c>
       <c r="AM68" s="4" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="AN68" s="4" t="s">
         <v>69</v>
@@ -10124,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E69" s="4">
         <v>0</v>
@@ -10199,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="AE69" s="4" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="AF69" s="4" t="s">
         <v>44</v>
@@ -10208,7 +10217,7 @@
         <v>44</v>
       </c>
       <c r="AH69" s="4" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="AI69" s="4" t="s">
         <v>44</v>
@@ -10223,7 +10232,7 @@
         <v>11310</v>
       </c>
       <c r="AM69" s="4" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="AN69" s="4" t="s">
         <v>71</v>
@@ -10240,7 +10249,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E70" s="4">
         <v>0</v>
@@ -10315,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="AE70" s="4" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="AF70" s="4" t="s">
         <v>44</v>
@@ -10339,10 +10348,10 @@
         <v>11310</v>
       </c>
       <c r="AM70" s="4" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="AN70" s="4" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.2">
@@ -10356,7 +10365,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E71" s="4">
         <v>0</v>
@@ -10431,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="AE71" s="4" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="AF71" s="4" t="s">
         <v>44</v>
@@ -10455,10 +10464,10 @@
         <v>11310</v>
       </c>
       <c r="AM71" s="4" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="AN71" s="4" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.2">
@@ -10472,7 +10481,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E72" s="4">
         <v>0</v>
@@ -10547,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="AE72" s="4" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="AF72" s="4" t="s">
         <v>44</v>
@@ -10571,10 +10580,10 @@
         <v>11310</v>
       </c>
       <c r="AM72" s="4" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="AN72" s="4" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.2">
@@ -10588,7 +10597,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E73" s="4">
         <v>0</v>
@@ -10663,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="AE73" s="4" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="AF73" s="4" t="s">
         <v>44</v>
@@ -10687,10 +10696,10 @@
         <v>11310</v>
       </c>
       <c r="AM73" s="4" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="AN73" s="4" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.2">
@@ -10704,7 +10713,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E74" s="4">
         <v>0</v>
@@ -10779,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="AE74" s="4" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="AF74" s="4" t="s">
         <v>44</v>
@@ -10803,10 +10812,10 @@
         <v>11310</v>
       </c>
       <c r="AM74" s="4" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="AN74" s="4" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.2">
@@ -10820,7 +10829,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E75" s="4">
         <v>0</v>
@@ -10919,10 +10928,10 @@
         <v>11310</v>
       </c>
       <c r="AM75" s="4" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="AN75" s="4" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.2">
@@ -10936,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
@@ -11011,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="AE77" s="4" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="AF77" s="4" t="s">
         <v>44</v>
@@ -11035,10 +11044,10 @@
         <v>11000</v>
       </c>
       <c r="AM77" s="4" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="AN77" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.2">
@@ -11052,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E78" s="4">
         <v>0</v>
@@ -11127,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="AE78" s="4" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="AF78" s="4" t="s">
         <v>44</v>
@@ -11154,7 +11163,7 @@
         <v>193</v>
       </c>
       <c r="AN78" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.2">
@@ -11168,7 +11177,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E79" s="4">
         <v>0</v>
@@ -11270,7 +11279,7 @@
         <v>193</v>
       </c>
       <c r="AN79" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.2">
@@ -11284,7 +11293,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E80" s="4">
         <v>0</v>
@@ -11359,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="AE80" s="4" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="AF80" s="4" t="s">
         <v>44</v>
@@ -11368,7 +11377,7 @@
         <v>44</v>
       </c>
       <c r="AH80" s="4" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="AI80" s="4" t="s">
         <v>44</v>
@@ -11383,10 +11392,10 @@
         <v>11003</v>
       </c>
       <c r="AM80" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AN80" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.2">
@@ -11400,7 +11409,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E81" s="4">
         <v>0</v>
@@ -11477,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="AE81" s="4" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="AF81" s="4" t="s">
         <v>44</v>
@@ -11504,7 +11513,7 @@
         <v>194</v>
       </c>
       <c r="AN81" s="4" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.2">
@@ -11518,7 +11527,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E82" s="4">
         <v>0</v>
@@ -11593,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="AE82" s="4" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="AF82" s="4" t="s">
         <v>44</v>
@@ -11620,7 +11629,7 @@
         <v>195</v>
       </c>
       <c r="AN82" s="4" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.2">
@@ -11634,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E84" s="4">
         <v>0</v>
@@ -11709,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="AE84" s="4" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="AF84" s="4" t="s">
         <v>44</v>
@@ -11736,7 +11745,7 @@
         <v>193</v>
       </c>
       <c r="AN84" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.2">
@@ -11750,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E85" s="4">
         <v>0</v>
@@ -11852,7 +11861,7 @@
         <v>193</v>
       </c>
       <c r="AN85" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11866,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E86" s="4">
         <v>0</v>
@@ -11968,7 +11977,7 @@
         <v>193</v>
       </c>
       <c r="AN86" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11982,7 +11991,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E87" s="4">
         <v>0</v>
@@ -12057,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="AE87" s="4" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="AF87" s="4" t="s">
         <v>44</v>
@@ -12066,7 +12075,7 @@
         <v>44</v>
       </c>
       <c r="AH87" s="4" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="AI87" s="4" t="s">
         <v>44</v>
@@ -12081,10 +12090,10 @@
         <v>11003</v>
       </c>
       <c r="AM87" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AN87" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.2">
@@ -12098,7 +12107,7 @@
         <v>2</v>
       </c>
       <c r="D88" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E88" s="4">
         <v>0</v>
@@ -12175,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="AE88" s="4" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="AF88" s="4" t="s">
         <v>44</v>
@@ -12202,7 +12211,7 @@
         <v>194</v>
       </c>
       <c r="AN88" s="4" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.2">
@@ -12216,7 +12225,7 @@
         <v>2</v>
       </c>
       <c r="D89" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E89" s="4">
         <v>0</v>
@@ -12291,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="AE89" s="4" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="AF89" s="4" t="s">
         <v>44</v>
@@ -12318,7 +12327,7 @@
         <v>195</v>
       </c>
       <c r="AN89" s="4" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12332,7 +12341,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E90" s="4">
         <v>0</v>
@@ -12431,10 +12440,10 @@
         <v>11510</v>
       </c>
       <c r="AM90" s="13" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="AN90" s="4" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12448,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E91" s="4">
         <v>0</v>
@@ -12547,7 +12556,7 @@
         <v>11510</v>
       </c>
       <c r="AM91" s="13" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="AN91" s="4" t="s">
         <v>86</v>
@@ -12564,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E92" s="4">
         <v>0</v>
@@ -12648,7 +12657,7 @@
         <v>44</v>
       </c>
       <c r="AH92" s="4" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="AI92" s="4" t="s">
         <v>44</v>
@@ -12663,10 +12672,10 @@
         <v>11510</v>
       </c>
       <c r="AM92" s="4" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="AN92" s="4" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.2">
@@ -12680,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E93" s="4">
         <v>0</v>
@@ -12764,7 +12773,7 @@
         <v>44</v>
       </c>
       <c r="AH93" s="4" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="AI93" s="4" t="s">
         <v>44</v>
@@ -12779,10 +12788,10 @@
         <v>11510</v>
       </c>
       <c r="AM93" s="4" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="AN93" s="4" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.2">
@@ -12796,7 +12805,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E94" s="4">
         <v>60</v>
@@ -12895,10 +12904,10 @@
         <v>11510</v>
       </c>
       <c r="AM94" s="4" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="AN94" s="4" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.2">
@@ -12912,7 +12921,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E95" s="4">
         <v>60</v>
@@ -13011,7 +13020,7 @@
         <v>11510</v>
       </c>
       <c r="AM95" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AN95" s="4" t="s">
         <v>94</v>
@@ -13028,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E96" s="4">
         <v>60</v>
@@ -13127,7 +13136,7 @@
         <v>11510</v>
       </c>
       <c r="AM96" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AN96" s="4" t="s">
         <v>96</v>
@@ -13144,7 +13153,7 @@
         <v>2</v>
       </c>
       <c r="D97" s="4">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E97" s="4">
         <v>0</v>
@@ -13219,7 +13228,7 @@
         <v>0</v>
       </c>
       <c r="AE97" s="4" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="AF97" s="4" t="s">
         <v>44</v>
@@ -13243,10 +13252,10 @@
         <v>11510</v>
       </c>
       <c r="AM97" s="4" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AN97" s="4" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.2">
@@ -13260,7 +13269,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E98" s="4">
         <v>0</v>
@@ -13335,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="AE98" s="4" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="AF98" s="4" t="s">
         <v>44</v>
@@ -13359,10 +13368,10 @@
         <v>11510</v>
       </c>
       <c r="AM98" s="4" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="AN98" s="4" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="AP98" s="1"/>
     </row>
@@ -13377,7 +13386,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E100" s="4">
         <v>0</v>
@@ -13452,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="AE100" s="4" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="AF100" s="4" t="s">
         <v>44</v>
@@ -13479,7 +13488,7 @@
         <v>193</v>
       </c>
       <c r="AN100" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.2">
@@ -13493,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E101" s="4">
         <v>0</v>
@@ -13595,7 +13604,7 @@
         <v>193</v>
       </c>
       <c r="AN101" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.2">
@@ -13609,7 +13618,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E102" s="4">
         <v>0</v>
@@ -13711,7 +13720,7 @@
         <v>193</v>
       </c>
       <c r="AN102" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.2">
@@ -13725,7 +13734,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E103" s="4">
         <v>0</v>
@@ -13800,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="AE103" s="4" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="AF103" s="4" t="s">
         <v>44</v>
@@ -13809,7 +13818,7 @@
         <v>44</v>
       </c>
       <c r="AH103" s="4" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="AI103" s="4" t="s">
         <v>44</v>
@@ -13824,10 +13833,10 @@
         <v>11003</v>
       </c>
       <c r="AM103" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AN103" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.2">
@@ -13841,7 +13850,7 @@
         <v>2</v>
       </c>
       <c r="D104" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E104" s="4">
         <v>0</v>
@@ -13918,7 +13927,7 @@
         <v>0</v>
       </c>
       <c r="AE104" s="4" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="AF104" s="4" t="s">
         <v>44</v>
@@ -13945,7 +13954,7 @@
         <v>194</v>
       </c>
       <c r="AN104" s="4" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.2">
@@ -13959,7 +13968,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E105" s="4">
         <v>0</v>
@@ -14034,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="AE105" s="4" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="AF105" s="4" t="s">
         <v>44</v>
@@ -14061,7 +14070,7 @@
         <v>195</v>
       </c>
       <c r="AN105" s="4" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="28.5" x14ac:dyDescent="0.2">
@@ -14075,7 +14084,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E106" s="4">
         <v>0</v>
@@ -14150,7 +14159,7 @@
         <v>0</v>
       </c>
       <c r="AE106" s="4" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="AF106" s="4" t="s">
         <v>44</v>
@@ -14174,10 +14183,10 @@
         <v>11610</v>
       </c>
       <c r="AM106" s="13" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AN106" s="4" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="1:42" ht="28.5" x14ac:dyDescent="0.2">
@@ -14191,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E107" s="4">
         <v>0</v>
@@ -14290,10 +14299,10 @@
         <v>11610</v>
       </c>
       <c r="AM107" s="13" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="AN107" s="4" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" spans="1:42" ht="28.5" x14ac:dyDescent="0.2">
@@ -14307,7 +14316,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E108" s="4">
         <v>0</v>
@@ -14406,10 +14415,10 @@
         <v>11610</v>
       </c>
       <c r="AM108" s="13" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="AN108" s="4" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.2">
@@ -14423,7 +14432,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E109" s="4">
         <v>0</v>
@@ -14522,10 +14531,10 @@
         <v>11610</v>
       </c>
       <c r="AM109" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AN109" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.2">
@@ -14539,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E111" s="4">
         <v>0</v>
@@ -14614,7 +14623,7 @@
         <v>0</v>
       </c>
       <c r="AE111" s="4" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="AF111" s="4" t="s">
         <v>44</v>
@@ -14641,7 +14650,7 @@
         <v>193</v>
       </c>
       <c r="AN111" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.2">
@@ -14655,7 +14664,7 @@
         <v>1</v>
       </c>
       <c r="D112" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E112" s="4">
         <v>0</v>
@@ -14757,7 +14766,7 @@
         <v>193</v>
       </c>
       <c r="AN112" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:40" x14ac:dyDescent="0.2">
@@ -14771,7 +14780,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E113" s="4">
         <v>0</v>
@@ -14873,7 +14882,7 @@
         <v>193</v>
       </c>
       <c r="AN113" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.2">
@@ -14887,7 +14896,7 @@
         <v>3</v>
       </c>
       <c r="D114" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E114" s="4">
         <v>0</v>
@@ -14962,7 +14971,7 @@
         <v>0</v>
       </c>
       <c r="AE114" s="4" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="AF114" s="4" t="s">
         <v>44</v>
@@ -14971,7 +14980,7 @@
         <v>44</v>
       </c>
       <c r="AH114" s="4" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="AI114" s="4" t="s">
         <v>44</v>
@@ -14986,10 +14995,10 @@
         <v>11003</v>
       </c>
       <c r="AM114" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AN114" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15003,7 +15012,7 @@
         <v>2</v>
       </c>
       <c r="D115" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E115" s="4">
         <v>0</v>
@@ -15080,7 +15089,7 @@
         <v>0</v>
       </c>
       <c r="AE115" s="4" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="AF115" s="4" t="s">
         <v>44</v>
@@ -15107,7 +15116,7 @@
         <v>194</v>
       </c>
       <c r="AN115" s="4" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.2">
@@ -15121,7 +15130,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E116" s="4">
         <v>0</v>
@@ -15196,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="AE116" s="4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="AF116" s="4" t="s">
         <v>44</v>
@@ -15223,7 +15232,7 @@
         <v>195</v>
       </c>
       <c r="AN116" s="4" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="117" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15231,13 +15240,13 @@
         <v>11710</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C117" s="4">
         <v>1</v>
       </c>
       <c r="D117" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E117" s="4">
         <v>0</v>
@@ -15336,10 +15345,10 @@
         <v>11710</v>
       </c>
       <c r="AM117" s="13" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="AN117" s="4" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118" spans="1:40" x14ac:dyDescent="0.2">
@@ -15353,7 +15362,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E118" s="4">
         <v>0</v>
@@ -15452,10 +15461,10 @@
         <v>11710</v>
       </c>
       <c r="AM118" s="4" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="AN118" s="4" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15469,7 +15478,7 @@
         <v>3</v>
       </c>
       <c r="D119" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E119" s="4">
         <v>0</v>
@@ -15568,10 +15577,10 @@
         <v>11710</v>
       </c>
       <c r="AM119" s="13" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="AN119" s="4" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15585,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E120" s="4">
         <v>0</v>
@@ -15688,10 +15697,10 @@
         <v>11710</v>
       </c>
       <c r="AM120" s="13" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="AN120" s="4" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="121" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15705,7 +15714,7 @@
         <v>1</v>
       </c>
       <c r="D121" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E121" s="4">
         <v>0</v>
@@ -15780,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="AE121" s="4" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="AF121" s="4" t="s">
         <v>44</v>
@@ -15804,10 +15813,10 @@
         <v>11710</v>
       </c>
       <c r="AM121" s="13" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="AN121" s="4" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="122" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15815,13 +15824,13 @@
         <v>11715</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="C122" s="4">
         <v>3</v>
       </c>
       <c r="D122" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E122" s="4">
         <v>0</v>
@@ -15899,7 +15908,7 @@
         <v>118</v>
       </c>
       <c r="AF122" s="4" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="AG122" s="4" t="s">
         <v>44</v>
@@ -15920,10 +15929,10 @@
         <v>11710</v>
       </c>
       <c r="AM122" s="13" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="AN122" s="4" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.2">
@@ -15937,7 +15946,7 @@
         <v>1</v>
       </c>
       <c r="D124" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E124" s="4">
         <v>0</v>
@@ -16012,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="AE124" s="4" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="AF124" s="4" t="s">
         <v>44</v>
@@ -16039,7 +16048,7 @@
         <v>193</v>
       </c>
       <c r="AN124" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:40" x14ac:dyDescent="0.2">
@@ -16053,7 +16062,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E125" s="4">
         <v>0</v>
@@ -16155,7 +16164,7 @@
         <v>193</v>
       </c>
       <c r="AN125" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.2">
@@ -16169,7 +16178,7 @@
         <v>1</v>
       </c>
       <c r="D126" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E126" s="4">
         <v>0</v>
@@ -16271,7 +16280,7 @@
         <v>193</v>
       </c>
       <c r="AN126" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16285,7 +16294,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E127" s="4">
         <v>0</v>
@@ -16360,7 +16369,7 @@
         <v>0</v>
       </c>
       <c r="AE127" s="4" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="AF127" s="4" t="s">
         <v>44</v>
@@ -16369,7 +16378,7 @@
         <v>44</v>
       </c>
       <c r="AH127" s="4" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="AI127" s="4" t="s">
         <v>44</v>
@@ -16384,10 +16393,10 @@
         <v>11003</v>
       </c>
       <c r="AM127" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AN127" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.2">
@@ -16401,7 +16410,7 @@
         <v>2</v>
       </c>
       <c r="D128" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E128" s="4">
         <v>0</v>
@@ -16478,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="AE128" s="4" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="AF128" s="4" t="s">
         <v>44</v>
@@ -16505,7 +16514,7 @@
         <v>194</v>
       </c>
       <c r="AN128" s="4" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="129" spans="1:40" x14ac:dyDescent="0.2">
@@ -16519,7 +16528,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E129" s="4">
         <v>0</v>
@@ -16594,7 +16603,7 @@
         <v>0</v>
       </c>
       <c r="AE129" s="4" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="AF129" s="4" t="s">
         <v>44</v>
@@ -16621,7 +16630,7 @@
         <v>195</v>
       </c>
       <c r="AN129" s="4" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="1:40" x14ac:dyDescent="0.2">
@@ -16635,7 +16644,7 @@
         <v>0</v>
       </c>
       <c r="D130" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E130" s="4">
         <v>0</v>
@@ -16734,7 +16743,7 @@
         <v>10000</v>
       </c>
       <c r="AM130" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AN130" s="4" t="s">
         <v>123</v>
@@ -16751,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="D131" s="4">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E131" s="4">
         <v>0</v>
@@ -16810,7 +16819,7 @@
         <v>318112</v>
       </c>
       <c r="Y131" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="Z131" s="7">
         <v>318113</v>
@@ -16852,10 +16861,10 @@
         <v>11811</v>
       </c>
       <c r="AM131" s="4" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="AN131" s="4" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:40" x14ac:dyDescent="0.2">
@@ -16869,7 +16878,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E133" s="4">
         <v>0</v>
@@ -16944,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="AE133" s="4" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="AF133" s="4" t="s">
         <v>44</v>
@@ -16971,7 +16980,7 @@
         <v>193</v>
       </c>
       <c r="AN133" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:40" x14ac:dyDescent="0.2">
@@ -16985,7 +16994,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E134" s="4">
         <v>0</v>
@@ -17087,7 +17096,7 @@
         <v>193</v>
       </c>
       <c r="AN134" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:40" x14ac:dyDescent="0.2">
@@ -17101,7 +17110,7 @@
         <v>1</v>
       </c>
       <c r="D135" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E135" s="4">
         <v>0</v>
@@ -17203,7 +17212,7 @@
         <v>193</v>
       </c>
       <c r="AN135" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.2">
@@ -17217,7 +17226,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E136" s="4">
         <v>0</v>
@@ -17292,7 +17301,7 @@
         <v>0</v>
       </c>
       <c r="AE136" s="4" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="AF136" s="4" t="s">
         <v>44</v>
@@ -17301,7 +17310,7 @@
         <v>44</v>
       </c>
       <c r="AH136" s="4" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="AI136" s="4" t="s">
         <v>44</v>
@@ -17316,10 +17325,10 @@
         <v>11003</v>
       </c>
       <c r="AM136" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AN136" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.2">
@@ -17333,7 +17342,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E137" s="4">
         <v>0</v>
@@ -17410,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="AE137" s="4" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="AF137" s="4" t="s">
         <v>44</v>
@@ -17437,7 +17446,7 @@
         <v>194</v>
       </c>
       <c r="AN137" s="4" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.2">
@@ -17451,7 +17460,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E138" s="4">
         <v>0</v>
@@ -17526,7 +17535,7 @@
         <v>0</v>
       </c>
       <c r="AE138" s="4" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="AF138" s="4" t="s">
         <v>44</v>
@@ -17553,7 +17562,7 @@
         <v>195</v>
       </c>
       <c r="AN138" s="4" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="1:40" x14ac:dyDescent="0.2">
@@ -17567,7 +17576,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E139" s="4">
         <v>0</v>
@@ -17666,10 +17675,10 @@
         <v>11913</v>
       </c>
       <c r="AM139" s="4" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="AN139" s="4" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:40" x14ac:dyDescent="0.2">
@@ -17683,7 +17692,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E140" s="4">
         <v>0</v>
@@ -17782,10 +17791,10 @@
         <v>11913</v>
       </c>
       <c r="AM140" s="4" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="AN140" s="4" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" spans="1:40" x14ac:dyDescent="0.2">
@@ -17799,7 +17808,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E141" s="4">
         <v>0</v>
@@ -17898,10 +17907,10 @@
         <v>11913</v>
       </c>
       <c r="AM141" s="4" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="AN141" s="4" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:40" x14ac:dyDescent="0.2">
@@ -17915,7 +17924,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E142" s="4">
         <v>40</v>
@@ -17990,7 +17999,7 @@
         <v>0</v>
       </c>
       <c r="AE142" s="4" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="AF142" s="4" t="s">
         <v>44</v>
@@ -18014,10 +18023,10 @@
         <v>11913</v>
       </c>
       <c r="AM142" s="4" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="AN142" s="4" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:40" x14ac:dyDescent="0.2">
@@ -18031,7 +18040,7 @@
         <v>3</v>
       </c>
       <c r="D143" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E143" s="4">
         <v>40</v>
@@ -18130,10 +18139,10 @@
         <v>11913</v>
       </c>
       <c r="AM143" s="4" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="AN143" s="4" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="144" spans="1:40" x14ac:dyDescent="0.2">
@@ -18147,7 +18156,7 @@
         <v>3</v>
       </c>
       <c r="D144" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E144" s="4">
         <v>40</v>
@@ -18246,10 +18255,10 @@
         <v>11913</v>
       </c>
       <c r="AM144" s="4" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="AN144" s="4" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="145" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18305,7 +18314,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E146" s="4">
         <v>0</v>
@@ -18380,7 +18389,7 @@
         <v>0</v>
       </c>
       <c r="AE146" s="4" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="AF146" s="4" t="s">
         <v>44</v>
@@ -18407,7 +18416,7 @@
         <v>193</v>
       </c>
       <c r="AN146" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:40" x14ac:dyDescent="0.2">
@@ -18421,7 +18430,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E147" s="4">
         <v>0</v>
@@ -18523,7 +18532,7 @@
         <v>193</v>
       </c>
       <c r="AN147" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:40" x14ac:dyDescent="0.2">
@@ -18537,7 +18546,7 @@
         <v>1</v>
       </c>
       <c r="D148" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E148" s="4">
         <v>0</v>
@@ -18639,7 +18648,7 @@
         <v>193</v>
       </c>
       <c r="AN148" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:40" x14ac:dyDescent="0.2">
@@ -18653,7 +18662,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E149" s="4">
         <v>0</v>
@@ -18728,7 +18737,7 @@
         <v>0</v>
       </c>
       <c r="AE149" s="4" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="AF149" s="4" t="s">
         <v>44</v>
@@ -18737,7 +18746,7 @@
         <v>44</v>
       </c>
       <c r="AH149" s="4" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="AI149" s="4" t="s">
         <v>44</v>
@@ -18752,10 +18761,10 @@
         <v>11003</v>
       </c>
       <c r="AM149" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AN149" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="150" spans="1:40" x14ac:dyDescent="0.2">
@@ -18769,7 +18778,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E150" s="4">
         <v>0</v>
@@ -18846,7 +18855,7 @@
         <v>0</v>
       </c>
       <c r="AE150" s="4" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="AF150" s="4" t="s">
         <v>44</v>
@@ -18873,7 +18882,7 @@
         <v>194</v>
       </c>
       <c r="AN150" s="4" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="151" spans="1:40" x14ac:dyDescent="0.2">
@@ -18887,7 +18896,7 @@
         <v>2</v>
       </c>
       <c r="D151" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E151" s="4">
         <v>0</v>
@@ -18962,7 +18971,7 @@
         <v>0</v>
       </c>
       <c r="AE151" s="4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="AF151" s="4" t="s">
         <v>44</v>
@@ -18989,7 +18998,7 @@
         <v>195</v>
       </c>
       <c r="AN151" s="4" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="152" spans="1:40" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -19003,7 +19012,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E152" s="4">
         <v>0</v>
@@ -19102,10 +19111,10 @@
         <v>12010</v>
       </c>
       <c r="AM152" s="13" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="AN152" s="4" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="153" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19119,7 +19128,7 @@
         <v>1</v>
       </c>
       <c r="D153" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E153" s="4">
         <v>0</v>
@@ -19218,10 +19227,10 @@
         <v>12010</v>
       </c>
       <c r="AM153" s="4" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="AN153" s="4" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="154" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19235,7 +19244,7 @@
         <v>2</v>
       </c>
       <c r="D154" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E154" s="4">
         <v>0</v>
@@ -19334,10 +19343,10 @@
         <v>12010</v>
       </c>
       <c r="AM154" s="4" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="AN154" s="4" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="155" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19351,7 +19360,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E155" s="4">
         <v>0</v>
@@ -19450,10 +19459,10 @@
         <v>12010</v>
       </c>
       <c r="AM155" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AN155" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19467,7 +19476,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E156" s="4">
         <v>0</v>
@@ -19566,10 +19575,10 @@
         <v>12010</v>
       </c>
       <c r="AM156" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AN156" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="157" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19583,7 +19592,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E157" s="4">
         <v>0</v>
@@ -19682,10 +19691,10 @@
         <v>12010</v>
       </c>
       <c r="AM157" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AN157" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:40" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -19699,7 +19708,7 @@
         <v>3</v>
       </c>
       <c r="D158" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E158" s="4">
         <v>0</v>
@@ -19798,10 +19807,10 @@
         <v>12010</v>
       </c>
       <c r="AM158" s="13" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="AN158" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.2">
@@ -19815,7 +19824,7 @@
         <v>1</v>
       </c>
       <c r="D160" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E160" s="4">
         <v>0</v>
@@ -19890,7 +19899,7 @@
         <v>0</v>
       </c>
       <c r="AE160" s="4" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="AF160" s="4" t="s">
         <v>44</v>
@@ -19917,7 +19926,7 @@
         <v>193</v>
       </c>
       <c r="AN160" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.2">
@@ -19931,7 +19940,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E161" s="4">
         <v>0</v>
@@ -20033,7 +20042,7 @@
         <v>193</v>
       </c>
       <c r="AN161" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:40" x14ac:dyDescent="0.2">
@@ -20047,7 +20056,7 @@
         <v>1</v>
       </c>
       <c r="D162" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E162" s="4">
         <v>0</v>
@@ -20149,7 +20158,7 @@
         <v>193</v>
       </c>
       <c r="AN162" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:40" x14ac:dyDescent="0.2">
@@ -20163,7 +20172,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E163" s="4">
         <v>0</v>
@@ -20238,7 +20247,7 @@
         <v>0</v>
       </c>
       <c r="AE163" s="4" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AF163" s="4" t="s">
         <v>44</v>
@@ -20247,7 +20256,7 @@
         <v>44</v>
       </c>
       <c r="AH163" s="4" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="AI163" s="4" t="s">
         <v>44</v>
@@ -20262,10 +20271,10 @@
         <v>11003</v>
       </c>
       <c r="AM163" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AN163" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="164" spans="1:40" x14ac:dyDescent="0.2">
@@ -20279,7 +20288,7 @@
         <v>2</v>
       </c>
       <c r="D164" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E164" s="4">
         <v>0</v>
@@ -20356,7 +20365,7 @@
         <v>0</v>
       </c>
       <c r="AE164" s="4" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AF164" s="4" t="s">
         <v>44</v>
@@ -20383,7 +20392,7 @@
         <v>194</v>
       </c>
       <c r="AN164" s="4" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="165" spans="1:40" x14ac:dyDescent="0.2">
@@ -20397,7 +20406,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E165" s="4">
         <v>0</v>
@@ -20472,7 +20481,7 @@
         <v>0</v>
       </c>
       <c r="AE165" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="AF165" s="4" t="s">
         <v>44</v>
@@ -20499,7 +20508,7 @@
         <v>195</v>
       </c>
       <c r="AN165" s="4" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="166" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20513,7 +20522,7 @@
         <v>1</v>
       </c>
       <c r="D166" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E166" s="4">
         <v>0</v>
@@ -20588,7 +20597,7 @@
         <v>0</v>
       </c>
       <c r="AE166" s="4" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="AF166" s="4" t="s">
         <v>44</v>
@@ -20612,10 +20621,10 @@
         <v>12113</v>
       </c>
       <c r="AM166" s="13" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="AN166" s="4" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="167" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20629,7 +20638,7 @@
         <v>2</v>
       </c>
       <c r="D167" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E167" s="4">
         <v>0</v>
@@ -20704,7 +20713,7 @@
         <v>0</v>
       </c>
       <c r="AE167" s="4" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="AF167" s="4" t="s">
         <v>44</v>
@@ -20728,10 +20737,10 @@
         <v>12113</v>
       </c>
       <c r="AM167" s="4" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="AN167" s="4" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20745,7 +20754,7 @@
         <v>3</v>
       </c>
       <c r="D168" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E168" s="4">
         <v>0</v>
@@ -20844,10 +20853,10 @@
         <v>12113</v>
       </c>
       <c r="AM168" s="13" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="AN168" s="4" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20861,7 +20870,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E169" s="4">
         <v>0</v>
@@ -20960,10 +20969,10 @@
         <v>12113</v>
       </c>
       <c r="AM169" s="13" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="AN169" s="4" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="170" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20977,7 +20986,7 @@
         <v>3</v>
       </c>
       <c r="D170" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E170" s="4">
         <v>0</v>
@@ -21076,10 +21085,10 @@
         <v>12113</v>
       </c>
       <c r="AM170" s="4" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="AN170" s="4" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="171" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21093,7 +21102,7 @@
         <v>3</v>
       </c>
       <c r="D171" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E171" s="4">
         <v>0</v>
@@ -21192,10 +21201,10 @@
         <v>12113</v>
       </c>
       <c r="AM171" s="4" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="AN171" s="4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="172" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21209,7 +21218,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E172" s="4">
         <v>0</v>
@@ -21308,10 +21317,10 @@
         <v>12113</v>
       </c>
       <c r="AM172" s="4" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="AN172" s="4" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="173" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21325,7 +21334,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E173" s="4">
         <v>0</v>
@@ -21424,10 +21433,10 @@
         <v>12113</v>
       </c>
       <c r="AM173" s="4" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="AN173" s="4" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="174" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21441,7 +21450,7 @@
         <v>1</v>
       </c>
       <c r="D174" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E174" s="4">
         <v>0</v>
@@ -21540,10 +21549,10 @@
         <v>12113</v>
       </c>
       <c r="AM174" s="4" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="AN174" s="4" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="176" spans="1:40" x14ac:dyDescent="0.2">
@@ -21557,7 +21566,7 @@
         <v>0</v>
       </c>
       <c r="D176" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E176" s="4">
         <v>40</v>
@@ -21632,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="AE176" s="4" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="AF176" s="4" t="s">
         <v>44</v>
@@ -21659,7 +21668,7 @@
         <v>211</v>
       </c>
       <c r="AN176" s="4" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="177" spans="1:40" x14ac:dyDescent="0.2">
@@ -21673,7 +21682,7 @@
         <v>3</v>
       </c>
       <c r="D177" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E177" s="4">
         <v>0</v>
@@ -21697,7 +21706,7 @@
         <v>50</v>
       </c>
       <c r="L177" s="6">
-        <v>0</v>
+        <v>430010</v>
       </c>
       <c r="M177" s="6">
         <v>0</v>
@@ -21750,7 +21759,7 @@
         <v>0</v>
       </c>
       <c r="AE177" s="4" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AF177" s="4" t="s">
         <v>44</v>
@@ -21774,10 +21783,10 @@
         <v>13001</v>
       </c>
       <c r="AM177" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="AN177" s="4" t="s">
-        <v>212</v>
+        <v>509</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.2">
@@ -21791,7 +21800,7 @@
         <v>3</v>
       </c>
       <c r="D178" s="4">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E178" s="4">
         <v>0</v>
@@ -21815,7 +21824,7 @@
         <v>50</v>
       </c>
       <c r="L178" s="6">
-        <v>0</v>
+        <v>430020</v>
       </c>
       <c r="M178" s="6">
         <v>0</v>
@@ -21868,7 +21877,7 @@
         <v>0</v>
       </c>
       <c r="AE178" s="4" t="s">
-        <v>214</v>
+        <v>502</v>
       </c>
       <c r="AF178" s="4" t="s">
         <v>44</v>
@@ -21892,10 +21901,10 @@
         <v>13001</v>
       </c>
       <c r="AM178" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="AN178" s="4" t="s">
-        <v>213</v>
+        <v>510</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.2">
@@ -21903,13 +21912,13 @@
         <v>13003</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C179" s="4">
         <v>1</v>
       </c>
       <c r="D179" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E179" s="4">
         <v>0</v>
@@ -21933,7 +21942,7 @@
         <v>50</v>
       </c>
       <c r="L179" s="6">
-        <v>0</v>
+        <v>430030</v>
       </c>
       <c r="M179" s="6">
         <v>0</v>
@@ -21986,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="AE179" s="4" t="s">
-        <v>216</v>
+        <v>503</v>
       </c>
       <c r="AF179" s="4" t="s">
         <v>44</v>
@@ -22010,10 +22019,10 @@
         <v>13003</v>
       </c>
       <c r="AM179" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="AN179" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.2">
@@ -22021,13 +22030,13 @@
         <v>13004</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C180" s="4">
         <v>1</v>
       </c>
       <c r="D180" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E180" s="4">
         <v>0</v>
@@ -22051,7 +22060,7 @@
         <v>50</v>
       </c>
       <c r="L180" s="6">
-        <v>0</v>
+        <v>430040</v>
       </c>
       <c r="M180" s="6">
         <v>0</v>
@@ -22104,7 +22113,7 @@
         <v>0</v>
       </c>
       <c r="AE180" s="4" t="s">
-        <v>351</v>
+        <v>504</v>
       </c>
       <c r="AF180" s="4" t="s">
         <v>44</v>
@@ -22128,10 +22137,10 @@
         <v>13003</v>
       </c>
       <c r="AM180" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="AN180" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="181" spans="1:40" x14ac:dyDescent="0.2">
@@ -22139,13 +22148,13 @@
         <v>13005</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C181" s="4">
         <v>1</v>
       </c>
       <c r="D181" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E181" s="4">
         <v>0</v>
@@ -22169,10 +22178,10 @@
         <v>50</v>
       </c>
       <c r="L181" s="6">
-        <v>0</v>
+        <v>430050</v>
       </c>
       <c r="M181" s="6">
-        <v>0</v>
+        <v>430052</v>
       </c>
       <c r="N181" s="6">
         <v>0</v>
@@ -22222,7 +22231,7 @@
         <v>0</v>
       </c>
       <c r="AE181" s="4" t="s">
-        <v>217</v>
+        <v>511</v>
       </c>
       <c r="AF181" s="4" t="s">
         <v>44</v>
@@ -22246,10 +22255,10 @@
         <v>13003</v>
       </c>
       <c r="AM181" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="AN181" s="4" t="s">
-        <v>350</v>
+        <v>516</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.2">
@@ -22257,13 +22266,13 @@
         <v>13006</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C182" s="4">
         <v>2</v>
       </c>
       <c r="D182" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E182" s="4">
         <v>0</v>
@@ -22287,7 +22296,7 @@
         <v>50</v>
       </c>
       <c r="L182" s="6">
-        <v>0</v>
+        <v>430060</v>
       </c>
       <c r="M182" s="6">
         <v>0</v>
@@ -22340,7 +22349,7 @@
         <v>0</v>
       </c>
       <c r="AE182" s="4" t="s">
-        <v>220</v>
+        <v>505</v>
       </c>
       <c r="AF182" s="4" t="s">
         <v>44</v>
@@ -22364,10 +22373,10 @@
         <v>13006</v>
       </c>
       <c r="AM182" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AN182" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="183" spans="1:40" x14ac:dyDescent="0.2">
@@ -22375,13 +22384,13 @@
         <v>13007</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C183" s="4">
         <v>2</v>
       </c>
       <c r="D183" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E183" s="4">
         <v>0</v>
@@ -22405,7 +22414,7 @@
         <v>50</v>
       </c>
       <c r="L183" s="6">
-        <v>0</v>
+        <v>430070</v>
       </c>
       <c r="M183" s="6">
         <v>0</v>
@@ -22458,7 +22467,7 @@
         <v>0</v>
       </c>
       <c r="AE183" s="4" t="s">
-        <v>221</v>
+        <v>506</v>
       </c>
       <c r="AF183" s="4" t="s">
         <v>44</v>
@@ -22482,10 +22491,10 @@
         <v>13006</v>
       </c>
       <c r="AM183" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AN183" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.2">
@@ -22493,13 +22502,13 @@
         <v>13008</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C184" s="4">
         <v>2</v>
       </c>
       <c r="D184" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E184" s="4">
         <v>0</v>
@@ -22523,13 +22532,13 @@
         <v>50</v>
       </c>
       <c r="L184" s="6">
-        <v>0</v>
+        <v>430080</v>
       </c>
       <c r="M184" s="6">
-        <v>0</v>
+        <v>430082</v>
       </c>
       <c r="N184" s="6">
-        <v>0</v>
+        <v>430083</v>
       </c>
       <c r="O184" s="5">
         <v>530081</v>
@@ -22576,7 +22585,7 @@
         <v>0</v>
       </c>
       <c r="AE184" s="4" t="s">
-        <v>222</v>
+        <v>512</v>
       </c>
       <c r="AF184" s="4" t="s">
         <v>44</v>
@@ -22600,10 +22609,10 @@
         <v>13006</v>
       </c>
       <c r="AM184" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AN184" s="4" t="s">
-        <v>350</v>
+        <v>514</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.2">
@@ -22611,13 +22620,13 @@
         <v>13009</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C185" s="4">
         <v>3</v>
       </c>
       <c r="D185" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E185" s="4">
         <v>0</v>
@@ -22641,7 +22650,7 @@
         <v>50</v>
       </c>
       <c r="L185" s="6">
-        <v>0</v>
+        <v>430090</v>
       </c>
       <c r="M185" s="6">
         <v>0</v>
@@ -22694,7 +22703,7 @@
         <v>0</v>
       </c>
       <c r="AE185" s="4" t="s">
-        <v>225</v>
+        <v>507</v>
       </c>
       <c r="AF185" s="4" t="s">
         <v>44</v>
@@ -22718,10 +22727,10 @@
         <v>13009</v>
       </c>
       <c r="AM185" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AN185" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="186" spans="1:40" x14ac:dyDescent="0.2">
@@ -22729,13 +22738,13 @@
         <v>13010</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C186" s="4">
         <v>3</v>
       </c>
       <c r="D186" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E186" s="4">
         <v>0</v>
@@ -22759,7 +22768,7 @@
         <v>50</v>
       </c>
       <c r="L186" s="6">
-        <v>0</v>
+        <v>430100</v>
       </c>
       <c r="M186" s="6">
         <v>0</v>
@@ -22812,7 +22821,7 @@
         <v>0</v>
       </c>
       <c r="AE186" s="4" t="s">
-        <v>226</v>
+        <v>508</v>
       </c>
       <c r="AF186" s="4" t="s">
         <v>44</v>
@@ -22836,10 +22845,10 @@
         <v>13009</v>
       </c>
       <c r="AM186" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AN186" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.2">
@@ -22847,13 +22856,13 @@
         <v>13011</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C187" s="4">
         <v>3</v>
       </c>
       <c r="D187" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E187" s="4">
         <v>0</v>
@@ -22877,10 +22886,10 @@
         <v>50</v>
       </c>
       <c r="L187" s="6">
-        <v>0</v>
+        <v>430110</v>
       </c>
       <c r="M187" s="6">
-        <v>0</v>
+        <v>430113</v>
       </c>
       <c r="N187" s="6">
         <v>0</v>
@@ -22930,10 +22939,10 @@
         <v>0</v>
       </c>
       <c r="AE187" s="4" t="s">
-        <v>227</v>
+        <v>513</v>
       </c>
       <c r="AF187" s="4" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="AG187" s="4" t="s">
         <v>44</v>
@@ -22954,10 +22963,10 @@
         <v>13009</v>
       </c>
       <c r="AM187" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AN187" s="4" t="s">
-        <v>350</v>
+        <v>515</v>
       </c>
     </row>
     <row r="188" spans="1:40" x14ac:dyDescent="0.2">
@@ -22965,13 +22974,13 @@
         <v>13012</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C188" s="4">
         <v>1</v>
       </c>
       <c r="D188" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E188" s="4">
         <v>0</v>
@@ -23046,7 +23055,7 @@
         <v>0</v>
       </c>
       <c r="AE188" s="4" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="AF188" s="4" t="s">
         <v>44</v>
@@ -23070,10 +23079,10 @@
         <v>13003</v>
       </c>
       <c r="AM188" s="4" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AN188" s="4" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="189" spans="1:40" x14ac:dyDescent="0.2">
@@ -23081,13 +23090,13 @@
         <v>13013</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C189" s="4">
         <v>2</v>
       </c>
       <c r="D189" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E189" s="4">
         <v>0</v>
@@ -23162,7 +23171,7 @@
         <v>0</v>
       </c>
       <c r="AE189" s="4" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="AF189" s="4" t="s">
         <v>44</v>
@@ -23186,10 +23195,10 @@
         <v>13006</v>
       </c>
       <c r="AM189" s="4" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="AN189" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="190" spans="1:40" x14ac:dyDescent="0.2">
@@ -23197,13 +23206,13 @@
         <v>13014</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C190" s="4">
         <v>3</v>
       </c>
       <c r="D190" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E190" s="4">
         <v>0</v>
@@ -23278,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="AE190" s="4" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="AF190" s="4" t="s">
         <v>44</v>
@@ -23302,10 +23311,10 @@
         <v>13009</v>
       </c>
       <c r="AM190" s="4" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="AN190" s="4" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="191" spans="1:40" x14ac:dyDescent="0.2">
@@ -23313,13 +23322,13 @@
         <v>13015</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C191" s="4">
         <v>1</v>
       </c>
       <c r="D191" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E191" s="4">
         <v>0</v>
@@ -23394,7 +23403,7 @@
         <v>0</v>
       </c>
       <c r="AE191" s="4" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="AF191" s="4" t="s">
         <v>44</v>
@@ -23418,10 +23427,10 @@
         <v>13003</v>
       </c>
       <c r="AM191" s="4" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AN191" s="4" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="192" spans="1:40" x14ac:dyDescent="0.2">
@@ -23429,13 +23438,13 @@
         <v>13016</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C192" s="4">
         <v>2</v>
       </c>
       <c r="D192" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E192" s="4">
         <v>0</v>
@@ -23510,7 +23519,7 @@
         <v>0</v>
       </c>
       <c r="AE192" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="AF192" s="4" t="s">
         <v>44</v>
@@ -23534,10 +23543,10 @@
         <v>13006</v>
       </c>
       <c r="AM192" s="4" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="AN192" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="1:40" x14ac:dyDescent="0.2">
@@ -23545,13 +23554,13 @@
         <v>13017</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C193" s="4">
         <v>3</v>
       </c>
       <c r="D193" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E193" s="4">
         <v>0</v>
@@ -23626,7 +23635,7 @@
         <v>0</v>
       </c>
       <c r="AE193" s="4" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="AF193" s="4" t="s">
         <v>44</v>
@@ -23650,10 +23659,10 @@
         <v>13009</v>
       </c>
       <c r="AM193" s="4" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="AN193" s="4" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="194" spans="1:40" x14ac:dyDescent="0.2">
@@ -23661,13 +23670,13 @@
         <v>13018</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
       </c>
       <c r="D194" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E194" s="4">
         <v>40</v>
@@ -23742,7 +23751,7 @@
         <v>0</v>
       </c>
       <c r="AE194" s="4" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="AF194" s="4" t="s">
         <v>44</v>
@@ -23766,10 +23775,10 @@
         <v>13000</v>
       </c>
       <c r="AM194" s="4" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="AN194" s="4" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="198" spans="1:40" x14ac:dyDescent="0.2">
@@ -23979,7 +23988,7 @@
         <v>44</v>
       </c>
       <c r="AH199" s="4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="AI199" s="4" t="s">
         <v>44</v>
@@ -24001,7 +24010,7 @@
         <v>14002</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -24113,7 +24122,7 @@
         <v>14003</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -24225,7 +24234,7 @@
         <v>14004</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F2C8F3-143F-46E5-9728-60C2C305EDC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BF508F-D6EE-4B43-A202-ACA71CD69397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10635" yWindow="3915" windowWidth="25785" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10305" yWindow="3540" windowWidth="25785" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -3020,10 +3020,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="D195" sqref="D195"/>
+      <selection pane="topRight" activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -4209,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="4">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -4325,7 +4325,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="4">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -4905,7 +4905,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E19" s="4">
         <v>80</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -5485,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -5601,7 +5601,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -5833,7 +5833,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E30" s="4">
         <v>90</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E31" s="4">
         <v>90</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E32" s="4">
         <v>90</v>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="4">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E33" s="4">
         <v>90</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="4">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="E34" s="4">
         <v>90</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E35" s="4">
         <v>90</v>
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -6761,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -6877,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -7225,7 +7225,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -7341,7 +7341,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -7457,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
@@ -7689,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -7921,7 +7921,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
@@ -8039,7 +8039,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -8155,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E51" s="4">
         <v>0</v>
@@ -8271,7 +8271,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E52" s="4">
         <v>0</v>
@@ -8389,7 +8389,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
@@ -8505,7 +8505,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
@@ -8621,7 +8621,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E55" s="4">
         <v>0</v>
@@ -8737,7 +8737,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E56" s="4">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
@@ -8969,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E59" s="4">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E60" s="4">
         <v>0</v>
@@ -9201,7 +9201,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E61" s="4">
         <v>0</v>
@@ -9317,7 +9317,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E62" s="4">
         <v>0</v>
@@ -9433,7 +9433,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E63" s="4">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E64" s="4">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E65" s="4">
         <v>0</v>
@@ -9783,7 +9783,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -9899,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E67" s="4">
         <v>0</v>
@@ -10017,7 +10017,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E68" s="4">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E69" s="4">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E70" s="4">
         <v>0</v>
@@ -10365,7 +10365,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E71" s="4">
         <v>0</v>
@@ -10481,7 +10481,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E72" s="4">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E73" s="4">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E74" s="4">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E75" s="4">
         <v>0</v>
@@ -10945,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
@@ -11061,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E78" s="4">
         <v>0</v>
@@ -11177,7 +11177,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E79" s="4">
         <v>0</v>
@@ -11293,7 +11293,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E80" s="4">
         <v>0</v>
@@ -11409,7 +11409,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E81" s="4">
         <v>0</v>
@@ -11527,7 +11527,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E82" s="4">
         <v>0</v>
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E84" s="4">
         <v>0</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E85" s="4">
         <v>0</v>
@@ -11875,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E86" s="4">
         <v>0</v>
@@ -11991,7 +11991,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E87" s="4">
         <v>0</v>
@@ -12107,7 +12107,7 @@
         <v>2</v>
       </c>
       <c r="D88" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E88" s="4">
         <v>0</v>
@@ -12225,7 +12225,7 @@
         <v>2</v>
       </c>
       <c r="D89" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E89" s="4">
         <v>0</v>
@@ -12341,7 +12341,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E90" s="4">
         <v>0</v>
@@ -12457,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E91" s="4">
         <v>0</v>
@@ -12573,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E92" s="4">
         <v>0</v>
@@ -12689,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E93" s="4">
         <v>0</v>
@@ -12805,7 +12805,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E94" s="4">
         <v>60</v>
@@ -12921,7 +12921,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E95" s="4">
         <v>60</v>
@@ -13037,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E96" s="4">
         <v>60</v>
@@ -13153,7 +13153,7 @@
         <v>2</v>
       </c>
       <c r="D97" s="4">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E97" s="4">
         <v>0</v>
@@ -13269,7 +13269,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E98" s="4">
         <v>0</v>
@@ -13386,7 +13386,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E100" s="4">
         <v>0</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E101" s="4">
         <v>0</v>
@@ -13618,7 +13618,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E102" s="4">
         <v>0</v>
@@ -13734,7 +13734,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E103" s="4">
         <v>0</v>
@@ -13850,7 +13850,7 @@
         <v>2</v>
       </c>
       <c r="D104" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E104" s="4">
         <v>0</v>
@@ -13968,7 +13968,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E105" s="4">
         <v>0</v>
@@ -14084,7 +14084,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E106" s="4">
         <v>0</v>
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E107" s="4">
         <v>0</v>
@@ -14316,7 +14316,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E108" s="4">
         <v>0</v>
@@ -14432,7 +14432,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E109" s="4">
         <v>0</v>
@@ -14548,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E111" s="4">
         <v>0</v>
@@ -14664,7 +14664,7 @@
         <v>1</v>
       </c>
       <c r="D112" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E112" s="4">
         <v>0</v>
@@ -14780,7 +14780,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E113" s="4">
         <v>0</v>
@@ -14896,7 +14896,7 @@
         <v>3</v>
       </c>
       <c r="D114" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E114" s="4">
         <v>0</v>
@@ -15012,7 +15012,7 @@
         <v>2</v>
       </c>
       <c r="D115" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E115" s="4">
         <v>0</v>
@@ -15130,7 +15130,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E116" s="4">
         <v>0</v>
@@ -15246,7 +15246,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E117" s="4">
         <v>0</v>
@@ -15362,7 +15362,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E118" s="4">
         <v>0</v>
@@ -15478,7 +15478,7 @@
         <v>3</v>
       </c>
       <c r="D119" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E119" s="4">
         <v>0</v>
@@ -15594,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E120" s="4">
         <v>0</v>
@@ -15714,7 +15714,7 @@
         <v>1</v>
       </c>
       <c r="D121" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E121" s="4">
         <v>0</v>
@@ -15830,7 +15830,7 @@
         <v>3</v>
       </c>
       <c r="D122" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E122" s="4">
         <v>0</v>
@@ -15946,7 +15946,7 @@
         <v>1</v>
       </c>
       <c r="D124" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E124" s="4">
         <v>0</v>
@@ -16062,7 +16062,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E125" s="4">
         <v>0</v>
@@ -16178,7 +16178,7 @@
         <v>1</v>
       </c>
       <c r="D126" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E126" s="4">
         <v>0</v>
@@ -16294,7 +16294,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E127" s="4">
         <v>0</v>
@@ -16410,7 +16410,7 @@
         <v>2</v>
       </c>
       <c r="D128" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E128" s="4">
         <v>0</v>
@@ -16528,7 +16528,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E129" s="4">
         <v>0</v>
@@ -16644,7 +16644,7 @@
         <v>0</v>
       </c>
       <c r="D130" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E130" s="4">
         <v>0</v>
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="D131" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E131" s="4">
         <v>0</v>
@@ -16878,7 +16878,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E133" s="4">
         <v>0</v>
@@ -16994,7 +16994,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E134" s="4">
         <v>0</v>
@@ -17110,7 +17110,7 @@
         <v>1</v>
       </c>
       <c r="D135" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E135" s="4">
         <v>0</v>
@@ -17226,7 +17226,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E136" s="4">
         <v>0</v>
@@ -17342,7 +17342,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E137" s="4">
         <v>0</v>
@@ -17460,7 +17460,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E138" s="4">
         <v>0</v>
@@ -17576,7 +17576,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E139" s="4">
         <v>0</v>
@@ -17692,7 +17692,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E140" s="4">
         <v>0</v>
@@ -17808,7 +17808,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E141" s="4">
         <v>0</v>
@@ -17924,7 +17924,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E142" s="4">
         <v>40</v>
@@ -18040,7 +18040,7 @@
         <v>3</v>
       </c>
       <c r="D143" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E143" s="4">
         <v>40</v>
@@ -18156,7 +18156,7 @@
         <v>3</v>
       </c>
       <c r="D144" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E144" s="4">
         <v>40</v>
@@ -18314,7 +18314,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E146" s="4">
         <v>0</v>
@@ -18430,7 +18430,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E147" s="4">
         <v>0</v>
@@ -18546,7 +18546,7 @@
         <v>1</v>
       </c>
       <c r="D148" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E148" s="4">
         <v>0</v>
@@ -18662,7 +18662,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E149" s="4">
         <v>0</v>
@@ -18778,7 +18778,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E150" s="4">
         <v>0</v>
@@ -18896,7 +18896,7 @@
         <v>2</v>
       </c>
       <c r="D151" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E151" s="4">
         <v>0</v>
@@ -19012,7 +19012,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E152" s="4">
         <v>0</v>
@@ -19128,7 +19128,7 @@
         <v>1</v>
       </c>
       <c r="D153" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E153" s="4">
         <v>0</v>
@@ -19244,7 +19244,7 @@
         <v>2</v>
       </c>
       <c r="D154" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E154" s="4">
         <v>0</v>
@@ -19360,7 +19360,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E155" s="4">
         <v>0</v>
@@ -19476,7 +19476,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E156" s="4">
         <v>0</v>
@@ -19592,7 +19592,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E157" s="4">
         <v>0</v>
@@ -19708,7 +19708,7 @@
         <v>3</v>
       </c>
       <c r="D158" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E158" s="4">
         <v>0</v>
@@ -19824,7 +19824,7 @@
         <v>1</v>
       </c>
       <c r="D160" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E160" s="4">
         <v>0</v>
@@ -19940,7 +19940,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E161" s="4">
         <v>0</v>
@@ -20056,7 +20056,7 @@
         <v>1</v>
       </c>
       <c r="D162" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E162" s="4">
         <v>0</v>
@@ -20172,7 +20172,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E163" s="4">
         <v>0</v>
@@ -20288,7 +20288,7 @@
         <v>2</v>
       </c>
       <c r="D164" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E164" s="4">
         <v>0</v>
@@ -20406,7 +20406,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E165" s="4">
         <v>0</v>
@@ -20522,7 +20522,7 @@
         <v>1</v>
       </c>
       <c r="D166" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E166" s="4">
         <v>0</v>
@@ -20638,7 +20638,7 @@
         <v>2</v>
       </c>
       <c r="D167" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E167" s="4">
         <v>0</v>
@@ -20754,7 +20754,7 @@
         <v>3</v>
       </c>
       <c r="D168" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E168" s="4">
         <v>0</v>
@@ -20870,7 +20870,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E169" s="4">
         <v>0</v>
@@ -20986,7 +20986,7 @@
         <v>3</v>
       </c>
       <c r="D170" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E170" s="4">
         <v>0</v>
@@ -21102,7 +21102,7 @@
         <v>3</v>
       </c>
       <c r="D171" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E171" s="4">
         <v>0</v>
@@ -21218,7 +21218,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E172" s="4">
         <v>0</v>
@@ -21334,7 +21334,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E173" s="4">
         <v>0</v>
@@ -21450,7 +21450,7 @@
         <v>1</v>
       </c>
       <c r="D174" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E174" s="4">
         <v>0</v>
@@ -21566,7 +21566,7 @@
         <v>0</v>
       </c>
       <c r="D176" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E176" s="4">
         <v>40</v>
@@ -21682,7 +21682,7 @@
         <v>3</v>
       </c>
       <c r="D177" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E177" s="4">
         <v>0</v>
@@ -21800,7 +21800,7 @@
         <v>3</v>
       </c>
       <c r="D178" s="4">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E178" s="4">
         <v>0</v>
@@ -21918,7 +21918,7 @@
         <v>1</v>
       </c>
       <c r="D179" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E179" s="4">
         <v>0</v>
@@ -22036,7 +22036,7 @@
         <v>1</v>
       </c>
       <c r="D180" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E180" s="4">
         <v>0</v>
@@ -22154,7 +22154,7 @@
         <v>1</v>
       </c>
       <c r="D181" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E181" s="4">
         <v>0</v>
@@ -22272,7 +22272,7 @@
         <v>2</v>
       </c>
       <c r="D182" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E182" s="4">
         <v>0</v>
@@ -22390,7 +22390,7 @@
         <v>2</v>
       </c>
       <c r="D183" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E183" s="4">
         <v>0</v>
@@ -22508,7 +22508,7 @@
         <v>2</v>
       </c>
       <c r="D184" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E184" s="4">
         <v>0</v>
@@ -22626,7 +22626,7 @@
         <v>3</v>
       </c>
       <c r="D185" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E185" s="4">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>3</v>
       </c>
       <c r="D186" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E186" s="4">
         <v>0</v>
@@ -22862,7 +22862,7 @@
         <v>3</v>
       </c>
       <c r="D187" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E187" s="4">
         <v>0</v>
@@ -22980,7 +22980,7 @@
         <v>1</v>
       </c>
       <c r="D188" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E188" s="4">
         <v>0</v>
@@ -23096,7 +23096,7 @@
         <v>2</v>
       </c>
       <c r="D189" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E189" s="4">
         <v>0</v>
@@ -23212,7 +23212,7 @@
         <v>3</v>
       </c>
       <c r="D190" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E190" s="4">
         <v>0</v>
@@ -23328,7 +23328,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E191" s="4">
         <v>0</v>
@@ -23444,7 +23444,7 @@
         <v>2</v>
       </c>
       <c r="D192" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E192" s="4">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>3</v>
       </c>
       <c r="D193" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E193" s="4">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="D194" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E194" s="4">
         <v>40</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BF508F-D6EE-4B43-A202-ACA71CD69397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E0DB7-9050-46F1-B5EF-4A79FE967BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10305" yWindow="3540" windowWidth="25785" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="3690" windowWidth="25785" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -3020,10 +3020,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="G184" sqref="G184"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:F194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -4209,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="4">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -4325,7 +4325,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="4">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -4905,7 +4905,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E19" s="4">
         <v>80</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -5485,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -5601,7 +5601,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -5833,7 +5833,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E30" s="4">
         <v>90</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E31" s="4">
         <v>90</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E32" s="4">
         <v>90</v>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="4">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E33" s="4">
         <v>90</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="4">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E34" s="4">
         <v>90</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E35" s="4">
         <v>90</v>
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -6761,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -6877,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -7225,7 +7225,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -7341,7 +7341,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -7457,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
@@ -7689,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -7921,7 +7921,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
@@ -8039,7 +8039,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -8155,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E51" s="4">
         <v>0</v>
@@ -8271,7 +8271,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E52" s="4">
         <v>0</v>
@@ -8389,7 +8389,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
@@ -8505,7 +8505,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
@@ -8621,7 +8621,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E55" s="4">
         <v>0</v>
@@ -8737,7 +8737,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E56" s="4">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
@@ -8969,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E59" s="4">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E60" s="4">
         <v>0</v>
@@ -9201,7 +9201,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E61" s="4">
         <v>0</v>
@@ -9317,7 +9317,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E62" s="4">
         <v>0</v>
@@ -9433,7 +9433,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E63" s="4">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E64" s="4">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E65" s="4">
         <v>0</v>
@@ -9783,7 +9783,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -9899,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E67" s="4">
         <v>0</v>
@@ -10017,7 +10017,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E68" s="4">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E69" s="4">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E70" s="4">
         <v>0</v>
@@ -10365,7 +10365,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E71" s="4">
         <v>0</v>
@@ -10481,7 +10481,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E72" s="4">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E73" s="4">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E74" s="4">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E75" s="4">
         <v>0</v>
@@ -10945,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
@@ -11061,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E78" s="4">
         <v>0</v>
@@ -11177,7 +11177,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E79" s="4">
         <v>0</v>
@@ -11293,7 +11293,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E80" s="4">
         <v>0</v>
@@ -11409,7 +11409,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E81" s="4">
         <v>0</v>
@@ -11527,7 +11527,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E82" s="4">
         <v>0</v>
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E84" s="4">
         <v>0</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E85" s="4">
         <v>0</v>
@@ -11875,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E86" s="4">
         <v>0</v>
@@ -11991,7 +11991,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E87" s="4">
         <v>0</v>
@@ -12107,7 +12107,7 @@
         <v>2</v>
       </c>
       <c r="D88" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E88" s="4">
         <v>0</v>
@@ -12225,7 +12225,7 @@
         <v>2</v>
       </c>
       <c r="D89" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E89" s="4">
         <v>0</v>
@@ -12341,7 +12341,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E90" s="4">
         <v>0</v>
@@ -12457,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E91" s="4">
         <v>0</v>
@@ -12573,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E92" s="4">
         <v>0</v>
@@ -12689,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E93" s="4">
         <v>0</v>
@@ -12805,7 +12805,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E94" s="4">
         <v>60</v>
@@ -12921,7 +12921,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E95" s="4">
         <v>60</v>
@@ -13037,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E96" s="4">
         <v>60</v>
@@ -13153,7 +13153,7 @@
         <v>2</v>
       </c>
       <c r="D97" s="4">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E97" s="4">
         <v>0</v>
@@ -13269,7 +13269,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E98" s="4">
         <v>0</v>
@@ -13386,7 +13386,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E100" s="4">
         <v>0</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E101" s="4">
         <v>0</v>
@@ -13618,7 +13618,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E102" s="4">
         <v>0</v>
@@ -13734,7 +13734,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E103" s="4">
         <v>0</v>
@@ -13850,7 +13850,7 @@
         <v>2</v>
       </c>
       <c r="D104" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E104" s="4">
         <v>0</v>
@@ -13968,7 +13968,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E105" s="4">
         <v>0</v>
@@ -14084,7 +14084,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E106" s="4">
         <v>0</v>
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E107" s="4">
         <v>0</v>
@@ -14316,7 +14316,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E108" s="4">
         <v>0</v>
@@ -14432,7 +14432,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E109" s="4">
         <v>0</v>
@@ -14548,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E111" s="4">
         <v>0</v>
@@ -14664,7 +14664,7 @@
         <v>1</v>
       </c>
       <c r="D112" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E112" s="4">
         <v>0</v>
@@ -14780,7 +14780,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E113" s="4">
         <v>0</v>
@@ -14896,7 +14896,7 @@
         <v>3</v>
       </c>
       <c r="D114" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E114" s="4">
         <v>0</v>
@@ -15012,7 +15012,7 @@
         <v>2</v>
       </c>
       <c r="D115" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E115" s="4">
         <v>0</v>
@@ -15130,7 +15130,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E116" s="4">
         <v>0</v>
@@ -15246,7 +15246,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E117" s="4">
         <v>0</v>
@@ -15362,7 +15362,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E118" s="4">
         <v>0</v>
@@ -15478,7 +15478,7 @@
         <v>3</v>
       </c>
       <c r="D119" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E119" s="4">
         <v>0</v>
@@ -15594,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E120" s="4">
         <v>0</v>
@@ -15714,7 +15714,7 @@
         <v>1</v>
       </c>
       <c r="D121" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E121" s="4">
         <v>0</v>
@@ -15830,7 +15830,7 @@
         <v>3</v>
       </c>
       <c r="D122" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E122" s="4">
         <v>0</v>
@@ -15946,7 +15946,7 @@
         <v>1</v>
       </c>
       <c r="D124" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E124" s="4">
         <v>0</v>
@@ -16062,7 +16062,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E125" s="4">
         <v>0</v>
@@ -16178,7 +16178,7 @@
         <v>1</v>
       </c>
       <c r="D126" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E126" s="4">
         <v>0</v>
@@ -16294,7 +16294,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E127" s="4">
         <v>0</v>
@@ -16410,7 +16410,7 @@
         <v>2</v>
       </c>
       <c r="D128" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E128" s="4">
         <v>0</v>
@@ -16528,7 +16528,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E129" s="4">
         <v>0</v>
@@ -16644,7 +16644,7 @@
         <v>0</v>
       </c>
       <c r="D130" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E130" s="4">
         <v>0</v>
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="D131" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E131" s="4">
         <v>0</v>
@@ -16878,7 +16878,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E133" s="4">
         <v>0</v>
@@ -16994,7 +16994,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E134" s="4">
         <v>0</v>
@@ -17110,7 +17110,7 @@
         <v>1</v>
       </c>
       <c r="D135" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E135" s="4">
         <v>0</v>
@@ -17226,7 +17226,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E136" s="4">
         <v>0</v>
@@ -17342,7 +17342,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E137" s="4">
         <v>0</v>
@@ -17460,7 +17460,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E138" s="4">
         <v>0</v>
@@ -17576,7 +17576,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E139" s="4">
         <v>0</v>
@@ -17692,7 +17692,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E140" s="4">
         <v>0</v>
@@ -17808,7 +17808,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E141" s="4">
         <v>0</v>
@@ -17924,7 +17924,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E142" s="4">
         <v>40</v>
@@ -18040,7 +18040,7 @@
         <v>3</v>
       </c>
       <c r="D143" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E143" s="4">
         <v>40</v>
@@ -18156,7 +18156,7 @@
         <v>3</v>
       </c>
       <c r="D144" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E144" s="4">
         <v>40</v>
@@ -18314,7 +18314,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E146" s="4">
         <v>0</v>
@@ -18430,7 +18430,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E147" s="4">
         <v>0</v>
@@ -18546,7 +18546,7 @@
         <v>1</v>
       </c>
       <c r="D148" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E148" s="4">
         <v>0</v>
@@ -18662,7 +18662,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E149" s="4">
         <v>0</v>
@@ -18778,7 +18778,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E150" s="4">
         <v>0</v>
@@ -18896,7 +18896,7 @@
         <v>2</v>
       </c>
       <c r="D151" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E151" s="4">
         <v>0</v>
@@ -19012,7 +19012,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E152" s="4">
         <v>0</v>
@@ -19128,7 +19128,7 @@
         <v>1</v>
       </c>
       <c r="D153" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E153" s="4">
         <v>0</v>
@@ -19244,7 +19244,7 @@
         <v>2</v>
       </c>
       <c r="D154" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E154" s="4">
         <v>0</v>
@@ -19360,7 +19360,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E155" s="4">
         <v>0</v>
@@ -19476,7 +19476,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E156" s="4">
         <v>0</v>
@@ -19592,7 +19592,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E157" s="4">
         <v>0</v>
@@ -19708,7 +19708,7 @@
         <v>3</v>
       </c>
       <c r="D158" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E158" s="4">
         <v>0</v>
@@ -19824,7 +19824,7 @@
         <v>1</v>
       </c>
       <c r="D160" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E160" s="4">
         <v>0</v>
@@ -19940,7 +19940,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E161" s="4">
         <v>0</v>
@@ -20056,7 +20056,7 @@
         <v>1</v>
       </c>
       <c r="D162" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E162" s="4">
         <v>0</v>
@@ -20172,7 +20172,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E163" s="4">
         <v>0</v>
@@ -20288,7 +20288,7 @@
         <v>2</v>
       </c>
       <c r="D164" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E164" s="4">
         <v>0</v>
@@ -20406,7 +20406,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E165" s="4">
         <v>0</v>
@@ -20522,7 +20522,7 @@
         <v>1</v>
       </c>
       <c r="D166" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E166" s="4">
         <v>0</v>
@@ -20638,7 +20638,7 @@
         <v>2</v>
       </c>
       <c r="D167" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E167" s="4">
         <v>0</v>
@@ -20754,7 +20754,7 @@
         <v>3</v>
       </c>
       <c r="D168" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E168" s="4">
         <v>0</v>
@@ -20870,7 +20870,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E169" s="4">
         <v>0</v>
@@ -20986,7 +20986,7 @@
         <v>3</v>
       </c>
       <c r="D170" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E170" s="4">
         <v>0</v>
@@ -21102,7 +21102,7 @@
         <v>3</v>
       </c>
       <c r="D171" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E171" s="4">
         <v>0</v>
@@ -21218,7 +21218,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E172" s="4">
         <v>0</v>
@@ -21334,7 +21334,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E173" s="4">
         <v>0</v>
@@ -21450,7 +21450,7 @@
         <v>1</v>
       </c>
       <c r="D174" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E174" s="4">
         <v>0</v>
@@ -21566,7 +21566,7 @@
         <v>0</v>
       </c>
       <c r="D176" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E176" s="4">
         <v>40</v>
@@ -21682,7 +21682,7 @@
         <v>3</v>
       </c>
       <c r="D177" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E177" s="4">
         <v>0</v>
@@ -21800,7 +21800,7 @@
         <v>3</v>
       </c>
       <c r="D178" s="4">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E178" s="4">
         <v>0</v>
@@ -21918,7 +21918,7 @@
         <v>1</v>
       </c>
       <c r="D179" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E179" s="4">
         <v>0</v>
@@ -22036,7 +22036,7 @@
         <v>1</v>
       </c>
       <c r="D180" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E180" s="4">
         <v>0</v>
@@ -22154,7 +22154,7 @@
         <v>1</v>
       </c>
       <c r="D181" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E181" s="4">
         <v>0</v>
@@ -22272,7 +22272,7 @@
         <v>2</v>
       </c>
       <c r="D182" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E182" s="4">
         <v>0</v>
@@ -22390,7 +22390,7 @@
         <v>2</v>
       </c>
       <c r="D183" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E183" s="4">
         <v>0</v>
@@ -22508,7 +22508,7 @@
         <v>2</v>
       </c>
       <c r="D184" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E184" s="4">
         <v>0</v>
@@ -22626,7 +22626,7 @@
         <v>3</v>
       </c>
       <c r="D185" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E185" s="4">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>3</v>
       </c>
       <c r="D186" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E186" s="4">
         <v>0</v>
@@ -22862,7 +22862,7 @@
         <v>3</v>
       </c>
       <c r="D187" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E187" s="4">
         <v>0</v>
@@ -22980,7 +22980,7 @@
         <v>1</v>
       </c>
       <c r="D188" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E188" s="4">
         <v>0</v>
@@ -23096,7 +23096,7 @@
         <v>2</v>
       </c>
       <c r="D189" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E189" s="4">
         <v>0</v>
@@ -23212,7 +23212,7 @@
         <v>3</v>
       </c>
       <c r="D190" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E190" s="4">
         <v>0</v>
@@ -23328,7 +23328,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E191" s="4">
         <v>0</v>
@@ -23444,7 +23444,7 @@
         <v>2</v>
       </c>
       <c r="D192" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E192" s="4">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>3</v>
       </c>
       <c r="D193" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E193" s="4">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="D194" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E194" s="4">
         <v>40</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E0DB7-9050-46F1-B5EF-4A79FE967BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DED03D3-6CBE-4442-87BD-766D42B237D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="3690" windowWidth="25785" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="3420" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -2482,10 +2482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猫咪每次行动都会导致隐匿度下降2点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[413140,413142]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2559,6 +2555,10 @@
   </si>
   <si>
     <t>拯救过知情的猫咪，消耗20点影响力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人类的行动会导致隐匿度下降2点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3020,10 +3020,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:F194"/>
+      <selection pane="topRight" activeCell="O132" sqref="O132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3380,7 +3380,7 @@
         <v>10007</v>
       </c>
       <c r="AM3" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AN3" s="4" t="s">
         <v>233</v>
@@ -3615,7 +3615,7 @@
         <v>365</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3847,7 +3847,7 @@
         <v>367</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -3963,7 +3963,7 @@
         <v>368</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="AE69" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF69" s="4" t="s">
         <v>44</v>
@@ -21759,7 +21759,7 @@
         <v>0</v>
       </c>
       <c r="AE177" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF177" s="4" t="s">
         <v>44</v>
@@ -21786,7 +21786,7 @@
         <v>335</v>
       </c>
       <c r="AN177" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.2">
@@ -21877,7 +21877,7 @@
         <v>0</v>
       </c>
       <c r="AE178" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF178" s="4" t="s">
         <v>44</v>
@@ -21904,7 +21904,7 @@
         <v>336</v>
       </c>
       <c r="AN178" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.2">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="AE179" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF179" s="4" t="s">
         <v>44</v>
@@ -22113,7 +22113,7 @@
         <v>0</v>
       </c>
       <c r="AE180" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF180" s="4" t="s">
         <v>44</v>
@@ -22231,7 +22231,7 @@
         <v>0</v>
       </c>
       <c r="AE181" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF181" s="4" t="s">
         <v>44</v>
@@ -22258,7 +22258,7 @@
         <v>337</v>
       </c>
       <c r="AN181" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.2">
@@ -22349,7 +22349,7 @@
         <v>0</v>
       </c>
       <c r="AE182" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF182" s="4" t="s">
         <v>44</v>
@@ -22467,7 +22467,7 @@
         <v>0</v>
       </c>
       <c r="AE183" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AF183" s="4" t="s">
         <v>44</v>
@@ -22585,7 +22585,7 @@
         <v>0</v>
       </c>
       <c r="AE184" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF184" s="4" t="s">
         <v>44</v>
@@ -22612,7 +22612,7 @@
         <v>214</v>
       </c>
       <c r="AN184" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.2">
@@ -22703,7 +22703,7 @@
         <v>0</v>
       </c>
       <c r="AE185" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AF185" s="4" t="s">
         <v>44</v>
@@ -22821,7 +22821,7 @@
         <v>0</v>
       </c>
       <c r="AE186" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AF186" s="4" t="s">
         <v>44</v>
@@ -22939,7 +22939,7 @@
         <v>0</v>
       </c>
       <c r="AE187" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF187" s="4" t="s">
         <v>44</v>
@@ -22966,7 +22966,7 @@
         <v>216</v>
       </c>
       <c r="AN187" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="188" spans="1:40" x14ac:dyDescent="0.2">

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DED03D3-6CBE-4442-87BD-766D42B237D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EB3470-F1C5-4AC4-918F-F183E6F6698A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="3420" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5535" yWindow="3525" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -2006,10 +2006,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2号-神启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王后：陛下已高烧三天了，病还没有起色吗？
 女仆：情况还在恶化，恐怕撑不过今夜了。</t>
   </si>
@@ -2559,6 +2555,10 @@
   </si>
   <si>
     <t>参与人类的行动会导致隐匿度下降2点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号-结局测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3020,10 +3020,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="O132" sqref="O132"/>
+      <selection pane="topRight" activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3264,7 +3264,7 @@
         <v>10000</v>
       </c>
       <c r="AM2" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN2" s="4" t="s">
         <v>232</v>
@@ -3380,7 +3380,7 @@
         <v>10007</v>
       </c>
       <c r="AM3" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AN3" s="4" t="s">
         <v>233</v>
@@ -3496,7 +3496,7 @@
         <v>10007</v>
       </c>
       <c r="AM4" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN4" s="4" t="s">
         <v>242</v>
@@ -3612,10 +3612,10 @@
         <v>10007</v>
       </c>
       <c r="AM5" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3728,7 +3728,7 @@
         <v>11310</v>
       </c>
       <c r="AM6" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AN6" s="4" t="s">
         <v>246</v>
@@ -3844,10 +3844,10 @@
         <v>10007</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -3960,10 +3960,10 @@
         <v>10007</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4076,7 +4076,7 @@
         <v>10007</v>
       </c>
       <c r="AM9" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AN9" s="4" t="s">
         <v>248</v>
@@ -4775,7 +4775,7 @@
         <v>259</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4888,7 +4888,7 @@
         <v>10200</v>
       </c>
       <c r="AM18" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AN18" s="4" t="s">
         <v>260</v>
@@ -5004,7 +5004,7 @@
         <v>10200</v>
       </c>
       <c r="AM19" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AN19" s="4" t="s">
         <v>262</v>
@@ -5120,10 +5120,10 @@
         <v>10200</v>
       </c>
       <c r="AM20" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="AN20" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="AN20" s="4" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5236,7 +5236,7 @@
         <v>10200</v>
       </c>
       <c r="AM21" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN21" s="4" t="s">
         <v>263</v>
@@ -5352,7 +5352,7 @@
         <v>11000</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AN24" s="4" t="s">
         <v>264</v>
@@ -5935,7 +5935,7 @@
         <v>235</v>
       </c>
       <c r="AN29" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF30" s="4" t="s">
         <v>44</v>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF31" s="4" t="s">
         <v>44</v>
@@ -6164,7 +6164,7 @@
         <v>11010</v>
       </c>
       <c r="AM31" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AN31" s="4" t="s">
         <v>50</v>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF32" s="4" t="s">
         <v>44</v>
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF33" s="4" t="s">
         <v>44</v>
@@ -6396,7 +6396,7 @@
         <v>11010</v>
       </c>
       <c r="AM33" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AN33" s="4" t="s">
         <v>50</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF34" s="4" t="s">
         <v>44</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AE35" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF35" s="4" t="s">
         <v>44</v>
@@ -6628,7 +6628,7 @@
         <v>11010</v>
       </c>
       <c r="AM35" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AN35" s="4" t="s">
         <v>50</v>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF37" s="4" t="s">
         <v>44</v>
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF39" s="4" t="s">
         <v>44</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="AE45" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF45" s="4" t="s">
         <v>44</v>
@@ -7672,7 +7672,7 @@
         <v>11000</v>
       </c>
       <c r="AM46" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AN46" s="4" t="s">
         <v>264</v>
@@ -7788,7 +7788,7 @@
         <v>11000</v>
       </c>
       <c r="AM47" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AN47" s="4" t="s">
         <v>264</v>
@@ -7889,7 +7889,7 @@
         <v>44</v>
       </c>
       <c r="AH48" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AI48" s="4" t="s">
         <v>44</v>
@@ -7904,7 +7904,7 @@
         <v>11003</v>
       </c>
       <c r="AM48" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AN48" s="4" t="s">
         <v>267</v>
@@ -8025,7 +8025,7 @@
         <v>269</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8254,7 +8254,7 @@
         <v>11210</v>
       </c>
       <c r="AM51" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AN51" s="4" t="s">
         <v>238</v>
@@ -8372,7 +8372,7 @@
         <v>11210</v>
       </c>
       <c r="AM52" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AN52" s="4" t="s">
         <v>271</v>
@@ -8488,7 +8488,7 @@
         <v>11210</v>
       </c>
       <c r="AM53" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AN53" s="4" t="s">
         <v>59</v>
@@ -8604,7 +8604,7 @@
         <v>11210</v>
       </c>
       <c r="AM54" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AN54" s="4" t="s">
         <v>239</v>
@@ -8720,7 +8720,7 @@
         <v>11210</v>
       </c>
       <c r="AM55" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AN55" s="4" t="s">
         <v>273</v>
@@ -8836,10 +8836,10 @@
         <v>11210</v>
       </c>
       <c r="AM56" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AN56" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
@@ -8847,7 +8847,7 @@
         <v>11216</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C57" s="4">
         <v>3</v>
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AF57" s="4" t="s">
         <v>44</v>
@@ -8952,10 +8952,10 @@
         <v>11210</v>
       </c>
       <c r="AM57" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="AN57" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="AN57" s="4" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
@@ -9044,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="AE59" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF59" s="4" t="s">
         <v>44</v>
@@ -9401,7 +9401,7 @@
         <v>44</v>
       </c>
       <c r="AH62" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AI62" s="4" t="s">
         <v>44</v>
@@ -9537,7 +9537,7 @@
         <v>269</v>
       </c>
       <c r="AN63" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF65" s="4" t="s">
         <v>44</v>
@@ -9766,7 +9766,7 @@
         <v>11310</v>
       </c>
       <c r="AM65" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN65" s="4" t="s">
         <v>279</v>
@@ -9882,7 +9882,7 @@
         <v>11310</v>
       </c>
       <c r="AM66" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN66" s="4" t="s">
         <v>280</v>
@@ -10000,7 +10000,7 @@
         <v>11310</v>
       </c>
       <c r="AM67" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AN67" s="4" t="s">
         <v>281</v>
@@ -10116,7 +10116,7 @@
         <v>11310</v>
       </c>
       <c r="AM68" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AN68" s="4" t="s">
         <v>69</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="AE69" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF69" s="4" t="s">
         <v>44</v>
@@ -10232,7 +10232,7 @@
         <v>11310</v>
       </c>
       <c r="AM69" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AN69" s="4" t="s">
         <v>71</v>
@@ -10348,7 +10348,7 @@
         <v>11310</v>
       </c>
       <c r="AM70" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AN70" s="4" t="s">
         <v>282</v>
@@ -10556,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="AE72" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AF72" s="4" t="s">
         <v>44</v>
@@ -10580,7 +10580,7 @@
         <v>11310</v>
       </c>
       <c r="AM72" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AN72" s="4" t="s">
         <v>285</v>
@@ -10696,7 +10696,7 @@
         <v>11310</v>
       </c>
       <c r="AM73" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AN73" s="4" t="s">
         <v>286</v>
@@ -10812,7 +10812,7 @@
         <v>11310</v>
       </c>
       <c r="AM74" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AN74" s="4" t="s">
         <v>287</v>
@@ -10928,7 +10928,7 @@
         <v>11310</v>
       </c>
       <c r="AM75" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AN75" s="4" t="s">
         <v>350</v>
@@ -11020,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="AE77" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF77" s="4" t="s">
         <v>44</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="AE78" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF78" s="4" t="s">
         <v>44</v>
@@ -11377,7 +11377,7 @@
         <v>44</v>
       </c>
       <c r="AH80" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AI80" s="4" t="s">
         <v>44</v>
@@ -11513,7 +11513,7 @@
         <v>194</v>
       </c>
       <c r="AN81" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.2">
@@ -11718,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="AE84" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF84" s="4" t="s">
         <v>44</v>
@@ -12075,7 +12075,7 @@
         <v>44</v>
       </c>
       <c r="AH87" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AI87" s="4" t="s">
         <v>44</v>
@@ -12211,7 +12211,7 @@
         <v>194</v>
       </c>
       <c r="AN88" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.2">
@@ -12440,10 +12440,10 @@
         <v>11510</v>
       </c>
       <c r="AM90" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="AN90" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="AN90" s="4" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="91" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12556,7 +12556,7 @@
         <v>11510</v>
       </c>
       <c r="AM91" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN91" s="4" t="s">
         <v>86</v>
@@ -12672,7 +12672,7 @@
         <v>11510</v>
       </c>
       <c r="AM92" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN92" s="4" t="s">
         <v>296</v>
@@ -12788,7 +12788,7 @@
         <v>11510</v>
       </c>
       <c r="AM93" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN93" s="4" t="s">
         <v>296</v>
@@ -13255,7 +13255,7 @@
         <v>299</v>
       </c>
       <c r="AN97" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.2">
@@ -13344,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="AE98" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF98" s="4" t="s">
         <v>44</v>
@@ -13368,7 +13368,7 @@
         <v>11510</v>
       </c>
       <c r="AM98" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AN98" s="4" t="s">
         <v>301</v>
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="AE100" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF100" s="4" t="s">
         <v>44</v>
@@ -13818,7 +13818,7 @@
         <v>44</v>
       </c>
       <c r="AH103" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AI103" s="4" t="s">
         <v>44</v>
@@ -13954,7 +13954,7 @@
         <v>194</v>
       </c>
       <c r="AN104" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.2">
@@ -14183,7 +14183,7 @@
         <v>11610</v>
       </c>
       <c r="AM106" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AN106" s="4" t="s">
         <v>305</v>
@@ -14299,10 +14299,10 @@
         <v>11610</v>
       </c>
       <c r="AM107" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN107" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="AN107" s="4" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="108" spans="1:42" ht="28.5" x14ac:dyDescent="0.2">
@@ -14415,10 +14415,10 @@
         <v>11610</v>
       </c>
       <c r="AM108" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="AN108" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="AN108" s="4" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.2">
@@ -14623,7 +14623,7 @@
         <v>0</v>
       </c>
       <c r="AE111" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF111" s="4" t="s">
         <v>44</v>
@@ -14980,7 +14980,7 @@
         <v>44</v>
       </c>
       <c r="AH114" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AI114" s="4" t="s">
         <v>44</v>
@@ -15116,7 +15116,7 @@
         <v>194</v>
       </c>
       <c r="AN115" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.2">
@@ -15345,7 +15345,7 @@
         <v>11710</v>
       </c>
       <c r="AM117" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AN117" s="4" t="s">
         <v>311</v>
@@ -15461,10 +15461,10 @@
         <v>11710</v>
       </c>
       <c r="AM118" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN118" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="AN118" s="4" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15577,7 +15577,7 @@
         <v>11710</v>
       </c>
       <c r="AM119" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AN119" s="4" t="s">
         <v>312</v>
@@ -15697,10 +15697,10 @@
         <v>11710</v>
       </c>
       <c r="AM120" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="AN120" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="AN120" s="4" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="121" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15789,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="AE121" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF121" s="4" t="s">
         <v>44</v>
@@ -15813,10 +15813,10 @@
         <v>11710</v>
       </c>
       <c r="AM121" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="AN121" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="AN121" s="4" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="122" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15824,7 +15824,7 @@
         <v>11715</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C122" s="4">
         <v>3</v>
@@ -15929,7 +15929,7 @@
         <v>11710</v>
       </c>
       <c r="AM122" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AN122" s="4" t="s">
         <v>313</v>
@@ -16021,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="AE124" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF124" s="4" t="s">
         <v>44</v>
@@ -16378,7 +16378,7 @@
         <v>44</v>
       </c>
       <c r="AH127" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AI127" s="4" t="s">
         <v>44</v>
@@ -16514,7 +16514,7 @@
         <v>194</v>
       </c>
       <c r="AN128" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="129" spans="1:40" x14ac:dyDescent="0.2">
@@ -16603,7 +16603,7 @@
         <v>0</v>
       </c>
       <c r="AE129" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AF129" s="4" t="s">
         <v>44</v>
@@ -16861,7 +16861,7 @@
         <v>11811</v>
       </c>
       <c r="AM131" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AN131" s="4" t="s">
         <v>316</v>
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="AE133" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF133" s="4" t="s">
         <v>44</v>
@@ -17310,7 +17310,7 @@
         <v>44</v>
       </c>
       <c r="AH136" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AI136" s="4" t="s">
         <v>44</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="AE137" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF137" s="4" t="s">
         <v>44</v>
@@ -17446,7 +17446,7 @@
         <v>194</v>
       </c>
       <c r="AN137" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.2">
@@ -17675,10 +17675,10 @@
         <v>11913</v>
       </c>
       <c r="AM139" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AN139" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="AN139" s="4" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:40" x14ac:dyDescent="0.2">
@@ -17791,7 +17791,7 @@
         <v>11913</v>
       </c>
       <c r="AM140" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AN140" s="4" t="s">
         <v>320</v>
@@ -17907,7 +17907,7 @@
         <v>11913</v>
       </c>
       <c r="AM141" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AN141" s="4" t="s">
         <v>321</v>
@@ -17999,7 +17999,7 @@
         <v>0</v>
       </c>
       <c r="AE142" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF142" s="4" t="s">
         <v>44</v>
@@ -18139,7 +18139,7 @@
         <v>11913</v>
       </c>
       <c r="AM143" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN143" s="4" t="s">
         <v>323</v>
@@ -18255,7 +18255,7 @@
         <v>11913</v>
       </c>
       <c r="AM144" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AN144" s="4" t="s">
         <v>323</v>
@@ -18389,7 +18389,7 @@
         <v>0</v>
       </c>
       <c r="AE146" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF146" s="4" t="s">
         <v>44</v>
@@ -18746,7 +18746,7 @@
         <v>44</v>
       </c>
       <c r="AH149" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AI149" s="4" t="s">
         <v>44</v>
@@ -18855,7 +18855,7 @@
         <v>0</v>
       </c>
       <c r="AE150" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF150" s="4" t="s">
         <v>44</v>
@@ -18882,7 +18882,7 @@
         <v>194</v>
       </c>
       <c r="AN150" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="151" spans="1:40" x14ac:dyDescent="0.2">
@@ -19111,7 +19111,7 @@
         <v>12010</v>
       </c>
       <c r="AM152" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AN152" s="4" t="s">
         <v>326</v>
@@ -19227,10 +19227,10 @@
         <v>12010</v>
       </c>
       <c r="AM153" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="AN153" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="AN153" s="4" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="154" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19346,7 +19346,7 @@
         <v>327</v>
       </c>
       <c r="AN154" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="155" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19807,10 +19807,10 @@
         <v>12010</v>
       </c>
       <c r="AM158" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="AN158" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="AN158" s="4" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.2">
@@ -19899,7 +19899,7 @@
         <v>0</v>
       </c>
       <c r="AE160" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF160" s="4" t="s">
         <v>44</v>
@@ -20256,7 +20256,7 @@
         <v>44</v>
       </c>
       <c r="AH163" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AI163" s="4" t="s">
         <v>44</v>
@@ -20392,7 +20392,7 @@
         <v>194</v>
       </c>
       <c r="AN164" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="165" spans="1:40" x14ac:dyDescent="0.2">
@@ -20621,10 +20621,10 @@
         <v>12113</v>
       </c>
       <c r="AM166" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="AN166" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="AN166" s="4" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="167" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20737,7 +20737,7 @@
         <v>12113</v>
       </c>
       <c r="AM167" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN167" s="4" t="s">
         <v>331</v>
@@ -20853,7 +20853,7 @@
         <v>12113</v>
       </c>
       <c r="AM168" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AN168" s="4" t="s">
         <v>332</v>
@@ -20969,10 +20969,10 @@
         <v>12113</v>
       </c>
       <c r="AM169" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AN169" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="170" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21085,10 +21085,10 @@
         <v>12113</v>
       </c>
       <c r="AM170" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="AN170" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="AN170" s="4" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="171" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21201,7 +21201,7 @@
         <v>12113</v>
       </c>
       <c r="AM171" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN171" s="4" t="s">
         <v>333</v>
@@ -21317,10 +21317,10 @@
         <v>12113</v>
       </c>
       <c r="AM172" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="AN172" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="AN172" s="4" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="173" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21433,10 +21433,10 @@
         <v>12113</v>
       </c>
       <c r="AM173" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="AN173" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AN173" s="4" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="174" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21549,10 +21549,10 @@
         <v>12113</v>
       </c>
       <c r="AM174" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="AN174" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="AN174" s="4" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="176" spans="1:40" x14ac:dyDescent="0.2">
@@ -21641,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="AE176" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF176" s="4" t="s">
         <v>44</v>
@@ -21759,7 +21759,7 @@
         <v>0</v>
       </c>
       <c r="AE177" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AF177" s="4" t="s">
         <v>44</v>
@@ -21786,7 +21786,7 @@
         <v>335</v>
       </c>
       <c r="AN177" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.2">
@@ -21877,7 +21877,7 @@
         <v>0</v>
       </c>
       <c r="AE178" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF178" s="4" t="s">
         <v>44</v>
@@ -21904,7 +21904,7 @@
         <v>336</v>
       </c>
       <c r="AN178" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.2">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="AE179" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF179" s="4" t="s">
         <v>44</v>
@@ -22113,7 +22113,7 @@
         <v>0</v>
       </c>
       <c r="AE180" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF180" s="4" t="s">
         <v>44</v>
@@ -22231,7 +22231,7 @@
         <v>0</v>
       </c>
       <c r="AE181" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF181" s="4" t="s">
         <v>44</v>
@@ -22258,7 +22258,7 @@
         <v>337</v>
       </c>
       <c r="AN181" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.2">
@@ -22349,7 +22349,7 @@
         <v>0</v>
       </c>
       <c r="AE182" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF182" s="4" t="s">
         <v>44</v>
@@ -22467,7 +22467,7 @@
         <v>0</v>
       </c>
       <c r="AE183" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF183" s="4" t="s">
         <v>44</v>
@@ -22585,7 +22585,7 @@
         <v>0</v>
       </c>
       <c r="AE184" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF184" s="4" t="s">
         <v>44</v>
@@ -22612,7 +22612,7 @@
         <v>214</v>
       </c>
       <c r="AN184" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.2">
@@ -22703,7 +22703,7 @@
         <v>0</v>
       </c>
       <c r="AE185" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AF185" s="4" t="s">
         <v>44</v>
@@ -22821,7 +22821,7 @@
         <v>0</v>
       </c>
       <c r="AE186" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AF186" s="4" t="s">
         <v>44</v>
@@ -22939,7 +22939,7 @@
         <v>0</v>
       </c>
       <c r="AE187" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF187" s="4" t="s">
         <v>44</v>
@@ -22966,7 +22966,7 @@
         <v>216</v>
       </c>
       <c r="AN187" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="188" spans="1:40" x14ac:dyDescent="0.2">
@@ -23055,7 +23055,7 @@
         <v>0</v>
       </c>
       <c r="AE188" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF188" s="4" t="s">
         <v>44</v>
@@ -23751,7 +23751,7 @@
         <v>0</v>
       </c>
       <c r="AE194" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF194" s="4" t="s">
         <v>44</v>
@@ -23778,7 +23778,7 @@
         <v>340</v>
       </c>
       <c r="AN194" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="198" spans="1:40" x14ac:dyDescent="0.2">
@@ -24010,7 +24010,7 @@
         <v>14002</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -24122,7 +24122,7 @@
         <v>14003</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>362</v>
+        <v>516</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -24234,7 +24234,7 @@
         <v>14004</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>

--- a/ExcelConfig/pbjson/excel/事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EB3470-F1C5-4AC4-918F-F183E6F6698A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4EF11C-D0C4-468E-9082-B938085CCB7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="3525" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="3975" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#事件配置表" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="514">
   <si>
     <t>Id</t>
   </si>
@@ -1258,19 +1258,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[440030]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[440040]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3020,10 +3008,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="Z1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="A201" sqref="A201"/>
+      <selection pane="topRight" activeCell="AF201" sqref="AF201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3103,16 +3091,16 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -3240,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>122</v>
@@ -3264,10 +3252,10 @@
         <v>10000</v>
       </c>
       <c r="AM2" s="13" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3356,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>44</v>
@@ -3380,10 +3368,10 @@
         <v>10007</v>
       </c>
       <c r="AM3" s="13" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3472,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AF4" s="4" t="s">
         <v>44</v>
@@ -3496,10 +3484,10 @@
         <v>10007</v>
       </c>
       <c r="AM4" s="13" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3588,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AF5" s="4" t="s">
         <v>44</v>
@@ -3612,10 +3600,10 @@
         <v>10007</v>
       </c>
       <c r="AM5" s="13" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -3623,7 +3611,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -3704,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>44</v>
@@ -3728,10 +3716,10 @@
         <v>11310</v>
       </c>
       <c r="AM6" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
@@ -3820,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>44</v>
@@ -3844,10 +3832,10 @@
         <v>10007</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -3936,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>44</v>
@@ -3960,10 +3948,10 @@
         <v>10007</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4052,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AF9" s="4" t="s">
         <v>44</v>
@@ -4076,10 +4064,10 @@
         <v>10007</v>
       </c>
       <c r="AM9" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
@@ -4087,7 +4075,7 @@
         <v>10100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -4168,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AF11" s="4" t="s">
         <v>44</v>
@@ -4192,10 +4180,10 @@
         <v>10105</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -4203,7 +4191,7 @@
         <v>10101</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -4284,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AF12" s="4" t="s">
         <v>44</v>
@@ -4308,10 +4296,10 @@
         <v>10105</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
@@ -4319,7 +4307,7 @@
         <v>10102</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -4400,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AF13" s="4" t="s">
         <v>44</v>
@@ -4424,10 +4412,10 @@
         <v>10105</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
@@ -4435,7 +4423,7 @@
         <v>10103</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -4516,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AF14" s="4" t="s">
         <v>44</v>
@@ -4540,10 +4528,10 @@
         <v>10105</v>
       </c>
       <c r="AM14" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
@@ -4551,7 +4539,7 @@
         <v>10104</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
@@ -4632,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AF15" s="4" t="s">
         <v>44</v>
@@ -4656,10 +4644,10 @@
         <v>10105</v>
       </c>
       <c r="AM15" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
@@ -4667,7 +4655,7 @@
         <v>10105</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -4748,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AF16" s="4" t="s">
         <v>44</v>
@@ -4772,10 +4760,10 @@
         <v>10105</v>
       </c>
       <c r="AM16" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -4783,7 +4771,7 @@
         <v>10200</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -4864,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AF18" s="4" t="s">
         <v>44</v>
@@ -4888,10 +4876,10 @@
         <v>10200</v>
       </c>
       <c r="AM18" s="13" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
@@ -4899,7 +4887,7 @@
         <v>10201</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
@@ -4980,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AF19" s="4" t="s">
         <v>44</v>
@@ -5004,10 +4992,10 @@
         <v>10200</v>
       </c>
       <c r="AM19" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AN19" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5015,7 +5003,7 @@
         <v>10202</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -5096,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AF20" s="4" t="s">
         <v>44</v>
@@ -5120,10 +5108,10 @@
         <v>10200</v>
       </c>
       <c r="AM20" s="13" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -5131,7 +5119,7 @@
         <v>10203</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -5212,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AF21" s="4" t="s">
         <v>44</v>
@@ -5236,10 +5224,10 @@
         <v>10200</v>
       </c>
       <c r="AM21" s="13" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AN21" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
@@ -5352,10 +5340,10 @@
         <v>11000</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
@@ -5468,10 +5456,10 @@
         <v>11000</v>
       </c>
       <c r="AM25" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -5584,10 +5572,10 @@
         <v>11000</v>
       </c>
       <c r="AM26" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -5700,10 +5688,10 @@
         <v>11003</v>
       </c>
       <c r="AM27" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -5819,7 +5807,7 @@
         <v>47</v>
       </c>
       <c r="AN28" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -5908,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF29" s="4" t="s">
         <v>44</v>
@@ -5932,10 +5920,10 @@
         <v>11005</v>
       </c>
       <c r="AM29" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AN29" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
@@ -6024,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AF30" s="4" t="s">
         <v>44</v>
@@ -6048,7 +6036,7 @@
         <v>11010</v>
       </c>
       <c r="AM30" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AN30" s="4" t="s">
         <v>50</v>
@@ -6140,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AF31" s="4" t="s">
         <v>44</v>
@@ -6164,7 +6152,7 @@
         <v>11010</v>
       </c>
       <c r="AM31" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AN31" s="4" t="s">
         <v>50</v>
@@ -6256,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AF32" s="4" t="s">
         <v>44</v>
@@ -6280,7 +6268,7 @@
         <v>11010</v>
       </c>
       <c r="AM32" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AN32" s="4" t="s">
         <v>50</v>
@@ -6372,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AF33" s="4" t="s">
         <v>44</v>
@@ -6396,7 +6384,7 @@
         <v>11010</v>
       </c>
       <c r="AM33" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AN33" s="4" t="s">
         <v>50</v>
@@ -6488,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AF34" s="4" t="s">
         <v>44</v>
@@ -6512,7 +6500,7 @@
         <v>11010</v>
       </c>
       <c r="AM34" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AN34" s="4" t="s">
         <v>50</v>
@@ -6604,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="AE35" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AF35" s="4" t="s">
         <v>44</v>
@@ -6628,7 +6616,7 @@
         <v>11010</v>
       </c>
       <c r="AM35" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AN35" s="4" t="s">
         <v>50</v>
@@ -6720,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AF37" s="4" t="s">
         <v>44</v>
@@ -6744,10 +6732,10 @@
         <v>11000</v>
       </c>
       <c r="AM37" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN37" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -6860,10 +6848,10 @@
         <v>11000</v>
       </c>
       <c r="AM38" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN38" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
@@ -6952,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AF39" s="4" t="s">
         <v>44</v>
@@ -6976,10 +6964,10 @@
         <v>11000</v>
       </c>
       <c r="AM39" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN39" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
@@ -7092,10 +7080,10 @@
         <v>11003</v>
       </c>
       <c r="AM40" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AN40" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
@@ -7208,10 +7196,10 @@
         <v>11004</v>
       </c>
       <c r="AM41" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AN41" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
@@ -7324,10 +7312,10 @@
         <v>11005</v>
       </c>
       <c r="AM42" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN42" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
@@ -7440,10 +7428,10 @@
         <v>13001</v>
       </c>
       <c r="AM43" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AN43" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -7532,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="AE45" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AF45" s="4" t="s">
         <v>44</v>
@@ -7556,10 +7544,10 @@
         <v>11000</v>
       </c>
       <c r="AM45" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN45" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -7672,10 +7660,10 @@
         <v>11000</v>
       </c>
       <c r="AM46" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AN46" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
@@ -7788,10 +7776,10 @@
         <v>11000</v>
       </c>
       <c r="AM47" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AN47" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
@@ -7880,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AF48" s="4" t="s">
         <v>44</v>
@@ -7889,7 +7877,7 @@
         <v>44</v>
       </c>
       <c r="AH48" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AI48" s="4" t="s">
         <v>44</v>
@@ -7904,10 +7892,10 @@
         <v>11003</v>
       </c>
       <c r="AM48" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AN48" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.2">
@@ -7998,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AF49" s="4" t="s">
         <v>44</v>
@@ -8022,10 +8010,10 @@
         <v>11004</v>
       </c>
       <c r="AM49" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8138,10 +8126,10 @@
         <v>11005</v>
       </c>
       <c r="AM50" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN50" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8254,10 +8242,10 @@
         <v>11210</v>
       </c>
       <c r="AM51" s="13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AN51" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8372,10 +8360,10 @@
         <v>11210</v>
       </c>
       <c r="AM52" s="13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AN52" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8488,7 +8476,7 @@
         <v>11210</v>
       </c>
       <c r="AM53" s="13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AN53" s="4" t="s">
         <v>59</v>
@@ -8589,7 +8577,7 @@
         <v>44</v>
       </c>
       <c r="AH54" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AI54" s="4" t="s">
         <v>44</v>
@@ -8604,10 +8592,10 @@
         <v>11210</v>
       </c>
       <c r="AM54" s="13" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AN54" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8720,10 +8708,10 @@
         <v>11210</v>
       </c>
       <c r="AM55" s="13" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AN55" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -8812,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="AE56" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AF56" s="4" t="s">
         <v>44</v>
@@ -8836,10 +8824,10 @@
         <v>11210</v>
       </c>
       <c r="AM56" s="13" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AN56" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
@@ -8847,7 +8835,7 @@
         <v>11216</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C57" s="4">
         <v>3</v>
@@ -8928,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AF57" s="4" t="s">
         <v>44</v>
@@ -8952,10 +8940,10 @@
         <v>11210</v>
       </c>
       <c r="AM57" s="13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AN57" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
@@ -9044,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="AE59" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AF59" s="4" t="s">
         <v>44</v>
@@ -9068,10 +9056,10 @@
         <v>11000</v>
       </c>
       <c r="AM59" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN59" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.2">
@@ -9160,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AF60" s="4" t="s">
         <v>44</v>
@@ -9184,10 +9172,10 @@
         <v>11000</v>
       </c>
       <c r="AM60" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN60" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.2">
@@ -9300,10 +9288,10 @@
         <v>11000</v>
       </c>
       <c r="AM61" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN61" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.2">
@@ -9392,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AF62" s="4" t="s">
         <v>44</v>
@@ -9401,7 +9389,7 @@
         <v>44</v>
       </c>
       <c r="AH62" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AI62" s="4" t="s">
         <v>44</v>
@@ -9416,10 +9404,10 @@
         <v>11003</v>
       </c>
       <c r="AM62" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AN62" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
@@ -9510,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="AE63" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AF63" s="4" t="s">
         <v>44</v>
@@ -9534,10 +9522,10 @@
         <v>11004</v>
       </c>
       <c r="AM63" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AN63" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
@@ -9626,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AF64" s="4" t="s">
         <v>44</v>
@@ -9650,10 +9638,10 @@
         <v>11005</v>
       </c>
       <c r="AM64" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN64" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.2">
@@ -9742,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AF65" s="4" t="s">
         <v>44</v>
@@ -9766,10 +9754,10 @@
         <v>11310</v>
       </c>
       <c r="AM65" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AN65" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.2">
@@ -9882,10 +9870,10 @@
         <v>11310</v>
       </c>
       <c r="AM66" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AN66" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.2">
@@ -9976,7 +9964,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AF67" s="4" t="s">
         <v>44</v>
@@ -10000,10 +9988,10 @@
         <v>11310</v>
       </c>
       <c r="AM67" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AN67" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.2">
@@ -10092,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AF68" s="4" t="s">
         <v>44</v>
@@ -10116,7 +10104,7 @@
         <v>11310</v>
       </c>
       <c r="AM68" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AN68" s="4" t="s">
         <v>69</v>
@@ -10208,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="AE69" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AF69" s="4" t="s">
         <v>44</v>
@@ -10217,7 +10205,7 @@
         <v>44</v>
       </c>
       <c r="AH69" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AI69" s="4" t="s">
         <v>44</v>
@@ -10232,7 +10220,7 @@
         <v>11310</v>
       </c>
       <c r="AM69" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AN69" s="4" t="s">
         <v>71</v>
@@ -10324,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="AE70" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AF70" s="4" t="s">
         <v>44</v>
@@ -10348,10 +10336,10 @@
         <v>11310</v>
       </c>
       <c r="AM70" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AN70" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.2">
@@ -10440,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="AE71" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AF71" s="4" t="s">
         <v>44</v>
@@ -10464,10 +10452,10 @@
         <v>11310</v>
       </c>
       <c r="AM71" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AN71" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.2">
@@ -10556,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="AE72" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AF72" s="4" t="s">
         <v>44</v>
@@ -10580,10 +10568,10 @@
         <v>11310</v>
       </c>
       <c r="AM72" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AN72" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.2">
@@ -10672,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="AE73" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AF73" s="4" t="s">
         <v>44</v>
@@ -10696,10 +10684,10 @@
         <v>11310</v>
       </c>
       <c r="AM73" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AN73" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.2">
@@ -10788,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="AE74" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AF74" s="4" t="s">
         <v>44</v>
@@ -10812,10 +10800,10 @@
         <v>11310</v>
       </c>
       <c r="AM74" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AN74" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.2">
@@ -10928,10 +10916,10 @@
         <v>11310</v>
       </c>
       <c r="AM75" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AN75" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.2">
@@ -11020,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="AE77" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AF77" s="4" t="s">
         <v>44</v>
@@ -11044,10 +11032,10 @@
         <v>11000</v>
       </c>
       <c r="AM77" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AN77" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.2">
@@ -11136,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="AE78" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AF78" s="4" t="s">
         <v>44</v>
@@ -11160,10 +11148,10 @@
         <v>11000</v>
       </c>
       <c r="AM78" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN78" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.2">
@@ -11276,10 +11264,10 @@
         <v>11000</v>
       </c>
       <c r="AM79" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN79" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.2">
@@ -11368,7 +11356,7 @@
         <v>0</v>
       </c>
       <c r="AE80" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AF80" s="4" t="s">
         <v>44</v>
@@ -11377,7 +11365,7 @@
         <v>44</v>
       </c>
       <c r="AH80" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AI80" s="4" t="s">
         <v>44</v>
@@ -11392,10 +11380,10 @@
         <v>11003</v>
       </c>
       <c r="AM80" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AN80" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.2">
@@ -11486,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="AE81" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AF81" s="4" t="s">
         <v>44</v>
@@ -11510,10 +11498,10 @@
         <v>11004</v>
       </c>
       <c r="AM81" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AN81" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.2">
@@ -11602,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="AE82" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AF82" s="4" t="s">
         <v>44</v>
@@ -11626,10 +11614,10 @@
         <v>11005</v>
       </c>
       <c r="AM82" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN82" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.2">
@@ -11718,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="AE84" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AF84" s="4" t="s">
         <v>44</v>
@@ -11742,10 +11730,10 @@
         <v>11000</v>
       </c>
       <c r="AM84" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN84" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.2">
@@ -11858,10 +11846,10 @@
         <v>11000</v>
       </c>
       <c r="AM85" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN85" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11974,10 +11962,10 @@
         <v>11000</v>
       </c>
       <c r="AM86" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN86" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12066,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="AE87" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF87" s="4" t="s">
         <v>44</v>
@@ -12075,7 +12063,7 @@
         <v>44</v>
       </c>
       <c r="AH87" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AI87" s="4" t="s">
         <v>44</v>
@@ -12090,10 +12078,10 @@
         <v>11003</v>
       </c>
       <c r="AM87" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AN87" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.2">
@@ -12184,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="AE88" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AF88" s="4" t="s">
         <v>44</v>
@@ -12208,10 +12196,10 @@
         <v>11004</v>
       </c>
       <c r="AM88" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AN88" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.2">
@@ -12300,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="AE89" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AF89" s="4" t="s">
         <v>44</v>
@@ -12324,10 +12312,10 @@
         <v>11005</v>
       </c>
       <c r="AM89" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN89" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12440,10 +12428,10 @@
         <v>11510</v>
       </c>
       <c r="AM90" s="13" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AN90" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="91" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -12556,7 +12544,7 @@
         <v>11510</v>
       </c>
       <c r="AM91" s="13" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AN91" s="4" t="s">
         <v>86</v>
@@ -12657,7 +12645,7 @@
         <v>44</v>
       </c>
       <c r="AH92" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AI92" s="4" t="s">
         <v>44</v>
@@ -12672,10 +12660,10 @@
         <v>11510</v>
       </c>
       <c r="AM92" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AN92" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.2">
@@ -12773,7 +12761,7 @@
         <v>44</v>
       </c>
       <c r="AH93" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AI93" s="4" t="s">
         <v>44</v>
@@ -12788,10 +12776,10 @@
         <v>11510</v>
       </c>
       <c r="AM93" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AN93" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.2">
@@ -12904,10 +12892,10 @@
         <v>11510</v>
       </c>
       <c r="AM94" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AN94" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.2">
@@ -13020,7 +13008,7 @@
         <v>11510</v>
       </c>
       <c r="AM95" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AN95" s="4" t="s">
         <v>94</v>
@@ -13136,7 +13124,7 @@
         <v>11510</v>
       </c>
       <c r="AM96" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AN96" s="4" t="s">
         <v>96</v>
@@ -13228,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="AE97" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AF97" s="4" t="s">
         <v>44</v>
@@ -13252,10 +13240,10 @@
         <v>11510</v>
       </c>
       <c r="AM97" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AN97" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.2">
@@ -13344,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="AE98" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AF98" s="4" t="s">
         <v>44</v>
@@ -13368,10 +13356,10 @@
         <v>11510</v>
       </c>
       <c r="AM98" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AN98" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AP98" s="1"/>
     </row>
@@ -13461,7 +13449,7 @@
         <v>0</v>
       </c>
       <c r="AE100" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AF100" s="4" t="s">
         <v>44</v>
@@ -13485,10 +13473,10 @@
         <v>11000</v>
       </c>
       <c r="AM100" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN100" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.2">
@@ -13601,10 +13589,10 @@
         <v>11000</v>
       </c>
       <c r="AM101" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN101" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.2">
@@ -13717,10 +13705,10 @@
         <v>11000</v>
       </c>
       <c r="AM102" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN102" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.2">
@@ -13809,7 +13797,7 @@
         <v>0</v>
       </c>
       <c r="AE103" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AF103" s="4" t="s">
         <v>44</v>
@@ -13818,7 +13806,7 @@
         <v>44</v>
       </c>
       <c r="AH103" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AI103" s="4" t="s">
         <v>44</v>
@@ -13833,10 +13821,10 @@
         <v>11003</v>
       </c>
       <c r="AM103" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AN103" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.2">
@@ -13927,7 +13915,7 @@
         <v>0</v>
       </c>
       <c r="AE104" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AF104" s="4" t="s">
         <v>44</v>
@@ -13951,10 +13939,10 @@
         <v>11004</v>
       </c>
       <c r="AM104" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AN104" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.2">
@@ -14043,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="AE105" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AF105" s="4" t="s">
         <v>44</v>
@@ -14067,10 +14055,10 @@
         <v>11005</v>
       </c>
       <c r="AM105" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN105" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="28.5" x14ac:dyDescent="0.2">
@@ -14159,7 +14147,7 @@
         <v>0</v>
       </c>
       <c r="AE106" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AF106" s="4" t="s">
         <v>44</v>
@@ -14183,10 +14171,10 @@
         <v>11610</v>
       </c>
       <c r="AM106" s="13" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AN106" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:42" ht="28.5" x14ac:dyDescent="0.2">
@@ -14299,10 +14287,10 @@
         <v>11610</v>
       </c>
       <c r="AM107" s="13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AN107" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="1:42" ht="28.5" x14ac:dyDescent="0.2">
@@ -14415,10 +14403,10 @@
         <v>11610</v>
       </c>
       <c r="AM108" s="13" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AN108" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.2">
@@ -14531,10 +14519,10 @@
         <v>11610</v>
       </c>
       <c r="AM109" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AN109" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.2">
@@ -14623,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="AE111" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AF111" s="4" t="s">
         <v>44</v>
@@ -14647,10 +14635,10 @@
         <v>11000</v>
       </c>
       <c r="AM111" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN111" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.2">
@@ -14763,10 +14751,10 @@
         <v>11000</v>
       </c>
       <c r="AM112" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN112" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="1:40" x14ac:dyDescent="0.2">
@@ -14879,10 +14867,10 @@
         <v>11000</v>
       </c>
       <c r="AM113" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN113" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.2">
@@ -14971,7 +14959,7 @@
         <v>0</v>
       </c>
       <c r="AE114" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AF114" s="4" t="s">
         <v>44</v>
@@ -14980,7 +14968,7 @@
         <v>44</v>
       </c>
       <c r="AH114" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AI114" s="4" t="s">
         <v>44</v>
@@ -14995,10 +14983,10 @@
         <v>11003</v>
       </c>
       <c r="AM114" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AN114" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15089,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="AE115" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AF115" s="4" t="s">
         <v>44</v>
@@ -15113,10 +15101,10 @@
         <v>11004</v>
       </c>
       <c r="AM115" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AN115" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.2">
@@ -15205,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="AE116" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AF116" s="4" t="s">
         <v>44</v>
@@ -15229,10 +15217,10 @@
         <v>11005</v>
       </c>
       <c r="AM116" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN116" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15240,7 +15228,7 @@
         <v>11710</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C117" s="4">
         <v>1</v>
@@ -15345,10 +15333,10 @@
         <v>11710</v>
       </c>
       <c r="AM117" s="13" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AN117" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:40" x14ac:dyDescent="0.2">
@@ -15461,10 +15449,10 @@
         <v>11710</v>
       </c>
       <c r="AM118" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AN118" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15577,10 +15565,10 @@
         <v>11710</v>
       </c>
       <c r="AM119" s="13" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AN119" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15697,10 +15685,10 @@
         <v>11710</v>
       </c>
       <c r="AM120" s="13" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AN120" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15789,7 +15777,7 @@
         <v>0</v>
       </c>
       <c r="AE121" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AF121" s="4" t="s">
         <v>44</v>
@@ -15813,10 +15801,10 @@
         <v>11710</v>
       </c>
       <c r="AM121" s="13" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AN121" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
@@ -15824,7 +15812,7 @@
         <v>11715</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C122" s="4">
         <v>3</v>
@@ -15908,7 +15896,7 @@
         <v>118</v>
       </c>
       <c r="AF122" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AG122" s="4" t="s">
         <v>44</v>
@@ -15929,10 +15917,10 @@
         <v>11710</v>
       </c>
       <c r="AM122" s="13" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AN122" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.2">
@@ -16021,7 +16009,7 @@
         <v>0</v>
       </c>
       <c r="AE124" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AF124" s="4" t="s">
         <v>44</v>
@@ -16045,10 +16033,10 @@
         <v>11000</v>
       </c>
       <c r="AM124" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN124" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:40" x14ac:dyDescent="0.2">
@@ -16161,10 +16149,10 @@
         <v>11000</v>
       </c>
       <c r="AM125" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN125" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.2">
@@ -16277,10 +16265,10 @@
         <v>11000</v>
       </c>
       <c r="AM126" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN126" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:40" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16369,7 +16357,7 @@
         <v>0</v>
       </c>
       <c r="AE127" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AF127" s="4" t="s">
         <v>44</v>
@@ -16378,7 +16366,7 @@
         <v>44</v>
       </c>
       <c r="AH127" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AI127" s="4" t="s">
         <v>44</v>
@@ -16393,10 +16381,10 @@
         <v>11003</v>
       </c>
       <c r="AM127" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AN127" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.2">
@@ -16487,7 +16475,7 @@
         <v>0</v>
       </c>
       <c r="AE128" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AF128" s="4" t="s">
         <v>44</v>
@@ -16511,10 +16499,10 @@
         <v>11004</v>
       </c>
       <c r="AM128" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AN128" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="129" spans="1:40" x14ac:dyDescent="0.2">
@@ -16603,7 +16591,7 @@
         <v>0</v>
       </c>
       <c r="AE129" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AF129" s="4" t="s">
         <v>44</v>
@@ -16627,10 +16615,10 @@
         <v>11005</v>
       </c>
       <c r="AM129" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN129" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="130" spans="1:40" x14ac:dyDescent="0.2">
@@ -16743,7 +16731,7 @@
         <v>10000</v>
       </c>
       <c r="AM130" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AN130" s="4" t="s">
         <v>123</v>
@@ -16819,7 +16807,7 @@
         <v>318112</v>
       </c>
       <c r="Y131" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Z131" s="7">
         <v>318113</v>
@@ -16861,10 +16849,10 @@
         <v>11811</v>
       </c>
       <c r="AM131" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AN131" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:40" x14ac:dyDescent="0.2">
@@ -16953,7 +16941,7 @@
         <v>0</v>
       </c>
       <c r="AE133" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AF133" s="4" t="s">
         <v>44</v>
@@ -16977,10 +16965,10 @@
         <v>11000</v>
       </c>
       <c r="AM133" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN133" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:40" x14ac:dyDescent="0.2">
@@ -17093,10 +17081,10 @@
         <v>11000</v>
       </c>
       <c r="AM134" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN134" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:40" x14ac:dyDescent="0.2">
@@ -17209,10 +17197,10 @@
         <v>11000</v>
       </c>
       <c r="AM135" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN135" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.2">
@@ -17301,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="AE136" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AF136" s="4" t="s">
         <v>44</v>
@@ -17310,7 +17298,7 @@
         <v>44</v>
       </c>
       <c r="AH136" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AI136" s="4" t="s">
         <v>44</v>
@@ -17325,10 +17313,10 @@
         <v>11003</v>
       </c>
       <c r="AM136" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AN136" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.2">
@@ -17419,7 +17407,7 @@
         <v>0</v>
       </c>
       <c r="AE137" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AF137" s="4" t="s">
         <v>44</v>
@@ -17443,10 +17431,10 @@
         <v>11004</v>
       </c>
       <c r="AM137" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AN137" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.2">
@@ -17535,7 +17523,7 @@
         <v>0</v>
       </c>
       <c r="AE138" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF138" s="4" t="s">
         <v>44</v>
@@ -17559,10 +17547,10 @@
         <v>11005</v>
       </c>
       <c r="AM138" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN138" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:40" x14ac:dyDescent="0.2">
@@ -17675,10 +17663,10 @@
         <v>11913</v>
       </c>
       <c r="AM139" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AN139" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="140" spans="1:40" x14ac:dyDescent="0.2">
@@ -17791,10 +17779,10 @@
         <v>11913</v>
       </c>
       <c r="AM140" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AN140" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="141" spans="1:40" x14ac:dyDescent="0.2">
@@ -17907,10 +17895,10 @@
         <v>11913</v>
       </c>
       <c r="AM141" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AN141" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="142" spans="1:40" x14ac:dyDescent="0.2">
@@ -17999,7 +17987,7 @@
         <v>0</v>
       </c>
       <c r="AE142" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AF142" s="4" t="s">
         <v>44</v>
@@ -18023,10 +18011,10 @@
         <v>11913</v>
       </c>
       <c r="AM142" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AN142" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="143" spans="1:40" x14ac:dyDescent="0.2">
@@ -18139,10 +18127,10 @@
         <v>11913</v>
       </c>
       <c r="AM143" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AN143" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="144" spans="1:40" x14ac:dyDescent="0.2">
@@ -18255,10 +18243,10 @@
         <v>11913</v>
       </c>
       <c r="AM144" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AN144" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="145" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -18389,7 +18377,7 @@
         <v>0</v>
       </c>
       <c r="AE146" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AF146" s="4" t="s">
         <v>44</v>
@@ -18413,10 +18401,10 @@
         <v>11000</v>
       </c>
       <c r="AM146" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN146" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:40" x14ac:dyDescent="0.2">
@@ -18529,10 +18517,10 @@
         <v>11000</v>
       </c>
       <c r="AM147" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN147" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:40" x14ac:dyDescent="0.2">
@@ -18645,10 +18633,10 @@
         <v>11000</v>
       </c>
       <c r="AM148" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN148" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:40" x14ac:dyDescent="0.2">
@@ -18737,7 +18725,7 @@
         <v>0</v>
       </c>
       <c r="AE149" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AF149" s="4" t="s">
         <v>44</v>
@@ -18746,7 +18734,7 @@
         <v>44</v>
       </c>
       <c r="AH149" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AI149" s="4" t="s">
         <v>44</v>
@@ -18761,10 +18749,10 @@
         <v>11003</v>
       </c>
       <c r="AM149" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AN149" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:40" x14ac:dyDescent="0.2">
@@ -18855,7 +18843,7 @@
         <v>0</v>
       </c>
       <c r="AE150" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AF150" s="4" t="s">
         <v>44</v>
@@ -18879,10 +18867,10 @@
         <v>11004</v>
       </c>
       <c r="AM150" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AN150" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="151" spans="1:40" x14ac:dyDescent="0.2">
@@ -18971,7 +18959,7 @@
         <v>0</v>
       </c>
       <c r="AE151" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF151" s="4" t="s">
         <v>44</v>
@@ -18995,10 +18983,10 @@
         <v>11005</v>
       </c>
       <c r="AM151" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN151" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="152" spans="1:40" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -19111,10 +19099,10 @@
         <v>12010</v>
       </c>
       <c r="AM152" s="13" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AN152" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="153" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19227,10 +19215,10 @@
         <v>12010</v>
       </c>
       <c r="AM153" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AN153" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="154" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19343,10 +19331,10 @@
         <v>12010</v>
       </c>
       <c r="AM154" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AN154" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="155" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19459,10 +19447,10 @@
         <v>12010</v>
       </c>
       <c r="AM155" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AN155" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19575,10 +19563,10 @@
         <v>12010</v>
       </c>
       <c r="AM156" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AN156" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -19691,10 +19679,10 @@
         <v>12010</v>
       </c>
       <c r="AM157" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AN157" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="158" spans="1:40" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -19807,10 +19795,10 @@
         <v>12010</v>
       </c>
       <c r="AM158" s="13" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AN158" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.2">
@@ -19899,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="AE160" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AF160" s="4" t="s">
         <v>44</v>
@@ -19923,10 +19911,10 @@
         <v>11000</v>
       </c>
       <c r="AM160" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN160" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.2">
@@ -20039,10 +20027,10 @@
         <v>11000</v>
       </c>
       <c r="AM161" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN161" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="162" spans="1:40" x14ac:dyDescent="0.2">
@@ -20155,10 +20143,10 @@
         <v>11000</v>
       </c>
       <c r="AM162" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN162" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:40" x14ac:dyDescent="0.2">
@@ -20247,7 +20235,7 @@
         <v>0</v>
       </c>
       <c r="AE163" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AF163" s="4" t="s">
         <v>44</v>
@@ -20256,7 +20244,7 @@
         <v>44</v>
       </c>
       <c r="AH163" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AI163" s="4" t="s">
         <v>44</v>
@@ -20271,10 +20259,10 @@
         <v>11003</v>
       </c>
       <c r="AM163" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AN163" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:40" x14ac:dyDescent="0.2">
@@ -20365,7 +20353,7 @@
         <v>0</v>
       </c>
       <c r="AE164" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AF164" s="4" t="s">
         <v>44</v>
@@ -20389,10 +20377,10 @@
         <v>11004</v>
       </c>
       <c r="AM164" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AN164" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="165" spans="1:40" x14ac:dyDescent="0.2">
@@ -20481,7 +20469,7 @@
         <v>0</v>
       </c>
       <c r="AE165" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AF165" s="4" t="s">
         <v>44</v>
@@ -20505,10 +20493,10 @@
         <v>11005</v>
       </c>
       <c r="AM165" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN165" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="166" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20597,7 +20585,7 @@
         <v>0</v>
       </c>
       <c r="AE166" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AF166" s="4" t="s">
         <v>44</v>
@@ -20621,10 +20609,10 @@
         <v>12113</v>
       </c>
       <c r="AM166" s="13" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AN166" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="167" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20713,7 +20701,7 @@
         <v>0</v>
       </c>
       <c r="AE167" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AF167" s="4" t="s">
         <v>44</v>
@@ -20737,10 +20725,10 @@
         <v>12113</v>
       </c>
       <c r="AM167" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AN167" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="168" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20829,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="AE168" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AF168" s="4" t="s">
         <v>44</v>
@@ -20838,10 +20826,10 @@
         <v>44</v>
       </c>
       <c r="AH168" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AI168" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AJ168" s="4" t="s">
         <v>44</v>
@@ -20853,10 +20841,10 @@
         <v>12113</v>
       </c>
       <c r="AM168" s="13" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AN168" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="169" spans="1:40" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20945,7 +20933,7 @@
         <v>0</v>
       </c>
       <c r="AE169" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF169" s="4" t="s">
         <v>44</v>
@@ -20969,10 +20957,10 @@
         <v>12113</v>
       </c>
       <c r="AM169" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AN169" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="170" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21061,7 +21049,7 @@
         <v>0</v>
       </c>
       <c r="AE170" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF170" s="4" t="s">
         <v>44</v>
@@ -21085,10 +21073,10 @@
         <v>12113</v>
       </c>
       <c r="AM170" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AN170" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="171" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21177,7 +21165,7 @@
         <v>0</v>
       </c>
       <c r="AE171" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AF171" s="4" t="s">
         <v>44</v>
@@ -21201,10 +21189,10 @@
         <v>12113</v>
       </c>
       <c r="AM171" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AN171" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="172" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21293,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="AE172" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AF172" s="4" t="s">
         <v>44</v>
@@ -21302,10 +21290,10 @@
         <v>44</v>
       </c>
       <c r="AH172" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AI172" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AJ172" s="4" t="s">
         <v>44</v>
@@ -21317,10 +21305,10 @@
         <v>12113</v>
       </c>
       <c r="AM172" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AN172" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="173" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21409,7 +21397,7 @@
         <v>0</v>
       </c>
       <c r="AE173" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AF173" s="4" t="s">
         <v>44</v>
@@ -21418,10 +21406,10 @@
         <v>44</v>
       </c>
       <c r="AH173" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AI173" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AJ173" s="4" t="s">
         <v>44</v>
@@ -21433,10 +21421,10 @@
         <v>12113</v>
       </c>
       <c r="AM173" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AN173" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="174" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -21525,10 +21513,10 @@
         <v>0</v>
       </c>
       <c r="AE174" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AF174" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG174" s="4" t="s">
         <v>44</v>
@@ -21549,10 +21537,10 @@
         <v>12113</v>
       </c>
       <c r="AM174" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AN174" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="176" spans="1:40" x14ac:dyDescent="0.2">
@@ -21560,7 +21548,7 @@
         <v>13000</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C176" s="4">
         <v>0</v>
@@ -21641,7 +21629,7 @@
         <v>0</v>
       </c>
       <c r="AE176" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AF176" s="4" t="s">
         <v>44</v>
@@ -21665,10 +21653,10 @@
         <v>13000</v>
       </c>
       <c r="AM176" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AN176" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="177" spans="1:40" x14ac:dyDescent="0.2">
@@ -21759,7 +21747,7 @@
         <v>0</v>
       </c>
       <c r="AE177" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AF177" s="4" t="s">
         <v>44</v>
@@ -21783,10 +21771,10 @@
         <v>13001</v>
       </c>
       <c r="AM177" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AN177" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.2">
@@ -21877,7 +21865,7 @@
         <v>0</v>
       </c>
       <c r="AE178" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AF178" s="4" t="s">
         <v>44</v>
@@ -21901,10 +21889,10 @@
         <v>13001</v>
       </c>
       <c r="AM178" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AN178" s="4" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.2">
@@ -21912,7 +21900,7 @@
         <v>13003</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C179" s="4">
         <v>1</v>
@@ -21995,7 +21983,7 @@
         <v>0</v>
       </c>
       <c r="AE179" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AF179" s="4" t="s">
         <v>44</v>
@@ -22019,10 +22007,10 @@
         <v>13003</v>
       </c>
       <c r="AM179" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AN179" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.2">
@@ -22030,7 +22018,7 @@
         <v>13004</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C180" s="4">
         <v>1</v>
@@ -22113,7 +22101,7 @@
         <v>0</v>
       </c>
       <c r="AE180" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AF180" s="4" t="s">
         <v>44</v>
@@ -22137,10 +22125,10 @@
         <v>13003</v>
       </c>
       <c r="AM180" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AN180" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="181" spans="1:40" x14ac:dyDescent="0.2">
@@ -22148,7 +22136,7 @@
         <v>13005</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C181" s="4">
         <v>1</v>
@@ -22231,7 +22219,7 @@
         <v>0</v>
       </c>
       <c r="AE181" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AF181" s="4" t="s">
         <v>44</v>
@@ -22255,10 +22243,10 @@
         <v>13003</v>
       </c>
       <c r="AM181" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AN181" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.2">
@@ -22266,7 +22254,7 @@
         <v>13006</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C182" s="4">
         <v>2</v>
@@ -22349,7 +22337,7 @@
         <v>0</v>
       </c>
       <c r="AE182" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AF182" s="4" t="s">
         <v>44</v>
@@ -22373,10 +22361,10 @@
         <v>13006</v>
       </c>
       <c r="AM182" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AN182" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="183" spans="1:40" x14ac:dyDescent="0.2">
@@ -22384,7 +22372,7 @@
         <v>13007</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C183" s="4">
         <v>2</v>
@@ -22467,7 +22455,7 @@
         <v>0</v>
       </c>
       <c r="AE183" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AF183" s="4" t="s">
         <v>44</v>
@@ -22491,10 +22479,10 @@
         <v>13006</v>
       </c>
       <c r="AM183" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AN183" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.2">
@@ -22502,7 +22490,7 @@
         <v>13008</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C184" s="4">
         <v>2</v>
@@ -22585,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="AE184" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AF184" s="4" t="s">
         <v>44</v>
@@ -22609,10 +22597,10 @@
         <v>13006</v>
       </c>
       <c r="AM184" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AN184" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.2">
@@ -22620,7 +22608,7 @@
         <v>13009</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C185" s="4">
         <v>3</v>
@@ -22703,7 +22691,7 @@
         <v>0</v>
       </c>
       <c r="AE185" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AF185" s="4" t="s">
         <v>44</v>
@@ -22727,10 +22715,10 @@
         <v>13009</v>
       </c>
       <c r="AM185" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AN185" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="186" spans="1:40" x14ac:dyDescent="0.2">
@@ -22738,7 +22726,7 @@
         <v>13010</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C186" s="4">
         <v>3</v>
@@ -22821,7 +22809,7 @@
         <v>0</v>
       </c>
       <c r="AE186" s="4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AF186" s="4" t="s">
         <v>44</v>
@@ -22845,10 +22833,10 @@
         <v>13009</v>
       </c>
       <c r="AM186" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AN186" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.2">
@@ -22856,7 +22844,7 @@
         <v>13011</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C187" s="4">
         <v>3</v>
@@ -22939,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="AE187" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AF187" s="4" t="s">
         <v>44</v>
@@ -22963,10 +22951,10 @@
         <v>13009</v>
       </c>
       <c r="AM187" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AN187" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="188" spans="1:40" x14ac:dyDescent="0.2">
@@ -22974,7 +22962,7 @@
         <v>13012</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C188" s="4">
         <v>1</v>
@@ -23055,7 +23043,7 @@
         <v>0</v>
       </c>
       <c r="AE188" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AF188" s="4" t="s">
         <v>44</v>
@@ -23079,10 +23067,10 @@
         <v>13003</v>
       </c>
       <c r="AM188" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AN188" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="189" spans="1:40" x14ac:dyDescent="0.2">
@@ -23090,7 +23078,7 @@
         <v>13013</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C189" s="4">
         <v>2</v>
@@ -23171,7 +23159,7 @@
         <v>0</v>
       </c>
       <c r="AE189" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AF189" s="4" t="s">
         <v>44</v>
@@ -23195,10 +23183,10 @@
         <v>13006</v>
       </c>
       <c r="AM189" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AN189" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="190" spans="1:40" x14ac:dyDescent="0.2">
@@ -23206,7 +23194,7 @@
         <v>13014</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C190" s="4">
         <v>3</v>
@@ -23287,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="AE190" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF190" s="4" t="s">
         <v>44</v>
@@ -23311,10 +23299,10 @@
         <v>13009</v>
       </c>
       <c r="AM190" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AN190" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="191" spans="1:40" x14ac:dyDescent="0.2">
@@ -23322,7 +23310,7 @@
         <v>13015</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C191" s="4">
         <v>1</v>
@@ -23403,7 +23391,7 @@
         <v>0</v>
       </c>
       <c r="AE191" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AF191" s="4" t="s">
         <v>44</v>
@@ -23427,10 +23415,10 @@
         <v>13003</v>
       </c>
       <c r="AM191" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AN191" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="192" spans="1:40" x14ac:dyDescent="0.2">
@@ -23438,7 +23426,7 @@
         <v>13016</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C192" s="4">
         <v>2</v>
@@ -23519,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="AE192" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AF192" s="4" t="s">
         <v>44</v>
@@ -23543,10 +23531,10 @@
         <v>13006</v>
       </c>
       <c r="AM192" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AN192" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="193" spans="1:40" x14ac:dyDescent="0.2">
@@ -23554,7 +23542,7 @@
         <v>13017</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C193" s="4">
         <v>3</v>
@@ -23635,7 +23623,7 @@
         <v>0</v>
       </c>
       <c r="AE193" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AF193" s="4" t="s">
         <v>44</v>
@@ -23659,10 +23647,10 @@
         <v>13009</v>
       </c>
       <c r="AM193" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AN193" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="194" spans="1:40" x14ac:dyDescent="0.2">
@@ -23670,7 +23658,7 @@
         <v>13018</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
@@ -23751,7 +23739,7 @@
         <v>0</v>
       </c>
       <c r="AE194" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AF194" s="4" t="s">
         <v>44</v>
@@ -23775,10 +23763,10 @@
         <v>13000</v>
       </c>
       <c r="AM194" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AN194" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="198" spans="1:40" x14ac:dyDescent="0.2">
@@ -23867,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="AE198" s="4" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="AF198" s="4" t="s">
         <v>122</v>
@@ -23979,7 +23967,7 @@
         <v>0</v>
       </c>
       <c r="AE199" s="4" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="AF199" s="4" t="s">
         <v>122</v>
@@ -23988,7 +23976,7 @@
         <v>44</v>
       </c>
       <c r="AH199" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AI199" s="4" t="s">
         <v>44</v>
@@ -24010,7 +23998,7 @@
         <v>14002</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -24091,7 +24079,7 @@
         <v>0</v>
       </c>
       <c r="AE200" s="4" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="AF200" s="4" t="s">
         <v>122</v>
@@ -24122,7 +24110,7 @@
         <v>14003</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -24203,7 +24191,7 @@
         <v>0</v>
       </c>
       <c r="AE201" s="4" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="AF201" s="4" t="s">
         <v>122</v>
@@ -24234,7 +24222,7 @@
         <v>14004</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -24315,7 +24303,7 @@
         <v>0</v>
       </c>
       <c r="AE202" s="4" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="AF202" s="4" t="s">
         <v>122</v>
@@ -24346,7 +24334,7 @@
         <v>14005</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C203" s="4">
         <v>0</v>
@@ -24427,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="AE203" s="4" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="AF203" s="4" t="s">
         <v>122</v>
@@ -24458,7 +24446,7 @@
         <v>14006</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C204" s="4">
         <v>0</v>
@@ -24539,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="AE204" s="4" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="AF204" s="4" t="s">
         <v>122</v>
